--- a/icon helper.xlsx
+++ b/icon helper.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f7f4011b2811a15/Documenten/Arduino/BKOS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1509" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D4F2AB3-A085-4B67-BFCE-CEC46C5C1ACF}"/>
+  <xr:revisionPtr revIDLastSave="1515" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EA57C6-7445-423F-B32C-E8D5867E423B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -459,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30FD981-21C0-46E6-A80E-F0D6C2605ECA}">
   <dimension ref="B1:EL255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EJ161" sqref="EJ161"/>
+    <sheetView topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BX171" sqref="BX171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13796,11 +13797,11 @@
         <v>12</v>
       </c>
       <c r="CZ163">
-        <f t="shared" ref="CZ163:CZ176" si="50">CC163</f>
+        <f t="shared" ref="CZ163:CZ172" si="50">CC163</f>
         <v>9</v>
       </c>
       <c r="DA163">
-        <f t="shared" ref="DA163:DA176" si="51">CD163</f>
+        <f t="shared" ref="DA163:DA172" si="51">CD163</f>
         <v>0</v>
       </c>
       <c r="DJ163">
@@ -14103,11 +14104,11 @@
         <v>5,4,21,0</v>
       </c>
       <c r="CA165">
-        <f t="shared" ref="CA165:CA191" si="56">BE165+BF165</f>
+        <f t="shared" ref="CA165:CA189" si="56">BE165+BF165</f>
         <v>9</v>
       </c>
       <c r="CB165">
-        <f t="shared" ref="CB165:CB191" si="57">AI165-BF165</f>
+        <f t="shared" ref="CB165:CB189" si="57">AI165-BF165</f>
         <v>16</v>
       </c>
       <c r="CC165">
@@ -17316,7 +17317,7 @@
         <v>10</v>
       </c>
       <c r="BG183">
-        <f t="shared" ref="BG183:BG191" si="67">30-BE183-BF183</f>
+        <f t="shared" ref="BG183:BG189" si="67">30-BE183-BF183</f>
         <v>18</v>
       </c>
       <c r="BH183">
@@ -20689,4 +20690,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD4EF3-C59D-43C6-B1C0-6599BBBB7F73}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>37.5</v>
+      </c>
+      <c r="B1">
+        <f>A1/2</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <f>A2/2</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B1-B2</f>
+        <v>10.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/icon helper.xlsx
+++ b/icon helper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f7f4011b2811a15/Documenten/Arduino/BKOS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1515" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EA57C6-7445-423F-B32C-E8D5867E423B}"/>
+  <xr:revisionPtr revIDLastSave="2568" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0116CD0A-256F-4EC3-B338-43F3AD390E9E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="7">
   <si>
     <t>W</t>
   </si>
@@ -99,14 +99,127 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -458,15 +571,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30FD981-21C0-46E6-A80E-F0D6C2605ECA}">
-  <dimension ref="B1:EL255"/>
+  <dimension ref="A1:EL354"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BX171" sqref="BX171"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW257" sqref="AW257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="3.5703125" customWidth="1"/>
+    <col min="43" max="43" width="4.42578125" customWidth="1"/>
+    <col min="46" max="46" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:49" x14ac:dyDescent="0.25">
@@ -18751,7 +18866,31 @@
         <v>11,8,11,0</v>
       </c>
     </row>
-    <row r="194" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AH193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW193" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW194:AW223)</f>
+        <v>19,1,10,0,30,0,18,1,1,1,9,0,17,2,1,1,9,0,16,3,1,2,8,0,15,4,1,2,8,0,14,5,1,3,7,0,13,6,1,3,7,0,12,7,1,4,6,0,11,8,1,4,6,0,10,9,1,5,5,0,9,10,1,5,5,0,8,11,1,6,4,0,7,12,1,6,4,0,6,13,1,7,3,0,5,14,1,7,3,0,4,15,1,8,2,0,3,16,1,8,2,0,2,17,1,9,1,0,1,18,1,9,1,0,0,19,1,10,0,0,30,0,0,30,1,28,1,0,1,27,2,0,1,26,3,0,2,24,4,0,2,23,5,0,3,21,6,0,30,0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -18771,7 +18910,9 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
+      <c r="U194" s="1">
+        <v>1</v>
+      </c>
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
@@ -18782,8 +18923,24 @@
       <c r="AC194" s="1"/>
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
-    </row>
-    <row r="195" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH194">
+        <v>19</v>
+      </c>
+      <c r="AI194">
+        <v>1</v>
+      </c>
+      <c r="AJ194">
+        <v>10</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AW194" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH194:AS194)</f>
+        <v>19,1,10,0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -18814,8 +18971,18 @@
       <c r="AC195" s="1"/>
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
-    </row>
-    <row r="196" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH195">
+        <v>30</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AW195" t="str">
+        <f t="shared" ref="AW195:AW223" si="68">_xlfn.TEXTJOIN(",",TRUE,AH195:AS195)</f>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -18834,9 +19001,13 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
+      <c r="T196" s="1">
+        <v>1</v>
+      </c>
       <c r="U196" s="1"/>
-      <c r="V196" s="1"/>
+      <c r="V196" s="1">
+        <v>1</v>
+      </c>
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
@@ -18846,8 +19017,30 @@
       <c r="AC196" s="1"/>
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
-    </row>
-    <row r="197" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH196">
+        <v>18</v>
+      </c>
+      <c r="AI196">
+        <v>1</v>
+      </c>
+      <c r="AJ196">
+        <v>1</v>
+      </c>
+      <c r="AK196">
+        <v>1</v>
+      </c>
+      <c r="AL196">
+        <v>9</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AW196" t="str">
+        <f t="shared" si="68"/>
+        <v>18,1,1,1,9,0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -18865,10 +19058,16 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
-      <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
+      <c r="S197" s="1">
+        <v>1</v>
+      </c>
+      <c r="T197" s="1">
+        <v>1</v>
+      </c>
       <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
+      <c r="V197" s="1">
+        <v>1</v>
+      </c>
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
@@ -18878,8 +19077,32 @@
       <c r="AC197" s="1"/>
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
-    </row>
-    <row r="198" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH197">
+        <f>AH196-1</f>
+        <v>17</v>
+      </c>
+      <c r="AI197">
+        <f>AI196+1</f>
+        <v>2</v>
+      </c>
+      <c r="AJ197">
+        <v>1</v>
+      </c>
+      <c r="AK197">
+        <v>1</v>
+      </c>
+      <c r="AL197">
+        <v>9</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AW197" t="str">
+        <f t="shared" si="68"/>
+        <v>17,2,1,1,9,0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -18896,12 +19119,22 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
+      <c r="R198" s="1">
+        <v>1</v>
+      </c>
+      <c r="S198" s="1">
+        <v>1</v>
+      </c>
+      <c r="T198" s="1">
+        <v>1</v>
+      </c>
       <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
-      <c r="W198" s="1"/>
+      <c r="V198" s="1">
+        <v>1</v>
+      </c>
+      <c r="W198" s="1">
+        <v>1</v>
+      </c>
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
@@ -18910,8 +19143,36 @@
       <c r="AC198" s="1"/>
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
-    </row>
-    <row r="199" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH198">
+        <f t="shared" ref="AH198:AH214" si="69">AH197-1</f>
+        <v>16</v>
+      </c>
+      <c r="AI198">
+        <f t="shared" ref="AI198:AI214" si="70">AI197+1</f>
+        <v>3</v>
+      </c>
+      <c r="AJ198">
+        <f>AJ197</f>
+        <v>1</v>
+      </c>
+      <c r="AK198">
+        <f>AK196+1</f>
+        <v>2</v>
+      </c>
+      <c r="AL198">
+        <f>AL196-1</f>
+        <v>8</v>
+      </c>
+      <c r="AM198">
+        <f>AM196</f>
+        <v>0</v>
+      </c>
+      <c r="AW198" t="str">
+        <f t="shared" si="68"/>
+        <v>16,3,1,2,8,0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -18927,13 +19188,25 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
+      <c r="Q199" s="1">
+        <v>1</v>
+      </c>
+      <c r="R199" s="1">
+        <v>1</v>
+      </c>
+      <c r="S199" s="1">
+        <v>1</v>
+      </c>
+      <c r="T199" s="1">
+        <v>1</v>
+      </c>
       <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
+      <c r="V199" s="1">
+        <v>1</v>
+      </c>
+      <c r="W199" s="1">
+        <v>1</v>
+      </c>
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
@@ -18942,8 +19215,36 @@
       <c r="AC199" s="1"/>
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
-    </row>
-    <row r="200" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH199">
+        <f t="shared" si="69"/>
+        <v>15</v>
+      </c>
+      <c r="AI199">
+        <f t="shared" si="70"/>
+        <v>4</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" ref="AJ199:AJ214" si="71">AJ198</f>
+        <v>1</v>
+      </c>
+      <c r="AK199">
+        <f t="shared" ref="AK199:AK214" si="72">AK197+1</f>
+        <v>2</v>
+      </c>
+      <c r="AL199">
+        <f t="shared" ref="AL199:AL214" si="73">AL197-1</f>
+        <v>8</v>
+      </c>
+      <c r="AM199">
+        <f t="shared" ref="AM199:AM214" si="74">AM197</f>
+        <v>0</v>
+      </c>
+      <c r="AW199" t="str">
+        <f t="shared" si="68"/>
+        <v>15,4,1,2,8,0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -18958,15 +19259,31 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
+      <c r="P200" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>1</v>
+      </c>
+      <c r="R200" s="1">
+        <v>1</v>
+      </c>
+      <c r="S200" s="1">
+        <v>1</v>
+      </c>
+      <c r="T200" s="1">
+        <v>1</v>
+      </c>
       <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
+      <c r="V200" s="1">
+        <v>1</v>
+      </c>
+      <c r="W200" s="1">
+        <v>1</v>
+      </c>
+      <c r="X200" s="1">
+        <v>1</v>
+      </c>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
@@ -18974,8 +19291,36 @@
       <c r="AC200" s="1"/>
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
-    </row>
-    <row r="201" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH200">
+        <f t="shared" si="69"/>
+        <v>14</v>
+      </c>
+      <c r="AI200">
+        <f t="shared" si="70"/>
+        <v>5</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK200">
+        <f t="shared" si="72"/>
+        <v>3</v>
+      </c>
+      <c r="AL200">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="AM200">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW200" t="str">
+        <f t="shared" si="68"/>
+        <v>14,5,1,3,7,0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -18989,16 +19334,34 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
+      <c r="O201" s="1">
+        <v>1</v>
+      </c>
+      <c r="P201" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>1</v>
+      </c>
+      <c r="R201" s="1">
+        <v>1</v>
+      </c>
+      <c r="S201" s="1">
+        <v>1</v>
+      </c>
+      <c r="T201" s="1">
+        <v>1</v>
+      </c>
       <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
+      <c r="V201" s="1">
+        <v>1</v>
+      </c>
+      <c r="W201" s="1">
+        <v>1</v>
+      </c>
+      <c r="X201" s="1">
+        <v>1</v>
+      </c>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
@@ -19006,8 +19369,36 @@
       <c r="AC201" s="1"/>
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
-    </row>
-    <row r="202" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH201">
+        <f t="shared" si="69"/>
+        <v>13</v>
+      </c>
+      <c r="AI201">
+        <f t="shared" si="70"/>
+        <v>6</v>
+      </c>
+      <c r="AJ201">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK201">
+        <f t="shared" si="72"/>
+        <v>3</v>
+      </c>
+      <c r="AL201">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="AM201">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW201" t="str">
+        <f t="shared" si="68"/>
+        <v>13,6,1,3,7,0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -19020,26 +19411,76 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
+      <c r="N202" s="1">
+        <v>1</v>
+      </c>
+      <c r="O202" s="1">
+        <v>1</v>
+      </c>
+      <c r="P202" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>1</v>
+      </c>
+      <c r="R202" s="1">
+        <v>1</v>
+      </c>
+      <c r="S202" s="1">
+        <v>1</v>
+      </c>
+      <c r="T202" s="1">
+        <v>1</v>
+      </c>
       <c r="U202" s="1"/>
-      <c r="V202" s="1"/>
-      <c r="W202" s="1"/>
-      <c r="X202" s="1"/>
-      <c r="Y202" s="1"/>
+      <c r="V202" s="1">
+        <v>1</v>
+      </c>
+      <c r="W202" s="1">
+        <v>1</v>
+      </c>
+      <c r="X202" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>1</v>
+      </c>
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
-    </row>
-    <row r="203" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH202">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="AI202">
+        <f t="shared" si="70"/>
+        <v>7</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK202">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="AL202">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="AM202">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW202" t="str">
+        <f t="shared" si="68"/>
+        <v>12,7,1,4,6,0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -19051,27 +19492,79 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
+      <c r="M203" s="1">
+        <v>1</v>
+      </c>
+      <c r="N203" s="1">
+        <v>1</v>
+      </c>
+      <c r="O203" s="1">
+        <v>1</v>
+      </c>
+      <c r="P203" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>1</v>
+      </c>
+      <c r="R203" s="1">
+        <v>1</v>
+      </c>
+      <c r="S203" s="1">
+        <v>1</v>
+      </c>
+      <c r="T203" s="1">
+        <v>1</v>
+      </c>
       <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-      <c r="Y203" s="1"/>
+      <c r="V203" s="1">
+        <v>1</v>
+      </c>
+      <c r="W203" s="1">
+        <v>1</v>
+      </c>
+      <c r="X203" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y203" s="1">
+        <v>1</v>
+      </c>
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
-    </row>
-    <row r="204" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH203">
+        <f t="shared" si="69"/>
+        <v>11</v>
+      </c>
+      <c r="AI203">
+        <f t="shared" si="70"/>
+        <v>8</v>
+      </c>
+      <c r="AJ203">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK203">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="AL203">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="AM203">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW203" t="str">
+        <f t="shared" si="68"/>
+        <v>11,8,1,4,6,0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -19082,28 +19575,84 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
+      <c r="L204" s="1">
+        <v>1</v>
+      </c>
+      <c r="M204" s="1">
+        <v>1</v>
+      </c>
+      <c r="N204" s="1">
+        <v>1</v>
+      </c>
+      <c r="O204" s="1">
+        <v>1</v>
+      </c>
+      <c r="P204" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>1</v>
+      </c>
+      <c r="R204" s="1">
+        <v>1</v>
+      </c>
+      <c r="S204" s="1">
+        <v>1</v>
+      </c>
+      <c r="T204" s="1">
+        <v>1</v>
+      </c>
       <c r="U204" s="1"/>
-      <c r="V204" s="1"/>
-      <c r="W204" s="1"/>
-      <c r="X204" s="1"/>
-      <c r="Y204" s="1"/>
-      <c r="Z204" s="1"/>
+      <c r="V204" s="1">
+        <v>1</v>
+      </c>
+      <c r="W204" s="1">
+        <v>1</v>
+      </c>
+      <c r="X204" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y204" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z204" s="1">
+        <v>1</v>
+      </c>
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
-    </row>
-    <row r="205" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH204">
+        <f t="shared" si="69"/>
+        <v>10</v>
+      </c>
+      <c r="AI204">
+        <f t="shared" si="70"/>
+        <v>9</v>
+      </c>
+      <c r="AJ204">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK204">
+        <f t="shared" si="72"/>
+        <v>5</v>
+      </c>
+      <c r="AL204">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="AM204">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW204" t="str">
+        <f t="shared" si="68"/>
+        <v>10,9,1,5,5,0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -19113,29 +19662,87 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-      <c r="S205" s="1"/>
-      <c r="T205" s="1"/>
+      <c r="K205" s="1">
+        <v>1</v>
+      </c>
+      <c r="L205" s="1">
+        <v>1</v>
+      </c>
+      <c r="M205" s="1">
+        <v>1</v>
+      </c>
+      <c r="N205" s="1">
+        <v>1</v>
+      </c>
+      <c r="O205" s="1">
+        <v>1</v>
+      </c>
+      <c r="P205" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="1">
+        <v>1</v>
+      </c>
+      <c r="R205" s="1">
+        <v>1</v>
+      </c>
+      <c r="S205" s="1">
+        <v>1</v>
+      </c>
+      <c r="T205" s="1">
+        <v>1</v>
+      </c>
       <c r="U205" s="1"/>
-      <c r="V205" s="1"/>
-      <c r="W205" s="1"/>
-      <c r="X205" s="1"/>
-      <c r="Y205" s="1"/>
-      <c r="Z205" s="1"/>
+      <c r="V205" s="1">
+        <v>1</v>
+      </c>
+      <c r="W205" s="1">
+        <v>1</v>
+      </c>
+      <c r="X205" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y205" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z205" s="1">
+        <v>1</v>
+      </c>
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
-    </row>
-    <row r="206" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH205">
+        <f t="shared" si="69"/>
+        <v>9</v>
+      </c>
+      <c r="AI205">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="AJ205">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK205">
+        <f t="shared" si="72"/>
+        <v>5</v>
+      </c>
+      <c r="AL205">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="AM205">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW205" t="str">
+        <f t="shared" si="68"/>
+        <v>9,10,1,5,5,0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -19144,30 +19751,92 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1"/>
-      <c r="T206" s="1"/>
+      <c r="J206" s="1">
+        <v>1</v>
+      </c>
+      <c r="K206" s="1">
+        <v>1</v>
+      </c>
+      <c r="L206" s="1">
+        <v>1</v>
+      </c>
+      <c r="M206" s="1">
+        <v>1</v>
+      </c>
+      <c r="N206" s="1">
+        <v>1</v>
+      </c>
+      <c r="O206" s="1">
+        <v>1</v>
+      </c>
+      <c r="P206" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>1</v>
+      </c>
+      <c r="R206" s="1">
+        <v>1</v>
+      </c>
+      <c r="S206" s="1">
+        <v>1</v>
+      </c>
+      <c r="T206" s="1">
+        <v>1</v>
+      </c>
       <c r="U206" s="1"/>
-      <c r="V206" s="1"/>
-      <c r="W206" s="1"/>
-      <c r="X206" s="1"/>
-      <c r="Y206" s="1"/>
-      <c r="Z206" s="1"/>
-      <c r="AA206" s="1"/>
+      <c r="V206" s="1">
+        <v>1</v>
+      </c>
+      <c r="W206" s="1">
+        <v>1</v>
+      </c>
+      <c r="X206" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y206" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z206" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA206" s="1">
+        <v>1</v>
+      </c>
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
-    </row>
-    <row r="207" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH206">
+        <f t="shared" si="69"/>
+        <v>8</v>
+      </c>
+      <c r="AI206">
+        <f t="shared" si="70"/>
+        <v>11</v>
+      </c>
+      <c r="AJ206">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK206">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="AL206">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="AM206">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW206" t="str">
+        <f t="shared" si="68"/>
+        <v>8,11,1,6,4,0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -19175,255 +19844,855 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-      <c r="S207" s="1"/>
-      <c r="T207" s="1"/>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1">
+        <v>1</v>
+      </c>
+      <c r="K207" s="1">
+        <v>1</v>
+      </c>
+      <c r="L207" s="1">
+        <v>1</v>
+      </c>
+      <c r="M207" s="1">
+        <v>1</v>
+      </c>
+      <c r="N207" s="1">
+        <v>1</v>
+      </c>
+      <c r="O207" s="1">
+        <v>1</v>
+      </c>
+      <c r="P207" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>1</v>
+      </c>
+      <c r="R207" s="1">
+        <v>1</v>
+      </c>
+      <c r="S207" s="1">
+        <v>1</v>
+      </c>
+      <c r="T207" s="1">
+        <v>1</v>
+      </c>
       <c r="U207" s="1"/>
-      <c r="V207" s="1"/>
-      <c r="W207" s="1"/>
-      <c r="X207" s="1"/>
-      <c r="Y207" s="1"/>
-      <c r="Z207" s="1"/>
-      <c r="AA207" s="1"/>
+      <c r="V207" s="1">
+        <v>1</v>
+      </c>
+      <c r="W207" s="1">
+        <v>1</v>
+      </c>
+      <c r="X207" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y207" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA207" s="1">
+        <v>1</v>
+      </c>
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
-    </row>
-    <row r="208" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH207">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="AI207">
+        <f t="shared" si="70"/>
+        <v>12</v>
+      </c>
+      <c r="AJ207">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK207">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="AL207">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="AM207">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW207" t="str">
+        <f t="shared" si="68"/>
+        <v>7,12,1,6,4,0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
+      <c r="H208" s="1">
+        <v>1</v>
+      </c>
+      <c r="I208" s="1">
+        <v>1</v>
+      </c>
+      <c r="J208" s="1">
+        <v>1</v>
+      </c>
+      <c r="K208" s="1">
+        <v>1</v>
+      </c>
+      <c r="L208" s="1">
+        <v>1</v>
+      </c>
+      <c r="M208" s="1">
+        <v>1</v>
+      </c>
+      <c r="N208" s="1">
+        <v>1</v>
+      </c>
+      <c r="O208" s="1">
+        <v>1</v>
+      </c>
+      <c r="P208" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>1</v>
+      </c>
+      <c r="R208" s="1">
+        <v>1</v>
+      </c>
+      <c r="S208" s="1">
+        <v>1</v>
+      </c>
+      <c r="T208" s="1">
+        <v>1</v>
+      </c>
       <c r="U208" s="1"/>
-      <c r="V208" s="1"/>
-      <c r="W208" s="1"/>
-      <c r="X208" s="1"/>
-      <c r="Y208" s="1"/>
-      <c r="Z208" s="1"/>
-      <c r="AA208" s="1"/>
-      <c r="AB208" s="1"/>
+      <c r="V208" s="1">
+        <v>1</v>
+      </c>
+      <c r="W208" s="1">
+        <v>1</v>
+      </c>
+      <c r="X208" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y208" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB208" s="1">
+        <v>1</v>
+      </c>
       <c r="AC208" s="1"/>
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
-    </row>
-    <row r="209" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH208">
+        <f t="shared" si="69"/>
+        <v>6</v>
+      </c>
+      <c r="AI208">
+        <f t="shared" si="70"/>
+        <v>13</v>
+      </c>
+      <c r="AJ208">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK208">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+      <c r="AL208">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="AM208">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW208" t="str">
+        <f t="shared" si="68"/>
+        <v>6,13,1,7,3,0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
+      <c r="G209" s="1">
+        <v>1</v>
+      </c>
+      <c r="H209" s="1">
+        <v>1</v>
+      </c>
+      <c r="I209" s="1">
+        <v>1</v>
+      </c>
+      <c r="J209" s="1">
+        <v>1</v>
+      </c>
+      <c r="K209" s="1">
+        <v>1</v>
+      </c>
+      <c r="L209" s="1">
+        <v>1</v>
+      </c>
+      <c r="M209" s="1">
+        <v>1</v>
+      </c>
+      <c r="N209" s="1">
+        <v>1</v>
+      </c>
+      <c r="O209" s="1">
+        <v>1</v>
+      </c>
+      <c r="P209" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="1">
+        <v>1</v>
+      </c>
+      <c r="R209" s="1">
+        <v>1</v>
+      </c>
+      <c r="S209" s="1">
+        <v>1</v>
+      </c>
+      <c r="T209" s="1">
+        <v>1</v>
+      </c>
       <c r="U209" s="1"/>
-      <c r="V209" s="1"/>
-      <c r="W209" s="1"/>
-      <c r="X209" s="1"/>
-      <c r="Y209" s="1"/>
-      <c r="Z209" s="1"/>
-      <c r="AA209" s="1"/>
-      <c r="AB209" s="1"/>
+      <c r="V209" s="1">
+        <v>1</v>
+      </c>
+      <c r="W209" s="1">
+        <v>1</v>
+      </c>
+      <c r="X209" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y209" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z209" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA209" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB209" s="1">
+        <v>1</v>
+      </c>
       <c r="AC209" s="1"/>
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
-    </row>
-    <row r="210" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH209">
+        <f t="shared" si="69"/>
+        <v>5</v>
+      </c>
+      <c r="AI209">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="AJ209">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK209">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+      <c r="AL209">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="AM209">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW209" t="str">
+        <f t="shared" si="68"/>
+        <v>5,14,1,7,3,0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
+      <c r="F210" s="1">
+        <v>1</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1</v>
+      </c>
+      <c r="H210" s="1">
+        <v>1</v>
+      </c>
+      <c r="I210" s="1">
+        <v>1</v>
+      </c>
+      <c r="J210" s="1">
+        <v>1</v>
+      </c>
+      <c r="K210" s="1">
+        <v>1</v>
+      </c>
+      <c r="L210" s="1">
+        <v>1</v>
+      </c>
+      <c r="M210" s="1">
+        <v>1</v>
+      </c>
+      <c r="N210" s="1">
+        <v>1</v>
+      </c>
+      <c r="O210" s="1">
+        <v>1</v>
+      </c>
+      <c r="P210" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>1</v>
+      </c>
+      <c r="R210" s="1">
+        <v>1</v>
+      </c>
+      <c r="S210" s="1">
+        <v>1</v>
+      </c>
+      <c r="T210" s="1">
+        <v>1</v>
+      </c>
       <c r="U210" s="1"/>
-      <c r="V210" s="1"/>
-      <c r="W210" s="1"/>
-      <c r="X210" s="1"/>
-      <c r="Y210" s="1"/>
-      <c r="Z210" s="1"/>
-      <c r="AA210" s="1"/>
-      <c r="AB210" s="1"/>
-      <c r="AC210" s="1"/>
+      <c r="V210" s="1">
+        <v>1</v>
+      </c>
+      <c r="W210" s="1">
+        <v>1</v>
+      </c>
+      <c r="X210" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y210" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC210" s="1">
+        <v>1</v>
+      </c>
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
-    </row>
-    <row r="211" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH210">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="AI210">
+        <f t="shared" si="70"/>
+        <v>15</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK210">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="AL210">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="AM210">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW210" t="str">
+        <f t="shared" si="68"/>
+        <v>4,15,1,8,2,0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1">
+        <v>1</v>
+      </c>
+      <c r="G211" s="1">
+        <v>1</v>
+      </c>
+      <c r="H211" s="1">
+        <v>1</v>
+      </c>
+      <c r="I211" s="1">
+        <v>1</v>
+      </c>
+      <c r="J211" s="1">
+        <v>1</v>
+      </c>
+      <c r="K211" s="1">
+        <v>1</v>
+      </c>
+      <c r="L211" s="1">
+        <v>1</v>
+      </c>
+      <c r="M211" s="1">
+        <v>1</v>
+      </c>
+      <c r="N211" s="1">
+        <v>1</v>
+      </c>
+      <c r="O211" s="1">
+        <v>1</v>
+      </c>
+      <c r="P211" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>1</v>
+      </c>
+      <c r="R211" s="1">
+        <v>1</v>
+      </c>
+      <c r="S211" s="1">
+        <v>1</v>
+      </c>
+      <c r="T211" s="1">
+        <v>1</v>
+      </c>
       <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
-      <c r="Y211" s="1"/>
-      <c r="Z211" s="1"/>
-      <c r="AA211" s="1"/>
-      <c r="AB211" s="1"/>
-      <c r="AC211" s="1"/>
+      <c r="V211" s="1">
+        <v>1</v>
+      </c>
+      <c r="W211" s="1">
+        <v>1</v>
+      </c>
+      <c r="X211" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y211" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z211" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA211" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB211" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC211" s="1">
+        <v>1</v>
+      </c>
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
-    </row>
-    <row r="212" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH211">
+        <f t="shared" si="69"/>
+        <v>3</v>
+      </c>
+      <c r="AI211">
+        <f t="shared" si="70"/>
+        <v>16</v>
+      </c>
+      <c r="AJ211">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK211">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="AL211">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="AM211">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW211" t="str">
+        <f t="shared" si="68"/>
+        <v>3,16,1,8,2,0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1</v>
+      </c>
+      <c r="H212" s="1">
+        <v>1</v>
+      </c>
+      <c r="I212" s="1">
+        <v>1</v>
+      </c>
+      <c r="J212" s="1">
+        <v>1</v>
+      </c>
+      <c r="K212" s="1">
+        <v>1</v>
+      </c>
+      <c r="L212" s="1">
+        <v>1</v>
+      </c>
+      <c r="M212" s="1">
+        <v>1</v>
+      </c>
+      <c r="N212" s="1">
+        <v>1</v>
+      </c>
+      <c r="O212" s="1">
+        <v>1</v>
+      </c>
+      <c r="P212" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="1">
+        <v>1</v>
+      </c>
+      <c r="R212" s="1">
+        <v>1</v>
+      </c>
+      <c r="S212" s="1">
+        <v>1</v>
+      </c>
+      <c r="T212" s="1">
+        <v>1</v>
+      </c>
       <c r="U212" s="1"/>
-      <c r="V212" s="1"/>
-      <c r="W212" s="1"/>
-      <c r="X212" s="1"/>
-      <c r="Y212" s="1"/>
-      <c r="Z212" s="1"/>
-      <c r="AA212" s="1"/>
-      <c r="AB212" s="1"/>
-      <c r="AC212" s="1"/>
-      <c r="AD212" s="1"/>
+      <c r="V212" s="1">
+        <v>1</v>
+      </c>
+      <c r="W212" s="1">
+        <v>1</v>
+      </c>
+      <c r="X212" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y212" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z212" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA212" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB212" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC212" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD212" s="1">
+        <v>1</v>
+      </c>
       <c r="AE212" s="1"/>
-    </row>
-    <row r="213" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH212">
+        <f t="shared" si="69"/>
+        <v>2</v>
+      </c>
+      <c r="AI212">
+        <f t="shared" si="70"/>
+        <v>17</v>
+      </c>
+      <c r="AJ212">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK212">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+      <c r="AL212">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AM212">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW212" t="str">
+        <f t="shared" si="68"/>
+        <v>2,17,1,9,1,0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+      <c r="H213" s="1">
+        <v>1</v>
+      </c>
+      <c r="I213" s="1">
+        <v>1</v>
+      </c>
+      <c r="J213" s="1">
+        <v>1</v>
+      </c>
+      <c r="K213" s="1">
+        <v>1</v>
+      </c>
+      <c r="L213" s="1">
+        <v>1</v>
+      </c>
+      <c r="M213" s="1">
+        <v>1</v>
+      </c>
+      <c r="N213" s="1">
+        <v>1</v>
+      </c>
+      <c r="O213" s="1">
+        <v>1</v>
+      </c>
+      <c r="P213" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>1</v>
+      </c>
+      <c r="R213" s="1">
+        <v>1</v>
+      </c>
+      <c r="S213" s="1">
+        <v>1</v>
+      </c>
+      <c r="T213" s="1">
+        <v>1</v>
+      </c>
       <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
-      <c r="Y213" s="1"/>
-      <c r="Z213" s="1"/>
-      <c r="AA213" s="1"/>
-      <c r="AB213" s="1"/>
-      <c r="AC213" s="1"/>
-      <c r="AD213" s="1"/>
+      <c r="V213" s="1">
+        <v>1</v>
+      </c>
+      <c r="W213" s="1">
+        <v>1</v>
+      </c>
+      <c r="X213" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y213" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD213" s="1">
+        <v>1</v>
+      </c>
       <c r="AE213" s="1"/>
-    </row>
-    <row r="214" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
+      <c r="AH213">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AI213">
+        <f t="shared" si="70"/>
+        <v>18</v>
+      </c>
+      <c r="AJ213">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK213">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+      <c r="AL213">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AM213">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW213" t="str">
+        <f t="shared" si="68"/>
+        <v>1,18,1,9,1,0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1</v>
+      </c>
+      <c r="H214" s="1">
+        <v>1</v>
+      </c>
+      <c r="I214" s="1">
+        <v>1</v>
+      </c>
+      <c r="J214" s="1">
+        <v>1</v>
+      </c>
+      <c r="K214" s="1">
+        <v>1</v>
+      </c>
+      <c r="L214" s="1">
+        <v>1</v>
+      </c>
+      <c r="M214" s="1">
+        <v>1</v>
+      </c>
+      <c r="N214" s="1">
+        <v>1</v>
+      </c>
+      <c r="O214" s="1">
+        <v>1</v>
+      </c>
+      <c r="P214" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q214" s="1">
+        <v>1</v>
+      </c>
+      <c r="R214" s="1">
+        <v>1</v>
+      </c>
+      <c r="S214" s="1">
+        <v>1</v>
+      </c>
+      <c r="T214" s="1">
+        <v>1</v>
+      </c>
       <c r="U214" s="1"/>
-      <c r="V214" s="1"/>
-      <c r="W214" s="1"/>
-      <c r="X214" s="1"/>
-      <c r="Y214" s="1"/>
-      <c r="Z214" s="1"/>
-      <c r="AA214" s="1"/>
-      <c r="AB214" s="1"/>
-      <c r="AC214" s="1"/>
-      <c r="AD214" s="1"/>
-      <c r="AE214" s="1"/>
-    </row>
-    <row r="215" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V214" s="1">
+        <v>1</v>
+      </c>
+      <c r="W214" s="1">
+        <v>1</v>
+      </c>
+      <c r="X214" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y214" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH214">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <f t="shared" si="70"/>
+        <v>19</v>
+      </c>
+      <c r="AJ214">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AK214">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+      <c r="AL214">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AW214" t="str">
+        <f t="shared" si="68"/>
+        <v>0,19,1,10,0,0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -19454,232 +20723,705 @@
       <c r="AC215" s="1"/>
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
-    </row>
-    <row r="216" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="1"/>
-      <c r="Z216" s="1"/>
-      <c r="AA216" s="1"/>
-      <c r="AB216" s="1"/>
-      <c r="AC216" s="1"/>
-      <c r="AD216" s="1"/>
-      <c r="AE216" s="1"/>
-    </row>
-    <row r="217" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="1"/>
-      <c r="Z217" s="1"/>
-      <c r="AA217" s="1"/>
-      <c r="AB217" s="1"/>
-      <c r="AC217" s="1"/>
-      <c r="AD217" s="1"/>
+      <c r="AH215">
+        <v>30</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AW215" t="str">
+        <f t="shared" si="68"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1</v>
+      </c>
+      <c r="G216" s="1">
+        <v>1</v>
+      </c>
+      <c r="H216" s="1">
+        <v>1</v>
+      </c>
+      <c r="I216" s="1">
+        <v>1</v>
+      </c>
+      <c r="J216" s="1">
+        <v>1</v>
+      </c>
+      <c r="K216" s="1">
+        <v>1</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1</v>
+      </c>
+      <c r="M216" s="1">
+        <v>1</v>
+      </c>
+      <c r="N216" s="1">
+        <v>1</v>
+      </c>
+      <c r="O216" s="1">
+        <v>1</v>
+      </c>
+      <c r="P216" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="1">
+        <v>1</v>
+      </c>
+      <c r="R216" s="1">
+        <v>1</v>
+      </c>
+      <c r="S216" s="1">
+        <v>1</v>
+      </c>
+      <c r="T216" s="1">
+        <v>1</v>
+      </c>
+      <c r="U216" s="1">
+        <v>1</v>
+      </c>
+      <c r="V216" s="1">
+        <v>1</v>
+      </c>
+      <c r="W216" s="1">
+        <v>1</v>
+      </c>
+      <c r="X216" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y216" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH216">
+        <v>0</v>
+      </c>
+      <c r="AI216">
+        <v>30</v>
+      </c>
+      <c r="AW216" t="str">
+        <f t="shared" si="68"/>
+        <v>0,30</v>
+      </c>
+    </row>
+    <row r="217" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
+      <c r="G217" s="1">
+        <v>1</v>
+      </c>
+      <c r="H217" s="1">
+        <v>1</v>
+      </c>
+      <c r="I217" s="1">
+        <v>1</v>
+      </c>
+      <c r="J217" s="1">
+        <v>1</v>
+      </c>
+      <c r="K217" s="1">
+        <v>1</v>
+      </c>
+      <c r="L217" s="1">
+        <v>1</v>
+      </c>
+      <c r="M217" s="1">
+        <v>1</v>
+      </c>
+      <c r="N217" s="1">
+        <v>1</v>
+      </c>
+      <c r="O217" s="1">
+        <v>1</v>
+      </c>
+      <c r="P217" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>1</v>
+      </c>
+      <c r="R217" s="1">
+        <v>1</v>
+      </c>
+      <c r="S217" s="1">
+        <v>1</v>
+      </c>
+      <c r="T217" s="1">
+        <v>1</v>
+      </c>
+      <c r="U217" s="1">
+        <v>1</v>
+      </c>
+      <c r="V217" s="1">
+        <v>1</v>
+      </c>
+      <c r="W217" s="1">
+        <v>1</v>
+      </c>
+      <c r="X217" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y217" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD217" s="1">
+        <v>1</v>
+      </c>
       <c r="AE217" s="1"/>
-    </row>
-    <row r="218" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH217">
+        <v>1</v>
+      </c>
+      <c r="AI217">
+        <v>28</v>
+      </c>
+      <c r="AJ217">
+        <v>1</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AW217" t="str">
+        <f t="shared" si="68"/>
+        <v>1,28,1,0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
-      <c r="Y218" s="1"/>
-      <c r="Z218" s="1"/>
-      <c r="AA218" s="1"/>
-      <c r="AB218" s="1"/>
-      <c r="AC218" s="1"/>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1</v>
+      </c>
+      <c r="G218" s="1">
+        <v>1</v>
+      </c>
+      <c r="H218" s="1">
+        <v>1</v>
+      </c>
+      <c r="I218" s="1">
+        <v>1</v>
+      </c>
+      <c r="J218" s="1">
+        <v>1</v>
+      </c>
+      <c r="K218" s="1">
+        <v>1</v>
+      </c>
+      <c r="L218" s="1">
+        <v>1</v>
+      </c>
+      <c r="M218" s="1">
+        <v>1</v>
+      </c>
+      <c r="N218" s="1">
+        <v>1</v>
+      </c>
+      <c r="O218" s="1">
+        <v>1</v>
+      </c>
+      <c r="P218" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>1</v>
+      </c>
+      <c r="R218" s="1">
+        <v>1</v>
+      </c>
+      <c r="S218" s="1">
+        <v>1</v>
+      </c>
+      <c r="T218" s="1">
+        <v>1</v>
+      </c>
+      <c r="U218" s="1">
+        <v>1</v>
+      </c>
+      <c r="V218" s="1">
+        <v>1</v>
+      </c>
+      <c r="W218" s="1">
+        <v>1</v>
+      </c>
+      <c r="X218" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y218" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z218" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA218" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB218" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC218" s="1">
+        <v>1</v>
+      </c>
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
-    </row>
-    <row r="219" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH218">
+        <v>1</v>
+      </c>
+      <c r="AI218">
+        <v>27</v>
+      </c>
+      <c r="AJ218">
+        <v>2</v>
+      </c>
+      <c r="AK218">
+        <v>0</v>
+      </c>
+      <c r="AW218" t="str">
+        <f t="shared" si="68"/>
+        <v>1,27,2,0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
-      <c r="V219" s="1"/>
-      <c r="W219" s="1"/>
-      <c r="X219" s="1"/>
-      <c r="Y219" s="1"/>
-      <c r="Z219" s="1"/>
-      <c r="AA219" s="1"/>
-      <c r="AB219" s="1"/>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1">
+        <v>1</v>
+      </c>
+      <c r="H219" s="1">
+        <v>1</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1</v>
+      </c>
+      <c r="J219" s="1">
+        <v>1</v>
+      </c>
+      <c r="K219" s="1">
+        <v>1</v>
+      </c>
+      <c r="L219" s="1">
+        <v>1</v>
+      </c>
+      <c r="M219" s="1">
+        <v>1</v>
+      </c>
+      <c r="N219" s="1">
+        <v>1</v>
+      </c>
+      <c r="O219" s="1">
+        <v>1</v>
+      </c>
+      <c r="P219" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>1</v>
+      </c>
+      <c r="R219" s="1">
+        <v>1</v>
+      </c>
+      <c r="S219" s="1">
+        <v>1</v>
+      </c>
+      <c r="T219" s="1">
+        <v>1</v>
+      </c>
+      <c r="U219" s="1">
+        <v>1</v>
+      </c>
+      <c r="V219" s="1">
+        <v>1</v>
+      </c>
+      <c r="W219" s="1">
+        <v>1</v>
+      </c>
+      <c r="X219" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y219" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z219" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA219" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB219" s="1">
+        <v>1</v>
+      </c>
       <c r="AC219" s="1"/>
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
-    </row>
-    <row r="220" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH219">
+        <v>1</v>
+      </c>
+      <c r="AI219">
+        <v>26</v>
+      </c>
+      <c r="AJ219">
+        <v>3</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AW219" t="str">
+        <f t="shared" si="68"/>
+        <v>1,26,3,0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
-      <c r="Y220" s="1"/>
-      <c r="Z220" s="1"/>
-      <c r="AA220" s="1"/>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1</v>
+      </c>
+      <c r="H220" s="1">
+        <v>1</v>
+      </c>
+      <c r="I220" s="1">
+        <v>1</v>
+      </c>
+      <c r="J220" s="1">
+        <v>1</v>
+      </c>
+      <c r="K220" s="1">
+        <v>1</v>
+      </c>
+      <c r="L220" s="1">
+        <v>1</v>
+      </c>
+      <c r="M220" s="1">
+        <v>1</v>
+      </c>
+      <c r="N220" s="1">
+        <v>1</v>
+      </c>
+      <c r="O220" s="1">
+        <v>1</v>
+      </c>
+      <c r="P220" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="1">
+        <v>1</v>
+      </c>
+      <c r="R220" s="1">
+        <v>1</v>
+      </c>
+      <c r="S220" s="1">
+        <v>1</v>
+      </c>
+      <c r="T220" s="1">
+        <v>1</v>
+      </c>
+      <c r="U220" s="1">
+        <v>1</v>
+      </c>
+      <c r="V220" s="1">
+        <v>1</v>
+      </c>
+      <c r="W220" s="1">
+        <v>1</v>
+      </c>
+      <c r="X220" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y220" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z220" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA220" s="1">
+        <v>1</v>
+      </c>
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
-    </row>
-    <row r="221" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH220">
+        <v>2</v>
+      </c>
+      <c r="AI220">
+        <v>24</v>
+      </c>
+      <c r="AJ220">
+        <v>4</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AW220" t="str">
+        <f t="shared" si="68"/>
+        <v>2,24,4,0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
-      <c r="Y221" s="1"/>
-      <c r="Z221" s="1"/>
+      <c r="D221" s="1">
+        <v>1</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="G221" s="1">
+        <v>1</v>
+      </c>
+      <c r="H221" s="1">
+        <v>1</v>
+      </c>
+      <c r="I221" s="1">
+        <v>1</v>
+      </c>
+      <c r="J221" s="1">
+        <v>1</v>
+      </c>
+      <c r="K221" s="1">
+        <v>1</v>
+      </c>
+      <c r="L221" s="1">
+        <v>1</v>
+      </c>
+      <c r="M221" s="1">
+        <v>1</v>
+      </c>
+      <c r="N221" s="1">
+        <v>1</v>
+      </c>
+      <c r="O221" s="1">
+        <v>1</v>
+      </c>
+      <c r="P221" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>1</v>
+      </c>
+      <c r="R221" s="1">
+        <v>1</v>
+      </c>
+      <c r="S221" s="1">
+        <v>1</v>
+      </c>
+      <c r="T221" s="1">
+        <v>1</v>
+      </c>
+      <c r="U221" s="1">
+        <v>1</v>
+      </c>
+      <c r="V221" s="1">
+        <v>1</v>
+      </c>
+      <c r="W221" s="1">
+        <v>1</v>
+      </c>
+      <c r="X221" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y221" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z221" s="1">
+        <v>1</v>
+      </c>
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
-    </row>
-    <row r="222" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH221">
+        <v>2</v>
+      </c>
+      <c r="AI221">
+        <v>23</v>
+      </c>
+      <c r="AJ221">
+        <v>5</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AW221" t="str">
+        <f t="shared" si="68"/>
+        <v>2,23,5,0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-      <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="U222" s="1"/>
-      <c r="V222" s="1"/>
-      <c r="W222" s="1"/>
-      <c r="X222" s="1"/>
-      <c r="Y222" s="1"/>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+      <c r="H222" s="1">
+        <v>1</v>
+      </c>
+      <c r="I222" s="1">
+        <v>1</v>
+      </c>
+      <c r="J222" s="1">
+        <v>1</v>
+      </c>
+      <c r="K222" s="1">
+        <v>1</v>
+      </c>
+      <c r="L222" s="1">
+        <v>1</v>
+      </c>
+      <c r="M222" s="1">
+        <v>1</v>
+      </c>
+      <c r="N222" s="1">
+        <v>1</v>
+      </c>
+      <c r="O222" s="1">
+        <v>1</v>
+      </c>
+      <c r="P222" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="1">
+        <v>1</v>
+      </c>
+      <c r="R222" s="1">
+        <v>1</v>
+      </c>
+      <c r="S222" s="1">
+        <v>1</v>
+      </c>
+      <c r="T222" s="1">
+        <v>1</v>
+      </c>
+      <c r="U222" s="1">
+        <v>1</v>
+      </c>
+      <c r="V222" s="1">
+        <v>1</v>
+      </c>
+      <c r="W222" s="1">
+        <v>1</v>
+      </c>
+      <c r="X222" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y222" s="1">
+        <v>1</v>
+      </c>
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
-    </row>
-    <row r="223" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH222">
+        <v>3</v>
+      </c>
+      <c r="AI222">
+        <v>21</v>
+      </c>
+      <c r="AJ222">
+        <v>6</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AW222" t="str">
+        <f t="shared" si="68"/>
+        <v>3,21,6,0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -19710,8 +21452,85 @@
       <c r="AC223" s="1"/>
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
-    </row>
-    <row r="226" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH223">
+        <v>30</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AW223" t="str">
+        <f t="shared" si="68"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2"/>
+      <c r="V225" s="2"/>
+      <c r="W225" s="2"/>
+      <c r="X225" s="2"/>
+      <c r="Y225" s="2"/>
+      <c r="Z225" s="2"/>
+      <c r="AA225" s="2"/>
+      <c r="AB225" s="2"/>
+      <c r="AC225" s="2"/>
+      <c r="AD225" s="2"/>
+      <c r="AE225" s="2"/>
+      <c r="AH225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW225" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW226:AW255)</f>
+        <v>30,0,30,0,18,2,10,0,16,6,8,0,14,9,7,0,12,11,7,0,11,11,8,0,11,10,9,0,12,8,10,0,12,7,11,0,13,6,11,0,13,5,12,0,14,4,12,0,14,3,13,0,13,1,2,1,13,0,12,1,4,1,5,5,2,0,11,1,2,2,2,1,1,9,1,0,11,1,2,2,2,12,2,11,4,13,1,13,2,1,1,12,0,13,1,2,3,11,0,12,8,10,0,11,10,9,1,9,13,7,1,8,15,6,2,6,18,3,1,0,2,6,22,0,3,4,23,30,0,30,0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -19742,8 +21561,22 @@
       <c r="AC226" s="1"/>
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
-    </row>
-    <row r="227" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH226">
+        <v>30</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AT226">
+        <f>SUM(AH226:AR226)</f>
+        <v>30</v>
+      </c>
+      <c r="AW226" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH226:AS226)</f>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -19774,8 +21607,22 @@
       <c r="AC227" s="1"/>
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
-    </row>
-    <row r="228" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH227">
+        <v>30</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AT227">
+        <f t="shared" ref="AT227:AT255" si="75">SUM(AH227:AR227)</f>
+        <v>30</v>
+      </c>
+      <c r="AW227" t="str">
+        <f t="shared" ref="AW227:AW255" si="76">_xlfn.TEXTJOIN(",",TRUE,AH227:AS227)</f>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -19794,8 +21641,12 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
+      <c r="T228" s="1">
+        <v>1</v>
+      </c>
+      <c r="U228" s="1">
+        <v>1</v>
+      </c>
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
@@ -19806,8 +21657,28 @@
       <c r="AC228" s="1"/>
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
-    </row>
-    <row r="229" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH228">
+        <v>18</v>
+      </c>
+      <c r="AI228">
+        <v>2</v>
+      </c>
+      <c r="AJ228">
+        <v>10</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AT228">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW228" t="str">
+        <f t="shared" si="76"/>
+        <v>18,2,10,0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -19824,12 +21695,24 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
+      <c r="R229" s="1">
+        <v>1</v>
+      </c>
+      <c r="S229" s="1">
+        <v>1</v>
+      </c>
+      <c r="T229" s="1">
+        <v>1</v>
+      </c>
+      <c r="U229" s="1">
+        <v>1</v>
+      </c>
+      <c r="V229" s="1">
+        <v>1</v>
+      </c>
+      <c r="W229" s="1">
+        <v>1</v>
+      </c>
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
@@ -19838,8 +21721,31 @@
       <c r="AC229" s="1"/>
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
-    </row>
-    <row r="230" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH229">
+        <f>AH228-2</f>
+        <v>16</v>
+      </c>
+      <c r="AI229">
+        <f>AI228+4</f>
+        <v>6</v>
+      </c>
+      <c r="AJ229">
+        <f>AJ228-2</f>
+        <v>8</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AT229">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW229" t="str">
+        <f t="shared" si="76"/>
+        <v>16,6,8,0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -19854,15 +21760,33 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
+      <c r="P230" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q230" s="1">
+        <v>1</v>
+      </c>
+      <c r="R230" s="1">
+        <v>1</v>
+      </c>
+      <c r="S230" s="1">
+        <v>1</v>
+      </c>
+      <c r="T230" s="1">
+        <v>1</v>
+      </c>
+      <c r="U230" s="1">
+        <v>1</v>
+      </c>
+      <c r="V230" s="1">
+        <v>1</v>
+      </c>
+      <c r="W230" s="1">
+        <v>1</v>
+      </c>
+      <c r="X230" s="1">
+        <v>1</v>
+      </c>
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
@@ -19870,8 +21794,31 @@
       <c r="AC230" s="1"/>
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
-    </row>
-    <row r="231" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH230">
+        <f>AH229-2</f>
+        <v>14</v>
+      </c>
+      <c r="AI230">
+        <f>AI229+3</f>
+        <v>9</v>
+      </c>
+      <c r="AJ230">
+        <f>AJ229-1</f>
+        <v>7</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW230" t="str">
+        <f t="shared" si="76"/>
+        <v>14,9,7,0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -19884,17 +21831,39 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
+      <c r="N231" s="1">
+        <v>1</v>
+      </c>
+      <c r="O231" s="1">
+        <v>1</v>
+      </c>
+      <c r="P231" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q231" s="1">
+        <v>1</v>
+      </c>
+      <c r="R231" s="1">
+        <v>1</v>
+      </c>
+      <c r="S231" s="1">
+        <v>1</v>
+      </c>
+      <c r="T231" s="1">
+        <v>1</v>
+      </c>
+      <c r="U231" s="1">
+        <v>1</v>
+      </c>
+      <c r="V231" s="1">
+        <v>1</v>
+      </c>
+      <c r="W231" s="1">
+        <v>1</v>
+      </c>
+      <c r="X231" s="1">
+        <v>1</v>
+      </c>
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
@@ -19902,8 +21871,30 @@
       <c r="AC231" s="1"/>
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
-    </row>
-    <row r="232" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH231">
+        <f>AH230-2</f>
+        <v>12</v>
+      </c>
+      <c r="AI231">
+        <f>AI230+2</f>
+        <v>11</v>
+      </c>
+      <c r="AJ231">
+        <v>7</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AT231">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW231" t="str">
+        <f t="shared" si="76"/>
+        <v>12,11,7,0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -19915,17 +21906,39 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
+      <c r="M232" s="1">
+        <v>1</v>
+      </c>
+      <c r="N232" s="1">
+        <v>1</v>
+      </c>
+      <c r="O232" s="1">
+        <v>1</v>
+      </c>
+      <c r="P232" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="1">
+        <v>1</v>
+      </c>
+      <c r="R232" s="1">
+        <v>1</v>
+      </c>
+      <c r="S232" s="1">
+        <v>1</v>
+      </c>
+      <c r="T232" s="1">
+        <v>1</v>
+      </c>
+      <c r="U232" s="1">
+        <v>1</v>
+      </c>
+      <c r="V232" s="1">
+        <v>1</v>
+      </c>
+      <c r="W232" s="1">
+        <v>1</v>
+      </c>
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
@@ -19934,8 +21947,31 @@
       <c r="AC232" s="1"/>
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
-    </row>
-    <row r="233" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH232">
+        <f>AH231-1</f>
+        <v>11</v>
+      </c>
+      <c r="AI232">
+        <f>AI231</f>
+        <v>11</v>
+      </c>
+      <c r="AJ232">
+        <f>AJ231+1</f>
+        <v>8</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AT232">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW232" t="str">
+        <f t="shared" si="76"/>
+        <v>11,11,8,0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -19947,16 +21983,36 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
+      <c r="M233" s="1">
+        <v>1</v>
+      </c>
+      <c r="N233" s="1">
+        <v>1</v>
+      </c>
+      <c r="O233" s="1">
+        <v>1</v>
+      </c>
+      <c r="P233" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q233" s="1">
+        <v>1</v>
+      </c>
+      <c r="R233" s="1">
+        <v>1</v>
+      </c>
+      <c r="S233" s="1">
+        <v>1</v>
+      </c>
+      <c r="T233" s="1">
+        <v>1</v>
+      </c>
+      <c r="U233" s="1">
+        <v>1</v>
+      </c>
+      <c r="V233" s="1">
+        <v>1</v>
+      </c>
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
@@ -19966,8 +22022,28 @@
       <c r="AC233" s="1"/>
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
-    </row>
-    <row r="234" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH233">
+        <v>11</v>
+      </c>
+      <c r="AI233">
+        <v>10</v>
+      </c>
+      <c r="AJ233">
+        <v>9</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW233" t="str">
+        <f t="shared" si="76"/>
+        <v>11,10,9,0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -19980,14 +22056,30 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
+      <c r="N234" s="1">
+        <v>1</v>
+      </c>
+      <c r="O234" s="1">
+        <v>1</v>
+      </c>
+      <c r="P234" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q234" s="1">
+        <v>1</v>
+      </c>
+      <c r="R234" s="1">
+        <v>1</v>
+      </c>
+      <c r="S234" s="1">
+        <v>1</v>
+      </c>
+      <c r="T234" s="1">
+        <v>1</v>
+      </c>
+      <c r="U234" s="1">
+        <v>1</v>
+      </c>
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
@@ -19998,8 +22090,28 @@
       <c r="AC234" s="1"/>
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
-    </row>
-    <row r="235" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH234">
+        <v>12</v>
+      </c>
+      <c r="AI234">
+        <v>8</v>
+      </c>
+      <c r="AJ234">
+        <v>10</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AT234">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW234" t="str">
+        <f t="shared" si="76"/>
+        <v>12,8,10,0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -20012,13 +22124,27 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
+      <c r="N235" s="1">
+        <v>1</v>
+      </c>
+      <c r="O235" s="1">
+        <v>1</v>
+      </c>
+      <c r="P235" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q235" s="1">
+        <v>1</v>
+      </c>
+      <c r="R235" s="1">
+        <v>1</v>
+      </c>
+      <c r="S235" s="1">
+        <v>1</v>
+      </c>
+      <c r="T235" s="1">
+        <v>1</v>
+      </c>
       <c r="U235" s="1"/>
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
@@ -20030,8 +22156,28 @@
       <c r="AC235" s="1"/>
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
-    </row>
-    <row r="236" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH235">
+        <v>12</v>
+      </c>
+      <c r="AI235">
+        <v>7</v>
+      </c>
+      <c r="AJ235">
+        <v>11</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AT235">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW235" t="str">
+        <f t="shared" si="76"/>
+        <v>12,7,11,0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -20045,12 +22191,24 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
+      <c r="O236" s="1">
+        <v>1</v>
+      </c>
+      <c r="P236" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q236" s="1">
+        <v>1</v>
+      </c>
+      <c r="R236" s="1">
+        <v>1</v>
+      </c>
+      <c r="S236" s="1">
+        <v>1</v>
+      </c>
+      <c r="T236" s="1">
+        <v>1</v>
+      </c>
       <c r="U236" s="1"/>
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
@@ -20062,8 +22220,28 @@
       <c r="AC236" s="1"/>
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
-    </row>
-    <row r="237" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH236">
+        <v>13</v>
+      </c>
+      <c r="AI236">
+        <v>6</v>
+      </c>
+      <c r="AJ236">
+        <v>11</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AT236">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW236" t="str">
+        <f t="shared" si="76"/>
+        <v>13,6,11,0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -20077,11 +22255,21 @@
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
+      <c r="O237" s="1">
+        <v>1</v>
+      </c>
+      <c r="P237" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="1">
+        <v>1</v>
+      </c>
+      <c r="R237" s="1">
+        <v>1</v>
+      </c>
+      <c r="S237" s="1">
+        <v>1</v>
+      </c>
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
       <c r="V237" s="1"/>
@@ -20094,8 +22282,28 @@
       <c r="AC237" s="1"/>
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
-    </row>
-    <row r="238" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH237">
+        <v>13</v>
+      </c>
+      <c r="AI237">
+        <v>5</v>
+      </c>
+      <c r="AJ237">
+        <v>12</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AT237">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW237" t="str">
+        <f t="shared" si="76"/>
+        <v>13,5,12,0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -20110,10 +22318,18 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
-      <c r="S238" s="1"/>
+      <c r="P238" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="1">
+        <v>1</v>
+      </c>
+      <c r="R238" s="1">
+        <v>1</v>
+      </c>
+      <c r="S238" s="1">
+        <v>1</v>
+      </c>
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
       <c r="V238" s="1"/>
@@ -20126,8 +22342,28 @@
       <c r="AC238" s="1"/>
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
-    </row>
-    <row r="239" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH238">
+        <v>14</v>
+      </c>
+      <c r="AI238">
+        <v>4</v>
+      </c>
+      <c r="AJ238">
+        <v>12</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AT238">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW238" t="str">
+        <f t="shared" si="76"/>
+        <v>14,4,12,0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -20142,9 +22378,15 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
+      <c r="P239" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="1">
+        <v>1</v>
+      </c>
+      <c r="R239" s="1">
+        <v>1</v>
+      </c>
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
@@ -20158,8 +22400,28 @@
       <c r="AC239" s="1"/>
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
-    </row>
-    <row r="240" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH239">
+        <v>14</v>
+      </c>
+      <c r="AI239">
+        <v>3</v>
+      </c>
+      <c r="AJ239">
+        <v>13</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AT239">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW239" t="str">
+        <f t="shared" si="76"/>
+        <v>14,3,13,0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -20173,10 +22435,14 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
+      <c r="O240" s="1">
+        <v>1</v>
+      </c>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
+      <c r="R240" s="1">
+        <v>1</v>
+      </c>
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
@@ -20190,8 +22456,34 @@
       <c r="AC240" s="1"/>
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
-    </row>
-    <row r="241" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH240">
+        <v>13</v>
+      </c>
+      <c r="AI240">
+        <v>1</v>
+      </c>
+      <c r="AJ240">
+        <v>2</v>
+      </c>
+      <c r="AK240">
+        <v>1</v>
+      </c>
+      <c r="AL240">
+        <v>13</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AT240">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW240" t="str">
+        <f t="shared" si="76"/>
+        <v>13,1,2,1,13,0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -20204,26 +22496,72 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
+      <c r="N241" s="1">
+        <v>1</v>
+      </c>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
-      <c r="S241" s="1"/>
+      <c r="S241" s="1">
+        <v>1</v>
+      </c>
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
-      <c r="Y241" s="1"/>
-      <c r="Z241" s="1"/>
-      <c r="AA241" s="1"/>
-      <c r="AB241" s="1"/>
-      <c r="AC241" s="1"/>
+      <c r="Y241" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z241" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA241" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB241" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC241" s="1">
+        <v>1</v>
+      </c>
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
-    </row>
-    <row r="242" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH241">
+        <v>12</v>
+      </c>
+      <c r="AI241">
+        <v>1</v>
+      </c>
+      <c r="AJ241">
+        <v>4</v>
+      </c>
+      <c r="AK241">
+        <v>1</v>
+      </c>
+      <c r="AL241">
+        <v>5</v>
+      </c>
+      <c r="AM241">
+        <v>5</v>
+      </c>
+      <c r="AN241">
+        <v>2</v>
+      </c>
+      <c r="AO241">
+        <v>0</v>
+      </c>
+      <c r="AT241">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW241" t="str">
+        <f t="shared" si="76"/>
+        <v>12,1,4,1,5,5,2,0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -20235,27 +22573,91 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
+      <c r="M242" s="1">
+        <v>1</v>
+      </c>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
+      <c r="P242" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q242" s="1">
+        <v>1</v>
+      </c>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
+      <c r="T242" s="1">
+        <v>1</v>
+      </c>
       <c r="U242" s="1"/>
-      <c r="V242" s="1"/>
-      <c r="W242" s="1"/>
-      <c r="X242" s="1"/>
-      <c r="Y242" s="1"/>
-      <c r="Z242" s="1"/>
-      <c r="AA242" s="1"/>
-      <c r="AB242" s="1"/>
-      <c r="AC242" s="1"/>
-      <c r="AD242" s="1"/>
+      <c r="V242" s="1">
+        <v>1</v>
+      </c>
+      <c r="W242" s="1">
+        <v>1</v>
+      </c>
+      <c r="X242" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y242" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD242" s="1">
+        <v>1</v>
+      </c>
       <c r="AE242" s="1"/>
-    </row>
-    <row r="243" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH242">
+        <v>11</v>
+      </c>
+      <c r="AI242">
+        <v>1</v>
+      </c>
+      <c r="AJ242">
+        <v>2</v>
+      </c>
+      <c r="AK242">
+        <v>2</v>
+      </c>
+      <c r="AL242">
+        <v>2</v>
+      </c>
+      <c r="AM242">
+        <v>1</v>
+      </c>
+      <c r="AN242">
+        <v>1</v>
+      </c>
+      <c r="AO242">
+        <v>9</v>
+      </c>
+      <c r="AP242">
+        <v>1</v>
+      </c>
+      <c r="AQ242">
+        <v>0</v>
+      </c>
+      <c r="AT242">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW242" t="str">
+        <f t="shared" si="76"/>
+        <v>11,1,2,2,2,1,1,9,1,0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -20267,135 +22669,439 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
+      <c r="M243" s="1">
+        <v>1</v>
+      </c>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
+      <c r="P243" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q243" s="1">
+        <v>1</v>
+      </c>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="X243" s="1"/>
-      <c r="Y243" s="1"/>
-      <c r="Z243" s="1"/>
-      <c r="AA243" s="1"/>
-      <c r="AB243" s="1"/>
-      <c r="AC243" s="1"/>
-      <c r="AD243" s="1"/>
-      <c r="AE243" s="1"/>
-    </row>
-    <row r="244" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="T243" s="1">
+        <v>1</v>
+      </c>
+      <c r="U243" s="1">
+        <v>1</v>
+      </c>
+      <c r="V243" s="1">
+        <v>1</v>
+      </c>
+      <c r="W243" s="1">
+        <v>1</v>
+      </c>
+      <c r="X243" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y243" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH243" s="1">
+        <v>11</v>
+      </c>
+      <c r="AI243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ243" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK243" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL243" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM243" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT243">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW243" t="str">
+        <f t="shared" si="76"/>
+        <v>11,1,2,2,2,12</v>
+      </c>
+    </row>
+    <row r="244" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
+      <c r="D244" s="1">
+        <v>1</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1">
+        <v>1</v>
+      </c>
+      <c r="G244" s="1">
+        <v>1</v>
+      </c>
+      <c r="H244" s="1">
+        <v>1</v>
+      </c>
+      <c r="I244" s="1">
+        <v>1</v>
+      </c>
+      <c r="J244" s="1">
+        <v>1</v>
+      </c>
+      <c r="K244" s="1">
+        <v>1</v>
+      </c>
+      <c r="L244" s="1">
+        <v>1</v>
+      </c>
+      <c r="M244" s="1">
+        <v>1</v>
+      </c>
+      <c r="N244" s="1">
+        <v>1</v>
+      </c>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
-      <c r="S244" s="1"/>
-      <c r="T244" s="1"/>
-      <c r="U244" s="1"/>
-      <c r="V244" s="1"/>
-      <c r="W244" s="1"/>
-      <c r="X244" s="1"/>
-      <c r="Y244" s="1"/>
-      <c r="Z244" s="1"/>
-      <c r="AA244" s="1"/>
-      <c r="AB244" s="1"/>
-      <c r="AC244" s="1"/>
-      <c r="AD244" s="1"/>
-      <c r="AE244" s="1"/>
-    </row>
-    <row r="245" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S244" s="1">
+        <v>1</v>
+      </c>
+      <c r="T244" s="1">
+        <v>1</v>
+      </c>
+      <c r="U244" s="1">
+        <v>1</v>
+      </c>
+      <c r="V244" s="1">
+        <v>1</v>
+      </c>
+      <c r="W244" s="1">
+        <v>1</v>
+      </c>
+      <c r="X244" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y244" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH244" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI244" s="1">
+        <v>11</v>
+      </c>
+      <c r="AJ244" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK244" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT244">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW244" t="str">
+        <f t="shared" si="76"/>
+        <v>2,11,4,13</v>
+      </c>
+    </row>
+    <row r="245" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1">
+        <v>1</v>
+      </c>
+      <c r="G245" s="1">
+        <v>1</v>
+      </c>
+      <c r="H245" s="1">
+        <v>1</v>
+      </c>
+      <c r="I245" s="1">
+        <v>1</v>
+      </c>
+      <c r="J245" s="1">
+        <v>1</v>
+      </c>
+      <c r="K245" s="1">
+        <v>1</v>
+      </c>
+      <c r="L245" s="1">
+        <v>1</v>
+      </c>
+      <c r="M245" s="1">
+        <v>1</v>
+      </c>
+      <c r="N245" s="1">
+        <v>1</v>
+      </c>
+      <c r="O245" s="1">
+        <v>1</v>
+      </c>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
+      <c r="R245" s="1">
+        <v>1</v>
+      </c>
       <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="V245" s="1"/>
-      <c r="W245" s="1"/>
-      <c r="X245" s="1"/>
-      <c r="Y245" s="1"/>
-      <c r="Z245" s="1"/>
-      <c r="AA245" s="1"/>
-      <c r="AB245" s="1"/>
-      <c r="AC245" s="1"/>
-      <c r="AD245" s="1"/>
-      <c r="AE245" s="1"/>
-    </row>
-    <row r="246" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
-      <c r="N246" s="1"/>
+      <c r="T245" s="1">
+        <v>1</v>
+      </c>
+      <c r="U245" s="1">
+        <v>1</v>
+      </c>
+      <c r="V245" s="1">
+        <v>1</v>
+      </c>
+      <c r="W245" s="1">
+        <v>1</v>
+      </c>
+      <c r="X245" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y245" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI245" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ245" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM245" s="1">
+        <v>12</v>
+      </c>
+      <c r="AT245">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW245" t="str">
+        <f t="shared" si="76"/>
+        <v>1,13,2,1,1,12</v>
+      </c>
+    </row>
+    <row r="246" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B246" s="1">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" s="1">
+        <v>1</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1</v>
+      </c>
+      <c r="H246" s="1">
+        <v>1</v>
+      </c>
+      <c r="I246" s="1">
+        <v>1</v>
+      </c>
+      <c r="J246" s="1">
+        <v>1</v>
+      </c>
+      <c r="K246" s="1">
+        <v>1</v>
+      </c>
+      <c r="L246" s="1">
+        <v>1</v>
+      </c>
+      <c r="M246" s="1">
+        <v>1</v>
+      </c>
+      <c r="N246" s="1">
+        <v>1</v>
+      </c>
       <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
+      <c r="P246" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="1">
+        <v>1</v>
+      </c>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
-      <c r="U246" s="1"/>
-      <c r="V246" s="1"/>
-      <c r="W246" s="1"/>
-      <c r="X246" s="1"/>
-      <c r="Y246" s="1"/>
-      <c r="Z246" s="1"/>
-      <c r="AA246" s="1"/>
-      <c r="AB246" s="1"/>
-      <c r="AC246" s="1"/>
-      <c r="AD246" s="1"/>
-      <c r="AE246" s="1"/>
-    </row>
-    <row r="247" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
+      <c r="U246" s="1">
+        <v>1</v>
+      </c>
+      <c r="V246" s="1">
+        <v>1</v>
+      </c>
+      <c r="W246" s="1">
+        <v>1</v>
+      </c>
+      <c r="X246" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y246" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH246" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI246" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK246" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL246" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM246" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT246">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW246" t="str">
+        <f t="shared" si="76"/>
+        <v>0,13,1,2,3,11</v>
+      </c>
+    </row>
+    <row r="247" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B247" s="1">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>1</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>1</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1</v>
+      </c>
+      <c r="H247" s="1">
+        <v>1</v>
+      </c>
+      <c r="I247" s="1">
+        <v>1</v>
+      </c>
+      <c r="J247" s="1">
+        <v>1</v>
+      </c>
+      <c r="K247" s="1">
+        <v>1</v>
+      </c>
+      <c r="L247" s="1">
+        <v>1</v>
+      </c>
+      <c r="M247" s="1">
+        <v>1</v>
+      </c>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
@@ -20404,29 +23110,92 @@
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
-      <c r="V247" s="1"/>
-      <c r="W247" s="1"/>
-      <c r="X247" s="1"/>
-      <c r="Y247" s="1"/>
-      <c r="Z247" s="1"/>
-      <c r="AA247" s="1"/>
-      <c r="AB247" s="1"/>
-      <c r="AC247" s="1"/>
-      <c r="AD247" s="1"/>
-      <c r="AE247" s="1"/>
-    </row>
-    <row r="248" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
+      <c r="V247" s="1">
+        <v>1</v>
+      </c>
+      <c r="W247" s="1">
+        <v>1</v>
+      </c>
+      <c r="X247" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y247" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH247" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI247">
+        <f>AI246-1</f>
+        <v>12</v>
+      </c>
+      <c r="AJ247" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK247" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT247">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW247" t="str">
+        <f t="shared" si="76"/>
+        <v>0,12,8,10</v>
+      </c>
+    </row>
+    <row r="248" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B248" s="1">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>1</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>1</v>
+      </c>
+      <c r="G248" s="1">
+        <v>1</v>
+      </c>
+      <c r="H248" s="1">
+        <v>1</v>
+      </c>
+      <c r="I248" s="1">
+        <v>1</v>
+      </c>
+      <c r="J248" s="1">
+        <v>1</v>
+      </c>
+      <c r="K248" s="1">
+        <v>1</v>
+      </c>
+      <c r="L248" s="1">
+        <v>1</v>
+      </c>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -20437,27 +23206,83 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
       <c r="V248" s="1"/>
-      <c r="W248" s="1"/>
-      <c r="X248" s="1"/>
-      <c r="Y248" s="1"/>
-      <c r="Z248" s="1"/>
-      <c r="AA248" s="1"/>
-      <c r="AB248" s="1"/>
-      <c r="AC248" s="1"/>
-      <c r="AD248" s="1"/>
-      <c r="AE248" s="1"/>
-    </row>
-    <row r="249" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W248" s="1">
+        <v>1</v>
+      </c>
+      <c r="X248" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y248" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH248" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI248" s="1">
+        <v>11</v>
+      </c>
+      <c r="AJ248" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK248" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT248">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW248" t="str">
+        <f t="shared" si="76"/>
+        <v>0,11,10,9</v>
+      </c>
+    </row>
+    <row r="249" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F249" s="1">
+        <v>1</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1</v>
+      </c>
+      <c r="H249" s="1">
+        <v>1</v>
+      </c>
+      <c r="I249" s="1">
+        <v>1</v>
+      </c>
+      <c r="J249" s="1">
+        <v>1</v>
+      </c>
+      <c r="K249" s="1">
+        <v>1</v>
+      </c>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -20471,24 +23296,74 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
-      <c r="Y249" s="1"/>
-      <c r="Z249" s="1"/>
-      <c r="AA249" s="1"/>
-      <c r="AB249" s="1"/>
-      <c r="AC249" s="1"/>
-      <c r="AD249" s="1"/>
-      <c r="AE249" s="1"/>
-    </row>
-    <row r="250" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="Y249" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI249" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ249" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK249" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT249">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW249" t="str">
+        <f t="shared" si="76"/>
+        <v>1,9,13,7</v>
+      </c>
+    </row>
+    <row r="250" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>1</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1</v>
+      </c>
+      <c r="F250" s="1">
+        <v>1</v>
+      </c>
+      <c r="G250" s="1">
+        <v>1</v>
+      </c>
+      <c r="H250" s="1">
+        <v>1</v>
+      </c>
+      <c r="I250" s="1">
+        <v>1</v>
+      </c>
+      <c r="J250" s="1">
+        <v>1</v>
+      </c>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
@@ -20504,22 +23379,66 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
-      <c r="Z250" s="1"/>
-      <c r="AA250" s="1"/>
-      <c r="AB250" s="1"/>
-      <c r="AC250" s="1"/>
-      <c r="AD250" s="1"/>
-      <c r="AE250" s="1"/>
-    </row>
-    <row r="251" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="Z250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI250" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ250" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK250" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT250">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW250" t="str">
+        <f t="shared" si="76"/>
+        <v>1,8,15,6</v>
+      </c>
+    </row>
+    <row r="251" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
+      <c r="D251" s="1">
+        <v>1</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>1</v>
+      </c>
+      <c r="G251" s="1">
+        <v>1</v>
+      </c>
+      <c r="H251" s="1">
+        <v>1</v>
+      </c>
+      <c r="I251" s="1">
+        <v>1</v>
+      </c>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -20538,19 +23457,61 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
-      <c r="AB251" s="1"/>
-      <c r="AC251" s="1"/>
-      <c r="AD251" s="1"/>
+      <c r="AB251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD251" s="1">
+        <v>1</v>
+      </c>
       <c r="AE251" s="1"/>
-    </row>
-    <row r="252" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH251" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI251" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ251" s="1">
+        <v>18</v>
+      </c>
+      <c r="AK251" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW251" t="str">
+        <f t="shared" si="76"/>
+        <v>2,6,18,3,1,0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
+      <c r="D252" s="1">
+        <v>1</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1</v>
+      </c>
+      <c r="H252" s="1">
+        <v>1</v>
+      </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -20574,14 +23535,40 @@
       <c r="AC252" s="1"/>
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
-    </row>
-    <row r="253" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH252" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI252" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ252" s="1">
+        <v>22</v>
+      </c>
+      <c r="AK252" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT252">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW252" t="str">
+        <f t="shared" si="76"/>
+        <v>2,6,22,0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1</v>
+      </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -20606,8 +23593,25 @@
       <c r="AC253" s="1"/>
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
-    </row>
-    <row r="254" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH253" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI253" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ253" s="1">
+        <v>23</v>
+      </c>
+      <c r="AT253">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW253" t="str">
+        <f t="shared" si="76"/>
+        <v>3,4,23</v>
+      </c>
+    </row>
+    <row r="254" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -20638,8 +23642,22 @@
       <c r="AC254" s="1"/>
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
-    </row>
-    <row r="255" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH254" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI254" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT254">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW254" t="str">
+        <f t="shared" si="76"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -20670,19 +23688,4098 @@
       <c r="AC255" s="1"/>
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
+      <c r="AH255" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI255" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT255">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="AW255" t="str">
+        <f t="shared" si="76"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW257" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW258:AW287)</f>
+        <v>30,0,14,2,14,0,13,4,13,0,12,2,2,2,12,0,12,2,2,2,12,0,13,4,13,0,14,2,14,0,14,2,14,0,14,2,14,0,9,12,9,0,9,12,9,0,14,2,14,0,14,2,14,0,14,2,14,0,14,2,14,0,14,2,14,0,14,2,14,0,14,2,14,0,14,2,14,0,14,2,14,0,3,2,9,2,9,2,3,0,3,2,9,2,9,2,3,0,3,3,8,2,8,3,3,0,4,2,8,2,8,2,4,0,4,3,7,2,7,3,4,0,5,3,6,2,6,3,5,0,6,4,4,2,4,4,6,0,7,5,2,2,2,5,7,0,9,12,9,0,7,16,7,0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+      <c r="AE258" s="1"/>
+      <c r="AH258" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI258" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT258">
+        <f>SUM(AH258:AR258)</f>
+        <v>30</v>
+      </c>
+      <c r="AW258" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH258:AS258)</f>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q259" s="1">
+        <v>1</v>
+      </c>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+      <c r="AD259" s="1"/>
+      <c r="AE259" s="1"/>
+      <c r="AH259" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI259" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ259">
+        <v>14</v>
+      </c>
+      <c r="AK259">
+        <v>0</v>
+      </c>
+      <c r="AT259">
+        <f t="shared" ref="AT259:AT287" si="77">SUM(AH259:AR259)</f>
+        <v>30</v>
+      </c>
+      <c r="AW259" t="str">
+        <f t="shared" ref="AW259:AW287" si="78">_xlfn.TEXTJOIN(",",TRUE,AH259:AS259)</f>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1">
+        <v>1</v>
+      </c>
+      <c r="P260" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="1">
+        <v>1</v>
+      </c>
+      <c r="R260" s="1">
+        <v>1</v>
+      </c>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+      <c r="AD260" s="1"/>
+      <c r="AE260" s="1"/>
+      <c r="AH260" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI260" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ260">
+        <v>13</v>
+      </c>
+      <c r="AK260">
+        <v>0</v>
+      </c>
+      <c r="AT260">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW260" t="str">
+        <f t="shared" si="78"/>
+        <v>13,4,13,0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1">
+        <v>1</v>
+      </c>
+      <c r="O261" s="1">
+        <v>1</v>
+      </c>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1">
+        <v>1</v>
+      </c>
+      <c r="S261" s="1">
+        <v>1</v>
+      </c>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="X261" s="1"/>
+      <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+      <c r="AD261" s="1"/>
+      <c r="AE261" s="1"/>
+      <c r="AH261" s="1">
+        <v>12</v>
+      </c>
+      <c r="AI261" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ261">
+        <v>2</v>
+      </c>
+      <c r="AK261">
+        <v>2</v>
+      </c>
+      <c r="AL261">
+        <v>12</v>
+      </c>
+      <c r="AM261">
+        <v>0</v>
+      </c>
+      <c r="AT261">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW261" t="str">
+        <f t="shared" si="78"/>
+        <v>12,2,2,2,12,0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1">
+        <v>1</v>
+      </c>
+      <c r="O262" s="1">
+        <v>1</v>
+      </c>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1">
+        <v>1</v>
+      </c>
+      <c r="S262" s="1">
+        <v>1</v>
+      </c>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
+      <c r="AD262" s="1"/>
+      <c r="AE262" s="1"/>
+      <c r="AH262" s="1">
+        <v>12</v>
+      </c>
+      <c r="AI262" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ262">
+        <v>2</v>
+      </c>
+      <c r="AK262">
+        <v>2</v>
+      </c>
+      <c r="AL262">
+        <v>12</v>
+      </c>
+      <c r="AM262">
+        <v>0</v>
+      </c>
+      <c r="AT262">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW262" t="str">
+        <f t="shared" si="78"/>
+        <v>12,2,2,2,12,0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1">
+        <v>1</v>
+      </c>
+      <c r="P263" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="1">
+        <v>1</v>
+      </c>
+      <c r="R263" s="1">
+        <v>1</v>
+      </c>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+      <c r="W263" s="1"/>
+      <c r="X263" s="1"/>
+      <c r="Y263" s="1"/>
+      <c r="Z263" s="1"/>
+      <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
+      <c r="AC263" s="1"/>
+      <c r="AD263" s="1"/>
+      <c r="AE263" s="1"/>
+      <c r="AH263" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI263" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ263">
+        <v>13</v>
+      </c>
+      <c r="AK263">
+        <v>0</v>
+      </c>
+      <c r="AT263">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW263" t="str">
+        <f t="shared" si="78"/>
+        <v>13,4,13,0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q264" s="1">
+        <v>1</v>
+      </c>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="X264" s="1"/>
+      <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
+      <c r="AD264" s="1"/>
+      <c r="AE264" s="1"/>
+      <c r="AH264" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI264" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ264">
+        <v>14</v>
+      </c>
+      <c r="AK264">
+        <v>0</v>
+      </c>
+      <c r="AT264">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW264" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q265" s="1">
+        <v>1</v>
+      </c>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+      <c r="W265" s="1"/>
+      <c r="X265" s="1"/>
+      <c r="Y265" s="1"/>
+      <c r="Z265" s="1"/>
+      <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
+      <c r="AC265" s="1"/>
+      <c r="AD265" s="1"/>
+      <c r="AE265" s="1"/>
+      <c r="AH265" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI265" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ265">
+        <v>14</v>
+      </c>
+      <c r="AK265">
+        <v>0</v>
+      </c>
+      <c r="AT265">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW265" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q266" s="1">
+        <v>1</v>
+      </c>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
+      <c r="W266" s="1"/>
+      <c r="X266" s="1"/>
+      <c r="Y266" s="1"/>
+      <c r="Z266" s="1"/>
+      <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
+      <c r="AC266" s="1"/>
+      <c r="AD266" s="1"/>
+      <c r="AE266" s="1"/>
+      <c r="AH266" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI266" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ266">
+        <v>14</v>
+      </c>
+      <c r="AK266">
+        <v>0</v>
+      </c>
+      <c r="AT266">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW266" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1">
+        <v>1</v>
+      </c>
+      <c r="L267" s="1">
+        <v>1</v>
+      </c>
+      <c r="M267" s="1">
+        <v>1</v>
+      </c>
+      <c r="N267" s="1">
+        <v>1</v>
+      </c>
+      <c r="O267" s="1">
+        <v>1</v>
+      </c>
+      <c r="P267" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q267" s="1">
+        <v>1</v>
+      </c>
+      <c r="R267" s="1">
+        <v>1</v>
+      </c>
+      <c r="S267" s="1">
+        <v>1</v>
+      </c>
+      <c r="T267" s="1">
+        <v>1</v>
+      </c>
+      <c r="U267" s="1">
+        <v>1</v>
+      </c>
+      <c r="V267" s="1">
+        <v>1</v>
+      </c>
+      <c r="W267" s="1"/>
+      <c r="X267" s="1"/>
+      <c r="Y267" s="1"/>
+      <c r="Z267" s="1"/>
+      <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
+      <c r="AC267" s="1"/>
+      <c r="AD267" s="1"/>
+      <c r="AE267" s="1"/>
+      <c r="AH267">
+        <v>9</v>
+      </c>
+      <c r="AI267">
+        <v>12</v>
+      </c>
+      <c r="AJ267">
+        <v>9</v>
+      </c>
+      <c r="AK267">
+        <v>0</v>
+      </c>
+      <c r="AT267">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW267" t="str">
+        <f t="shared" si="78"/>
+        <v>9,12,9,0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1">
+        <v>1</v>
+      </c>
+      <c r="L268" s="1">
+        <v>1</v>
+      </c>
+      <c r="M268" s="1">
+        <v>1</v>
+      </c>
+      <c r="N268" s="1">
+        <v>1</v>
+      </c>
+      <c r="O268" s="1">
+        <v>1</v>
+      </c>
+      <c r="P268" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q268" s="1">
+        <v>1</v>
+      </c>
+      <c r="R268" s="1">
+        <v>1</v>
+      </c>
+      <c r="S268" s="1">
+        <v>1</v>
+      </c>
+      <c r="T268" s="1">
+        <v>1</v>
+      </c>
+      <c r="U268" s="1">
+        <v>1</v>
+      </c>
+      <c r="V268" s="1">
+        <v>1</v>
+      </c>
+      <c r="W268" s="1"/>
+      <c r="X268" s="1"/>
+      <c r="Y268" s="1"/>
+      <c r="Z268" s="1"/>
+      <c r="AA268" s="1"/>
+      <c r="AB268" s="1"/>
+      <c r="AC268" s="1"/>
+      <c r="AD268" s="1"/>
+      <c r="AE268" s="1"/>
+      <c r="AH268">
+        <v>9</v>
+      </c>
+      <c r="AI268">
+        <v>12</v>
+      </c>
+      <c r="AJ268">
+        <v>9</v>
+      </c>
+      <c r="AK268">
+        <v>0</v>
+      </c>
+      <c r="AT268">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW268" t="str">
+        <f t="shared" si="78"/>
+        <v>9,12,9,0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q269" s="1">
+        <v>1</v>
+      </c>
+      <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
+      <c r="U269" s="1"/>
+      <c r="V269" s="1"/>
+      <c r="W269" s="1"/>
+      <c r="X269" s="1"/>
+      <c r="Y269" s="1"/>
+      <c r="Z269" s="1"/>
+      <c r="AA269" s="1"/>
+      <c r="AB269" s="1"/>
+      <c r="AC269" s="1"/>
+      <c r="AD269" s="1"/>
+      <c r="AE269" s="1"/>
+      <c r="AH269" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI269" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ269">
+        <v>14</v>
+      </c>
+      <c r="AK269">
+        <v>0</v>
+      </c>
+      <c r="AT269">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW269" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q270" s="1">
+        <v>1</v>
+      </c>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
+      <c r="V270" s="1"/>
+      <c r="W270" s="1"/>
+      <c r="X270" s="1"/>
+      <c r="Y270" s="1"/>
+      <c r="Z270" s="1"/>
+      <c r="AA270" s="1"/>
+      <c r="AB270" s="1"/>
+      <c r="AC270" s="1"/>
+      <c r="AD270" s="1"/>
+      <c r="AE270" s="1"/>
+      <c r="AH270" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI270" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ270">
+        <v>14</v>
+      </c>
+      <c r="AK270">
+        <v>0</v>
+      </c>
+      <c r="AT270">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW270" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q271" s="1">
+        <v>1</v>
+      </c>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+      <c r="U271" s="1"/>
+      <c r="V271" s="1"/>
+      <c r="W271" s="1"/>
+      <c r="X271" s="1"/>
+      <c r="Y271" s="1"/>
+      <c r="Z271" s="1"/>
+      <c r="AA271" s="1"/>
+      <c r="AB271" s="1"/>
+      <c r="AC271" s="1"/>
+      <c r="AD271" s="1"/>
+      <c r="AE271" s="1"/>
+      <c r="AH271" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI271" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ271">
+        <v>14</v>
+      </c>
+      <c r="AK271">
+        <v>0</v>
+      </c>
+      <c r="AT271">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW271" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="1">
+        <v>1</v>
+      </c>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
+      <c r="X272" s="1"/>
+      <c r="Y272" s="1"/>
+      <c r="Z272" s="1"/>
+      <c r="AA272" s="1"/>
+      <c r="AB272" s="1"/>
+      <c r="AC272" s="1"/>
+      <c r="AD272" s="1"/>
+      <c r="AE272" s="1"/>
+      <c r="AH272" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI272" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ272">
+        <v>14</v>
+      </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
+      <c r="AT272">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW272" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="1">
+        <v>1</v>
+      </c>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
+      <c r="W273" s="1"/>
+      <c r="X273" s="1"/>
+      <c r="Y273" s="1"/>
+      <c r="Z273" s="1"/>
+      <c r="AA273" s="1"/>
+      <c r="AB273" s="1"/>
+      <c r="AC273" s="1"/>
+      <c r="AD273" s="1"/>
+      <c r="AE273" s="1"/>
+      <c r="AH273" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI273" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ273">
+        <v>14</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AT273">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW273" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="1">
+        <v>1</v>
+      </c>
+      <c r="R274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
+      <c r="W274" s="1"/>
+      <c r="X274" s="1"/>
+      <c r="Y274" s="1"/>
+      <c r="Z274" s="1"/>
+      <c r="AA274" s="1"/>
+      <c r="AB274" s="1"/>
+      <c r="AC274" s="1"/>
+      <c r="AD274" s="1"/>
+      <c r="AE274" s="1"/>
+      <c r="AH274" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI274" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ274">
+        <v>14</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AT274">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW274" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q275" s="1">
+        <v>1</v>
+      </c>
+      <c r="R275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
+      <c r="U275" s="1"/>
+      <c r="V275" s="1"/>
+      <c r="W275" s="1"/>
+      <c r="X275" s="1"/>
+      <c r="Y275" s="1"/>
+      <c r="Z275" s="1"/>
+      <c r="AA275" s="1"/>
+      <c r="AB275" s="1"/>
+      <c r="AC275" s="1"/>
+      <c r="AD275" s="1"/>
+      <c r="AE275" s="1"/>
+      <c r="AH275" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ275">
+        <v>14</v>
+      </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
+      <c r="AT275">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW275" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q276" s="1">
+        <v>1</v>
+      </c>
+      <c r="R276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
+      <c r="U276" s="1"/>
+      <c r="V276" s="1"/>
+      <c r="W276" s="1"/>
+      <c r="X276" s="1"/>
+      <c r="Y276" s="1"/>
+      <c r="Z276" s="1"/>
+      <c r="AA276" s="1"/>
+      <c r="AB276" s="1"/>
+      <c r="AC276" s="1"/>
+      <c r="AD276" s="1"/>
+      <c r="AE276" s="1"/>
+      <c r="AH276" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI276" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ276">
+        <v>14</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AT276">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW276" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q277" s="1">
+        <v>1</v>
+      </c>
+      <c r="R277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
+      <c r="U277" s="1"/>
+      <c r="V277" s="1"/>
+      <c r="W277" s="1"/>
+      <c r="X277" s="1"/>
+      <c r="Y277" s="1"/>
+      <c r="Z277" s="1"/>
+      <c r="AA277" s="1"/>
+      <c r="AB277" s="1"/>
+      <c r="AC277" s="1"/>
+      <c r="AD277" s="1"/>
+      <c r="AE277" s="1"/>
+      <c r="AH277" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI277" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ277">
+        <v>14</v>
+      </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
+      <c r="AT277">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW277" t="str">
+        <f t="shared" si="78"/>
+        <v>14,2,14,0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1">
+        <v>1</v>
+      </c>
+      <c r="F278" s="1">
+        <v>1</v>
+      </c>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q278" s="1">
+        <v>1</v>
+      </c>
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
+      <c r="U278" s="1"/>
+      <c r="V278" s="1"/>
+      <c r="W278" s="1"/>
+      <c r="X278" s="1"/>
+      <c r="Y278" s="1"/>
+      <c r="Z278" s="1"/>
+      <c r="AA278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC278" s="1"/>
+      <c r="AD278" s="1"/>
+      <c r="AE278" s="1"/>
+      <c r="AH278">
+        <v>3</v>
+      </c>
+      <c r="AI278">
+        <v>2</v>
+      </c>
+      <c r="AJ278">
+        <v>9</v>
+      </c>
+      <c r="AK278">
+        <v>2</v>
+      </c>
+      <c r="AL278">
+        <v>9</v>
+      </c>
+      <c r="AM278">
+        <v>2</v>
+      </c>
+      <c r="AN278">
+        <v>3</v>
+      </c>
+      <c r="AO278">
+        <v>0</v>
+      </c>
+      <c r="AT278">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW278" t="str">
+        <f t="shared" si="78"/>
+        <v>3,2,9,2,9,2,3,0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1">
+        <v>1</v>
+      </c>
+      <c r="F279" s="1">
+        <v>1</v>
+      </c>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q279" s="1">
+        <v>1</v>
+      </c>
+      <c r="R279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
+      <c r="U279" s="1"/>
+      <c r="V279" s="1"/>
+      <c r="W279" s="1"/>
+      <c r="X279" s="1"/>
+      <c r="Y279" s="1"/>
+      <c r="Z279" s="1"/>
+      <c r="AA279" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB279" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC279" s="1"/>
+      <c r="AD279" s="1"/>
+      <c r="AE279" s="1"/>
+      <c r="AH279">
+        <v>3</v>
+      </c>
+      <c r="AI279">
+        <v>2</v>
+      </c>
+      <c r="AJ279">
+        <v>9</v>
+      </c>
+      <c r="AK279">
+        <v>2</v>
+      </c>
+      <c r="AL279">
+        <v>9</v>
+      </c>
+      <c r="AM279">
+        <v>2</v>
+      </c>
+      <c r="AN279">
+        <v>3</v>
+      </c>
+      <c r="AO279">
+        <v>0</v>
+      </c>
+      <c r="AT279">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW279" t="str">
+        <f t="shared" si="78"/>
+        <v>3,2,9,2,9,2,3,0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1">
+        <v>1</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1</v>
+      </c>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="1">
+        <v>1</v>
+      </c>
+      <c r="R280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
+      <c r="U280" s="1"/>
+      <c r="V280" s="1"/>
+      <c r="W280" s="1"/>
+      <c r="X280" s="1"/>
+      <c r="Y280" s="1"/>
+      <c r="Z280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC280" s="1"/>
+      <c r="AD280" s="1"/>
+      <c r="AE280" s="1"/>
+      <c r="AH280">
+        <v>3</v>
+      </c>
+      <c r="AI280">
+        <v>3</v>
+      </c>
+      <c r="AJ280">
+        <v>8</v>
+      </c>
+      <c r="AK280">
+        <v>2</v>
+      </c>
+      <c r="AL280">
+        <v>8</v>
+      </c>
+      <c r="AM280">
+        <v>3</v>
+      </c>
+      <c r="AN280">
+        <v>3</v>
+      </c>
+      <c r="AO280">
+        <v>0</v>
+      </c>
+      <c r="AT280">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW280" t="str">
+        <f t="shared" si="78"/>
+        <v>3,3,8,2,8,3,3,0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1">
+        <v>1</v>
+      </c>
+      <c r="G281" s="1">
+        <v>1</v>
+      </c>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q281" s="1">
+        <v>1</v>
+      </c>
+      <c r="R281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
+      <c r="U281" s="1"/>
+      <c r="V281" s="1"/>
+      <c r="W281" s="1"/>
+      <c r="X281" s="1"/>
+      <c r="Y281" s="1"/>
+      <c r="Z281" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA281" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB281" s="1"/>
+      <c r="AC281" s="1"/>
+      <c r="AD281" s="1"/>
+      <c r="AE281" s="1"/>
+      <c r="AH281">
+        <v>4</v>
+      </c>
+      <c r="AI281">
+        <v>2</v>
+      </c>
+      <c r="AJ281">
+        <v>8</v>
+      </c>
+      <c r="AK281">
+        <v>2</v>
+      </c>
+      <c r="AL281">
+        <v>8</v>
+      </c>
+      <c r="AM281">
+        <v>2</v>
+      </c>
+      <c r="AN281">
+        <v>4</v>
+      </c>
+      <c r="AO281">
+        <v>0</v>
+      </c>
+      <c r="AT281">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW281" t="str">
+        <f t="shared" si="78"/>
+        <v>4,2,8,2,8,2,4,0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1">
+        <v>1</v>
+      </c>
+      <c r="G282" s="1">
+        <v>1</v>
+      </c>
+      <c r="H282" s="1">
+        <v>1</v>
+      </c>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q282" s="1">
+        <v>1</v>
+      </c>
+      <c r="R282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
+      <c r="U282" s="1"/>
+      <c r="V282" s="1"/>
+      <c r="W282" s="1"/>
+      <c r="X282" s="1"/>
+      <c r="Y282" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z282" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA282" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB282" s="1"/>
+      <c r="AC282" s="1"/>
+      <c r="AD282" s="1"/>
+      <c r="AE282" s="1"/>
+      <c r="AH282">
+        <v>4</v>
+      </c>
+      <c r="AI282">
+        <v>3</v>
+      </c>
+      <c r="AJ282">
+        <v>7</v>
+      </c>
+      <c r="AK282">
+        <v>2</v>
+      </c>
+      <c r="AL282">
+        <v>7</v>
+      </c>
+      <c r="AM282">
+        <v>3</v>
+      </c>
+      <c r="AN282">
+        <v>4</v>
+      </c>
+      <c r="AO282">
+        <v>0</v>
+      </c>
+      <c r="AT282">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW282" t="str">
+        <f t="shared" si="78"/>
+        <v>4,3,7,2,7,3,4,0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1">
+        <v>1</v>
+      </c>
+      <c r="H283" s="1">
+        <v>1</v>
+      </c>
+      <c r="I283" s="1">
+        <v>1</v>
+      </c>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q283" s="1">
+        <v>1</v>
+      </c>
+      <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
+      <c r="U283" s="1"/>
+      <c r="V283" s="1"/>
+      <c r="W283" s="1"/>
+      <c r="X283" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y283" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z283" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA283" s="1"/>
+      <c r="AB283" s="1"/>
+      <c r="AC283" s="1"/>
+      <c r="AD283" s="1"/>
+      <c r="AE283" s="1"/>
+      <c r="AH283">
+        <v>5</v>
+      </c>
+      <c r="AI283">
+        <v>3</v>
+      </c>
+      <c r="AJ283">
+        <v>6</v>
+      </c>
+      <c r="AK283">
+        <v>2</v>
+      </c>
+      <c r="AL283">
+        <v>6</v>
+      </c>
+      <c r="AM283">
+        <v>3</v>
+      </c>
+      <c r="AN283">
+        <v>5</v>
+      </c>
+      <c r="AO283">
+        <v>0</v>
+      </c>
+      <c r="AT283">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW283" t="str">
+        <f t="shared" si="78"/>
+        <v>5,3,6,2,6,3,5,0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1">
+        <v>1</v>
+      </c>
+      <c r="I284" s="1">
+        <v>1</v>
+      </c>
+      <c r="J284" s="1">
+        <v>1</v>
+      </c>
+      <c r="K284" s="1">
+        <v>1</v>
+      </c>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q284" s="1">
+        <v>1</v>
+      </c>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1">
+        <v>1</v>
+      </c>
+      <c r="W284" s="1">
+        <v>1</v>
+      </c>
+      <c r="X284" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y284" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z284" s="1"/>
+      <c r="AA284" s="1"/>
+      <c r="AB284" s="1"/>
+      <c r="AC284" s="1"/>
+      <c r="AD284" s="1"/>
+      <c r="AE284" s="1"/>
+      <c r="AH284">
+        <v>6</v>
+      </c>
+      <c r="AI284">
+        <v>4</v>
+      </c>
+      <c r="AJ284">
+        <v>4</v>
+      </c>
+      <c r="AK284">
+        <v>2</v>
+      </c>
+      <c r="AL284">
+        <v>4</v>
+      </c>
+      <c r="AM284">
+        <v>4</v>
+      </c>
+      <c r="AN284">
+        <v>6</v>
+      </c>
+      <c r="AO284">
+        <v>0</v>
+      </c>
+      <c r="AT284">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW284" t="str">
+        <f t="shared" si="78"/>
+        <v>6,4,4,2,4,4,6,0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1">
+        <v>1</v>
+      </c>
+      <c r="J285" s="1">
+        <v>1</v>
+      </c>
+      <c r="K285" s="1">
+        <v>1</v>
+      </c>
+      <c r="L285" s="1">
+        <v>1</v>
+      </c>
+      <c r="M285" s="1">
+        <v>1</v>
+      </c>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q285" s="1">
+        <v>1</v>
+      </c>
+      <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1">
+        <v>1</v>
+      </c>
+      <c r="U285" s="1">
+        <v>1</v>
+      </c>
+      <c r="V285" s="1">
+        <v>1</v>
+      </c>
+      <c r="W285" s="1">
+        <v>1</v>
+      </c>
+      <c r="X285" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y285" s="1"/>
+      <c r="Z285" s="1"/>
+      <c r="AA285" s="1"/>
+      <c r="AB285" s="1"/>
+      <c r="AC285" s="1"/>
+      <c r="AD285" s="1"/>
+      <c r="AE285" s="1"/>
+      <c r="AH285">
+        <v>7</v>
+      </c>
+      <c r="AI285">
+        <v>5</v>
+      </c>
+      <c r="AJ285">
+        <v>2</v>
+      </c>
+      <c r="AK285">
+        <v>2</v>
+      </c>
+      <c r="AL285">
+        <v>2</v>
+      </c>
+      <c r="AM285">
+        <v>5</v>
+      </c>
+      <c r="AN285">
+        <v>7</v>
+      </c>
+      <c r="AO285">
+        <v>0</v>
+      </c>
+      <c r="AT285">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW285" t="str">
+        <f t="shared" si="78"/>
+        <v>7,5,2,2,2,5,7,0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1">
+        <v>1</v>
+      </c>
+      <c r="L286" s="1">
+        <v>1</v>
+      </c>
+      <c r="M286" s="1">
+        <v>1</v>
+      </c>
+      <c r="N286" s="1">
+        <v>1</v>
+      </c>
+      <c r="O286" s="1">
+        <v>1</v>
+      </c>
+      <c r="P286" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q286" s="1">
+        <v>1</v>
+      </c>
+      <c r="R286" s="1">
+        <v>1</v>
+      </c>
+      <c r="S286" s="1">
+        <v>1</v>
+      </c>
+      <c r="T286" s="1">
+        <v>1</v>
+      </c>
+      <c r="U286" s="1">
+        <v>1</v>
+      </c>
+      <c r="V286" s="1">
+        <v>1</v>
+      </c>
+      <c r="W286" s="1"/>
+      <c r="X286" s="1"/>
+      <c r="Y286" s="1"/>
+      <c r="Z286" s="1"/>
+      <c r="AA286" s="1"/>
+      <c r="AB286" s="1"/>
+      <c r="AC286" s="1"/>
+      <c r="AD286" s="1"/>
+      <c r="AE286" s="1"/>
+      <c r="AH286">
+        <v>9</v>
+      </c>
+      <c r="AI286">
+        <v>12</v>
+      </c>
+      <c r="AJ286">
+        <v>9</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AT286">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW286" t="str">
+        <f t="shared" si="78"/>
+        <v>9,12,9,0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1">
+        <v>1</v>
+      </c>
+      <c r="N287" s="1">
+        <v>1</v>
+      </c>
+      <c r="O287" s="1">
+        <v>1</v>
+      </c>
+      <c r="P287" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q287" s="1">
+        <v>1</v>
+      </c>
+      <c r="R287" s="1">
+        <v>1</v>
+      </c>
+      <c r="S287" s="1">
+        <v>1</v>
+      </c>
+      <c r="T287" s="1">
+        <v>1</v>
+      </c>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+      <c r="W287" s="1"/>
+      <c r="X287" s="1"/>
+      <c r="Y287" s="1"/>
+      <c r="Z287" s="1"/>
+      <c r="AA287" s="1"/>
+      <c r="AB287" s="1"/>
+      <c r="AC287" s="1"/>
+      <c r="AD287" s="1"/>
+      <c r="AE287" s="1"/>
+      <c r="AH287">
+        <v>7</v>
+      </c>
+      <c r="AI287">
+        <v>16</v>
+      </c>
+      <c r="AJ287">
+        <v>7</v>
+      </c>
+      <c r="AK287">
+        <v>0</v>
+      </c>
+      <c r="AT287">
+        <f t="shared" si="77"/>
+        <v>30</v>
+      </c>
+      <c r="AW287" t="str">
+        <f t="shared" si="78"/>
+        <v>7,16,7,0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
+      <c r="U288" s="1"/>
+      <c r="V288" s="1"/>
+      <c r="W288" s="1"/>
+      <c r="X288" s="1"/>
+      <c r="Y288" s="1"/>
+      <c r="Z288" s="1"/>
+      <c r="AA288" s="1"/>
+      <c r="AB288" s="1"/>
+      <c r="AC288" s="1"/>
+      <c r="AD288" s="1"/>
+      <c r="AE288" s="1"/>
+      <c r="AH288">
+        <v>30</v>
+      </c>
+      <c r="AI288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+      <c r="U291" s="1"/>
+      <c r="V291" s="1"/>
+      <c r="W291" s="1"/>
+      <c r="X291" s="1"/>
+      <c r="Y291" s="1"/>
+      <c r="Z291" s="1"/>
+      <c r="AA291" s="1"/>
+      <c r="AB291" s="1"/>
+      <c r="AC291" s="1"/>
+      <c r="AD291" s="1"/>
+      <c r="AE291" s="1"/>
+    </row>
+    <row r="292" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
+      <c r="U292" s="1"/>
+      <c r="V292" s="1"/>
+      <c r="W292" s="1"/>
+      <c r="X292" s="1"/>
+      <c r="Y292" s="1"/>
+      <c r="Z292" s="1"/>
+      <c r="AA292" s="1"/>
+      <c r="AB292" s="1"/>
+      <c r="AC292" s="1"/>
+      <c r="AD292" s="1"/>
+      <c r="AE292" s="1"/>
+    </row>
+    <row r="293" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
+      <c r="U293" s="1"/>
+      <c r="V293" s="1"/>
+      <c r="W293" s="1"/>
+      <c r="X293" s="1"/>
+      <c r="Y293" s="1"/>
+      <c r="Z293" s="1"/>
+      <c r="AA293" s="1"/>
+      <c r="AB293" s="1"/>
+      <c r="AC293" s="1"/>
+      <c r="AD293" s="1"/>
+      <c r="AE293" s="1"/>
+    </row>
+    <row r="294" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+      <c r="W294" s="1"/>
+      <c r="X294" s="1"/>
+      <c r="Y294" s="1"/>
+      <c r="Z294" s="1"/>
+      <c r="AA294" s="1"/>
+      <c r="AB294" s="1"/>
+      <c r="AC294" s="1"/>
+      <c r="AD294" s="1"/>
+      <c r="AE294" s="1"/>
+    </row>
+    <row r="295" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
+      <c r="U295" s="1"/>
+      <c r="V295" s="1"/>
+      <c r="W295" s="1"/>
+      <c r="X295" s="1"/>
+      <c r="Y295" s="1"/>
+      <c r="Z295" s="1"/>
+      <c r="AA295" s="1"/>
+      <c r="AB295" s="1"/>
+      <c r="AC295" s="1"/>
+      <c r="AD295" s="1"/>
+      <c r="AE295" s="1"/>
+    </row>
+    <row r="296" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+      <c r="U296" s="1"/>
+      <c r="V296" s="1"/>
+      <c r="W296" s="1"/>
+      <c r="X296" s="1"/>
+      <c r="Y296" s="1"/>
+      <c r="Z296" s="1"/>
+      <c r="AA296" s="1"/>
+      <c r="AB296" s="1"/>
+      <c r="AC296" s="1"/>
+      <c r="AD296" s="1"/>
+      <c r="AE296" s="1"/>
+    </row>
+    <row r="297" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="1"/>
+      <c r="W297" s="1"/>
+      <c r="X297" s="1"/>
+      <c r="Y297" s="1"/>
+      <c r="Z297" s="1"/>
+      <c r="AA297" s="1"/>
+      <c r="AB297" s="1"/>
+      <c r="AC297" s="1"/>
+      <c r="AD297" s="1"/>
+      <c r="AE297" s="1"/>
+    </row>
+    <row r="298" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
+      <c r="U298" s="1"/>
+      <c r="V298" s="1"/>
+      <c r="W298" s="1"/>
+      <c r="X298" s="1"/>
+      <c r="Y298" s="1"/>
+      <c r="Z298" s="1"/>
+      <c r="AA298" s="1"/>
+      <c r="AB298" s="1"/>
+      <c r="AC298" s="1"/>
+      <c r="AD298" s="1"/>
+      <c r="AE298" s="1"/>
+    </row>
+    <row r="299" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
+      <c r="U299" s="1"/>
+      <c r="V299" s="1"/>
+      <c r="W299" s="1"/>
+      <c r="X299" s="1"/>
+      <c r="Y299" s="1"/>
+      <c r="Z299" s="1"/>
+      <c r="AA299" s="1"/>
+      <c r="AB299" s="1"/>
+      <c r="AC299" s="1"/>
+      <c r="AD299" s="1"/>
+      <c r="AE299" s="1"/>
+    </row>
+    <row r="300" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
+      <c r="U300" s="1"/>
+      <c r="V300" s="1"/>
+      <c r="W300" s="1"/>
+      <c r="X300" s="1"/>
+      <c r="Y300" s="1"/>
+      <c r="Z300" s="1"/>
+      <c r="AA300" s="1"/>
+      <c r="AB300" s="1"/>
+      <c r="AC300" s="1"/>
+      <c r="AD300" s="1"/>
+      <c r="AE300" s="1"/>
+    </row>
+    <row r="301" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
+      <c r="U301" s="1"/>
+      <c r="V301" s="1"/>
+      <c r="W301" s="1"/>
+      <c r="X301" s="1"/>
+      <c r="Y301" s="1"/>
+      <c r="Z301" s="1"/>
+      <c r="AA301" s="1"/>
+      <c r="AB301" s="1"/>
+      <c r="AC301" s="1"/>
+      <c r="AD301" s="1"/>
+      <c r="AE301" s="1"/>
+    </row>
+    <row r="302" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="1"/>
+      <c r="R302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="1"/>
+      <c r="U302" s="1"/>
+      <c r="V302" s="1"/>
+      <c r="W302" s="1"/>
+      <c r="X302" s="1"/>
+      <c r="Y302" s="1"/>
+      <c r="Z302" s="1"/>
+      <c r="AA302" s="1"/>
+      <c r="AB302" s="1"/>
+      <c r="AC302" s="1"/>
+      <c r="AD302" s="1"/>
+      <c r="AE302" s="1"/>
+    </row>
+    <row r="303" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
+      <c r="U303" s="1"/>
+      <c r="V303" s="1"/>
+      <c r="W303" s="1"/>
+      <c r="X303" s="1"/>
+      <c r="Y303" s="1"/>
+      <c r="Z303" s="1"/>
+      <c r="AA303" s="1"/>
+      <c r="AB303" s="1"/>
+      <c r="AC303" s="1"/>
+      <c r="AD303" s="1"/>
+      <c r="AE303" s="1"/>
+    </row>
+    <row r="304" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="P304" s="1"/>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="T304" s="1"/>
+      <c r="U304" s="1"/>
+      <c r="V304" s="1"/>
+      <c r="W304" s="1"/>
+      <c r="X304" s="1"/>
+      <c r="Y304" s="1"/>
+      <c r="Z304" s="1"/>
+      <c r="AA304" s="1"/>
+      <c r="AB304" s="1"/>
+      <c r="AC304" s="1"/>
+      <c r="AD304" s="1"/>
+      <c r="AE304" s="1"/>
+    </row>
+    <row r="305" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
+      <c r="U305" s="1"/>
+      <c r="V305" s="1"/>
+      <c r="W305" s="1"/>
+      <c r="X305" s="1"/>
+      <c r="Y305" s="1"/>
+      <c r="Z305" s="1"/>
+      <c r="AA305" s="1"/>
+      <c r="AB305" s="1"/>
+      <c r="AC305" s="1"/>
+      <c r="AD305" s="1"/>
+      <c r="AE305" s="1"/>
+    </row>
+    <row r="306" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="Q306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="1"/>
+      <c r="W306" s="1"/>
+      <c r="X306" s="1"/>
+      <c r="Y306" s="1"/>
+      <c r="Z306" s="1"/>
+      <c r="AA306" s="1"/>
+      <c r="AB306" s="1"/>
+      <c r="AC306" s="1"/>
+      <c r="AD306" s="1"/>
+      <c r="AE306" s="1"/>
+    </row>
+    <row r="307" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+      <c r="Q307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
+      <c r="U307" s="1"/>
+      <c r="V307" s="1"/>
+      <c r="W307" s="1"/>
+      <c r="X307" s="1"/>
+      <c r="Y307" s="1"/>
+      <c r="Z307" s="1"/>
+      <c r="AA307" s="1"/>
+      <c r="AB307" s="1"/>
+      <c r="AC307" s="1"/>
+      <c r="AD307" s="1"/>
+      <c r="AE307" s="1"/>
+    </row>
+    <row r="308" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
+      <c r="U308" s="1"/>
+      <c r="V308" s="1"/>
+      <c r="W308" s="1"/>
+      <c r="X308" s="1"/>
+      <c r="Y308" s="1"/>
+      <c r="Z308" s="1"/>
+      <c r="AA308" s="1"/>
+      <c r="AB308" s="1"/>
+      <c r="AC308" s="1"/>
+      <c r="AD308" s="1"/>
+      <c r="AE308" s="1"/>
+    </row>
+    <row r="309" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+      <c r="Q309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
+      <c r="U309" s="1"/>
+      <c r="V309" s="1"/>
+      <c r="W309" s="1"/>
+      <c r="X309" s="1"/>
+      <c r="Y309" s="1"/>
+      <c r="Z309" s="1"/>
+      <c r="AA309" s="1"/>
+      <c r="AB309" s="1"/>
+      <c r="AC309" s="1"/>
+      <c r="AD309" s="1"/>
+      <c r="AE309" s="1"/>
+    </row>
+    <row r="310" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
+      <c r="U310" s="1"/>
+      <c r="V310" s="1"/>
+      <c r="W310" s="1"/>
+      <c r="X310" s="1"/>
+      <c r="Y310" s="1"/>
+      <c r="Z310" s="1"/>
+      <c r="AA310" s="1"/>
+      <c r="AB310" s="1"/>
+      <c r="AC310" s="1"/>
+      <c r="AD310" s="1"/>
+      <c r="AE310" s="1"/>
+    </row>
+    <row r="311" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="1"/>
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
+      <c r="R311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
+      <c r="U311" s="1"/>
+      <c r="V311" s="1"/>
+      <c r="W311" s="1"/>
+      <c r="X311" s="1"/>
+      <c r="Y311" s="1"/>
+      <c r="Z311" s="1"/>
+      <c r="AA311" s="1"/>
+      <c r="AB311" s="1"/>
+      <c r="AC311" s="1"/>
+      <c r="AD311" s="1"/>
+      <c r="AE311" s="1"/>
+    </row>
+    <row r="312" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+      <c r="Q312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
+      <c r="U312" s="1"/>
+      <c r="V312" s="1"/>
+      <c r="W312" s="1"/>
+      <c r="X312" s="1"/>
+      <c r="Y312" s="1"/>
+      <c r="Z312" s="1"/>
+      <c r="AA312" s="1"/>
+      <c r="AB312" s="1"/>
+      <c r="AC312" s="1"/>
+      <c r="AD312" s="1"/>
+      <c r="AE312" s="1"/>
+    </row>
+    <row r="313" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
+      <c r="U313" s="1"/>
+      <c r="V313" s="1"/>
+      <c r="W313" s="1"/>
+      <c r="X313" s="1"/>
+      <c r="Y313" s="1"/>
+      <c r="Z313" s="1"/>
+      <c r="AA313" s="1"/>
+      <c r="AB313" s="1"/>
+      <c r="AC313" s="1"/>
+      <c r="AD313" s="1"/>
+      <c r="AE313" s="1"/>
+    </row>
+    <row r="314" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="1"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+      <c r="P314" s="1"/>
+      <c r="Q314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="1"/>
+      <c r="U314" s="1"/>
+      <c r="V314" s="1"/>
+      <c r="W314" s="1"/>
+      <c r="X314" s="1"/>
+      <c r="Y314" s="1"/>
+      <c r="Z314" s="1"/>
+      <c r="AA314" s="1"/>
+      <c r="AB314" s="1"/>
+      <c r="AC314" s="1"/>
+      <c r="AD314" s="1"/>
+      <c r="AE314" s="1"/>
+    </row>
+    <row r="315" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="P315" s="1"/>
+      <c r="Q315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
+      <c r="U315" s="1"/>
+      <c r="V315" s="1"/>
+      <c r="W315" s="1"/>
+      <c r="X315" s="1"/>
+      <c r="Y315" s="1"/>
+      <c r="Z315" s="1"/>
+      <c r="AA315" s="1"/>
+      <c r="AB315" s="1"/>
+      <c r="AC315" s="1"/>
+      <c r="AD315" s="1"/>
+      <c r="AE315" s="1"/>
+    </row>
+    <row r="316" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1"/>
+      <c r="K316" s="1"/>
+      <c r="L316" s="1"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+      <c r="P316" s="1"/>
+      <c r="Q316" s="1"/>
+      <c r="R316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="T316" s="1"/>
+      <c r="U316" s="1"/>
+      <c r="V316" s="1"/>
+      <c r="W316" s="1"/>
+      <c r="X316" s="1"/>
+      <c r="Y316" s="1"/>
+      <c r="Z316" s="1"/>
+      <c r="AA316" s="1"/>
+      <c r="AB316" s="1"/>
+      <c r="AC316" s="1"/>
+      <c r="AD316" s="1"/>
+      <c r="AE316" s="1"/>
+    </row>
+    <row r="317" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+      <c r="K317" s="1"/>
+      <c r="L317" s="1"/>
+      <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+      <c r="P317" s="1"/>
+      <c r="Q317" s="1"/>
+      <c r="R317" s="1"/>
+      <c r="S317" s="1"/>
+      <c r="T317" s="1"/>
+      <c r="U317" s="1"/>
+      <c r="V317" s="1"/>
+      <c r="W317" s="1"/>
+      <c r="X317" s="1"/>
+      <c r="Y317" s="1"/>
+      <c r="Z317" s="1"/>
+      <c r="AA317" s="1"/>
+      <c r="AB317" s="1"/>
+      <c r="AC317" s="1"/>
+      <c r="AD317" s="1"/>
+      <c r="AE317" s="1"/>
+    </row>
+    <row r="318" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+      <c r="K318" s="1"/>
+      <c r="L318" s="1"/>
+      <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+      <c r="P318" s="1"/>
+      <c r="Q318" s="1"/>
+      <c r="R318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="T318" s="1"/>
+      <c r="U318" s="1"/>
+      <c r="V318" s="1"/>
+      <c r="W318" s="1"/>
+      <c r="X318" s="1"/>
+      <c r="Y318" s="1"/>
+      <c r="Z318" s="1"/>
+      <c r="AA318" s="1"/>
+      <c r="AB318" s="1"/>
+      <c r="AC318" s="1"/>
+      <c r="AD318" s="1"/>
+      <c r="AE318" s="1"/>
+    </row>
+    <row r="319" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+      <c r="L319" s="1"/>
+      <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+      <c r="P319" s="1"/>
+      <c r="Q319" s="1"/>
+      <c r="R319" s="1"/>
+      <c r="S319" s="1"/>
+      <c r="T319" s="1"/>
+      <c r="U319" s="1"/>
+      <c r="V319" s="1"/>
+      <c r="W319" s="1"/>
+      <c r="X319" s="1"/>
+      <c r="Y319" s="1"/>
+      <c r="Z319" s="1"/>
+      <c r="AA319" s="1"/>
+      <c r="AB319" s="1"/>
+      <c r="AC319" s="1"/>
+      <c r="AD319" s="1"/>
+      <c r="AE319" s="1"/>
+    </row>
+    <row r="320" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+      <c r="L320" s="1"/>
+      <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
+      <c r="R320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="T320" s="1"/>
+      <c r="U320" s="1"/>
+      <c r="V320" s="1"/>
+      <c r="W320" s="1"/>
+      <c r="X320" s="1"/>
+      <c r="Y320" s="1"/>
+      <c r="Z320" s="1"/>
+      <c r="AA320" s="1"/>
+      <c r="AB320" s="1"/>
+      <c r="AC320" s="1"/>
+      <c r="AD320" s="1"/>
+      <c r="AE320" s="1"/>
+    </row>
+    <row r="321" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="1"/>
+      <c r="Q321" s="1"/>
+      <c r="R321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="T321" s="1"/>
+      <c r="U321" s="1"/>
+      <c r="V321" s="1"/>
+      <c r="W321" s="1"/>
+      <c r="X321" s="1"/>
+      <c r="Y321" s="1"/>
+      <c r="Z321" s="1"/>
+      <c r="AA321" s="1"/>
+      <c r="AB321" s="1"/>
+      <c r="AC321" s="1"/>
+      <c r="AD321" s="1"/>
+      <c r="AE321" s="1"/>
+    </row>
+    <row r="324" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+      <c r="K324" s="1"/>
+      <c r="L324" s="1"/>
+      <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+      <c r="P324" s="1"/>
+      <c r="Q324" s="1"/>
+      <c r="R324" s="1"/>
+      <c r="S324" s="1"/>
+      <c r="T324" s="1"/>
+      <c r="U324" s="1"/>
+      <c r="V324" s="1"/>
+      <c r="W324" s="1"/>
+      <c r="X324" s="1"/>
+      <c r="Y324" s="1"/>
+      <c r="Z324" s="1"/>
+      <c r="AA324" s="1"/>
+      <c r="AB324" s="1"/>
+      <c r="AC324" s="1"/>
+      <c r="AD324" s="1"/>
+      <c r="AE324" s="1"/>
+    </row>
+    <row r="325" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+      <c r="P325" s="1"/>
+      <c r="Q325" s="1"/>
+      <c r="R325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="T325" s="1"/>
+      <c r="U325" s="1"/>
+      <c r="V325" s="1"/>
+      <c r="W325" s="1"/>
+      <c r="X325" s="1"/>
+      <c r="Y325" s="1"/>
+      <c r="Z325" s="1"/>
+      <c r="AA325" s="1"/>
+      <c r="AB325" s="1"/>
+      <c r="AC325" s="1"/>
+      <c r="AD325" s="1"/>
+      <c r="AE325" s="1"/>
+    </row>
+    <row r="326" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+      <c r="K326" s="1"/>
+      <c r="L326" s="1"/>
+      <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+      <c r="P326" s="1"/>
+      <c r="Q326" s="1"/>
+      <c r="R326" s="1"/>
+      <c r="S326" s="1"/>
+      <c r="T326" s="1"/>
+      <c r="U326" s="1"/>
+      <c r="V326" s="1"/>
+      <c r="W326" s="1"/>
+      <c r="X326" s="1"/>
+      <c r="Y326" s="1"/>
+      <c r="Z326" s="1"/>
+      <c r="AA326" s="1"/>
+      <c r="AB326" s="1"/>
+      <c r="AC326" s="1"/>
+      <c r="AD326" s="1"/>
+      <c r="AE326" s="1"/>
+    </row>
+    <row r="327" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+      <c r="K327" s="1"/>
+      <c r="L327" s="1"/>
+      <c r="M327" s="1"/>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+      <c r="P327" s="1"/>
+      <c r="Q327" s="1"/>
+      <c r="R327" s="1"/>
+      <c r="S327" s="1"/>
+      <c r="T327" s="1"/>
+      <c r="U327" s="1"/>
+      <c r="V327" s="1"/>
+      <c r="W327" s="1"/>
+      <c r="X327" s="1"/>
+      <c r="Y327" s="1"/>
+      <c r="Z327" s="1"/>
+      <c r="AA327" s="1"/>
+      <c r="AB327" s="1"/>
+      <c r="AC327" s="1"/>
+      <c r="AD327" s="1"/>
+      <c r="AE327" s="1"/>
+    </row>
+    <row r="328" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+      <c r="K328" s="1"/>
+      <c r="L328" s="1"/>
+      <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+      <c r="P328" s="1"/>
+      <c r="Q328" s="1"/>
+      <c r="R328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="T328" s="1"/>
+      <c r="U328" s="1"/>
+      <c r="V328" s="1"/>
+      <c r="W328" s="1"/>
+      <c r="X328" s="1"/>
+      <c r="Y328" s="1"/>
+      <c r="Z328" s="1"/>
+      <c r="AA328" s="1"/>
+      <c r="AB328" s="1"/>
+      <c r="AC328" s="1"/>
+      <c r="AD328" s="1"/>
+      <c r="AE328" s="1"/>
+    </row>
+    <row r="329" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+      <c r="P329" s="1"/>
+      <c r="Q329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="T329" s="1"/>
+      <c r="U329" s="1"/>
+      <c r="V329" s="1"/>
+      <c r="W329" s="1"/>
+      <c r="X329" s="1"/>
+      <c r="Y329" s="1"/>
+      <c r="Z329" s="1"/>
+      <c r="AA329" s="1"/>
+      <c r="AB329" s="1"/>
+      <c r="AC329" s="1"/>
+      <c r="AD329" s="1"/>
+      <c r="AE329" s="1"/>
+    </row>
+    <row r="330" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+      <c r="P330" s="1"/>
+      <c r="Q330" s="1"/>
+      <c r="R330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="T330" s="1"/>
+      <c r="U330" s="1"/>
+      <c r="V330" s="1"/>
+      <c r="W330" s="1"/>
+      <c r="X330" s="1"/>
+      <c r="Y330" s="1"/>
+      <c r="Z330" s="1"/>
+      <c r="AA330" s="1"/>
+      <c r="AB330" s="1"/>
+      <c r="AC330" s="1"/>
+      <c r="AD330" s="1"/>
+      <c r="AE330" s="1"/>
+    </row>
+    <row r="331" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+      <c r="K331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+      <c r="P331" s="1"/>
+      <c r="Q331" s="1"/>
+      <c r="R331" s="1"/>
+      <c r="S331" s="1"/>
+      <c r="T331" s="1"/>
+      <c r="U331" s="1"/>
+      <c r="V331" s="1"/>
+      <c r="W331" s="1"/>
+      <c r="X331" s="1"/>
+      <c r="Y331" s="1"/>
+      <c r="Z331" s="1"/>
+      <c r="AA331" s="1"/>
+      <c r="AB331" s="1"/>
+      <c r="AC331" s="1"/>
+      <c r="AD331" s="1"/>
+      <c r="AE331" s="1"/>
+    </row>
+    <row r="332" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+      <c r="K332" s="1"/>
+      <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+      <c r="P332" s="1"/>
+      <c r="Q332" s="1"/>
+      <c r="R332" s="1"/>
+      <c r="S332" s="1"/>
+      <c r="T332" s="1"/>
+      <c r="U332" s="1"/>
+      <c r="V332" s="1"/>
+      <c r="W332" s="1"/>
+      <c r="X332" s="1"/>
+      <c r="Y332" s="1"/>
+      <c r="Z332" s="1"/>
+      <c r="AA332" s="1"/>
+      <c r="AB332" s="1"/>
+      <c r="AC332" s="1"/>
+      <c r="AD332" s="1"/>
+      <c r="AE332" s="1"/>
+    </row>
+    <row r="333" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+      <c r="P333" s="1"/>
+      <c r="Q333" s="1"/>
+      <c r="R333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="T333" s="1"/>
+      <c r="U333" s="1"/>
+      <c r="V333" s="1"/>
+      <c r="W333" s="1"/>
+      <c r="X333" s="1"/>
+      <c r="Y333" s="1"/>
+      <c r="Z333" s="1"/>
+      <c r="AA333" s="1"/>
+      <c r="AB333" s="1"/>
+      <c r="AC333" s="1"/>
+      <c r="AD333" s="1"/>
+      <c r="AE333" s="1"/>
+    </row>
+    <row r="334" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+      <c r="P334" s="1"/>
+      <c r="Q334" s="1"/>
+      <c r="R334" s="1"/>
+      <c r="S334" s="1"/>
+      <c r="T334" s="1"/>
+      <c r="U334" s="1"/>
+      <c r="V334" s="1"/>
+      <c r="W334" s="1"/>
+      <c r="X334" s="1"/>
+      <c r="Y334" s="1"/>
+      <c r="Z334" s="1"/>
+      <c r="AA334" s="1"/>
+      <c r="AB334" s="1"/>
+      <c r="AC334" s="1"/>
+      <c r="AD334" s="1"/>
+      <c r="AE334" s="1"/>
+    </row>
+    <row r="335" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+      <c r="P335" s="1"/>
+      <c r="Q335" s="1"/>
+      <c r="R335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="T335" s="1"/>
+      <c r="U335" s="1"/>
+      <c r="V335" s="1"/>
+      <c r="W335" s="1"/>
+      <c r="X335" s="1"/>
+      <c r="Y335" s="1"/>
+      <c r="Z335" s="1"/>
+      <c r="AA335" s="1"/>
+      <c r="AB335" s="1"/>
+      <c r="AC335" s="1"/>
+      <c r="AD335" s="1"/>
+      <c r="AE335" s="1"/>
+    </row>
+    <row r="336" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+      <c r="P336" s="1"/>
+      <c r="Q336" s="1"/>
+      <c r="R336" s="1"/>
+      <c r="S336" s="1"/>
+      <c r="T336" s="1"/>
+      <c r="U336" s="1"/>
+      <c r="V336" s="1"/>
+      <c r="W336" s="1"/>
+      <c r="X336" s="1"/>
+      <c r="Y336" s="1"/>
+      <c r="Z336" s="1"/>
+      <c r="AA336" s="1"/>
+      <c r="AB336" s="1"/>
+      <c r="AC336" s="1"/>
+      <c r="AD336" s="1"/>
+      <c r="AE336" s="1"/>
+    </row>
+    <row r="337" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+      <c r="P337" s="1"/>
+      <c r="Q337" s="1"/>
+      <c r="R337" s="1"/>
+      <c r="S337" s="1"/>
+      <c r="T337" s="1"/>
+      <c r="U337" s="1"/>
+      <c r="V337" s="1"/>
+      <c r="W337" s="1"/>
+      <c r="X337" s="1"/>
+      <c r="Y337" s="1"/>
+      <c r="Z337" s="1"/>
+      <c r="AA337" s="1"/>
+      <c r="AB337" s="1"/>
+      <c r="AC337" s="1"/>
+      <c r="AD337" s="1"/>
+      <c r="AE337" s="1"/>
+    </row>
+    <row r="338" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+      <c r="P338" s="1"/>
+      <c r="Q338" s="1"/>
+      <c r="R338" s="1"/>
+      <c r="S338" s="1"/>
+      <c r="T338" s="1"/>
+      <c r="U338" s="1"/>
+      <c r="V338" s="1"/>
+      <c r="W338" s="1"/>
+      <c r="X338" s="1"/>
+      <c r="Y338" s="1"/>
+      <c r="Z338" s="1"/>
+      <c r="AA338" s="1"/>
+      <c r="AB338" s="1"/>
+      <c r="AC338" s="1"/>
+      <c r="AD338" s="1"/>
+      <c r="AE338" s="1"/>
+    </row>
+    <row r="339" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="P339" s="1"/>
+      <c r="Q339" s="1"/>
+      <c r="R339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="T339" s="1"/>
+      <c r="U339" s="1"/>
+      <c r="V339" s="1"/>
+      <c r="W339" s="1"/>
+      <c r="X339" s="1"/>
+      <c r="Y339" s="1"/>
+      <c r="Z339" s="1"/>
+      <c r="AA339" s="1"/>
+      <c r="AB339" s="1"/>
+      <c r="AC339" s="1"/>
+      <c r="AD339" s="1"/>
+      <c r="AE339" s="1"/>
+    </row>
+    <row r="340" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="P340" s="1"/>
+      <c r="Q340" s="1"/>
+      <c r="R340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="T340" s="1"/>
+      <c r="U340" s="1"/>
+      <c r="V340" s="1"/>
+      <c r="W340" s="1"/>
+      <c r="X340" s="1"/>
+      <c r="Y340" s="1"/>
+      <c r="Z340" s="1"/>
+      <c r="AA340" s="1"/>
+      <c r="AB340" s="1"/>
+      <c r="AC340" s="1"/>
+      <c r="AD340" s="1"/>
+      <c r="AE340" s="1"/>
+    </row>
+    <row r="341" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+      <c r="P341" s="1"/>
+      <c r="Q341" s="1"/>
+      <c r="R341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="T341" s="1"/>
+      <c r="U341" s="1"/>
+      <c r="V341" s="1"/>
+      <c r="W341" s="1"/>
+      <c r="X341" s="1"/>
+      <c r="Y341" s="1"/>
+      <c r="Z341" s="1"/>
+      <c r="AA341" s="1"/>
+      <c r="AB341" s="1"/>
+      <c r="AC341" s="1"/>
+      <c r="AD341" s="1"/>
+      <c r="AE341" s="1"/>
+    </row>
+    <row r="342" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+      <c r="P342" s="1"/>
+      <c r="Q342" s="1"/>
+      <c r="R342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="T342" s="1"/>
+      <c r="U342" s="1"/>
+      <c r="V342" s="1"/>
+      <c r="W342" s="1"/>
+      <c r="X342" s="1"/>
+      <c r="Y342" s="1"/>
+      <c r="Z342" s="1"/>
+      <c r="AA342" s="1"/>
+      <c r="AB342" s="1"/>
+      <c r="AC342" s="1"/>
+      <c r="AD342" s="1"/>
+      <c r="AE342" s="1"/>
+    </row>
+    <row r="343" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+      <c r="P343" s="1"/>
+      <c r="Q343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
+      <c r="U343" s="1"/>
+      <c r="V343" s="1"/>
+      <c r="W343" s="1"/>
+      <c r="X343" s="1"/>
+      <c r="Y343" s="1"/>
+      <c r="Z343" s="1"/>
+      <c r="AA343" s="1"/>
+      <c r="AB343" s="1"/>
+      <c r="AC343" s="1"/>
+      <c r="AD343" s="1"/>
+      <c r="AE343" s="1"/>
+    </row>
+    <row r="344" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+      <c r="P344" s="1"/>
+      <c r="Q344" s="1"/>
+      <c r="R344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="T344" s="1"/>
+      <c r="U344" s="1"/>
+      <c r="V344" s="1"/>
+      <c r="W344" s="1"/>
+      <c r="X344" s="1"/>
+      <c r="Y344" s="1"/>
+      <c r="Z344" s="1"/>
+      <c r="AA344" s="1"/>
+      <c r="AB344" s="1"/>
+      <c r="AC344" s="1"/>
+      <c r="AD344" s="1"/>
+      <c r="AE344" s="1"/>
+    </row>
+    <row r="345" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+      <c r="P345" s="1"/>
+      <c r="Q345" s="1"/>
+      <c r="R345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="T345" s="1"/>
+      <c r="U345" s="1"/>
+      <c r="V345" s="1"/>
+      <c r="W345" s="1"/>
+      <c r="X345" s="1"/>
+      <c r="Y345" s="1"/>
+      <c r="Z345" s="1"/>
+      <c r="AA345" s="1"/>
+      <c r="AB345" s="1"/>
+      <c r="AC345" s="1"/>
+      <c r="AD345" s="1"/>
+      <c r="AE345" s="1"/>
+    </row>
+    <row r="346" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+      <c r="K346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1"/>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+      <c r="P346" s="1"/>
+      <c r="Q346" s="1"/>
+      <c r="R346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="T346" s="1"/>
+      <c r="U346" s="1"/>
+      <c r="V346" s="1"/>
+      <c r="W346" s="1"/>
+      <c r="X346" s="1"/>
+      <c r="Y346" s="1"/>
+      <c r="Z346" s="1"/>
+      <c r="AA346" s="1"/>
+      <c r="AB346" s="1"/>
+      <c r="AC346" s="1"/>
+      <c r="AD346" s="1"/>
+      <c r="AE346" s="1"/>
+    </row>
+    <row r="347" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+      <c r="K347" s="1"/>
+      <c r="L347" s="1"/>
+      <c r="M347" s="1"/>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+      <c r="P347" s="1"/>
+      <c r="Q347" s="1"/>
+      <c r="R347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="T347" s="1"/>
+      <c r="U347" s="1"/>
+      <c r="V347" s="1"/>
+      <c r="W347" s="1"/>
+      <c r="X347" s="1"/>
+      <c r="Y347" s="1"/>
+      <c r="Z347" s="1"/>
+      <c r="AA347" s="1"/>
+      <c r="AB347" s="1"/>
+      <c r="AC347" s="1"/>
+      <c r="AD347" s="1"/>
+      <c r="AE347" s="1"/>
+    </row>
+    <row r="348" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+      <c r="P348" s="1"/>
+      <c r="Q348" s="1"/>
+      <c r="R348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="T348" s="1"/>
+      <c r="U348" s="1"/>
+      <c r="V348" s="1"/>
+      <c r="W348" s="1"/>
+      <c r="X348" s="1"/>
+      <c r="Y348" s="1"/>
+      <c r="Z348" s="1"/>
+      <c r="AA348" s="1"/>
+      <c r="AB348" s="1"/>
+      <c r="AC348" s="1"/>
+      <c r="AD348" s="1"/>
+      <c r="AE348" s="1"/>
+    </row>
+    <row r="349" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
+      <c r="R349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="T349" s="1"/>
+      <c r="U349" s="1"/>
+      <c r="V349" s="1"/>
+      <c r="W349" s="1"/>
+      <c r="X349" s="1"/>
+      <c r="Y349" s="1"/>
+      <c r="Z349" s="1"/>
+      <c r="AA349" s="1"/>
+      <c r="AB349" s="1"/>
+      <c r="AC349" s="1"/>
+      <c r="AD349" s="1"/>
+      <c r="AE349" s="1"/>
+    </row>
+    <row r="350" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="T350" s="1"/>
+      <c r="U350" s="1"/>
+      <c r="V350" s="1"/>
+      <c r="W350" s="1"/>
+      <c r="X350" s="1"/>
+      <c r="Y350" s="1"/>
+      <c r="Z350" s="1"/>
+      <c r="AA350" s="1"/>
+      <c r="AB350" s="1"/>
+      <c r="AC350" s="1"/>
+      <c r="AD350" s="1"/>
+      <c r="AE350" s="1"/>
+    </row>
+    <row r="351" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
+      <c r="U351" s="1"/>
+      <c r="V351" s="1"/>
+      <c r="W351" s="1"/>
+      <c r="X351" s="1"/>
+      <c r="Y351" s="1"/>
+      <c r="Z351" s="1"/>
+      <c r="AA351" s="1"/>
+      <c r="AB351" s="1"/>
+      <c r="AC351" s="1"/>
+      <c r="AD351" s="1"/>
+      <c r="AE351" s="1"/>
+    </row>
+    <row r="352" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+      <c r="P352" s="1"/>
+      <c r="Q352" s="1"/>
+      <c r="R352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="T352" s="1"/>
+      <c r="U352" s="1"/>
+      <c r="V352" s="1"/>
+      <c r="W352" s="1"/>
+      <c r="X352" s="1"/>
+      <c r="Y352" s="1"/>
+      <c r="Z352" s="1"/>
+      <c r="AA352" s="1"/>
+      <c r="AB352" s="1"/>
+      <c r="AC352" s="1"/>
+      <c r="AD352" s="1"/>
+      <c r="AE352" s="1"/>
+    </row>
+    <row r="353" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="1"/>
+      <c r="Q353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
+      <c r="U353" s="1"/>
+      <c r="V353" s="1"/>
+      <c r="W353" s="1"/>
+      <c r="X353" s="1"/>
+      <c r="Y353" s="1"/>
+      <c r="Z353" s="1"/>
+      <c r="AA353" s="1"/>
+      <c r="AB353" s="1"/>
+      <c r="AC353" s="1"/>
+      <c r="AD353" s="1"/>
+      <c r="AE353" s="1"/>
+    </row>
+    <row r="354" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
+      <c r="U354" s="1"/>
+      <c r="V354" s="1"/>
+      <c r="W354" s="1"/>
+      <c r="X354" s="1"/>
+      <c r="Y354" s="1"/>
+      <c r="Z354" s="1"/>
+      <c r="AA354" s="1"/>
+      <c r="AB354" s="1"/>
+      <c r="AC354" s="1"/>
+      <c r="AD354" s="1"/>
+      <c r="AE354" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF1048576">
+  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 AF194:AF214 A194:A214 A215:AF215 A223:J223 L223:AF223 A217 B196:AE215 A216:B216 C216:AF217 A218:AF222 F222:X223 AH243:AM243 AL245:AM245 AH244:AK246 AI246:AM246 AJ247:AK247 AL251:AM251 AI248:AK252 AI253:AJ253 AH247:AH255 AI254:AI255 AH258:AI261 A224:AF1048576">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH46:AI46">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD46">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:AE195">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH262:AI262">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH263:AI263">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH264:AI264">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH265:AI265">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH266:AI266">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH269:AI269">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH270:AI270">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH271:AI271">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH272:AI272">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH273:AI273">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH274:AI274">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH275:AI275">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH46:AI46">
+  <conditionalFormatting sqref="AH276:AI276">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD46">
+  <conditionalFormatting sqref="AH277:AI277">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -20696,7 +27793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD4EF3-C59D-43C6-B1C0-6599BBBB7F73}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/icon helper.xlsx
+++ b/icon helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f7f4011b2811a15/Documenten/Arduino/BKOS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2568" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0116CD0A-256F-4EC3-B338-43F3AD390E9E}"/>
+  <xr:revisionPtr revIDLastSave="3360" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB1EB9D-0DF0-4583-B126-81BEF25C1AC2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
+    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="11">
   <si>
     <t>W</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>sb</t>
+  </si>
+  <si>
+    <t>rood</t>
+  </si>
+  <si>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>wit</t>
+  </si>
+  <si>
+    <t>ROOD</t>
   </si>
 </sst>
 </file>
@@ -99,92 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -252,6 +186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30FD981-21C0-46E6-A80E-F0D6C2605ECA}">
-  <dimension ref="A1:EL354"/>
+  <dimension ref="B1:EL386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW257" sqref="AW257"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BT356" sqref="BT356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21463,38 +21401,7 @@
         <v>30,0</v>
       </c>
     </row>
-    <row r="225" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
-      <c r="AA225" s="2"/>
-      <c r="AB225" s="2"/>
-      <c r="AC225" s="2"/>
-      <c r="AD225" s="2"/>
-      <c r="AE225" s="2"/>
+    <row r="225" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AH225" t="s">
         <v>0</v>
       </c>
@@ -21530,7 +21437,7 @@
         <v>30,0,30,0,18,2,10,0,16,6,8,0,14,9,7,0,12,11,7,0,11,11,8,0,11,10,9,0,12,8,10,0,12,7,11,0,13,6,11,0,13,5,12,0,14,4,12,0,14,3,13,0,13,1,2,1,13,0,12,1,4,1,5,5,2,0,11,1,2,2,2,1,1,9,1,0,11,1,2,2,2,12,2,11,4,13,1,13,2,1,1,12,0,13,1,2,3,11,0,12,8,10,0,11,10,9,1,9,13,7,1,8,15,6,2,6,18,3,1,0,2,6,22,0,3,4,23,30,0,30,0</v>
       </c>
     </row>
-    <row r="226" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -21576,7 +21483,7 @@
         <v>30,0</v>
       </c>
     </row>
-    <row r="227" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -21622,7 +21529,7 @@
         <v>30,0</v>
       </c>
     </row>
-    <row r="228" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -21678,7 +21585,7 @@
         <v>18,2,10,0</v>
       </c>
     </row>
-    <row r="229" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -21745,7 +21652,7 @@
         <v>16,6,8,0</v>
       </c>
     </row>
-    <row r="230" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -21818,7 +21725,7 @@
         <v>14,9,7,0</v>
       </c>
     </row>
-    <row r="231" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -21894,7 +21801,7 @@
         <v>12,11,7,0</v>
       </c>
     </row>
-    <row r="232" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -21971,7 +21878,7 @@
         <v>11,11,8,0</v>
       </c>
     </row>
-    <row r="233" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -22043,7 +21950,7 @@
         <v>11,10,9,0</v>
       </c>
     </row>
-    <row r="234" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -22111,7 +22018,7 @@
         <v>12,8,10,0</v>
       </c>
     </row>
-    <row r="235" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -22177,7 +22084,7 @@
         <v>12,7,11,0</v>
       </c>
     </row>
-    <row r="236" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -22241,7 +22148,7 @@
         <v>13,6,11,0</v>
       </c>
     </row>
-    <row r="237" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -22303,7 +22210,7 @@
         <v>13,5,12,0</v>
       </c>
     </row>
-    <row r="238" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -22363,7 +22270,7 @@
         <v>14,4,12,0</v>
       </c>
     </row>
-    <row r="239" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -22421,7 +22328,7 @@
         <v>14,3,13,0</v>
       </c>
     </row>
-    <row r="240" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -24779,8 +24686,12 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
+      <c r="E276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1</v>
+      </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
@@ -24805,8 +24716,12 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
-      <c r="AA276" s="1"/>
-      <c r="AB276" s="1"/>
+      <c r="AA276" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB276" s="1">
+        <v>1</v>
+      </c>
       <c r="AC276" s="1"/>
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
@@ -24835,8 +24750,12 @@
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
+      <c r="E277" s="1">
+        <v>1</v>
+      </c>
+      <c r="F277" s="1">
+        <v>1</v>
+      </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
@@ -24861,8 +24780,12 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
-      <c r="AA277" s="1"/>
-      <c r="AB277" s="1"/>
+      <c r="AA277" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB277" s="1">
+        <v>1</v>
+      </c>
       <c r="AC277" s="1"/>
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
@@ -25709,7 +25632,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AH290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW290" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW291:AW320)</f>
+        <v>9,1,4,1,5,1,9,0,9,1,4,1,5,1,9,0,10,1,3,1,4,1,10,0,3,1,6,1,3,1,4,1,6,1,3,0,4,1,6,1,2,1,3,1,6,1,4,0,5,1,5,1,6,1,5,1,5,0,6,1,16,1,6,0,7,1,5,4,5,1,7,0,11,8,11,0,0,2,8,10,8,2,2,2,5,12,5,2,2,0,4,2,2,14,2,2,4,0,8,14,8,0,7,16,7,0,7,16,2,5,0,5,2,16,7,0,7,16,7,0,8,14,8,0,4,2,2,14,2,2,4,0,2,2,5,12,5,2,2,0,0,2,8,10,8,2,11,8,11,0,7,1,5,4,5,1,7,0,6,1,16,1,6,0,5,1,5,1,6,1,5,1,5,0,4,1,6,1,3,1,2,1,6,1,4,0,3,1,6,1,4,1,3,1,6,1,3,0,10,1,4,1,3,1,10,0,9,1,5,1,4,1,9,0,9,1,5,1,4,1,9,0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -25719,18 +25684,24 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
+      <c r="K291" s="1">
+        <v>1</v>
+      </c>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
-      <c r="P291" s="1"/>
+      <c r="P291" s="1">
+        <v>1</v>
+      </c>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
-      <c r="V291" s="1"/>
+      <c r="V291" s="1">
+        <v>1</v>
+      </c>
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
@@ -25740,8 +25711,40 @@
       <c r="AC291" s="1"/>
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
-    </row>
-    <row r="292" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH291">
+        <v>9</v>
+      </c>
+      <c r="AI291">
+        <v>1</v>
+      </c>
+      <c r="AJ291">
+        <v>4</v>
+      </c>
+      <c r="AK291">
+        <v>1</v>
+      </c>
+      <c r="AL291">
+        <v>5</v>
+      </c>
+      <c r="AM291">
+        <v>1</v>
+      </c>
+      <c r="AN291">
+        <v>9</v>
+      </c>
+      <c r="AO291">
+        <v>0</v>
+      </c>
+      <c r="AT291">
+        <f>SUM(AH291:AR291)</f>
+        <v>30</v>
+      </c>
+      <c r="AW291" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH291:AS291)</f>
+        <v>9,1,4,1,5,1,9,0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -25751,18 +25754,24 @@
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
+      <c r="K292" s="1">
+        <v>1</v>
+      </c>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
-      <c r="P292" s="1"/>
+      <c r="P292" s="1">
+        <v>1</v>
+      </c>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
       <c r="U292" s="1"/>
-      <c r="V292" s="1"/>
+      <c r="V292" s="1">
+        <v>1</v>
+      </c>
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
@@ -25772,8 +25781,40 @@
       <c r="AC292" s="1"/>
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
-    </row>
-    <row r="293" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH292">
+        <v>9</v>
+      </c>
+      <c r="AI292">
+        <v>1</v>
+      </c>
+      <c r="AJ292">
+        <v>4</v>
+      </c>
+      <c r="AK292">
+        <v>1</v>
+      </c>
+      <c r="AL292">
+        <v>5</v>
+      </c>
+      <c r="AM292">
+        <v>1</v>
+      </c>
+      <c r="AN292">
+        <v>9</v>
+      </c>
+      <c r="AO292">
+        <v>0</v>
+      </c>
+      <c r="AT292">
+        <f t="shared" ref="AT292:AT320" si="79">SUM(AH292:AR292)</f>
+        <v>30</v>
+      </c>
+      <c r="AW292" t="str">
+        <f t="shared" ref="AW292:AW320" si="80">_xlfn.TEXTJOIN(",",TRUE,AH292:AS292)</f>
+        <v>9,1,4,1,5,1,9,0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -25784,16 +25825,22 @@
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
-      <c r="L293" s="1"/>
+      <c r="L293" s="1">
+        <v>1</v>
+      </c>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
-      <c r="P293" s="1"/>
+      <c r="P293" s="1">
+        <v>1</v>
+      </c>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
-      <c r="U293" s="1"/>
+      <c r="U293" s="1">
+        <v>1</v>
+      </c>
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
@@ -25804,111 +25851,299 @@
       <c r="AC293" s="1"/>
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
-    </row>
-    <row r="294" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH293">
+        <v>10</v>
+      </c>
+      <c r="AI293">
+        <v>1</v>
+      </c>
+      <c r="AJ293">
+        <v>3</v>
+      </c>
+      <c r="AK293">
+        <v>1</v>
+      </c>
+      <c r="AL293">
+        <v>4</v>
+      </c>
+      <c r="AM293">
+        <v>1</v>
+      </c>
+      <c r="AN293">
+        <v>10</v>
+      </c>
+      <c r="AO293">
+        <v>0</v>
+      </c>
+      <c r="AT293">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW293" t="str">
+        <f t="shared" si="80"/>
+        <v>10,1,3,1,4,1,10,0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
+      <c r="E294" s="1">
+        <v>1</v>
+      </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
+      <c r="L294" s="1">
+        <v>1</v>
+      </c>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
-      <c r="P294" s="1"/>
+      <c r="P294" s="1">
+        <v>1</v>
+      </c>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
-      <c r="U294" s="1"/>
+      <c r="U294" s="1">
+        <v>1</v>
+      </c>
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
-      <c r="AB294" s="1"/>
+      <c r="AB294" s="1">
+        <v>1</v>
+      </c>
       <c r="AC294" s="1"/>
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
-    </row>
-    <row r="295" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH294">
+        <v>3</v>
+      </c>
+      <c r="AI294">
+        <v>1</v>
+      </c>
+      <c r="AJ294">
+        <v>6</v>
+      </c>
+      <c r="AK294">
+        <v>1</v>
+      </c>
+      <c r="AL294">
+        <v>3</v>
+      </c>
+      <c r="AM294">
+        <v>1</v>
+      </c>
+      <c r="AN294">
+        <v>4</v>
+      </c>
+      <c r="AO294">
+        <v>1</v>
+      </c>
+      <c r="AP294">
+        <v>6</v>
+      </c>
+      <c r="AQ294">
+        <v>1</v>
+      </c>
+      <c r="AR294">
+        <v>3</v>
+      </c>
+      <c r="AS294">
+        <v>0</v>
+      </c>
+      <c r="AT294">
+        <f>SUM(AH294:AS294)</f>
+        <v>30</v>
+      </c>
+      <c r="AW294" t="str">
+        <f t="shared" si="80"/>
+        <v>3,1,6,1,3,1,4,1,6,1,3,0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
+      <c r="F295" s="1">
+        <v>1</v>
+      </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
+      <c r="M295" s="1">
+        <v>1</v>
+      </c>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
-      <c r="P295" s="1"/>
+      <c r="P295" s="1">
+        <v>1</v>
+      </c>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
-      <c r="T295" s="1"/>
+      <c r="T295" s="1">
+        <v>1</v>
+      </c>
       <c r="U295" s="1"/>
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
-      <c r="AA295" s="1"/>
+      <c r="AA295" s="1">
+        <v>1</v>
+      </c>
       <c r="AB295" s="1"/>
       <c r="AC295" s="1"/>
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
-    </row>
-    <row r="296" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH295">
+        <v>4</v>
+      </c>
+      <c r="AI295">
+        <v>1</v>
+      </c>
+      <c r="AJ295">
+        <v>6</v>
+      </c>
+      <c r="AK295">
+        <v>1</v>
+      </c>
+      <c r="AL295">
+        <v>2</v>
+      </c>
+      <c r="AM295">
+        <v>1</v>
+      </c>
+      <c r="AN295">
+        <v>3</v>
+      </c>
+      <c r="AO295">
+        <v>1</v>
+      </c>
+      <c r="AP295">
+        <v>6</v>
+      </c>
+      <c r="AQ295">
+        <v>1</v>
+      </c>
+      <c r="AR295">
+        <v>4</v>
+      </c>
+      <c r="AS295">
+        <v>0</v>
+      </c>
+      <c r="AT295">
+        <f>SUM(AH295:AS295)</f>
+        <v>30</v>
+      </c>
+      <c r="AW295" t="str">
+        <f t="shared" si="80"/>
+        <v>4,1,6,1,2,1,3,1,6,1,4,0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
+      <c r="G296" s="1">
+        <v>1</v>
+      </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
-      <c r="M296" s="1"/>
+      <c r="M296" s="1">
+        <v>1</v>
+      </c>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
-      <c r="T296" s="1"/>
+      <c r="T296" s="1">
+        <v>1</v>
+      </c>
       <c r="U296" s="1"/>
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
-      <c r="Z296" s="1"/>
+      <c r="Z296" s="1">
+        <v>1</v>
+      </c>
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
       <c r="AC296" s="1"/>
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
-    </row>
-    <row r="297" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH296">
+        <v>5</v>
+      </c>
+      <c r="AI296">
+        <v>1</v>
+      </c>
+      <c r="AJ296">
+        <v>5</v>
+      </c>
+      <c r="AK296">
+        <v>1</v>
+      </c>
+      <c r="AL296">
+        <v>6</v>
+      </c>
+      <c r="AM296">
+        <v>1</v>
+      </c>
+      <c r="AN296">
+        <v>5</v>
+      </c>
+      <c r="AO296">
+        <v>1</v>
+      </c>
+      <c r="AP296">
+        <v>5</v>
+      </c>
+      <c r="AQ296">
+        <v>0</v>
+      </c>
+      <c r="AT296">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW296" t="str">
+        <f t="shared" si="80"/>
+        <v>5,1,5,1,6,1,5,1,5,0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
+      <c r="H297" s="1">
+        <v>1</v>
+      </c>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -25925,15 +26160,43 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
-      <c r="Y297" s="1"/>
+      <c r="Y297" s="1">
+        <v>1</v>
+      </c>
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
       <c r="AC297" s="1"/>
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
-    </row>
-    <row r="298" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH297">
+        <v>6</v>
+      </c>
+      <c r="AI297">
+        <v>1</v>
+      </c>
+      <c r="AJ297">
+        <v>16</v>
+      </c>
+      <c r="AK297">
+        <v>1</v>
+      </c>
+      <c r="AL297">
+        <v>6</v>
+      </c>
+      <c r="AM297">
+        <v>0</v>
+      </c>
+      <c r="AT297">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW297" t="str">
+        <f t="shared" si="80"/>
+        <v>6,1,16,1,6,0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -25941,22 +26204,34 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
+      <c r="I298" s="1">
+        <v>1</v>
+      </c>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1"/>
-      <c r="Q298" s="1"/>
-      <c r="R298" s="1"/>
+      <c r="O298" s="1">
+        <v>1</v>
+      </c>
+      <c r="P298" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q298" s="1">
+        <v>1</v>
+      </c>
+      <c r="R298" s="1">
+        <v>1</v>
+      </c>
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
       <c r="U298" s="1"/>
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
-      <c r="X298" s="1"/>
+      <c r="X298" s="1">
+        <v>1</v>
+      </c>
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
@@ -25964,8 +26239,40 @@
       <c r="AC298" s="1"/>
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
-    </row>
-    <row r="299" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH298">
+        <v>7</v>
+      </c>
+      <c r="AI298">
+        <v>1</v>
+      </c>
+      <c r="AJ298">
+        <v>5</v>
+      </c>
+      <c r="AK298">
+        <v>4</v>
+      </c>
+      <c r="AL298">
+        <v>5</v>
+      </c>
+      <c r="AM298">
+        <v>1</v>
+      </c>
+      <c r="AN298">
+        <v>7</v>
+      </c>
+      <c r="AO298">
+        <v>0</v>
+      </c>
+      <c r="AT298">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW298" t="str">
+        <f t="shared" si="80"/>
+        <v>7,1,5,4,5,1,7,0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -25977,14 +26284,30 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
-      <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-      <c r="P299" s="1"/>
-      <c r="Q299" s="1"/>
-      <c r="R299" s="1"/>
-      <c r="S299" s="1"/>
-      <c r="T299" s="1"/>
+      <c r="M299" s="1">
+        <v>1</v>
+      </c>
+      <c r="N299" s="1">
+        <v>1</v>
+      </c>
+      <c r="O299" s="1">
+        <v>1</v>
+      </c>
+      <c r="P299" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q299" s="1">
+        <v>1</v>
+      </c>
+      <c r="R299" s="1">
+        <v>1</v>
+      </c>
+      <c r="S299" s="1">
+        <v>1</v>
+      </c>
+      <c r="T299" s="1">
+        <v>1</v>
+      </c>
       <c r="U299" s="1"/>
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
@@ -25996,10 +26319,34 @@
       <c r="AC299" s="1"/>
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
-    </row>
-    <row r="300" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="AH299">
+        <v>11</v>
+      </c>
+      <c r="AI299">
+        <v>8</v>
+      </c>
+      <c r="AJ299">
+        <v>11</v>
+      </c>
+      <c r="AK299">
+        <v>0</v>
+      </c>
+      <c r="AT299">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW299" t="str">
+        <f t="shared" si="80"/>
+        <v>11,8,11,0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B300" s="1">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1</v>
+      </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -26008,16 +26355,36 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-      <c r="P300" s="1"/>
-      <c r="Q300" s="1"/>
-      <c r="R300" s="1"/>
-      <c r="S300" s="1"/>
-      <c r="T300" s="1"/>
-      <c r="U300" s="1"/>
+      <c r="L300" s="1">
+        <v>1</v>
+      </c>
+      <c r="M300" s="1">
+        <v>1</v>
+      </c>
+      <c r="N300" s="1">
+        <v>1</v>
+      </c>
+      <c r="O300" s="1">
+        <v>1</v>
+      </c>
+      <c r="P300" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q300" s="1">
+        <v>1</v>
+      </c>
+      <c r="R300" s="1">
+        <v>1</v>
+      </c>
+      <c r="S300" s="1">
+        <v>1</v>
+      </c>
+      <c r="T300" s="1">
+        <v>1</v>
+      </c>
+      <c r="U300" s="1">
+        <v>1</v>
+      </c>
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
@@ -26026,74 +26393,236 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
       <c r="AC300" s="1"/>
-      <c r="AD300" s="1"/>
-      <c r="AE300" s="1"/>
-    </row>
-    <row r="301" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD300" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE300" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH300">
+        <v>0</v>
+      </c>
+      <c r="AI300">
+        <v>2</v>
+      </c>
+      <c r="AJ300">
+        <v>8</v>
+      </c>
+      <c r="AK300">
+        <v>10</v>
+      </c>
+      <c r="AL300">
+        <v>8</v>
+      </c>
+      <c r="AM300">
+        <v>2</v>
+      </c>
+      <c r="AT300">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW300" t="str">
+        <f t="shared" si="80"/>
+        <v>0,2,8,10,8,2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
+      <c r="D301" s="1">
+        <v>1</v>
+      </c>
+      <c r="E301" s="1">
+        <v>1</v>
+      </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
-      <c r="K301" s="1"/>
-      <c r="L301" s="1"/>
-      <c r="M301" s="1"/>
-      <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
-      <c r="P301" s="1"/>
-      <c r="Q301" s="1"/>
-      <c r="R301" s="1"/>
-      <c r="S301" s="1"/>
-      <c r="T301" s="1"/>
-      <c r="U301" s="1"/>
-      <c r="V301" s="1"/>
+      <c r="K301" s="1">
+        <v>1</v>
+      </c>
+      <c r="L301" s="1">
+        <v>1</v>
+      </c>
+      <c r="M301" s="1">
+        <v>1</v>
+      </c>
+      <c r="N301" s="1">
+        <v>1</v>
+      </c>
+      <c r="O301" s="1">
+        <v>1</v>
+      </c>
+      <c r="P301" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="1">
+        <v>1</v>
+      </c>
+      <c r="R301" s="1">
+        <v>1</v>
+      </c>
+      <c r="S301" s="1">
+        <v>1</v>
+      </c>
+      <c r="T301" s="1">
+        <v>1</v>
+      </c>
+      <c r="U301" s="1">
+        <v>1</v>
+      </c>
+      <c r="V301" s="1">
+        <v>1</v>
+      </c>
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
-      <c r="AB301" s="1"/>
-      <c r="AC301" s="1"/>
+      <c r="AB301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC301" s="1">
+        <v>1</v>
+      </c>
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
-    </row>
-    <row r="302" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH301">
+        <v>2</v>
+      </c>
+      <c r="AI301">
+        <v>2</v>
+      </c>
+      <c r="AJ301">
+        <v>5</v>
+      </c>
+      <c r="AK301">
+        <v>12</v>
+      </c>
+      <c r="AL301">
+        <v>5</v>
+      </c>
+      <c r="AM301">
+        <v>2</v>
+      </c>
+      <c r="AN301">
+        <v>2</v>
+      </c>
+      <c r="AO301">
+        <v>0</v>
+      </c>
+      <c r="AT301">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW301" t="str">
+        <f t="shared" si="80"/>
+        <v>2,2,5,12,5,2,2,0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
+      <c r="F302" s="1">
+        <v>1</v>
+      </c>
+      <c r="G302" s="1">
+        <v>1</v>
+      </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="1"/>
-      <c r="K302" s="1"/>
-      <c r="L302" s="1"/>
-      <c r="M302" s="1"/>
-      <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
-      <c r="P302" s="1"/>
-      <c r="Q302" s="1"/>
-      <c r="R302" s="1"/>
-      <c r="S302" s="1"/>
-      <c r="T302" s="1"/>
-      <c r="U302" s="1"/>
-      <c r="V302" s="1"/>
-      <c r="W302" s="1"/>
+      <c r="J302" s="1">
+        <v>1</v>
+      </c>
+      <c r="K302" s="1">
+        <v>1</v>
+      </c>
+      <c r="L302" s="1">
+        <v>1</v>
+      </c>
+      <c r="M302" s="1">
+        <v>1</v>
+      </c>
+      <c r="N302" s="1">
+        <v>1</v>
+      </c>
+      <c r="O302" s="1">
+        <v>1</v>
+      </c>
+      <c r="P302" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="1">
+        <v>1</v>
+      </c>
+      <c r="R302" s="1">
+        <v>1</v>
+      </c>
+      <c r="S302" s="1">
+        <v>1</v>
+      </c>
+      <c r="T302" s="1">
+        <v>1</v>
+      </c>
+      <c r="U302" s="1">
+        <v>1</v>
+      </c>
+      <c r="V302" s="1">
+        <v>1</v>
+      </c>
+      <c r="W302" s="1">
+        <v>1</v>
+      </c>
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
-      <c r="Z302" s="1"/>
-      <c r="AA302" s="1"/>
+      <c r="Z302" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA302" s="1">
+        <v>1</v>
+      </c>
       <c r="AB302" s="1"/>
       <c r="AC302" s="1"/>
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
-    </row>
-    <row r="303" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH302">
+        <v>4</v>
+      </c>
+      <c r="AI302">
+        <v>2</v>
+      </c>
+      <c r="AJ302">
+        <v>2</v>
+      </c>
+      <c r="AK302">
+        <v>14</v>
+      </c>
+      <c r="AL302">
+        <v>2</v>
+      </c>
+      <c r="AM302">
+        <v>2</v>
+      </c>
+      <c r="AN302">
+        <v>4</v>
+      </c>
+      <c r="AO302">
+        <v>0</v>
+      </c>
+      <c r="AT302">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW302" t="str">
+        <f t="shared" si="80"/>
+        <v>4,2,2,14,2,2,4,0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -26102,20 +26631,48 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1"/>
-      <c r="M303" s="1"/>
-      <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
-      <c r="P303" s="1"/>
-      <c r="Q303" s="1"/>
-      <c r="R303" s="1"/>
-      <c r="S303" s="1"/>
-      <c r="T303" s="1"/>
-      <c r="U303" s="1"/>
-      <c r="V303" s="1"/>
-      <c r="W303" s="1"/>
+      <c r="J303" s="1">
+        <v>1</v>
+      </c>
+      <c r="K303" s="1">
+        <v>1</v>
+      </c>
+      <c r="L303" s="1">
+        <v>1</v>
+      </c>
+      <c r="M303" s="1">
+        <v>1</v>
+      </c>
+      <c r="N303" s="1">
+        <v>1</v>
+      </c>
+      <c r="O303" s="1">
+        <v>1</v>
+      </c>
+      <c r="P303" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q303" s="1">
+        <v>1</v>
+      </c>
+      <c r="R303" s="1">
+        <v>1</v>
+      </c>
+      <c r="S303" s="1">
+        <v>1</v>
+      </c>
+      <c r="T303" s="1">
+        <v>1</v>
+      </c>
+      <c r="U303" s="1">
+        <v>1</v>
+      </c>
+      <c r="V303" s="1">
+        <v>1</v>
+      </c>
+      <c r="W303" s="1">
+        <v>1</v>
+      </c>
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
@@ -26124,8 +26681,28 @@
       <c r="AC303" s="1"/>
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
-    </row>
-    <row r="304" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH303">
+        <v>8</v>
+      </c>
+      <c r="AI303">
+        <v>14</v>
+      </c>
+      <c r="AJ303">
+        <v>8</v>
+      </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
+      <c r="AT303">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW303" t="str">
+        <f t="shared" si="80"/>
+        <v>8,14,8,0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -26133,22 +26710,54 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
-      <c r="J304" s="1"/>
-      <c r="K304" s="1"/>
-      <c r="L304" s="1"/>
-      <c r="M304" s="1"/>
-      <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
-      <c r="P304" s="1"/>
-      <c r="Q304" s="1"/>
-      <c r="R304" s="1"/>
-      <c r="S304" s="1"/>
-      <c r="T304" s="1"/>
-      <c r="U304" s="1"/>
-      <c r="V304" s="1"/>
-      <c r="W304" s="1"/>
-      <c r="X304" s="1"/>
+      <c r="I304" s="1">
+        <v>1</v>
+      </c>
+      <c r="J304" s="1">
+        <v>1</v>
+      </c>
+      <c r="K304" s="1">
+        <v>1</v>
+      </c>
+      <c r="L304" s="1">
+        <v>1</v>
+      </c>
+      <c r="M304" s="1">
+        <v>1</v>
+      </c>
+      <c r="N304" s="1">
+        <v>1</v>
+      </c>
+      <c r="O304" s="1">
+        <v>1</v>
+      </c>
+      <c r="P304" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="1">
+        <v>1</v>
+      </c>
+      <c r="R304" s="1">
+        <v>1</v>
+      </c>
+      <c r="S304" s="1">
+        <v>1</v>
+      </c>
+      <c r="T304" s="1">
+        <v>1</v>
+      </c>
+      <c r="U304" s="1">
+        <v>1</v>
+      </c>
+      <c r="V304" s="1">
+        <v>1</v>
+      </c>
+      <c r="W304" s="1">
+        <v>1</v>
+      </c>
+      <c r="X304" s="1">
+        <v>1</v>
+      </c>
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
@@ -26156,8 +26765,28 @@
       <c r="AC304" s="1"/>
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
-    </row>
-    <row r="305" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH304">
+        <v>7</v>
+      </c>
+      <c r="AI304">
+        <v>16</v>
+      </c>
+      <c r="AJ304">
+        <v>7</v>
+      </c>
+      <c r="AK304">
+        <v>0</v>
+      </c>
+      <c r="AT304">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW304" t="str">
+        <f t="shared" si="80"/>
+        <v>7,16,7,0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -26165,54 +26794,160 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
-      <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
-      <c r="S305" s="1"/>
-      <c r="T305" s="1"/>
-      <c r="U305" s="1"/>
-      <c r="V305" s="1"/>
-      <c r="W305" s="1"/>
-      <c r="X305" s="1"/>
+      <c r="I305" s="1">
+        <v>1</v>
+      </c>
+      <c r="J305" s="1">
+        <v>1</v>
+      </c>
+      <c r="K305" s="1">
+        <v>1</v>
+      </c>
+      <c r="L305" s="1">
+        <v>1</v>
+      </c>
+      <c r="M305" s="1">
+        <v>1</v>
+      </c>
+      <c r="N305" s="1">
+        <v>1</v>
+      </c>
+      <c r="O305" s="1">
+        <v>1</v>
+      </c>
+      <c r="P305" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q305" s="1">
+        <v>1</v>
+      </c>
+      <c r="R305" s="1">
+        <v>1</v>
+      </c>
+      <c r="S305" s="1">
+        <v>1</v>
+      </c>
+      <c r="T305" s="1">
+        <v>1</v>
+      </c>
+      <c r="U305" s="1">
+        <v>1</v>
+      </c>
+      <c r="V305" s="1">
+        <v>1</v>
+      </c>
+      <c r="W305" s="1">
+        <v>1</v>
+      </c>
+      <c r="X305" s="1">
+        <v>1</v>
+      </c>
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
-      <c r="AA305" s="1"/>
-      <c r="AB305" s="1"/>
-      <c r="AC305" s="1"/>
-      <c r="AD305" s="1"/>
-      <c r="AE305" s="1"/>
-    </row>
-    <row r="306" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
+      <c r="AA305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH305" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI305" s="1">
+        <v>16</v>
+      </c>
+      <c r="AJ305" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK305" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL305" s="1"/>
+      <c r="AM305" s="1"/>
+      <c r="AT305">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW305" t="str">
+        <f t="shared" si="80"/>
+        <v>7,16,2,5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B306" s="1">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1</v>
+      </c>
+      <c r="E306" s="1">
+        <v>1</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1</v>
+      </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
-      <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
-      <c r="M306" s="1"/>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-      <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
-      <c r="R306" s="1"/>
-      <c r="S306" s="1"/>
-      <c r="T306" s="1"/>
-      <c r="U306" s="1"/>
-      <c r="V306" s="1"/>
-      <c r="W306" s="1"/>
-      <c r="X306" s="1"/>
+      <c r="I306" s="1">
+        <v>1</v>
+      </c>
+      <c r="J306" s="1">
+        <v>1</v>
+      </c>
+      <c r="K306" s="1">
+        <v>1</v>
+      </c>
+      <c r="L306" s="1">
+        <v>1</v>
+      </c>
+      <c r="M306" s="1">
+        <v>1</v>
+      </c>
+      <c r="N306" s="1">
+        <v>1</v>
+      </c>
+      <c r="O306" s="1">
+        <v>1</v>
+      </c>
+      <c r="P306" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="1">
+        <v>1</v>
+      </c>
+      <c r="R306" s="1">
+        <v>1</v>
+      </c>
+      <c r="S306" s="1">
+        <v>1</v>
+      </c>
+      <c r="T306" s="1">
+        <v>1</v>
+      </c>
+      <c r="U306" s="1">
+        <v>1</v>
+      </c>
+      <c r="V306" s="1">
+        <v>1</v>
+      </c>
+      <c r="W306" s="1">
+        <v>1</v>
+      </c>
+      <c r="X306" s="1">
+        <v>1</v>
+      </c>
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
@@ -26220,8 +26955,34 @@
       <c r="AC306" s="1"/>
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
-    </row>
-    <row r="307" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI306" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ306" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK306" s="1">
+        <v>16</v>
+      </c>
+      <c r="AL306" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT306">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW306" t="str">
+        <f t="shared" si="80"/>
+        <v>0,5,2,16,7,0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -26229,22 +26990,54 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
-      <c r="R307" s="1"/>
-      <c r="S307" s="1"/>
-      <c r="T307" s="1"/>
-      <c r="U307" s="1"/>
-      <c r="V307" s="1"/>
-      <c r="W307" s="1"/>
-      <c r="X307" s="1"/>
+      <c r="I307" s="1">
+        <v>1</v>
+      </c>
+      <c r="J307" s="1">
+        <v>1</v>
+      </c>
+      <c r="K307" s="1">
+        <v>1</v>
+      </c>
+      <c r="L307" s="1">
+        <v>1</v>
+      </c>
+      <c r="M307" s="1">
+        <v>1</v>
+      </c>
+      <c r="N307" s="1">
+        <v>1</v>
+      </c>
+      <c r="O307" s="1">
+        <v>1</v>
+      </c>
+      <c r="P307" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="1">
+        <v>1</v>
+      </c>
+      <c r="R307" s="1">
+        <v>1</v>
+      </c>
+      <c r="S307" s="1">
+        <v>1</v>
+      </c>
+      <c r="T307" s="1">
+        <v>1</v>
+      </c>
+      <c r="U307" s="1">
+        <v>1</v>
+      </c>
+      <c r="V307" s="1">
+        <v>1</v>
+      </c>
+      <c r="W307" s="1">
+        <v>1</v>
+      </c>
+      <c r="X307" s="1">
+        <v>1</v>
+      </c>
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
@@ -26252,8 +27045,28 @@
       <c r="AC307" s="1"/>
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
-    </row>
-    <row r="308" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH307">
+        <v>7</v>
+      </c>
+      <c r="AI307">
+        <v>16</v>
+      </c>
+      <c r="AJ307">
+        <v>7</v>
+      </c>
+      <c r="AK307">
+        <v>0</v>
+      </c>
+      <c r="AT307">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW307" t="str">
+        <f t="shared" si="80"/>
+        <v>7,16,7,0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -26262,20 +27075,48 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="1"/>
-      <c r="K308" s="1"/>
-      <c r="L308" s="1"/>
-      <c r="M308" s="1"/>
-      <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
-      <c r="P308" s="1"/>
-      <c r="Q308" s="1"/>
-      <c r="R308" s="1"/>
-      <c r="S308" s="1"/>
-      <c r="T308" s="1"/>
-      <c r="U308" s="1"/>
-      <c r="V308" s="1"/>
-      <c r="W308" s="1"/>
+      <c r="J308" s="1">
+        <v>1</v>
+      </c>
+      <c r="K308" s="1">
+        <v>1</v>
+      </c>
+      <c r="L308" s="1">
+        <v>1</v>
+      </c>
+      <c r="M308" s="1">
+        <v>1</v>
+      </c>
+      <c r="N308" s="1">
+        <v>1</v>
+      </c>
+      <c r="O308" s="1">
+        <v>1</v>
+      </c>
+      <c r="P308" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q308" s="1">
+        <v>1</v>
+      </c>
+      <c r="R308" s="1">
+        <v>1</v>
+      </c>
+      <c r="S308" s="1">
+        <v>1</v>
+      </c>
+      <c r="T308" s="1">
+        <v>1</v>
+      </c>
+      <c r="U308" s="1">
+        <v>1</v>
+      </c>
+      <c r="V308" s="1">
+        <v>1</v>
+      </c>
+      <c r="W308" s="1">
+        <v>1</v>
+      </c>
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
@@ -26284,74 +27125,230 @@
       <c r="AC308" s="1"/>
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
-    </row>
-    <row r="309" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH308">
+        <v>8</v>
+      </c>
+      <c r="AI308">
+        <v>14</v>
+      </c>
+      <c r="AJ308">
+        <v>8</v>
+      </c>
+      <c r="AK308">
+        <v>0</v>
+      </c>
+      <c r="AT308">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW308" t="str">
+        <f t="shared" si="80"/>
+        <v>8,14,8,0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
+      <c r="F309" s="1">
+        <v>1</v>
+      </c>
+      <c r="G309" s="1">
+        <v>1</v>
+      </c>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="1"/>
-      <c r="K309" s="1"/>
-      <c r="L309" s="1"/>
-      <c r="M309" s="1"/>
-      <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
-      <c r="P309" s="1"/>
-      <c r="Q309" s="1"/>
-      <c r="R309" s="1"/>
-      <c r="S309" s="1"/>
-      <c r="T309" s="1"/>
-      <c r="U309" s="1"/>
-      <c r="V309" s="1"/>
-      <c r="W309" s="1"/>
+      <c r="J309" s="1">
+        <v>1</v>
+      </c>
+      <c r="K309" s="1">
+        <v>1</v>
+      </c>
+      <c r="L309" s="1">
+        <v>1</v>
+      </c>
+      <c r="M309" s="1">
+        <v>1</v>
+      </c>
+      <c r="N309" s="1">
+        <v>1</v>
+      </c>
+      <c r="O309" s="1">
+        <v>1</v>
+      </c>
+      <c r="P309" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="1">
+        <v>1</v>
+      </c>
+      <c r="R309" s="1">
+        <v>1</v>
+      </c>
+      <c r="S309" s="1">
+        <v>1</v>
+      </c>
+      <c r="T309" s="1">
+        <v>1</v>
+      </c>
+      <c r="U309" s="1">
+        <v>1</v>
+      </c>
+      <c r="V309" s="1">
+        <v>1</v>
+      </c>
+      <c r="W309" s="1">
+        <v>1</v>
+      </c>
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
-      <c r="Z309" s="1"/>
-      <c r="AA309" s="1"/>
+      <c r="Z309" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA309" s="1">
+        <v>1</v>
+      </c>
       <c r="AB309" s="1"/>
       <c r="AC309" s="1"/>
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
-    </row>
-    <row r="310" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH309">
+        <v>4</v>
+      </c>
+      <c r="AI309">
+        <v>2</v>
+      </c>
+      <c r="AJ309">
+        <v>2</v>
+      </c>
+      <c r="AK309">
+        <v>14</v>
+      </c>
+      <c r="AL309">
+        <v>2</v>
+      </c>
+      <c r="AM309">
+        <v>2</v>
+      </c>
+      <c r="AN309">
+        <v>4</v>
+      </c>
+      <c r="AO309">
+        <v>0</v>
+      </c>
+      <c r="AT309">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW309" t="str">
+        <f t="shared" si="80"/>
+        <v>4,2,2,14,2,2,4,0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
+      <c r="D310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1</v>
+      </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
-      <c r="K310" s="1"/>
-      <c r="L310" s="1"/>
-      <c r="M310" s="1"/>
-      <c r="N310" s="1"/>
-      <c r="O310" s="1"/>
-      <c r="P310" s="1"/>
-      <c r="Q310" s="1"/>
-      <c r="R310" s="1"/>
-      <c r="S310" s="1"/>
-      <c r="T310" s="1"/>
-      <c r="U310" s="1"/>
-      <c r="V310" s="1"/>
+      <c r="K310" s="1">
+        <v>1</v>
+      </c>
+      <c r="L310" s="1">
+        <v>1</v>
+      </c>
+      <c r="M310" s="1">
+        <v>1</v>
+      </c>
+      <c r="N310" s="1">
+        <v>1</v>
+      </c>
+      <c r="O310" s="1">
+        <v>1</v>
+      </c>
+      <c r="P310" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q310" s="1">
+        <v>1</v>
+      </c>
+      <c r="R310" s="1">
+        <v>1</v>
+      </c>
+      <c r="S310" s="1">
+        <v>1</v>
+      </c>
+      <c r="T310" s="1">
+        <v>1</v>
+      </c>
+      <c r="U310" s="1">
+        <v>1</v>
+      </c>
+      <c r="V310" s="1">
+        <v>1</v>
+      </c>
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
-      <c r="AB310" s="1"/>
-      <c r="AC310" s="1"/>
+      <c r="AB310" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC310" s="1">
+        <v>1</v>
+      </c>
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
-    </row>
-    <row r="311" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
+      <c r="AH310">
+        <v>2</v>
+      </c>
+      <c r="AI310">
+        <v>2</v>
+      </c>
+      <c r="AJ310">
+        <v>5</v>
+      </c>
+      <c r="AK310">
+        <v>12</v>
+      </c>
+      <c r="AL310">
+        <v>5</v>
+      </c>
+      <c r="AM310">
+        <v>2</v>
+      </c>
+      <c r="AN310">
+        <v>2</v>
+      </c>
+      <c r="AO310">
+        <v>0</v>
+      </c>
+      <c r="AT310">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW310" t="str">
+        <f t="shared" si="80"/>
+        <v>2,2,5,12,5,2,2,0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B311" s="1">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1</v>
+      </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -26360,16 +27357,36 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
-      <c r="L311" s="1"/>
-      <c r="M311" s="1"/>
-      <c r="N311" s="1"/>
-      <c r="O311" s="1"/>
-      <c r="P311" s="1"/>
-      <c r="Q311" s="1"/>
-      <c r="R311" s="1"/>
-      <c r="S311" s="1"/>
-      <c r="T311" s="1"/>
-      <c r="U311" s="1"/>
+      <c r="L311" s="1">
+        <v>1</v>
+      </c>
+      <c r="M311" s="1">
+        <v>1</v>
+      </c>
+      <c r="N311" s="1">
+        <v>1</v>
+      </c>
+      <c r="O311" s="1">
+        <v>1</v>
+      </c>
+      <c r="P311" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q311" s="1">
+        <v>1</v>
+      </c>
+      <c r="R311" s="1">
+        <v>1</v>
+      </c>
+      <c r="S311" s="1">
+        <v>1</v>
+      </c>
+      <c r="T311" s="1">
+        <v>1</v>
+      </c>
+      <c r="U311" s="1">
+        <v>1</v>
+      </c>
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
@@ -26378,10 +27395,40 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
       <c r="AC311" s="1"/>
-      <c r="AD311" s="1"/>
-      <c r="AE311" s="1"/>
-    </row>
-    <row r="312" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD311" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE311" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH311">
+        <v>0</v>
+      </c>
+      <c r="AI311">
+        <v>2</v>
+      </c>
+      <c r="AJ311">
+        <v>8</v>
+      </c>
+      <c r="AK311">
+        <v>10</v>
+      </c>
+      <c r="AL311">
+        <v>8</v>
+      </c>
+      <c r="AM311">
+        <v>2</v>
+      </c>
+      <c r="AT311">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW311" t="str">
+        <f t="shared" si="80"/>
+        <v>0,2,8,10,8,2</v>
+      </c>
+    </row>
+    <row r="312" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -26393,14 +27440,30 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
-      <c r="M312" s="1"/>
-      <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
-      <c r="P312" s="1"/>
-      <c r="Q312" s="1"/>
-      <c r="R312" s="1"/>
-      <c r="S312" s="1"/>
-      <c r="T312" s="1"/>
+      <c r="M312" s="1">
+        <v>1</v>
+      </c>
+      <c r="N312" s="1">
+        <v>1</v>
+      </c>
+      <c r="O312" s="1">
+        <v>1</v>
+      </c>
+      <c r="P312" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q312" s="1">
+        <v>1</v>
+      </c>
+      <c r="R312" s="1">
+        <v>1</v>
+      </c>
+      <c r="S312" s="1">
+        <v>1</v>
+      </c>
+      <c r="T312" s="1">
+        <v>1</v>
+      </c>
       <c r="U312" s="1"/>
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
@@ -26412,8 +27475,28 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
-    </row>
-    <row r="313" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH312">
+        <v>11</v>
+      </c>
+      <c r="AI312">
+        <v>8</v>
+      </c>
+      <c r="AJ312">
+        <v>11</v>
+      </c>
+      <c r="AK312">
+        <v>0</v>
+      </c>
+      <c r="AT312">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW312" t="str">
+        <f t="shared" si="80"/>
+        <v>11,8,11,0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -26421,22 +27504,34 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
-      <c r="I313" s="1"/>
+      <c r="I313" s="1">
+        <v>1</v>
+      </c>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
-      <c r="P313" s="1"/>
-      <c r="Q313" s="1"/>
-      <c r="R313" s="1"/>
+      <c r="O313" s="1">
+        <v>1</v>
+      </c>
+      <c r="P313" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q313" s="1">
+        <v>1</v>
+      </c>
+      <c r="R313" s="1">
+        <v>1</v>
+      </c>
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
-      <c r="X313" s="1"/>
+      <c r="X313" s="1">
+        <v>1</v>
+      </c>
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
@@ -26444,15 +27539,49 @@
       <c r="AC313" s="1"/>
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
-    </row>
-    <row r="314" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH313">
+        <v>7</v>
+      </c>
+      <c r="AI313">
+        <v>1</v>
+      </c>
+      <c r="AJ313">
+        <v>5</v>
+      </c>
+      <c r="AK313">
+        <v>4</v>
+      </c>
+      <c r="AL313">
+        <v>5</v>
+      </c>
+      <c r="AM313">
+        <v>1</v>
+      </c>
+      <c r="AN313">
+        <v>7</v>
+      </c>
+      <c r="AO313">
+        <v>0</v>
+      </c>
+      <c r="AT313">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW313" t="str">
+        <f t="shared" si="80"/>
+        <v>7,1,5,4,5,1,7,0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
-      <c r="H314" s="1"/>
+      <c r="H314" s="1">
+        <v>1</v>
+      </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -26469,79 +27598,207 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
-      <c r="Y314" s="1"/>
+      <c r="Y314" s="1">
+        <v>1</v>
+      </c>
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
       <c r="AC314" s="1"/>
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
-    </row>
-    <row r="315" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH314">
+        <v>6</v>
+      </c>
+      <c r="AI314">
+        <v>1</v>
+      </c>
+      <c r="AJ314">
+        <v>16</v>
+      </c>
+      <c r="AK314">
+        <v>1</v>
+      </c>
+      <c r="AL314">
+        <v>6</v>
+      </c>
+      <c r="AM314">
+        <v>0</v>
+      </c>
+      <c r="AT314">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW314" t="str">
+        <f t="shared" si="80"/>
+        <v>6,1,16,1,6,0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
+      <c r="G315" s="1">
+        <v>1</v>
+      </c>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
-      <c r="M315" s="1"/>
+      <c r="M315" s="1">
+        <v>1</v>
+      </c>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
-      <c r="T315" s="1"/>
+      <c r="T315" s="1">
+        <v>1</v>
+      </c>
       <c r="U315" s="1"/>
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
-      <c r="Z315" s="1"/>
+      <c r="Z315" s="1">
+        <v>1</v>
+      </c>
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
       <c r="AC315" s="1"/>
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
-    </row>
-    <row r="316" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH315">
+        <v>5</v>
+      </c>
+      <c r="AI315">
+        <v>1</v>
+      </c>
+      <c r="AJ315">
+        <v>5</v>
+      </c>
+      <c r="AK315">
+        <v>1</v>
+      </c>
+      <c r="AL315">
+        <v>6</v>
+      </c>
+      <c r="AM315">
+        <v>1</v>
+      </c>
+      <c r="AN315">
+        <v>5</v>
+      </c>
+      <c r="AO315">
+        <v>1</v>
+      </c>
+      <c r="AP315">
+        <v>5</v>
+      </c>
+      <c r="AQ315">
+        <v>0</v>
+      </c>
+      <c r="AT315">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW315" t="str">
+        <f t="shared" si="80"/>
+        <v>5,1,5,1,6,1,5,1,5,0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
+      <c r="F316" s="1">
+        <v>1</v>
+      </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
-      <c r="M316" s="1"/>
+      <c r="M316" s="1">
+        <v>1</v>
+      </c>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
+      <c r="Q316" s="1">
+        <v>1</v>
+      </c>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
-      <c r="T316" s="1"/>
+      <c r="T316" s="1">
+        <v>1</v>
+      </c>
       <c r="U316" s="1"/>
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
-      <c r="AA316" s="1"/>
+      <c r="AA316" s="1">
+        <v>1</v>
+      </c>
       <c r="AB316" s="1"/>
       <c r="AC316" s="1"/>
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
-    </row>
-    <row r="317" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH316">
+        <v>4</v>
+      </c>
+      <c r="AI316">
+        <v>1</v>
+      </c>
+      <c r="AJ316">
+        <v>6</v>
+      </c>
+      <c r="AK316">
+        <v>1</v>
+      </c>
+      <c r="AL316">
+        <v>3</v>
+      </c>
+      <c r="AM316">
+        <v>1</v>
+      </c>
+      <c r="AN316">
+        <v>2</v>
+      </c>
+      <c r="AO316">
+        <v>1</v>
+      </c>
+      <c r="AP316">
+        <v>6</v>
+      </c>
+      <c r="AQ316">
+        <v>1</v>
+      </c>
+      <c r="AR316">
+        <v>4</v>
+      </c>
+      <c r="AS316">
+        <v>0</v>
+      </c>
+      <c r="AT316">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW316" t="str">
+        <f t="shared" si="80"/>
+        <v>4,1,6,1,3,1,2,1,6,1,4,0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -26552,28 +27809,80 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
+      <c r="L317" s="1">
+        <v>1</v>
+      </c>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
+      <c r="Q317" s="1">
+        <v>1</v>
+      </c>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
-      <c r="U317" s="1"/>
+      <c r="U317" s="1">
+        <v>1</v>
+      </c>
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
-      <c r="AB317" s="1"/>
+      <c r="AB317" s="1">
+        <v>1</v>
+      </c>
       <c r="AC317" s="1"/>
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
-    </row>
-    <row r="318" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH317">
+        <v>3</v>
+      </c>
+      <c r="AI317">
+        <v>1</v>
+      </c>
+      <c r="AJ317">
+        <v>6</v>
+      </c>
+      <c r="AK317">
+        <v>1</v>
+      </c>
+      <c r="AL317">
+        <v>4</v>
+      </c>
+      <c r="AM317">
+        <v>1</v>
+      </c>
+      <c r="AN317">
+        <v>3</v>
+      </c>
+      <c r="AO317">
+        <v>1</v>
+      </c>
+      <c r="AP317">
+        <v>6</v>
+      </c>
+      <c r="AQ317">
+        <v>1</v>
+      </c>
+      <c r="AR317">
+        <v>3</v>
+      </c>
+      <c r="AS317">
+        <v>0</v>
+      </c>
+      <c r="AT317">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW317" t="str">
+        <f t="shared" si="80"/>
+        <v>3,1,6,1,4,1,3,1,6,1,3,0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -26584,16 +27893,22 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
-      <c r="L318" s="1"/>
+      <c r="L318" s="1">
+        <v>1</v>
+      </c>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-      <c r="Q318" s="1"/>
+      <c r="Q318" s="1">
+        <v>1</v>
+      </c>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
-      <c r="U318" s="1"/>
+      <c r="U318" s="1">
+        <v>1</v>
+      </c>
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
@@ -26604,8 +27919,40 @@
       <c r="AC318" s="1"/>
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
-    </row>
-    <row r="319" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH318">
+        <v>10</v>
+      </c>
+      <c r="AI318">
+        <v>1</v>
+      </c>
+      <c r="AJ318">
+        <v>4</v>
+      </c>
+      <c r="AK318">
+        <v>1</v>
+      </c>
+      <c r="AL318">
+        <v>3</v>
+      </c>
+      <c r="AM318">
+        <v>1</v>
+      </c>
+      <c r="AN318">
+        <v>10</v>
+      </c>
+      <c r="AO318">
+        <v>0</v>
+      </c>
+      <c r="AT318">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW318" t="str">
+        <f t="shared" si="80"/>
+        <v>10,1,4,1,3,1,10,0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -26615,18 +27962,24 @@
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
-      <c r="K319" s="1"/>
+      <c r="K319" s="1">
+        <v>1</v>
+      </c>
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
-      <c r="Q319" s="1"/>
+      <c r="Q319" s="1">
+        <v>1</v>
+      </c>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
-      <c r="V319" s="1"/>
+      <c r="V319" s="1">
+        <v>1</v>
+      </c>
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
@@ -26636,9 +27989,40 @@
       <c r="AC319" s="1"/>
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
-    </row>
-    <row r="320" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B320" s="1"/>
+      <c r="AH319">
+        <v>9</v>
+      </c>
+      <c r="AI319">
+        <v>1</v>
+      </c>
+      <c r="AJ319">
+        <v>5</v>
+      </c>
+      <c r="AK319">
+        <v>1</v>
+      </c>
+      <c r="AL319">
+        <v>4</v>
+      </c>
+      <c r="AM319">
+        <v>1</v>
+      </c>
+      <c r="AN319">
+        <v>9</v>
+      </c>
+      <c r="AO319">
+        <v>0</v>
+      </c>
+      <c r="AT319">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW319" t="str">
+        <f t="shared" si="80"/>
+        <v>9,1,5,1,4,1,9,0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -26647,18 +28031,24 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
-      <c r="K320" s="1"/>
+      <c r="K320" s="1">
+        <v>1</v>
+      </c>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-      <c r="Q320" s="1"/>
+      <c r="Q320" s="1">
+        <v>1</v>
+      </c>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
       <c r="U320" s="1"/>
-      <c r="V320" s="1"/>
+      <c r="V320" s="1">
+        <v>1</v>
+      </c>
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
@@ -26668,40 +28058,85 @@
       <c r="AC320" s="1"/>
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
-    </row>
-    <row r="321" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
-      <c r="G321" s="1"/>
-      <c r="H321" s="1"/>
-      <c r="I321" s="1"/>
-      <c r="J321" s="1"/>
-      <c r="K321" s="1"/>
-      <c r="L321" s="1"/>
-      <c r="M321" s="1"/>
-      <c r="N321" s="1"/>
-      <c r="O321" s="1"/>
-      <c r="P321" s="1"/>
+      <c r="AH320">
+        <v>9</v>
+      </c>
+      <c r="AI320">
+        <v>1</v>
+      </c>
+      <c r="AJ320">
+        <v>5</v>
+      </c>
+      <c r="AK320">
+        <v>1</v>
+      </c>
+      <c r="AL320">
+        <v>4</v>
+      </c>
+      <c r="AM320">
+        <v>1</v>
+      </c>
+      <c r="AN320">
+        <v>9</v>
+      </c>
+      <c r="AO320">
+        <v>0</v>
+      </c>
+      <c r="AT320">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="AW320" t="str">
+        <f t="shared" si="80"/>
+        <v>9,1,5,1,4,1,9,0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:49" x14ac:dyDescent="0.25">
       <c r="Q321" s="1"/>
-      <c r="R321" s="1"/>
-      <c r="S321" s="1"/>
-      <c r="T321" s="1"/>
-      <c r="U321" s="1"/>
-      <c r="V321" s="1"/>
-      <c r="W321" s="1"/>
-      <c r="X321" s="1"/>
-      <c r="Y321" s="1"/>
-      <c r="Z321" s="1"/>
-      <c r="AA321" s="1"/>
-      <c r="AB321" s="1"/>
-      <c r="AC321" s="1"/>
-      <c r="AD321" s="1"/>
-      <c r="AE321" s="1"/>
-    </row>
-    <row r="324" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AH323" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI323" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ323" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK323" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL323" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM323" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN323" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO323" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP323" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ323" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR323" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS323" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW323" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW324:AW353)</f>
+        <v>30,0,30,0,30,0,6,18,6,0,5,1,18,1,5,0,4,1,20,1,4,0,4,1,20,1,4,0,5,1,18,1,5,0,6,18,6,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,9,1,10,1,9,0,0,30,30,0,30,0,30,0,30,0,30,0,30,0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -26732,8 +28167,22 @@
       <c r="AC324" s="1"/>
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
-    </row>
-    <row r="325" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH324">
+        <v>30</v>
+      </c>
+      <c r="AI324">
+        <v>0</v>
+      </c>
+      <c r="AT324">
+        <f>SUM(AH324:AR324)</f>
+        <v>30</v>
+      </c>
+      <c r="AW324" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH324:AS324)</f>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -26764,8 +28213,22 @@
       <c r="AC325" s="1"/>
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
-    </row>
-    <row r="326" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH325">
+        <v>30</v>
+      </c>
+      <c r="AI325">
+        <v>0</v>
+      </c>
+      <c r="AT325">
+        <f t="shared" ref="AT325:AT353" si="81">SUM(AH325:AR325)</f>
+        <v>30</v>
+      </c>
+      <c r="AW325" t="str">
+        <f t="shared" ref="AW325:AW353" si="82">_xlfn.TEXTJOIN(",",TRUE,AH325:AS325)</f>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -26796,46 +28259,119 @@
       <c r="AC326" s="1"/>
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
-    </row>
-    <row r="327" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH326">
+        <v>30</v>
+      </c>
+      <c r="AI326">
+        <v>0</v>
+      </c>
+      <c r="AT326">
+        <f t="shared" si="81"/>
+        <v>30</v>
+      </c>
+      <c r="AW326" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
-      <c r="M327" s="1"/>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
-      <c r="Q327" s="1"/>
-      <c r="R327" s="1"/>
-      <c r="S327" s="1"/>
-      <c r="T327" s="1"/>
-      <c r="U327" s="1"/>
-      <c r="V327" s="1"/>
-      <c r="W327" s="1"/>
-      <c r="X327" s="1"/>
-      <c r="Y327" s="1"/>
+      <c r="H327" s="1">
+        <v>1</v>
+      </c>
+      <c r="I327" s="1">
+        <v>1</v>
+      </c>
+      <c r="J327" s="1">
+        <v>1</v>
+      </c>
+      <c r="K327" s="1">
+        <v>1</v>
+      </c>
+      <c r="L327" s="1">
+        <v>1</v>
+      </c>
+      <c r="M327" s="1">
+        <v>1</v>
+      </c>
+      <c r="N327" s="1">
+        <v>1</v>
+      </c>
+      <c r="O327" s="1">
+        <v>1</v>
+      </c>
+      <c r="P327" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q327" s="1">
+        <v>1</v>
+      </c>
+      <c r="R327" s="1">
+        <v>1</v>
+      </c>
+      <c r="S327" s="1">
+        <v>1</v>
+      </c>
+      <c r="T327" s="1">
+        <v>1</v>
+      </c>
+      <c r="U327" s="1">
+        <v>1</v>
+      </c>
+      <c r="V327" s="1">
+        <v>1</v>
+      </c>
+      <c r="W327" s="1">
+        <v>1</v>
+      </c>
+      <c r="X327" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y327" s="1">
+        <v>1</v>
+      </c>
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
       <c r="AC327" s="1"/>
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
-    </row>
-    <row r="328" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH327">
+        <v>6</v>
+      </c>
+      <c r="AI327">
+        <f>30-12</f>
+        <v>18</v>
+      </c>
+      <c r="AJ327">
+        <v>6</v>
+      </c>
+      <c r="AK327">
+        <v>0</v>
+      </c>
+      <c r="AT327">
+        <f>SUM(AH327:AS327)</f>
+        <v>30</v>
+      </c>
+      <c r="AW327" t="str">
+        <f t="shared" si="82"/>
+        <v>6,18,6,0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
+      <c r="G328" s="1">
+        <v>1</v>
+      </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
@@ -26854,19 +28390,49 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
-      <c r="Z328" s="1"/>
+      <c r="Z328" s="1">
+        <v>1</v>
+      </c>
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
       <c r="AC328" s="1"/>
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
-    </row>
-    <row r="329" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH328">
+        <v>5</v>
+      </c>
+      <c r="AI328">
+        <v>1</v>
+      </c>
+      <c r="AJ328">
+        <v>18</v>
+      </c>
+      <c r="AK328">
+        <v>1</v>
+      </c>
+      <c r="AL328">
+        <v>5</v>
+      </c>
+      <c r="AM328">
+        <v>0</v>
+      </c>
+      <c r="AT328">
+        <f>SUM(AH328:AS328)</f>
+        <v>30</v>
+      </c>
+      <c r="AW328" t="str">
+        <f t="shared" si="82"/>
+        <v>5,1,18,1,5,0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
+      <c r="F329" s="1">
+        <v>1</v>
+      </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -26887,18 +28453,48 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
-      <c r="AA329" s="1"/>
+      <c r="AA329" s="1">
+        <v>1</v>
+      </c>
       <c r="AB329" s="1"/>
       <c r="AC329" s="1"/>
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
-    </row>
-    <row r="330" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH329">
+        <v>4</v>
+      </c>
+      <c r="AI329">
+        <v>1</v>
+      </c>
+      <c r="AJ329">
+        <v>20</v>
+      </c>
+      <c r="AK329">
+        <v>1</v>
+      </c>
+      <c r="AL329">
+        <v>4</v>
+      </c>
+      <c r="AM329">
+        <v>0</v>
+      </c>
+      <c r="AT329">
+        <f t="shared" ref="AT329:AT353" si="83">SUM(AH329:AR329)</f>
+        <v>30</v>
+      </c>
+      <c r="AW329" t="str">
+        <f t="shared" si="82"/>
+        <v>4,1,20,1,4,0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
+      <c r="F330" s="1">
+        <v>1</v>
+      </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -26919,19 +28515,49 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
-      <c r="AA330" s="1"/>
+      <c r="AA330" s="1">
+        <v>1</v>
+      </c>
       <c r="AB330" s="1"/>
       <c r="AC330" s="1"/>
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
-    </row>
-    <row r="331" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH330">
+        <v>4</v>
+      </c>
+      <c r="AI330">
+        <v>1</v>
+      </c>
+      <c r="AJ330">
+        <v>20</v>
+      </c>
+      <c r="AK330">
+        <v>1</v>
+      </c>
+      <c r="AL330">
+        <v>4</v>
+      </c>
+      <c r="AM330">
+        <v>0</v>
+      </c>
+      <c r="AT330">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW330" t="str">
+        <f t="shared" si="82"/>
+        <v>4,1,20,1,4,0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
+      <c r="G331" s="1">
+        <v>1</v>
+      </c>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -26950,46 +28576,131 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
-      <c r="Z331" s="1"/>
+      <c r="Z331" s="1">
+        <v>1</v>
+      </c>
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
       <c r="AC331" s="1"/>
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
-    </row>
-    <row r="332" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH331">
+        <v>5</v>
+      </c>
+      <c r="AI331">
+        <v>1</v>
+      </c>
+      <c r="AJ331">
+        <v>18</v>
+      </c>
+      <c r="AK331">
+        <v>1</v>
+      </c>
+      <c r="AL331">
+        <v>5</v>
+      </c>
+      <c r="AM331">
+        <v>0</v>
+      </c>
+      <c r="AT331">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW331" t="str">
+        <f t="shared" si="82"/>
+        <v>5,1,18,1,5,0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
-      <c r="L332" s="1"/>
-      <c r="M332" s="1"/>
-      <c r="N332" s="1"/>
-      <c r="O332" s="1"/>
-      <c r="P332" s="1"/>
-      <c r="Q332" s="1"/>
-      <c r="R332" s="1"/>
-      <c r="S332" s="1"/>
-      <c r="T332" s="1"/>
-      <c r="U332" s="1"/>
-      <c r="V332" s="1"/>
-      <c r="W332" s="1"/>
-      <c r="X332" s="1"/>
-      <c r="Y332" s="1"/>
+      <c r="H332" s="1">
+        <v>1</v>
+      </c>
+      <c r="I332" s="1">
+        <v>1</v>
+      </c>
+      <c r="J332" s="1">
+        <v>1</v>
+      </c>
+      <c r="K332" s="1">
+        <v>1</v>
+      </c>
+      <c r="L332" s="1">
+        <v>1</v>
+      </c>
+      <c r="M332" s="1">
+        <v>1</v>
+      </c>
+      <c r="N332" s="1">
+        <v>1</v>
+      </c>
+      <c r="O332" s="1">
+        <v>1</v>
+      </c>
+      <c r="P332" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q332" s="1">
+        <v>1</v>
+      </c>
+      <c r="R332" s="1">
+        <v>1</v>
+      </c>
+      <c r="S332" s="1">
+        <v>1</v>
+      </c>
+      <c r="T332" s="1">
+        <v>1</v>
+      </c>
+      <c r="U332" s="1">
+        <v>1</v>
+      </c>
+      <c r="V332" s="1">
+        <v>1</v>
+      </c>
+      <c r="W332" s="1">
+        <v>1</v>
+      </c>
+      <c r="X332" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y332" s="1">
+        <v>1</v>
+      </c>
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
       <c r="AC332" s="1"/>
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
-    </row>
-    <row r="333" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH332">
+        <v>6</v>
+      </c>
+      <c r="AI332">
+        <f>30-12</f>
+        <v>18</v>
+      </c>
+      <c r="AJ332">
+        <v>6</v>
+      </c>
+      <c r="AK332">
+        <v>0</v>
+      </c>
+      <c r="AT332">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW332" t="str">
+        <f t="shared" si="82"/>
+        <v>6,18,6,0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -26999,7 +28710,9 @@
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
+      <c r="K333" s="1">
+        <v>1</v>
+      </c>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
@@ -27010,7 +28723,9 @@
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
-      <c r="V333" s="1"/>
+      <c r="V333" s="1">
+        <v>1</v>
+      </c>
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
@@ -27020,8 +28735,34 @@
       <c r="AC333" s="1"/>
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
-    </row>
-    <row r="334" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH333">
+        <v>9</v>
+      </c>
+      <c r="AI333">
+        <v>1</v>
+      </c>
+      <c r="AJ333">
+        <v>10</v>
+      </c>
+      <c r="AK333">
+        <v>1</v>
+      </c>
+      <c r="AL333">
+        <v>9</v>
+      </c>
+      <c r="AM333">
+        <v>0</v>
+      </c>
+      <c r="AT333">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW333" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -27031,7 +28772,9 @@
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
+      <c r="K334" s="1">
+        <v>1</v>
+      </c>
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
@@ -27042,7 +28785,9 @@
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
       <c r="U334" s="1"/>
-      <c r="V334" s="1"/>
+      <c r="V334" s="1">
+        <v>1</v>
+      </c>
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
@@ -27052,8 +28797,34 @@
       <c r="AC334" s="1"/>
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
-    </row>
-    <row r="335" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH334">
+        <v>9</v>
+      </c>
+      <c r="AI334">
+        <v>1</v>
+      </c>
+      <c r="AJ334">
+        <v>10</v>
+      </c>
+      <c r="AK334">
+        <v>1</v>
+      </c>
+      <c r="AL334">
+        <v>9</v>
+      </c>
+      <c r="AM334">
+        <v>0</v>
+      </c>
+      <c r="AT334">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW334" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -27063,7 +28834,9 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
+      <c r="K335" s="1">
+        <v>1</v>
+      </c>
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
@@ -27074,7 +28847,9 @@
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
-      <c r="V335" s="1"/>
+      <c r="V335" s="1">
+        <v>1</v>
+      </c>
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
@@ -27084,8 +28859,34 @@
       <c r="AC335" s="1"/>
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
-    </row>
-    <row r="336" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH335">
+        <v>9</v>
+      </c>
+      <c r="AI335">
+        <v>1</v>
+      </c>
+      <c r="AJ335">
+        <v>10</v>
+      </c>
+      <c r="AK335">
+        <v>1</v>
+      </c>
+      <c r="AL335">
+        <v>9</v>
+      </c>
+      <c r="AM335">
+        <v>0</v>
+      </c>
+      <c r="AT335">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW335" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -27095,7 +28896,9 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
+      <c r="K336" s="1">
+        <v>1</v>
+      </c>
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
@@ -27106,7 +28909,9 @@
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
       <c r="U336" s="1"/>
-      <c r="V336" s="1"/>
+      <c r="V336" s="1">
+        <v>1</v>
+      </c>
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
@@ -27116,8 +28921,34 @@
       <c r="AC336" s="1"/>
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
-    </row>
-    <row r="337" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH336">
+        <v>9</v>
+      </c>
+      <c r="AI336">
+        <v>1</v>
+      </c>
+      <c r="AJ336">
+        <v>10</v>
+      </c>
+      <c r="AK336">
+        <v>1</v>
+      </c>
+      <c r="AL336">
+        <v>9</v>
+      </c>
+      <c r="AM336">
+        <v>0</v>
+      </c>
+      <c r="AT336">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW336" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -27127,7 +28958,9 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
+      <c r="K337" s="1">
+        <v>1</v>
+      </c>
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -27138,7 +28971,9 @@
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
-      <c r="V337" s="1"/>
+      <c r="V337" s="1">
+        <v>1</v>
+      </c>
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
@@ -27148,8 +28983,34 @@
       <c r="AC337" s="1"/>
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
-    </row>
-    <row r="338" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH337">
+        <v>9</v>
+      </c>
+      <c r="AI337">
+        <v>1</v>
+      </c>
+      <c r="AJ337">
+        <v>10</v>
+      </c>
+      <c r="AK337">
+        <v>1</v>
+      </c>
+      <c r="AL337">
+        <v>9</v>
+      </c>
+      <c r="AM337">
+        <v>0</v>
+      </c>
+      <c r="AT337">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW337" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -27159,7 +29020,9 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
+      <c r="K338" s="1">
+        <v>1</v>
+      </c>
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
@@ -27170,7 +29033,9 @@
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
       <c r="U338" s="1"/>
-      <c r="V338" s="1"/>
+      <c r="V338" s="1">
+        <v>1</v>
+      </c>
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
@@ -27180,8 +29045,34 @@
       <c r="AC338" s="1"/>
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
-    </row>
-    <row r="339" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH338">
+        <v>9</v>
+      </c>
+      <c r="AI338">
+        <v>1</v>
+      </c>
+      <c r="AJ338">
+        <v>10</v>
+      </c>
+      <c r="AK338">
+        <v>1</v>
+      </c>
+      <c r="AL338">
+        <v>9</v>
+      </c>
+      <c r="AM338">
+        <v>0</v>
+      </c>
+      <c r="AT338">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW338" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -27191,7 +29082,9 @@
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
+      <c r="K339" s="1">
+        <v>1</v>
+      </c>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
@@ -27202,7 +29095,9 @@
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
-      <c r="V339" s="1"/>
+      <c r="V339" s="1">
+        <v>1</v>
+      </c>
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
@@ -27212,8 +29107,34 @@
       <c r="AC339" s="1"/>
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
-    </row>
-    <row r="340" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH339">
+        <v>9</v>
+      </c>
+      <c r="AI339">
+        <v>1</v>
+      </c>
+      <c r="AJ339">
+        <v>10</v>
+      </c>
+      <c r="AK339">
+        <v>1</v>
+      </c>
+      <c r="AL339">
+        <v>9</v>
+      </c>
+      <c r="AM339">
+        <v>0</v>
+      </c>
+      <c r="AT339">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW339" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -27223,7 +29144,9 @@
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
+      <c r="K340" s="1">
+        <v>1</v>
+      </c>
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
@@ -27234,7 +29157,9 @@
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
       <c r="U340" s="1"/>
-      <c r="V340" s="1"/>
+      <c r="V340" s="1">
+        <v>1</v>
+      </c>
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
@@ -27244,8 +29169,34 @@
       <c r="AC340" s="1"/>
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
-    </row>
-    <row r="341" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH340">
+        <v>9</v>
+      </c>
+      <c r="AI340">
+        <v>1</v>
+      </c>
+      <c r="AJ340">
+        <v>10</v>
+      </c>
+      <c r="AK340">
+        <v>1</v>
+      </c>
+      <c r="AL340">
+        <v>9</v>
+      </c>
+      <c r="AM340">
+        <v>0</v>
+      </c>
+      <c r="AT340">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW340" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -27255,7 +29206,9 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
+      <c r="K341" s="1">
+        <v>1</v>
+      </c>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
@@ -27266,7 +29219,9 @@
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
-      <c r="V341" s="1"/>
+      <c r="V341" s="1">
+        <v>1</v>
+      </c>
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
@@ -27276,8 +29231,34 @@
       <c r="AC341" s="1"/>
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
-    </row>
-    <row r="342" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH341">
+        <v>9</v>
+      </c>
+      <c r="AI341">
+        <v>1</v>
+      </c>
+      <c r="AJ341">
+        <v>10</v>
+      </c>
+      <c r="AK341">
+        <v>1</v>
+      </c>
+      <c r="AL341">
+        <v>9</v>
+      </c>
+      <c r="AM341">
+        <v>0</v>
+      </c>
+      <c r="AT341">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW341" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -27287,7 +29268,9 @@
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
-      <c r="K342" s="1"/>
+      <c r="K342" s="1">
+        <v>1</v>
+      </c>
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -27298,7 +29281,9 @@
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
       <c r="U342" s="1"/>
-      <c r="V342" s="1"/>
+      <c r="V342" s="1">
+        <v>1</v>
+      </c>
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
@@ -27308,8 +29293,34 @@
       <c r="AC342" s="1"/>
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
-    </row>
-    <row r="343" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH342">
+        <v>9</v>
+      </c>
+      <c r="AI342">
+        <v>1</v>
+      </c>
+      <c r="AJ342">
+        <v>10</v>
+      </c>
+      <c r="AK342">
+        <v>1</v>
+      </c>
+      <c r="AL342">
+        <v>9</v>
+      </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
+      <c r="AT342">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW342" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -27319,7 +29330,9 @@
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
-      <c r="K343" s="1"/>
+      <c r="K343" s="1">
+        <v>1</v>
+      </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
@@ -27330,7 +29343,9 @@
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
-      <c r="V343" s="1"/>
+      <c r="V343" s="1">
+        <v>1</v>
+      </c>
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
@@ -27340,8 +29355,34 @@
       <c r="AC343" s="1"/>
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
-    </row>
-    <row r="344" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH343">
+        <v>9</v>
+      </c>
+      <c r="AI343">
+        <v>1</v>
+      </c>
+      <c r="AJ343">
+        <v>10</v>
+      </c>
+      <c r="AK343">
+        <v>1</v>
+      </c>
+      <c r="AL343">
+        <v>9</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AT343">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW343" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -27351,7 +29392,9 @@
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
-      <c r="K344" s="1"/>
+      <c r="K344" s="1">
+        <v>1</v>
+      </c>
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
@@ -27362,7 +29405,9 @@
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
       <c r="U344" s="1"/>
-      <c r="V344" s="1"/>
+      <c r="V344" s="1">
+        <v>1</v>
+      </c>
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
@@ -27372,8 +29417,34 @@
       <c r="AC344" s="1"/>
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
-    </row>
-    <row r="345" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH344">
+        <v>9</v>
+      </c>
+      <c r="AI344">
+        <v>1</v>
+      </c>
+      <c r="AJ344">
+        <v>10</v>
+      </c>
+      <c r="AK344">
+        <v>1</v>
+      </c>
+      <c r="AL344">
+        <v>9</v>
+      </c>
+      <c r="AM344">
+        <v>0</v>
+      </c>
+      <c r="AT344">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW344" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -27383,7 +29454,9 @@
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
+      <c r="K345" s="1">
+        <v>1</v>
+      </c>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
@@ -27394,7 +29467,9 @@
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
-      <c r="V345" s="1"/>
+      <c r="V345" s="1">
+        <v>1</v>
+      </c>
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
@@ -27404,8 +29479,34 @@
       <c r="AC345" s="1"/>
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
-    </row>
-    <row r="346" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH345">
+        <v>9</v>
+      </c>
+      <c r="AI345">
+        <v>1</v>
+      </c>
+      <c r="AJ345">
+        <v>10</v>
+      </c>
+      <c r="AK345">
+        <v>1</v>
+      </c>
+      <c r="AL345">
+        <v>9</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AT345">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW345" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -27415,7 +29516,9 @@
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
+      <c r="K346" s="1">
+        <v>1</v>
+      </c>
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
@@ -27426,7 +29529,9 @@
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
       <c r="U346" s="1"/>
-      <c r="V346" s="1"/>
+      <c r="V346" s="1">
+        <v>1</v>
+      </c>
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
@@ -27436,40 +29541,140 @@
       <c r="AC346" s="1"/>
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
-    </row>
-    <row r="347" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
-      <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
-      <c r="M347" s="1"/>
-      <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
-      <c r="P347" s="1"/>
-      <c r="Q347" s="1"/>
-      <c r="R347" s="1"/>
-      <c r="S347" s="1"/>
-      <c r="T347" s="1"/>
-      <c r="U347" s="1"/>
-      <c r="V347" s="1"/>
-      <c r="W347" s="1"/>
-      <c r="X347" s="1"/>
-      <c r="Y347" s="1"/>
-      <c r="Z347" s="1"/>
-      <c r="AA347" s="1"/>
-      <c r="AB347" s="1"/>
-      <c r="AC347" s="1"/>
-      <c r="AD347" s="1"/>
-      <c r="AE347" s="1"/>
-    </row>
-    <row r="348" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH346">
+        <v>9</v>
+      </c>
+      <c r="AI346">
+        <v>1</v>
+      </c>
+      <c r="AJ346">
+        <v>10</v>
+      </c>
+      <c r="AK346">
+        <v>1</v>
+      </c>
+      <c r="AL346">
+        <v>9</v>
+      </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
+      <c r="AT346">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW346" t="str">
+        <f t="shared" si="82"/>
+        <v>9,1,10,1,9,0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B347" s="1">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1</v>
+      </c>
+      <c r="D347" s="1">
+        <v>1</v>
+      </c>
+      <c r="E347" s="1">
+        <v>1</v>
+      </c>
+      <c r="F347" s="1">
+        <v>1</v>
+      </c>
+      <c r="G347" s="1">
+        <v>1</v>
+      </c>
+      <c r="H347" s="1">
+        <v>1</v>
+      </c>
+      <c r="I347" s="1">
+        <v>1</v>
+      </c>
+      <c r="J347" s="1">
+        <v>1</v>
+      </c>
+      <c r="K347" s="1">
+        <v>1</v>
+      </c>
+      <c r="L347" s="1">
+        <v>1</v>
+      </c>
+      <c r="M347" s="1">
+        <v>1</v>
+      </c>
+      <c r="N347" s="1">
+        <v>1</v>
+      </c>
+      <c r="O347" s="1">
+        <v>1</v>
+      </c>
+      <c r="P347" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q347" s="1">
+        <v>1</v>
+      </c>
+      <c r="R347" s="1">
+        <v>1</v>
+      </c>
+      <c r="S347" s="1">
+        <v>1</v>
+      </c>
+      <c r="T347" s="1">
+        <v>1</v>
+      </c>
+      <c r="U347" s="1">
+        <v>1</v>
+      </c>
+      <c r="V347" s="1">
+        <v>1</v>
+      </c>
+      <c r="W347" s="1">
+        <v>1</v>
+      </c>
+      <c r="X347" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y347" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI347" s="1">
+        <v>30</v>
+      </c>
+      <c r="AT347">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW347" t="str">
+        <f t="shared" si="82"/>
+        <v>0,30</v>
+      </c>
+    </row>
+    <row r="348" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -27500,8 +29705,22 @@
       <c r="AC348" s="1"/>
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
-    </row>
-    <row r="349" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH348">
+        <v>30</v>
+      </c>
+      <c r="AI348">
+        <v>0</v>
+      </c>
+      <c r="AT348">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW348" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -27532,8 +29751,22 @@
       <c r="AC349" s="1"/>
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
-    </row>
-    <row r="350" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH349">
+        <v>30</v>
+      </c>
+      <c r="AI349">
+        <v>0</v>
+      </c>
+      <c r="AT349">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW349" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -27564,8 +29797,22 @@
       <c r="AC350" s="1"/>
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
-    </row>
-    <row r="351" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH350">
+        <v>30</v>
+      </c>
+      <c r="AI350">
+        <v>0</v>
+      </c>
+      <c r="AT350">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW350" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -27596,8 +29843,22 @@
       <c r="AC351" s="1"/>
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
-    </row>
-    <row r="352" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH351">
+        <v>30</v>
+      </c>
+      <c r="AI351">
+        <v>0</v>
+      </c>
+      <c r="AT351">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW351" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -27628,8 +29889,22 @@
       <c r="AC352" s="1"/>
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
-    </row>
-    <row r="353" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH352">
+        <v>30</v>
+      </c>
+      <c r="AI352">
+        <v>0</v>
+      </c>
+      <c r="AT352">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW352" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -27660,8 +29935,22 @@
       <c r="AC353" s="1"/>
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
-    </row>
-    <row r="354" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH353">
+        <v>30</v>
+      </c>
+      <c r="AI353">
+        <v>0</v>
+      </c>
+      <c r="AT353">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="AW353" t="str">
+        <f t="shared" si="82"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -27692,94 +29981,4920 @@
       <c r="AC354" s="1"/>
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
+      <c r="AH354">
+        <v>30</v>
+      </c>
+      <c r="AI354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="AW355" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE355" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT355" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA355" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP355" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="AH356" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI356" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ356" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK356" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL356" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM356" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW356" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW357:AW386)</f>
+        <v>11,8,11,0,9,12,9,0,7,16,7,0,5,20,5,0,4,22,4,0,3,24,3,0,3,24,3,0,2,26,2,0,2,26,2,0,1,28,1,0,1,28,1,0,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,1,28,1,0,1,28,1,0,2,26,2,0,2,26,2,0,3,24,3,0,3,24,3,0,4,22,4,0,5,20,5,0,7,16,7,0,9,12,9,0,11,8,11,0</v>
+      </c>
+      <c r="BE356" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF356" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG356" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH356" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI356" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ356" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT356" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,BT357:BT386)</f>
+        <v>11,8,11,0,9,12,9,0,7,14,9,0,5,16,9,0,4,16,10,0,3,17,10,0,3,16,11,0,2,17,11,0,2,16,12,0,1,17,12,0,1,16,13,0,0,17,13,0,0,16,14,0,0,16,14,0,0,15,15,0,0,15,15,0,0,14,16,0,0,14,16,0,0,13,17,0,1,12,17,0,1,11,18,0,2,10,18,0,2,9,19,0,3,8,19,0,3,7,20,0,4,6,20,0,5,4,21,0,8,1,21,0,30,0,30,0</v>
+      </c>
+      <c r="CA356" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB356" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC356" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD356" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE356" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF356" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP356" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,CP357:CP386)</f>
+        <v>30,0,30,0,22,1,7,0,22,3,5,0,21,5,4,0,21,6,3,0,20,7,3,0,20,8,2,0,19,9,2,0,19,10,1,0,18,11,1,0,18,12,17,13,17,13,16,14,16,14,15,15,15,15,14,16,14,15,1,0,13,16,1,0,13,15,2,0,12,16,2,0,12,15,3,0,11,16,3,0,11,15,4,0,10,15,5,0,10,13,7,0,9,12,9,0,11,8,11,0</v>
+      </c>
+      <c r="CX356" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY356" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ356" t="s">
+        <v>0</v>
+      </c>
+      <c r="DA356" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB356" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC356" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM356" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,DM357:DM386)</f>
+        <v>30,0,0,0,30,0,0,0,22,1,7,0,22,3,5,0,21,5,4,0,21,6,3,0,20,7,3,0,20,8,2,0,19,9,2,0,19,10,1,0,18,11,1,0,18,12,17,13,17,13,16,14,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0,30,0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1">
+        <v>1</v>
+      </c>
+      <c r="N357" s="1">
+        <v>1</v>
+      </c>
+      <c r="O357" s="1">
+        <v>1</v>
+      </c>
+      <c r="P357" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q357" s="1">
+        <v>1</v>
+      </c>
+      <c r="R357" s="1">
+        <v>1</v>
+      </c>
+      <c r="S357" s="1">
+        <v>1</v>
+      </c>
+      <c r="T357" s="1">
+        <v>1</v>
+      </c>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
+      <c r="W357" s="1"/>
+      <c r="X357" s="1"/>
+      <c r="Y357" s="1"/>
+      <c r="Z357" s="1"/>
+      <c r="AA357" s="1"/>
+      <c r="AB357" s="1"/>
+      <c r="AC357" s="1"/>
+      <c r="AD357" s="1"/>
+      <c r="AE357" s="1"/>
+      <c r="AH357">
+        <v>11</v>
+      </c>
+      <c r="AI357">
+        <v>8</v>
+      </c>
+      <c r="AJ357">
+        <v>11</v>
+      </c>
+      <c r="AK357">
+        <v>0</v>
+      </c>
+      <c r="AT357">
+        <f>SUM(AH357:AR357)</f>
+        <v>30</v>
+      </c>
+      <c r="AW357" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH357:AS357)</f>
+        <v>11,8,11,0</v>
+      </c>
+      <c r="BE357">
+        <v>11</v>
+      </c>
+      <c r="BF357">
+        <v>8</v>
+      </c>
+      <c r="BG357">
+        <v>11</v>
+      </c>
+      <c r="BH357">
+        <v>0</v>
+      </c>
+      <c r="BQ357">
+        <f>SUM(BE357:BO357)</f>
+        <v>30</v>
+      </c>
+      <c r="BT357" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,BE357:BP357)</f>
+        <v>11,8,11,0</v>
+      </c>
+      <c r="CA357">
+        <v>30</v>
+      </c>
+      <c r="CB357">
+        <v>0</v>
+      </c>
+      <c r="CM357">
+        <f>SUM(CA357:CK357)</f>
+        <v>30</v>
+      </c>
+      <c r="CP357" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,CA357:CL357)</f>
+        <v>30,0</v>
+      </c>
+      <c r="CX357">
+        <f>CA357</f>
+        <v>30</v>
+      </c>
+      <c r="CY357">
+        <f t="shared" ref="CY357:CY371" si="84">CB357</f>
+        <v>0</v>
+      </c>
+      <c r="CZ357">
+        <f t="shared" ref="CZ357:CZ367" si="85">CC357</f>
+        <v>0</v>
+      </c>
+      <c r="DA357">
+        <f t="shared" ref="DA357:DA367" si="86">CD357</f>
+        <v>0</v>
+      </c>
+      <c r="DJ357">
+        <f>SUM(CX357:DH357)</f>
+        <v>30</v>
+      </c>
+      <c r="DM357" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,CX357:DI357)</f>
+        <v>30,0,0,0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1">
+        <v>1</v>
+      </c>
+      <c r="L358" s="1">
+        <v>1</v>
+      </c>
+      <c r="M358" s="1">
+        <v>1</v>
+      </c>
+      <c r="N358" s="1">
+        <v>1</v>
+      </c>
+      <c r="O358" s="1">
+        <v>1</v>
+      </c>
+      <c r="P358" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q358" s="1">
+        <v>1</v>
+      </c>
+      <c r="R358" s="1">
+        <v>1</v>
+      </c>
+      <c r="S358" s="1">
+        <v>1</v>
+      </c>
+      <c r="T358" s="1">
+        <v>1</v>
+      </c>
+      <c r="U358" s="1">
+        <v>1</v>
+      </c>
+      <c r="V358" s="1">
+        <v>1</v>
+      </c>
+      <c r="W358" s="1"/>
+      <c r="X358" s="1"/>
+      <c r="Y358" s="1"/>
+      <c r="Z358" s="1"/>
+      <c r="AA358" s="1"/>
+      <c r="AB358" s="1"/>
+      <c r="AC358" s="1"/>
+      <c r="AD358" s="1"/>
+      <c r="AE358" s="1"/>
+      <c r="AH358">
+        <v>9</v>
+      </c>
+      <c r="AI358">
+        <v>12</v>
+      </c>
+      <c r="AJ358">
+        <v>9</v>
+      </c>
+      <c r="AK358">
+        <v>0</v>
+      </c>
+      <c r="AT358">
+        <f t="shared" ref="AT358:AT386" si="87">SUM(AH358:AR358)</f>
+        <v>30</v>
+      </c>
+      <c r="AW358" t="str">
+        <f t="shared" ref="AW358:AW386" si="88">_xlfn.TEXTJOIN(",",TRUE,AH358:AS358)</f>
+        <v>9,12,9,0</v>
+      </c>
+      <c r="BE358">
+        <v>9</v>
+      </c>
+      <c r="BF358">
+        <v>12</v>
+      </c>
+      <c r="BG358">
+        <v>9</v>
+      </c>
+      <c r="BH358">
+        <v>0</v>
+      </c>
+      <c r="BQ358">
+        <f t="shared" ref="BQ358:BQ386" si="89">SUM(BE358:BO358)</f>
+        <v>30</v>
+      </c>
+      <c r="BT358" t="str">
+        <f t="shared" ref="BT358:BT386" si="90">_xlfn.TEXTJOIN(",",TRUE,BE358:BP358)</f>
+        <v>9,12,9,0</v>
+      </c>
+      <c r="CA358">
+        <v>30</v>
+      </c>
+      <c r="CB358">
+        <v>0</v>
+      </c>
+      <c r="CM358">
+        <f t="shared" ref="CM358:CM386" si="91">SUM(CA358:CK358)</f>
+        <v>30</v>
+      </c>
+      <c r="CP358" t="str">
+        <f t="shared" ref="CP358:CP386" si="92">_xlfn.TEXTJOIN(",",TRUE,CA358:CL358)</f>
+        <v>30,0</v>
+      </c>
+      <c r="CX358">
+        <f t="shared" ref="CX358:CX371" si="93">CA358</f>
+        <v>30</v>
+      </c>
+      <c r="CY358">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CZ358">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="DA358">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ358">
+        <f t="shared" ref="DJ358:DJ386" si="94">SUM(CX358:DH358)</f>
+        <v>30</v>
+      </c>
+      <c r="DM358" t="str">
+        <f t="shared" ref="DM358:DM386" si="95">_xlfn.TEXTJOIN(",",TRUE,CX358:DI358)</f>
+        <v>30,0,0,0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="I359" s="1">
+        <v>1</v>
+      </c>
+      <c r="J359" s="1">
+        <v>1</v>
+      </c>
+      <c r="K359" s="1">
+        <v>1</v>
+      </c>
+      <c r="L359" s="1">
+        <v>1</v>
+      </c>
+      <c r="M359" s="1">
+        <v>1</v>
+      </c>
+      <c r="N359" s="1">
+        <v>1</v>
+      </c>
+      <c r="O359" s="1">
+        <v>1</v>
+      </c>
+      <c r="P359" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q359" s="1">
+        <v>1</v>
+      </c>
+      <c r="R359" s="1">
+        <v>1</v>
+      </c>
+      <c r="S359" s="1">
+        <v>1</v>
+      </c>
+      <c r="T359" s="1">
+        <v>1</v>
+      </c>
+      <c r="U359" s="1">
+        <v>1</v>
+      </c>
+      <c r="V359" s="1">
+        <v>1</v>
+      </c>
+      <c r="W359" s="1">
+        <v>2</v>
+      </c>
+      <c r="X359" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y359" s="1"/>
+      <c r="Z359" s="1"/>
+      <c r="AA359" s="1"/>
+      <c r="AB359" s="1"/>
+      <c r="AC359" s="1"/>
+      <c r="AD359" s="1"/>
+      <c r="AE359" s="1"/>
+      <c r="AH359">
+        <v>7</v>
+      </c>
+      <c r="AI359">
+        <v>16</v>
+      </c>
+      <c r="AJ359">
+        <v>7</v>
+      </c>
+      <c r="AK359">
+        <v>0</v>
+      </c>
+      <c r="AT359">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW359" t="str">
+        <f t="shared" si="88"/>
+        <v>7,16,7,0</v>
+      </c>
+      <c r="BE359">
+        <f>BE358-2</f>
+        <v>7</v>
+      </c>
+      <c r="BF359">
+        <v>14</v>
+      </c>
+      <c r="BG359">
+        <v>9</v>
+      </c>
+      <c r="BH359">
+        <v>0</v>
+      </c>
+      <c r="BQ359">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT359" t="str">
+        <f t="shared" si="90"/>
+        <v>7,14,9,0</v>
+      </c>
+      <c r="BU359">
+        <v>1</v>
+      </c>
+      <c r="BV359">
+        <v>7</v>
+      </c>
+      <c r="BW359">
+        <v>0</v>
+      </c>
+      <c r="CA359">
+        <v>22</v>
+      </c>
+      <c r="CB359">
+        <v>1</v>
+      </c>
+      <c r="CC359">
+        <v>7</v>
+      </c>
+      <c r="CD359">
+        <v>0</v>
+      </c>
+      <c r="CM359">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP359" t="str">
+        <f t="shared" si="92"/>
+        <v>22,1,7,0</v>
+      </c>
+      <c r="CX359">
+        <f t="shared" si="93"/>
+        <v>22</v>
+      </c>
+      <c r="CY359">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="CZ359">
+        <f t="shared" si="85"/>
+        <v>7</v>
+      </c>
+      <c r="DA359">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ359">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM359" t="str">
+        <f t="shared" si="95"/>
+        <v>22,1,7,0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1">
+        <v>1</v>
+      </c>
+      <c r="H360" s="1">
+        <v>1</v>
+      </c>
+      <c r="I360" s="1">
+        <v>1</v>
+      </c>
+      <c r="J360" s="1">
+        <v>1</v>
+      </c>
+      <c r="K360" s="1">
+        <v>1</v>
+      </c>
+      <c r="L360" s="1">
+        <v>1</v>
+      </c>
+      <c r="M360" s="1">
+        <v>1</v>
+      </c>
+      <c r="N360" s="1">
+        <v>1</v>
+      </c>
+      <c r="O360" s="1">
+        <v>1</v>
+      </c>
+      <c r="P360" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q360" s="1">
+        <v>1</v>
+      </c>
+      <c r="R360" s="1">
+        <v>1</v>
+      </c>
+      <c r="S360" s="1">
+        <v>1</v>
+      </c>
+      <c r="T360" s="1">
+        <v>1</v>
+      </c>
+      <c r="U360" s="1">
+        <v>1</v>
+      </c>
+      <c r="V360" s="1">
+        <v>1</v>
+      </c>
+      <c r="W360" s="1">
+        <v>2</v>
+      </c>
+      <c r="X360" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y360" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z360" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA360" s="1"/>
+      <c r="AB360" s="1"/>
+      <c r="AC360" s="1"/>
+      <c r="AD360" s="1"/>
+      <c r="AE360" s="1"/>
+      <c r="AH360">
+        <v>5</v>
+      </c>
+      <c r="AI360">
+        <v>20</v>
+      </c>
+      <c r="AJ360">
+        <v>5</v>
+      </c>
+      <c r="AK360">
+        <v>0</v>
+      </c>
+      <c r="AT360">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW360" t="str">
+        <f t="shared" si="88"/>
+        <v>5,20,5,0</v>
+      </c>
+      <c r="BE360">
+        <f t="shared" ref="BE360:BE366" si="96">BE359-2</f>
+        <v>5</v>
+      </c>
+      <c r="BF360">
+        <f t="shared" ref="BF360:BF384" si="97">30-(BE360+BG360)</f>
+        <v>16</v>
+      </c>
+      <c r="BG360">
+        <v>9</v>
+      </c>
+      <c r="BH360">
+        <v>0</v>
+      </c>
+      <c r="BQ360">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT360" t="str">
+        <f t="shared" si="90"/>
+        <v>5,16,9,0</v>
+      </c>
+      <c r="BU360">
+        <v>3</v>
+      </c>
+      <c r="BV360">
+        <v>5</v>
+      </c>
+      <c r="BW360">
+        <v>0</v>
+      </c>
+      <c r="CA360">
+        <v>22</v>
+      </c>
+      <c r="CB360">
+        <v>3</v>
+      </c>
+      <c r="CC360">
+        <v>5</v>
+      </c>
+      <c r="CD360">
+        <v>0</v>
+      </c>
+      <c r="CM360">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP360" t="str">
+        <f t="shared" si="92"/>
+        <v>22,3,5,0</v>
+      </c>
+      <c r="CX360">
+        <f t="shared" si="93"/>
+        <v>22</v>
+      </c>
+      <c r="CY360">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="CZ360">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
+      <c r="DA360">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ360">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM360" t="str">
+        <f t="shared" si="95"/>
+        <v>22,3,5,0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1">
+        <v>1</v>
+      </c>
+      <c r="G361" s="1">
+        <v>1</v>
+      </c>
+      <c r="H361" s="1">
+        <v>1</v>
+      </c>
+      <c r="I361" s="1">
+        <v>1</v>
+      </c>
+      <c r="J361" s="1">
+        <v>1</v>
+      </c>
+      <c r="K361" s="1">
+        <v>1</v>
+      </c>
+      <c r="L361" s="1">
+        <v>1</v>
+      </c>
+      <c r="M361" s="1">
+        <v>1</v>
+      </c>
+      <c r="N361" s="1">
+        <v>1</v>
+      </c>
+      <c r="O361" s="1">
+        <v>1</v>
+      </c>
+      <c r="P361" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="1">
+        <v>1</v>
+      </c>
+      <c r="R361" s="1">
+        <v>1</v>
+      </c>
+      <c r="S361" s="1">
+        <v>1</v>
+      </c>
+      <c r="T361" s="1">
+        <v>1</v>
+      </c>
+      <c r="U361" s="1">
+        <v>1</v>
+      </c>
+      <c r="V361" s="1">
+        <v>2</v>
+      </c>
+      <c r="W361" s="1">
+        <v>1</v>
+      </c>
+      <c r="X361" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y361" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB361" s="1"/>
+      <c r="AC361" s="1"/>
+      <c r="AD361" s="1"/>
+      <c r="AE361" s="1"/>
+      <c r="AH361">
+        <v>4</v>
+      </c>
+      <c r="AI361">
+        <v>22</v>
+      </c>
+      <c r="AJ361">
+        <v>4</v>
+      </c>
+      <c r="AK361">
+        <v>0</v>
+      </c>
+      <c r="AT361">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW361" t="str">
+        <f t="shared" si="88"/>
+        <v>4,22,4,0</v>
+      </c>
+      <c r="BE361">
+        <f>BE360-1</f>
+        <v>4</v>
+      </c>
+      <c r="BF361">
+        <f t="shared" si="97"/>
+        <v>16</v>
+      </c>
+      <c r="BG361">
+        <f>BG359+1</f>
+        <v>10</v>
+      </c>
+      <c r="BH361">
+        <v>0</v>
+      </c>
+      <c r="BQ361">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT361" t="str">
+        <f t="shared" si="90"/>
+        <v>4,16,10,0</v>
+      </c>
+      <c r="BU361">
+        <v>5</v>
+      </c>
+      <c r="BV361">
+        <v>4</v>
+      </c>
+      <c r="BW361">
+        <v>0</v>
+      </c>
+      <c r="CA361">
+        <v>21</v>
+      </c>
+      <c r="CB361">
+        <v>5</v>
+      </c>
+      <c r="CC361">
+        <v>4</v>
+      </c>
+      <c r="CD361">
+        <v>0</v>
+      </c>
+      <c r="CM361">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP361" t="str">
+        <f t="shared" si="92"/>
+        <v>21,5,4,0</v>
+      </c>
+      <c r="CX361">
+        <f t="shared" si="93"/>
+        <v>21</v>
+      </c>
+      <c r="CY361">
+        <f t="shared" si="84"/>
+        <v>5</v>
+      </c>
+      <c r="CZ361">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="DA361">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ361">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM361" t="str">
+        <f t="shared" si="95"/>
+        <v>21,5,4,0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1">
+        <v>1</v>
+      </c>
+      <c r="F362" s="1">
+        <v>1</v>
+      </c>
+      <c r="G362" s="1">
+        <v>1</v>
+      </c>
+      <c r="H362" s="1">
+        <v>1</v>
+      </c>
+      <c r="I362" s="1">
+        <v>1</v>
+      </c>
+      <c r="J362" s="1">
+        <v>1</v>
+      </c>
+      <c r="K362" s="1">
+        <v>1</v>
+      </c>
+      <c r="L362" s="1">
+        <v>1</v>
+      </c>
+      <c r="M362" s="1">
+        <v>1</v>
+      </c>
+      <c r="N362" s="1">
+        <v>1</v>
+      </c>
+      <c r="O362" s="1">
+        <v>1</v>
+      </c>
+      <c r="P362" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q362" s="1">
+        <v>1</v>
+      </c>
+      <c r="R362" s="1">
+        <v>1</v>
+      </c>
+      <c r="S362" s="1">
+        <v>1</v>
+      </c>
+      <c r="T362" s="1">
+        <v>1</v>
+      </c>
+      <c r="U362" s="1">
+        <v>1</v>
+      </c>
+      <c r="V362" s="1">
+        <v>2</v>
+      </c>
+      <c r="W362" s="1">
+        <v>1</v>
+      </c>
+      <c r="X362" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y362" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC362" s="1"/>
+      <c r="AD362" s="1"/>
+      <c r="AE362" s="1"/>
+      <c r="AH362">
+        <v>3</v>
+      </c>
+      <c r="AI362">
+        <v>24</v>
+      </c>
+      <c r="AJ362">
+        <v>3</v>
+      </c>
+      <c r="AK362">
+        <v>0</v>
+      </c>
+      <c r="AT362">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW362" t="str">
+        <f t="shared" si="88"/>
+        <v>3,24,3,0</v>
+      </c>
+      <c r="BE362">
+        <f>BE361-1</f>
+        <v>3</v>
+      </c>
+      <c r="BF362">
+        <f t="shared" si="97"/>
+        <v>17</v>
+      </c>
+      <c r="BG362">
+        <f t="shared" ref="BG362:BG384" si="98">BG360+1</f>
+        <v>10</v>
+      </c>
+      <c r="BH362">
+        <v>0</v>
+      </c>
+      <c r="BQ362">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT362" t="str">
+        <f t="shared" si="90"/>
+        <v>3,17,10,0</v>
+      </c>
+      <c r="BU362">
+        <v>6</v>
+      </c>
+      <c r="BV362">
+        <v>3</v>
+      </c>
+      <c r="BW362">
+        <v>0</v>
+      </c>
+      <c r="CA362">
+        <v>21</v>
+      </c>
+      <c r="CB362">
+        <v>6</v>
+      </c>
+      <c r="CC362">
+        <v>3</v>
+      </c>
+      <c r="CD362">
+        <v>0</v>
+      </c>
+      <c r="CM362">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP362" t="str">
+        <f t="shared" si="92"/>
+        <v>21,6,3,0</v>
+      </c>
+      <c r="CX362">
+        <f t="shared" si="93"/>
+        <v>21</v>
+      </c>
+      <c r="CY362">
+        <f t="shared" si="84"/>
+        <v>6</v>
+      </c>
+      <c r="CZ362">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
+      <c r="DA362">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ362">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM362" t="str">
+        <f t="shared" si="95"/>
+        <v>21,6,3,0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1">
+        <v>1</v>
+      </c>
+      <c r="F363" s="1">
+        <v>1</v>
+      </c>
+      <c r="G363" s="1">
+        <v>1</v>
+      </c>
+      <c r="H363" s="1">
+        <v>1</v>
+      </c>
+      <c r="I363" s="1">
+        <v>1</v>
+      </c>
+      <c r="J363" s="1">
+        <v>1</v>
+      </c>
+      <c r="K363" s="1">
+        <v>1</v>
+      </c>
+      <c r="L363" s="1">
+        <v>1</v>
+      </c>
+      <c r="M363" s="1">
+        <v>1</v>
+      </c>
+      <c r="N363" s="1">
+        <v>1</v>
+      </c>
+      <c r="O363" s="1">
+        <v>1</v>
+      </c>
+      <c r="P363" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q363" s="1">
+        <v>1</v>
+      </c>
+      <c r="R363" s="1">
+        <v>1</v>
+      </c>
+      <c r="S363" s="1">
+        <v>1</v>
+      </c>
+      <c r="T363" s="1">
+        <v>1</v>
+      </c>
+      <c r="U363" s="1">
+        <v>2</v>
+      </c>
+      <c r="V363" s="1">
+        <v>1</v>
+      </c>
+      <c r="W363" s="1">
+        <v>1</v>
+      </c>
+      <c r="X363" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y363" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC363" s="1"/>
+      <c r="AD363" s="1"/>
+      <c r="AE363" s="1"/>
+      <c r="AH363">
+        <v>3</v>
+      </c>
+      <c r="AI363">
+        <v>24</v>
+      </c>
+      <c r="AJ363">
+        <v>3</v>
+      </c>
+      <c r="AK363">
+        <v>0</v>
+      </c>
+      <c r="AT363">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW363" t="str">
+        <f t="shared" si="88"/>
+        <v>3,24,3,0</v>
+      </c>
+      <c r="BE363">
+        <v>3</v>
+      </c>
+      <c r="BF363">
+        <f t="shared" si="97"/>
+        <v>16</v>
+      </c>
+      <c r="BG363">
+        <f t="shared" si="98"/>
+        <v>11</v>
+      </c>
+      <c r="BH363">
+        <v>0</v>
+      </c>
+      <c r="BQ363">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT363" t="str">
+        <f t="shared" si="90"/>
+        <v>3,16,11,0</v>
+      </c>
+      <c r="BU363">
+        <v>8</v>
+      </c>
+      <c r="BV363">
+        <v>3</v>
+      </c>
+      <c r="CA363">
+        <v>20</v>
+      </c>
+      <c r="CB363">
+        <v>7</v>
+      </c>
+      <c r="CC363">
+        <v>3</v>
+      </c>
+      <c r="CD363">
+        <v>0</v>
+      </c>
+      <c r="CM363">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP363" t="str">
+        <f t="shared" si="92"/>
+        <v>20,7,3,0</v>
+      </c>
+      <c r="CX363">
+        <f t="shared" si="93"/>
+        <v>20</v>
+      </c>
+      <c r="CY363">
+        <f t="shared" si="84"/>
+        <v>7</v>
+      </c>
+      <c r="CZ363">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
+      <c r="DA363">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ363">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM363" t="str">
+        <f t="shared" si="95"/>
+        <v>20,7,3,0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1">
+        <v>1</v>
+      </c>
+      <c r="E364" s="1">
+        <v>1</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1</v>
+      </c>
+      <c r="G364" s="1">
+        <v>1</v>
+      </c>
+      <c r="H364" s="1">
+        <v>1</v>
+      </c>
+      <c r="I364" s="1">
+        <v>1</v>
+      </c>
+      <c r="J364" s="1">
+        <v>1</v>
+      </c>
+      <c r="K364" s="1">
+        <v>1</v>
+      </c>
+      <c r="L364" s="1">
+        <v>1</v>
+      </c>
+      <c r="M364" s="1">
+        <v>1</v>
+      </c>
+      <c r="N364" s="1">
+        <v>1</v>
+      </c>
+      <c r="O364" s="1">
+        <v>1</v>
+      </c>
+      <c r="P364" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q364" s="1">
+        <v>1</v>
+      </c>
+      <c r="R364" s="1">
+        <v>1</v>
+      </c>
+      <c r="S364" s="1">
+        <v>1</v>
+      </c>
+      <c r="T364" s="1">
+        <v>1</v>
+      </c>
+      <c r="U364" s="1">
+        <v>2</v>
+      </c>
+      <c r="V364" s="1">
+        <v>1</v>
+      </c>
+      <c r="W364" s="1">
+        <v>1</v>
+      </c>
+      <c r="X364" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y364" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD364" s="1"/>
+      <c r="AE364" s="1"/>
+      <c r="AH364">
+        <v>2</v>
+      </c>
+      <c r="AI364">
+        <v>26</v>
+      </c>
+      <c r="AJ364">
+        <v>2</v>
+      </c>
+      <c r="AK364">
+        <v>0</v>
+      </c>
+      <c r="AT364">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW364" t="str">
+        <f t="shared" si="88"/>
+        <v>2,26,2,0</v>
+      </c>
+      <c r="BE364">
+        <f>BE362-1</f>
+        <v>2</v>
+      </c>
+      <c r="BF364">
+        <f t="shared" si="97"/>
+        <v>17</v>
+      </c>
+      <c r="BG364">
+        <f t="shared" si="98"/>
+        <v>11</v>
+      </c>
+      <c r="BH364">
+        <v>0</v>
+      </c>
+      <c r="BQ364">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT364" t="str">
+        <f t="shared" si="90"/>
+        <v>2,17,11,0</v>
+      </c>
+      <c r="CA364">
+        <v>20</v>
+      </c>
+      <c r="CB364">
+        <v>8</v>
+      </c>
+      <c r="CC364">
+        <v>2</v>
+      </c>
+      <c r="CD364">
+        <v>0</v>
+      </c>
+      <c r="CM364">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP364" t="str">
+        <f t="shared" si="92"/>
+        <v>20,8,2,0</v>
+      </c>
+      <c r="CX364">
+        <f t="shared" si="93"/>
+        <v>20</v>
+      </c>
+      <c r="CY364">
+        <f t="shared" si="84"/>
+        <v>8</v>
+      </c>
+      <c r="CZ364">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="DA364">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ364">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM364" t="str">
+        <f t="shared" si="95"/>
+        <v>20,8,2,0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1">
+        <v>1</v>
+      </c>
+      <c r="E365" s="1">
+        <v>1</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1</v>
+      </c>
+      <c r="G365" s="1">
+        <v>1</v>
+      </c>
+      <c r="H365" s="1">
+        <v>1</v>
+      </c>
+      <c r="I365" s="1">
+        <v>1</v>
+      </c>
+      <c r="J365" s="1">
+        <v>1</v>
+      </c>
+      <c r="K365" s="1">
+        <v>1</v>
+      </c>
+      <c r="L365" s="1">
+        <v>1</v>
+      </c>
+      <c r="M365" s="1">
+        <v>1</v>
+      </c>
+      <c r="N365" s="1">
+        <v>1</v>
+      </c>
+      <c r="O365" s="1">
+        <v>1</v>
+      </c>
+      <c r="P365" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q365" s="1">
+        <v>1</v>
+      </c>
+      <c r="R365" s="1">
+        <v>1</v>
+      </c>
+      <c r="S365" s="1">
+        <v>1</v>
+      </c>
+      <c r="T365" s="1">
+        <v>2</v>
+      </c>
+      <c r="U365" s="1">
+        <v>1</v>
+      </c>
+      <c r="V365" s="1">
+        <v>1</v>
+      </c>
+      <c r="W365" s="1">
+        <v>1</v>
+      </c>
+      <c r="X365" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y365" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD365" s="1"/>
+      <c r="AE365" s="1"/>
+      <c r="AH365">
+        <v>2</v>
+      </c>
+      <c r="AI365">
+        <v>26</v>
+      </c>
+      <c r="AJ365">
+        <v>2</v>
+      </c>
+      <c r="AK365">
+        <v>0</v>
+      </c>
+      <c r="AT365">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW365" t="str">
+        <f t="shared" si="88"/>
+        <v>2,26,2,0</v>
+      </c>
+      <c r="BE365">
+        <f t="shared" ref="BE365:BE368" si="99">BE363-1</f>
+        <v>2</v>
+      </c>
+      <c r="BF365">
+        <f t="shared" si="97"/>
+        <v>16</v>
+      </c>
+      <c r="BG365">
+        <f t="shared" si="98"/>
+        <v>12</v>
+      </c>
+      <c r="BH365">
+        <v>0</v>
+      </c>
+      <c r="BQ365">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT365" t="str">
+        <f t="shared" si="90"/>
+        <v>2,16,12,0</v>
+      </c>
+      <c r="CA365">
+        <f>CA363-1</f>
+        <v>19</v>
+      </c>
+      <c r="CB365">
+        <f>CB364+1</f>
+        <v>9</v>
+      </c>
+      <c r="CC365">
+        <f>CC363-1</f>
+        <v>2</v>
+      </c>
+      <c r="CD365">
+        <v>0</v>
+      </c>
+      <c r="CM365">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP365" t="str">
+        <f t="shared" si="92"/>
+        <v>19,9,2,0</v>
+      </c>
+      <c r="CX365">
+        <f t="shared" si="93"/>
+        <v>19</v>
+      </c>
+      <c r="CY365">
+        <f t="shared" si="84"/>
+        <v>9</v>
+      </c>
+      <c r="CZ365">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="DA365">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ365">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM365" t="str">
+        <f t="shared" si="95"/>
+        <v>19,9,2,0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B366" s="1"/>
+      <c r="C366" s="1">
+        <v>1</v>
+      </c>
+      <c r="D366" s="1">
+        <v>1</v>
+      </c>
+      <c r="E366" s="1">
+        <v>1</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1</v>
+      </c>
+      <c r="G366" s="1">
+        <v>1</v>
+      </c>
+      <c r="H366" s="1">
+        <v>1</v>
+      </c>
+      <c r="I366" s="1">
+        <v>1</v>
+      </c>
+      <c r="J366" s="1">
+        <v>1</v>
+      </c>
+      <c r="K366" s="1">
+        <v>1</v>
+      </c>
+      <c r="L366" s="1">
+        <v>1</v>
+      </c>
+      <c r="M366" s="1">
+        <v>1</v>
+      </c>
+      <c r="N366" s="1">
+        <v>1</v>
+      </c>
+      <c r="O366" s="1">
+        <v>1</v>
+      </c>
+      <c r="P366" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q366" s="1">
+        <v>1</v>
+      </c>
+      <c r="R366" s="1">
+        <v>1</v>
+      </c>
+      <c r="S366" s="1">
+        <v>1</v>
+      </c>
+      <c r="T366" s="1">
+        <v>2</v>
+      </c>
+      <c r="U366" s="1">
+        <v>1</v>
+      </c>
+      <c r="V366" s="1">
+        <v>1</v>
+      </c>
+      <c r="W366" s="1">
+        <v>1</v>
+      </c>
+      <c r="X366" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y366" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE366" s="1"/>
+      <c r="AH366">
+        <v>1</v>
+      </c>
+      <c r="AI366">
+        <v>28</v>
+      </c>
+      <c r="AJ366">
+        <v>1</v>
+      </c>
+      <c r="AK366">
+        <v>0</v>
+      </c>
+      <c r="AT366">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW366" t="str">
+        <f t="shared" si="88"/>
+        <v>1,28,1,0</v>
+      </c>
+      <c r="BE366">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="BF366">
+        <f t="shared" si="97"/>
+        <v>17</v>
+      </c>
+      <c r="BG366">
+        <f t="shared" si="98"/>
+        <v>12</v>
+      </c>
+      <c r="BH366">
+        <v>0</v>
+      </c>
+      <c r="BQ366">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT366" t="str">
+        <f t="shared" si="90"/>
+        <v>1,17,12,0</v>
+      </c>
+      <c r="CA366">
+        <f t="shared" ref="CA366:CA385" si="100">CA364-1</f>
+        <v>19</v>
+      </c>
+      <c r="CB366">
+        <f t="shared" ref="CB366:CB368" si="101">CB365+1</f>
+        <v>10</v>
+      </c>
+      <c r="CC366">
+        <f t="shared" ref="CC366:CC368" si="102">CC364-1</f>
+        <v>1</v>
+      </c>
+      <c r="CD366">
+        <v>0</v>
+      </c>
+      <c r="CM366">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP366" t="str">
+        <f t="shared" si="92"/>
+        <v>19,10,1,0</v>
+      </c>
+      <c r="CX366">
+        <f t="shared" si="93"/>
+        <v>19</v>
+      </c>
+      <c r="CY366">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="CZ366">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="DA366">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ366">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM366" t="str">
+        <f t="shared" si="95"/>
+        <v>19,10,1,0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B367" s="1"/>
+      <c r="C367" s="1">
+        <v>1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1</v>
+      </c>
+      <c r="E367" s="1">
+        <v>1</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1</v>
+      </c>
+      <c r="G367" s="1">
+        <v>1</v>
+      </c>
+      <c r="H367" s="1">
+        <v>1</v>
+      </c>
+      <c r="I367" s="1">
+        <v>1</v>
+      </c>
+      <c r="J367" s="1">
+        <v>1</v>
+      </c>
+      <c r="K367" s="1">
+        <v>1</v>
+      </c>
+      <c r="L367" s="1">
+        <v>1</v>
+      </c>
+      <c r="M367" s="1">
+        <v>1</v>
+      </c>
+      <c r="N367" s="1">
+        <v>1</v>
+      </c>
+      <c r="O367" s="1">
+        <v>1</v>
+      </c>
+      <c r="P367" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q367" s="1">
+        <v>1</v>
+      </c>
+      <c r="R367" s="1">
+        <v>1</v>
+      </c>
+      <c r="S367" s="1">
+        <v>2</v>
+      </c>
+      <c r="T367" s="1">
+        <v>1</v>
+      </c>
+      <c r="U367" s="1">
+        <v>1</v>
+      </c>
+      <c r="V367" s="1">
+        <v>1</v>
+      </c>
+      <c r="W367" s="1">
+        <v>1</v>
+      </c>
+      <c r="X367" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y367" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE367" s="1"/>
+      <c r="AH367">
+        <v>1</v>
+      </c>
+      <c r="AI367">
+        <v>28</v>
+      </c>
+      <c r="AJ367">
+        <v>1</v>
+      </c>
+      <c r="AK367">
+        <v>0</v>
+      </c>
+      <c r="AT367">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW367" t="str">
+        <f t="shared" si="88"/>
+        <v>1,28,1,0</v>
+      </c>
+      <c r="BE367">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="BF367">
+        <f t="shared" si="97"/>
+        <v>16</v>
+      </c>
+      <c r="BG367">
+        <f t="shared" si="98"/>
+        <v>13</v>
+      </c>
+      <c r="BH367">
+        <v>0</v>
+      </c>
+      <c r="BQ367">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT367" t="str">
+        <f t="shared" si="90"/>
+        <v>1,16,13,0</v>
+      </c>
+      <c r="CA367">
+        <f t="shared" si="100"/>
+        <v>18</v>
+      </c>
+      <c r="CB367">
+        <f t="shared" si="101"/>
+        <v>11</v>
+      </c>
+      <c r="CC367">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="CD367">
+        <v>0</v>
+      </c>
+      <c r="CM367">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP367" t="str">
+        <f t="shared" si="92"/>
+        <v>18,11,1,0</v>
+      </c>
+      <c r="CX367">
+        <f t="shared" si="93"/>
+        <v>18</v>
+      </c>
+      <c r="CY367">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="CZ367">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="DA367">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="DJ367">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM367" t="str">
+        <f t="shared" si="95"/>
+        <v>18,11,1,0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B368" s="1">
+        <v>1</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1</v>
+      </c>
+      <c r="D368" s="1">
+        <v>1</v>
+      </c>
+      <c r="E368" s="1">
+        <v>1</v>
+      </c>
+      <c r="F368" s="1">
+        <v>1</v>
+      </c>
+      <c r="G368" s="1">
+        <v>1</v>
+      </c>
+      <c r="H368" s="1">
+        <v>1</v>
+      </c>
+      <c r="I368" s="1">
+        <v>1</v>
+      </c>
+      <c r="J368" s="1">
+        <v>1</v>
+      </c>
+      <c r="K368" s="1">
+        <v>1</v>
+      </c>
+      <c r="L368" s="1">
+        <v>1</v>
+      </c>
+      <c r="M368" s="1">
+        <v>1</v>
+      </c>
+      <c r="N368" s="1">
+        <v>1</v>
+      </c>
+      <c r="O368" s="1">
+        <v>1</v>
+      </c>
+      <c r="P368" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="1">
+        <v>1</v>
+      </c>
+      <c r="R368" s="1">
+        <v>1</v>
+      </c>
+      <c r="S368" s="1">
+        <v>2</v>
+      </c>
+      <c r="T368" s="1">
+        <v>1</v>
+      </c>
+      <c r="U368" s="1">
+        <v>1</v>
+      </c>
+      <c r="V368" s="1">
+        <v>1</v>
+      </c>
+      <c r="W368" s="1">
+        <v>1</v>
+      </c>
+      <c r="X368" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y368" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH368">
+        <v>0</v>
+      </c>
+      <c r="AI368">
+        <v>30</v>
+      </c>
+      <c r="AT368">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW368" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE368">
+        <v>0</v>
+      </c>
+      <c r="BF368">
+        <f t="shared" si="97"/>
+        <v>17</v>
+      </c>
+      <c r="BG368">
+        <f t="shared" si="98"/>
+        <v>13</v>
+      </c>
+      <c r="BH368">
+        <v>0</v>
+      </c>
+      <c r="BQ368">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT368" t="str">
+        <f t="shared" si="90"/>
+        <v>0,17,13,0</v>
+      </c>
+      <c r="CA368">
+        <f t="shared" si="100"/>
+        <v>18</v>
+      </c>
+      <c r="CB368">
+        <f>30-CA368</f>
+        <v>12</v>
+      </c>
+      <c r="CM368">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP368" t="str">
+        <f t="shared" si="92"/>
+        <v>18,12</v>
+      </c>
+      <c r="CX368">
+        <f t="shared" si="93"/>
+        <v>18</v>
+      </c>
+      <c r="CY368">
+        <f t="shared" si="84"/>
+        <v>12</v>
+      </c>
+      <c r="DJ368">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM368" t="str">
+        <f t="shared" si="95"/>
+        <v>18,12</v>
+      </c>
+    </row>
+    <row r="369" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B369" s="1">
+        <v>1</v>
+      </c>
+      <c r="C369" s="1">
+        <v>1</v>
+      </c>
+      <c r="D369" s="1">
+        <v>1</v>
+      </c>
+      <c r="E369" s="1">
+        <v>1</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1</v>
+      </c>
+      <c r="G369" s="1">
+        <v>1</v>
+      </c>
+      <c r="H369" s="1">
+        <v>1</v>
+      </c>
+      <c r="I369" s="1">
+        <v>1</v>
+      </c>
+      <c r="J369" s="1">
+        <v>1</v>
+      </c>
+      <c r="K369" s="1">
+        <v>1</v>
+      </c>
+      <c r="L369" s="1">
+        <v>1</v>
+      </c>
+      <c r="M369" s="1">
+        <v>1</v>
+      </c>
+      <c r="N369" s="1">
+        <v>1</v>
+      </c>
+      <c r="O369" s="1">
+        <v>1</v>
+      </c>
+      <c r="P369" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q369" s="1">
+        <v>1</v>
+      </c>
+      <c r="R369" s="1">
+        <v>2</v>
+      </c>
+      <c r="S369" s="1">
+        <v>1</v>
+      </c>
+      <c r="T369" s="1">
+        <v>1</v>
+      </c>
+      <c r="U369" s="1">
+        <v>1</v>
+      </c>
+      <c r="V369" s="1">
+        <v>1</v>
+      </c>
+      <c r="W369" s="1">
+        <v>1</v>
+      </c>
+      <c r="X369" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y369" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH369">
+        <v>0</v>
+      </c>
+      <c r="AI369">
+        <v>30</v>
+      </c>
+      <c r="AT369">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW369" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE369">
+        <v>0</v>
+      </c>
+      <c r="BF369">
+        <f t="shared" si="97"/>
+        <v>16</v>
+      </c>
+      <c r="BG369">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="BH369">
+        <v>0</v>
+      </c>
+      <c r="BQ369">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT369" t="str">
+        <f t="shared" si="90"/>
+        <v>0,16,14,0</v>
+      </c>
+      <c r="CA369">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="CB369">
+        <f t="shared" ref="CB369:CB375" si="103">30-CA369</f>
+        <v>13</v>
+      </c>
+      <c r="CM369">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP369" t="str">
+        <f t="shared" si="92"/>
+        <v>17,13</v>
+      </c>
+      <c r="CX369">
+        <f t="shared" si="93"/>
+        <v>17</v>
+      </c>
+      <c r="CY369">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="DJ369">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM369" t="str">
+        <f t="shared" si="95"/>
+        <v>17,13</v>
+      </c>
+    </row>
+    <row r="370" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B370" s="1">
+        <v>1</v>
+      </c>
+      <c r="C370" s="1">
+        <v>1</v>
+      </c>
+      <c r="D370" s="1">
+        <v>1</v>
+      </c>
+      <c r="E370" s="1">
+        <v>1</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1</v>
+      </c>
+      <c r="G370" s="1">
+        <v>1</v>
+      </c>
+      <c r="H370" s="1">
+        <v>1</v>
+      </c>
+      <c r="I370" s="1">
+        <v>1</v>
+      </c>
+      <c r="J370" s="1">
+        <v>1</v>
+      </c>
+      <c r="K370" s="1">
+        <v>1</v>
+      </c>
+      <c r="L370" s="1">
+        <v>1</v>
+      </c>
+      <c r="M370" s="1">
+        <v>1</v>
+      </c>
+      <c r="N370" s="1">
+        <v>1</v>
+      </c>
+      <c r="O370" s="1">
+        <v>1</v>
+      </c>
+      <c r="P370" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="1">
+        <v>1</v>
+      </c>
+      <c r="R370" s="1">
+        <v>2</v>
+      </c>
+      <c r="S370" s="1">
+        <v>1</v>
+      </c>
+      <c r="T370" s="1">
+        <v>1</v>
+      </c>
+      <c r="U370" s="1">
+        <v>1</v>
+      </c>
+      <c r="V370" s="1">
+        <v>1</v>
+      </c>
+      <c r="W370" s="1">
+        <v>1</v>
+      </c>
+      <c r="X370" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y370" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH370">
+        <v>0</v>
+      </c>
+      <c r="AI370">
+        <v>30</v>
+      </c>
+      <c r="AT370">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW370" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE370">
+        <v>0</v>
+      </c>
+      <c r="BF370">
+        <f t="shared" si="97"/>
+        <v>16</v>
+      </c>
+      <c r="BG370">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="BH370">
+        <v>0</v>
+      </c>
+      <c r="BQ370">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT370" t="str">
+        <f t="shared" si="90"/>
+        <v>0,16,14,0</v>
+      </c>
+      <c r="CA370">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="CB370">
+        <f t="shared" si="103"/>
+        <v>13</v>
+      </c>
+      <c r="CM370">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP370" t="str">
+        <f t="shared" si="92"/>
+        <v>17,13</v>
+      </c>
+      <c r="CX370">
+        <f t="shared" si="93"/>
+        <v>17</v>
+      </c>
+      <c r="CY370">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="DJ370">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM370" t="str">
+        <f t="shared" si="95"/>
+        <v>17,13</v>
+      </c>
+    </row>
+    <row r="371" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B371" s="1">
+        <v>1</v>
+      </c>
+      <c r="C371" s="1">
+        <v>1</v>
+      </c>
+      <c r="D371" s="1">
+        <v>1</v>
+      </c>
+      <c r="E371" s="1">
+        <v>1</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1</v>
+      </c>
+      <c r="G371" s="1">
+        <v>1</v>
+      </c>
+      <c r="H371" s="1">
+        <v>1</v>
+      </c>
+      <c r="I371" s="1">
+        <v>1</v>
+      </c>
+      <c r="J371" s="1">
+        <v>1</v>
+      </c>
+      <c r="K371" s="1">
+        <v>1</v>
+      </c>
+      <c r="L371" s="1">
+        <v>1</v>
+      </c>
+      <c r="M371" s="1">
+        <v>1</v>
+      </c>
+      <c r="N371" s="1">
+        <v>1</v>
+      </c>
+      <c r="O371" s="1">
+        <v>1</v>
+      </c>
+      <c r="P371" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="1">
+        <v>2</v>
+      </c>
+      <c r="R371" s="1">
+        <v>1</v>
+      </c>
+      <c r="S371" s="1">
+        <v>1</v>
+      </c>
+      <c r="T371" s="1">
+        <v>1</v>
+      </c>
+      <c r="U371" s="1">
+        <v>1</v>
+      </c>
+      <c r="V371" s="1">
+        <v>1</v>
+      </c>
+      <c r="W371" s="1">
+        <v>1</v>
+      </c>
+      <c r="X371" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y371" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH371">
+        <v>0</v>
+      </c>
+      <c r="AI371">
+        <v>30</v>
+      </c>
+      <c r="AT371">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW371" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE371">
+        <v>0</v>
+      </c>
+      <c r="BF371">
+        <f t="shared" si="97"/>
+        <v>15</v>
+      </c>
+      <c r="BG371">
+        <f t="shared" si="98"/>
+        <v>15</v>
+      </c>
+      <c r="BH371">
+        <v>0</v>
+      </c>
+      <c r="BQ371">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT371" t="str">
+        <f t="shared" si="90"/>
+        <v>0,15,15,0</v>
+      </c>
+      <c r="CA371">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="CB371">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="CM371">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP371" t="str">
+        <f t="shared" si="92"/>
+        <v>16,14</v>
+      </c>
+      <c r="CX371">
+        <f t="shared" si="93"/>
+        <v>16</v>
+      </c>
+      <c r="CY371">
+        <f t="shared" si="84"/>
+        <v>14</v>
+      </c>
+      <c r="DJ371">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM371" t="str">
+        <f t="shared" si="95"/>
+        <v>16,14</v>
+      </c>
+    </row>
+    <row r="372" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B372" s="1">
+        <v>1</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1</v>
+      </c>
+      <c r="E372" s="1">
+        <v>1</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1</v>
+      </c>
+      <c r="G372" s="1">
+        <v>1</v>
+      </c>
+      <c r="H372" s="1">
+        <v>1</v>
+      </c>
+      <c r="I372" s="1">
+        <v>1</v>
+      </c>
+      <c r="J372" s="1">
+        <v>1</v>
+      </c>
+      <c r="K372" s="1">
+        <v>1</v>
+      </c>
+      <c r="L372" s="1">
+        <v>1</v>
+      </c>
+      <c r="M372" s="1">
+        <v>1</v>
+      </c>
+      <c r="N372" s="1">
+        <v>1</v>
+      </c>
+      <c r="O372" s="1">
+        <v>1</v>
+      </c>
+      <c r="P372" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="1">
+        <v>2</v>
+      </c>
+      <c r="R372" s="1">
+        <v>1</v>
+      </c>
+      <c r="S372" s="1">
+        <v>1</v>
+      </c>
+      <c r="T372" s="1">
+        <v>1</v>
+      </c>
+      <c r="U372" s="1">
+        <v>1</v>
+      </c>
+      <c r="V372" s="1">
+        <v>1</v>
+      </c>
+      <c r="W372" s="1">
+        <v>1</v>
+      </c>
+      <c r="X372" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y372" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH372">
+        <v>0</v>
+      </c>
+      <c r="AI372">
+        <v>30</v>
+      </c>
+      <c r="AT372">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW372" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE372">
+        <v>0</v>
+      </c>
+      <c r="BF372">
+        <f t="shared" si="97"/>
+        <v>15</v>
+      </c>
+      <c r="BG372">
+        <f t="shared" si="98"/>
+        <v>15</v>
+      </c>
+      <c r="BH372">
+        <v>0</v>
+      </c>
+      <c r="BQ372">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT372" t="str">
+        <f t="shared" si="90"/>
+        <v>0,15,15,0</v>
+      </c>
+      <c r="CA372">
+        <f t="shared" si="100"/>
+        <v>16</v>
+      </c>
+      <c r="CB372">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="CM372">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP372" t="str">
+        <f t="shared" si="92"/>
+        <v>16,14</v>
+      </c>
+      <c r="CX372">
+        <v>30</v>
+      </c>
+      <c r="CY372">
+        <v>0</v>
+      </c>
+      <c r="DJ372">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM372" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B373" s="1">
+        <v>1</v>
+      </c>
+      <c r="C373" s="1">
+        <v>1</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1</v>
+      </c>
+      <c r="E373" s="1">
+        <v>1</v>
+      </c>
+      <c r="F373" s="1">
+        <v>1</v>
+      </c>
+      <c r="G373" s="1">
+        <v>1</v>
+      </c>
+      <c r="H373" s="1">
+        <v>1</v>
+      </c>
+      <c r="I373" s="1">
+        <v>1</v>
+      </c>
+      <c r="J373" s="1">
+        <v>1</v>
+      </c>
+      <c r="K373" s="1">
+        <v>1</v>
+      </c>
+      <c r="L373" s="1">
+        <v>1</v>
+      </c>
+      <c r="M373" s="1">
+        <v>1</v>
+      </c>
+      <c r="N373" s="1">
+        <v>1</v>
+      </c>
+      <c r="O373" s="1">
+        <v>1</v>
+      </c>
+      <c r="P373" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q373" s="1">
+        <v>1</v>
+      </c>
+      <c r="R373" s="1">
+        <v>1</v>
+      </c>
+      <c r="S373" s="1">
+        <v>1</v>
+      </c>
+      <c r="T373" s="1">
+        <v>1</v>
+      </c>
+      <c r="U373" s="1">
+        <v>1</v>
+      </c>
+      <c r="V373" s="1">
+        <v>1</v>
+      </c>
+      <c r="W373" s="1">
+        <v>1</v>
+      </c>
+      <c r="X373" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y373" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH373">
+        <v>0</v>
+      </c>
+      <c r="AI373">
+        <v>30</v>
+      </c>
+      <c r="AT373">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW373" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE373">
+        <v>0</v>
+      </c>
+      <c r="BF373">
+        <f t="shared" si="97"/>
+        <v>14</v>
+      </c>
+      <c r="BG373">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="BH373">
+        <v>0</v>
+      </c>
+      <c r="BQ373">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT373" t="str">
+        <f t="shared" si="90"/>
+        <v>0,14,16,0</v>
+      </c>
+      <c r="CA373">
+        <f t="shared" si="100"/>
+        <v>15</v>
+      </c>
+      <c r="CB373">
+        <f t="shared" si="103"/>
+        <v>15</v>
+      </c>
+      <c r="CM373">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP373" t="str">
+        <f t="shared" si="92"/>
+        <v>15,15</v>
+      </c>
+      <c r="CX373">
+        <v>30</v>
+      </c>
+      <c r="CY373">
+        <v>0</v>
+      </c>
+      <c r="DJ373">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM373" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B374" s="1">
+        <v>1</v>
+      </c>
+      <c r="C374" s="1">
+        <v>1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>1</v>
+      </c>
+      <c r="E374" s="1">
+        <v>1</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1</v>
+      </c>
+      <c r="G374" s="1">
+        <v>1</v>
+      </c>
+      <c r="H374" s="1">
+        <v>1</v>
+      </c>
+      <c r="I374" s="1">
+        <v>1</v>
+      </c>
+      <c r="J374" s="1">
+        <v>1</v>
+      </c>
+      <c r="K374" s="1">
+        <v>1</v>
+      </c>
+      <c r="L374" s="1">
+        <v>1</v>
+      </c>
+      <c r="M374" s="1">
+        <v>1</v>
+      </c>
+      <c r="N374" s="1">
+        <v>1</v>
+      </c>
+      <c r="O374" s="1">
+        <v>1</v>
+      </c>
+      <c r="P374" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q374" s="1">
+        <v>1</v>
+      </c>
+      <c r="R374" s="1">
+        <v>1</v>
+      </c>
+      <c r="S374" s="1">
+        <v>1</v>
+      </c>
+      <c r="T374" s="1">
+        <v>1</v>
+      </c>
+      <c r="U374" s="1">
+        <v>1</v>
+      </c>
+      <c r="V374" s="1">
+        <v>1</v>
+      </c>
+      <c r="W374" s="1">
+        <v>1</v>
+      </c>
+      <c r="X374" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y374" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH374">
+        <v>0</v>
+      </c>
+      <c r="AI374">
+        <v>30</v>
+      </c>
+      <c r="AT374">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW374" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE374">
+        <v>0</v>
+      </c>
+      <c r="BF374">
+        <f t="shared" si="97"/>
+        <v>14</v>
+      </c>
+      <c r="BG374">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="BH374">
+        <v>0</v>
+      </c>
+      <c r="BQ374">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT374" t="str">
+        <f t="shared" si="90"/>
+        <v>0,14,16,0</v>
+      </c>
+      <c r="CA374">
+        <f t="shared" si="100"/>
+        <v>15</v>
+      </c>
+      <c r="CB374">
+        <f t="shared" si="103"/>
+        <v>15</v>
+      </c>
+      <c r="CM374">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP374" t="str">
+        <f t="shared" si="92"/>
+        <v>15,15</v>
+      </c>
+      <c r="CX374">
+        <v>30</v>
+      </c>
+      <c r="CY374">
+        <v>0</v>
+      </c>
+      <c r="DJ374">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM374" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B375" s="1">
+        <v>1</v>
+      </c>
+      <c r="C375" s="1">
+        <v>1</v>
+      </c>
+      <c r="D375" s="1">
+        <v>1</v>
+      </c>
+      <c r="E375" s="1">
+        <v>1</v>
+      </c>
+      <c r="F375" s="1">
+        <v>1</v>
+      </c>
+      <c r="G375" s="1">
+        <v>1</v>
+      </c>
+      <c r="H375" s="1">
+        <v>1</v>
+      </c>
+      <c r="I375" s="1">
+        <v>1</v>
+      </c>
+      <c r="J375" s="1">
+        <v>1</v>
+      </c>
+      <c r="K375" s="1">
+        <v>1</v>
+      </c>
+      <c r="L375" s="1">
+        <v>1</v>
+      </c>
+      <c r="M375" s="1">
+        <v>1</v>
+      </c>
+      <c r="N375" s="1">
+        <v>1</v>
+      </c>
+      <c r="O375" s="1">
+        <v>2</v>
+      </c>
+      <c r="P375" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q375" s="1">
+        <v>1</v>
+      </c>
+      <c r="R375" s="1">
+        <v>1</v>
+      </c>
+      <c r="S375" s="1">
+        <v>1</v>
+      </c>
+      <c r="T375" s="1">
+        <v>1</v>
+      </c>
+      <c r="U375" s="1">
+        <v>1</v>
+      </c>
+      <c r="V375" s="1">
+        <v>1</v>
+      </c>
+      <c r="W375" s="1">
+        <v>1</v>
+      </c>
+      <c r="X375" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y375" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH375">
+        <v>0</v>
+      </c>
+      <c r="AI375">
+        <v>30</v>
+      </c>
+      <c r="AT375">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW375" t="str">
+        <f t="shared" si="88"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE375">
+        <v>0</v>
+      </c>
+      <c r="BF375">
+        <f t="shared" si="97"/>
+        <v>13</v>
+      </c>
+      <c r="BG375">
+        <f t="shared" si="98"/>
+        <v>17</v>
+      </c>
+      <c r="BH375">
+        <v>0</v>
+      </c>
+      <c r="BQ375">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT375" t="str">
+        <f t="shared" si="90"/>
+        <v>0,13,17,0</v>
+      </c>
+      <c r="CA375">
+        <f t="shared" si="100"/>
+        <v>14</v>
+      </c>
+      <c r="CB375">
+        <f>30-(CA375+CC375)</f>
+        <v>16</v>
+      </c>
+      <c r="CM375">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP375" t="str">
+        <f t="shared" si="92"/>
+        <v>14,16</v>
+      </c>
+      <c r="CX375">
+        <v>30</v>
+      </c>
+      <c r="CY375">
+        <v>0</v>
+      </c>
+      <c r="DJ375">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM375" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B376" s="1"/>
+      <c r="C376" s="1">
+        <v>1</v>
+      </c>
+      <c r="D376" s="1">
+        <v>1</v>
+      </c>
+      <c r="E376" s="1">
+        <v>1</v>
+      </c>
+      <c r="F376" s="1">
+        <v>1</v>
+      </c>
+      <c r="G376" s="1">
+        <v>1</v>
+      </c>
+      <c r="H376" s="1">
+        <v>1</v>
+      </c>
+      <c r="I376" s="1">
+        <v>1</v>
+      </c>
+      <c r="J376" s="1">
+        <v>1</v>
+      </c>
+      <c r="K376" s="1">
+        <v>1</v>
+      </c>
+      <c r="L376" s="1">
+        <v>1</v>
+      </c>
+      <c r="M376" s="1">
+        <v>1</v>
+      </c>
+      <c r="N376" s="1">
+        <v>1</v>
+      </c>
+      <c r="O376" s="1">
+        <v>2</v>
+      </c>
+      <c r="P376" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q376" s="1">
+        <v>1</v>
+      </c>
+      <c r="R376" s="1">
+        <v>1</v>
+      </c>
+      <c r="S376" s="1">
+        <v>1</v>
+      </c>
+      <c r="T376" s="1">
+        <v>1</v>
+      </c>
+      <c r="U376" s="1">
+        <v>1</v>
+      </c>
+      <c r="V376" s="1">
+        <v>1</v>
+      </c>
+      <c r="W376" s="1">
+        <v>1</v>
+      </c>
+      <c r="X376" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y376" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE376" s="1"/>
+      <c r="AH376">
+        <v>1</v>
+      </c>
+      <c r="AI376">
+        <v>28</v>
+      </c>
+      <c r="AJ376">
+        <v>1</v>
+      </c>
+      <c r="AK376">
+        <v>0</v>
+      </c>
+      <c r="AT376">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW376" t="str">
+        <f t="shared" si="88"/>
+        <v>1,28,1,0</v>
+      </c>
+      <c r="BE376">
+        <f>BE374+1</f>
+        <v>1</v>
+      </c>
+      <c r="BF376">
+        <f t="shared" si="97"/>
+        <v>12</v>
+      </c>
+      <c r="BG376">
+        <f t="shared" si="98"/>
+        <v>17</v>
+      </c>
+      <c r="BH376">
+        <v>0</v>
+      </c>
+      <c r="BQ376">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT376" t="str">
+        <f t="shared" si="90"/>
+        <v>1,12,17,0</v>
+      </c>
+      <c r="CA376">
+        <f t="shared" si="100"/>
+        <v>14</v>
+      </c>
+      <c r="CB376">
+        <f t="shared" ref="CB376:CB386" si="104">30-(CA376+CC376)</f>
+        <v>15</v>
+      </c>
+      <c r="CC376">
+        <v>1</v>
+      </c>
+      <c r="CD376">
+        <v>0</v>
+      </c>
+      <c r="CM376">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP376" t="str">
+        <f t="shared" si="92"/>
+        <v>14,15,1,0</v>
+      </c>
+      <c r="CX376">
+        <v>30</v>
+      </c>
+      <c r="CY376">
+        <v>0</v>
+      </c>
+      <c r="DJ376">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM376" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="377" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B377" s="1"/>
+      <c r="C377" s="1">
+        <v>1</v>
+      </c>
+      <c r="D377" s="1">
+        <v>1</v>
+      </c>
+      <c r="E377" s="1">
+        <v>1</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1</v>
+      </c>
+      <c r="G377" s="1">
+        <v>1</v>
+      </c>
+      <c r="H377" s="1">
+        <v>1</v>
+      </c>
+      <c r="I377" s="1">
+        <v>1</v>
+      </c>
+      <c r="J377" s="1">
+        <v>1</v>
+      </c>
+      <c r="K377" s="1">
+        <v>1</v>
+      </c>
+      <c r="L377" s="1">
+        <v>1</v>
+      </c>
+      <c r="M377" s="1">
+        <v>1</v>
+      </c>
+      <c r="N377" s="1">
+        <v>2</v>
+      </c>
+      <c r="O377" s="1">
+        <v>1</v>
+      </c>
+      <c r="P377" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q377" s="1">
+        <v>1</v>
+      </c>
+      <c r="R377" s="1">
+        <v>1</v>
+      </c>
+      <c r="S377" s="1">
+        <v>1</v>
+      </c>
+      <c r="T377" s="1">
+        <v>1</v>
+      </c>
+      <c r="U377" s="1">
+        <v>1</v>
+      </c>
+      <c r="V377" s="1">
+        <v>1</v>
+      </c>
+      <c r="W377" s="1">
+        <v>1</v>
+      </c>
+      <c r="X377" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y377" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE377" s="1"/>
+      <c r="AH377">
+        <v>1</v>
+      </c>
+      <c r="AI377">
+        <v>28</v>
+      </c>
+      <c r="AJ377">
+        <v>1</v>
+      </c>
+      <c r="AK377">
+        <v>0</v>
+      </c>
+      <c r="AT377">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW377" t="str">
+        <f t="shared" si="88"/>
+        <v>1,28,1,0</v>
+      </c>
+      <c r="BE377">
+        <f t="shared" ref="BE377:BE381" si="105">BE375+1</f>
+        <v>1</v>
+      </c>
+      <c r="BF377">
+        <f t="shared" si="97"/>
+        <v>11</v>
+      </c>
+      <c r="BG377">
+        <f t="shared" si="98"/>
+        <v>18</v>
+      </c>
+      <c r="BH377">
+        <v>0</v>
+      </c>
+      <c r="BQ377">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT377" t="str">
+        <f t="shared" si="90"/>
+        <v>1,11,18,0</v>
+      </c>
+      <c r="CA377">
+        <f t="shared" si="100"/>
+        <v>13</v>
+      </c>
+      <c r="CB377">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="CC377">
+        <v>1</v>
+      </c>
+      <c r="CD377">
+        <v>0</v>
+      </c>
+      <c r="CM377">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP377" t="str">
+        <f t="shared" si="92"/>
+        <v>13,16,1,0</v>
+      </c>
+      <c r="CX377">
+        <v>30</v>
+      </c>
+      <c r="CY377">
+        <v>0</v>
+      </c>
+      <c r="DJ377">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM377" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="378" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1">
+        <v>1</v>
+      </c>
+      <c r="E378" s="1">
+        <v>1</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1</v>
+      </c>
+      <c r="G378" s="1">
+        <v>1</v>
+      </c>
+      <c r="H378" s="1">
+        <v>1</v>
+      </c>
+      <c r="I378" s="1">
+        <v>1</v>
+      </c>
+      <c r="J378" s="1">
+        <v>1</v>
+      </c>
+      <c r="K378" s="1">
+        <v>1</v>
+      </c>
+      <c r="L378" s="1">
+        <v>1</v>
+      </c>
+      <c r="M378" s="1">
+        <v>1</v>
+      </c>
+      <c r="N378" s="1">
+        <v>2</v>
+      </c>
+      <c r="O378" s="1">
+        <v>1</v>
+      </c>
+      <c r="P378" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q378" s="1">
+        <v>1</v>
+      </c>
+      <c r="R378" s="1">
+        <v>1</v>
+      </c>
+      <c r="S378" s="1">
+        <v>1</v>
+      </c>
+      <c r="T378" s="1">
+        <v>1</v>
+      </c>
+      <c r="U378" s="1">
+        <v>1</v>
+      </c>
+      <c r="V378" s="1">
+        <v>1</v>
+      </c>
+      <c r="W378" s="1">
+        <v>1</v>
+      </c>
+      <c r="X378" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y378" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z378" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA378" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB378" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC378" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD378" s="1"/>
+      <c r="AE378" s="1"/>
+      <c r="AH378">
+        <v>2</v>
+      </c>
+      <c r="AI378">
+        <v>26</v>
+      </c>
+      <c r="AJ378">
+        <v>2</v>
+      </c>
+      <c r="AK378">
+        <v>0</v>
+      </c>
+      <c r="AT378">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW378" t="str">
+        <f t="shared" si="88"/>
+        <v>2,26,2,0</v>
+      </c>
+      <c r="BE378">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="BF378">
+        <f t="shared" si="97"/>
+        <v>10</v>
+      </c>
+      <c r="BG378">
+        <f t="shared" si="98"/>
+        <v>18</v>
+      </c>
+      <c r="BH378">
+        <v>0</v>
+      </c>
+      <c r="BQ378">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT378" t="str">
+        <f t="shared" si="90"/>
+        <v>2,10,18,0</v>
+      </c>
+      <c r="CA378">
+        <f t="shared" si="100"/>
+        <v>13</v>
+      </c>
+      <c r="CB378">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="CC378">
+        <f>CC376+1</f>
+        <v>2</v>
+      </c>
+      <c r="CD378">
+        <f>CD377</f>
+        <v>0</v>
+      </c>
+      <c r="CM378">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP378" t="str">
+        <f t="shared" si="92"/>
+        <v>13,15,2,0</v>
+      </c>
+      <c r="CX378">
+        <v>30</v>
+      </c>
+      <c r="CY378">
+        <v>0</v>
+      </c>
+      <c r="DJ378">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM378" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="379" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1">
+        <v>1</v>
+      </c>
+      <c r="E379" s="1">
+        <v>1</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1</v>
+      </c>
+      <c r="G379" s="1">
+        <v>1</v>
+      </c>
+      <c r="H379" s="1">
+        <v>1</v>
+      </c>
+      <c r="I379" s="1">
+        <v>1</v>
+      </c>
+      <c r="J379" s="1">
+        <v>1</v>
+      </c>
+      <c r="K379" s="1">
+        <v>1</v>
+      </c>
+      <c r="L379" s="1">
+        <v>1</v>
+      </c>
+      <c r="M379" s="1">
+        <v>2</v>
+      </c>
+      <c r="N379" s="1">
+        <v>1</v>
+      </c>
+      <c r="O379" s="1">
+        <v>1</v>
+      </c>
+      <c r="P379" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q379" s="1">
+        <v>1</v>
+      </c>
+      <c r="R379" s="1">
+        <v>1</v>
+      </c>
+      <c r="S379" s="1">
+        <v>1</v>
+      </c>
+      <c r="T379" s="1">
+        <v>1</v>
+      </c>
+      <c r="U379" s="1">
+        <v>1</v>
+      </c>
+      <c r="V379" s="1">
+        <v>1</v>
+      </c>
+      <c r="W379" s="1">
+        <v>1</v>
+      </c>
+      <c r="X379" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y379" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z379" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA379" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB379" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC379" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD379" s="1"/>
+      <c r="AE379" s="1"/>
+      <c r="AH379">
+        <v>2</v>
+      </c>
+      <c r="AI379">
+        <v>26</v>
+      </c>
+      <c r="AJ379">
+        <v>2</v>
+      </c>
+      <c r="AK379">
+        <v>0</v>
+      </c>
+      <c r="AT379">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW379" t="str">
+        <f t="shared" si="88"/>
+        <v>2,26,2,0</v>
+      </c>
+      <c r="BE379">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="BF379">
+        <f t="shared" si="97"/>
+        <v>9</v>
+      </c>
+      <c r="BG379">
+        <f t="shared" si="98"/>
+        <v>19</v>
+      </c>
+      <c r="BH379">
+        <v>0</v>
+      </c>
+      <c r="BQ379">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT379" t="str">
+        <f t="shared" si="90"/>
+        <v>2,9,19,0</v>
+      </c>
+      <c r="CA379">
+        <f t="shared" si="100"/>
+        <v>12</v>
+      </c>
+      <c r="CB379">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="CC379">
+        <f t="shared" ref="CC379:CC384" si="106">CC377+1</f>
+        <v>2</v>
+      </c>
+      <c r="CD379">
+        <f t="shared" ref="CD379:CD384" si="107">CD378</f>
+        <v>0</v>
+      </c>
+      <c r="CM379">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP379" t="str">
+        <f t="shared" si="92"/>
+        <v>12,16,2,0</v>
+      </c>
+      <c r="CX379">
+        <v>30</v>
+      </c>
+      <c r="CY379">
+        <v>0</v>
+      </c>
+      <c r="DJ379">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM379" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="380" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1">
+        <v>1</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1</v>
+      </c>
+      <c r="G380" s="1">
+        <v>1</v>
+      </c>
+      <c r="H380" s="1">
+        <v>1</v>
+      </c>
+      <c r="I380" s="1">
+        <v>1</v>
+      </c>
+      <c r="J380" s="1">
+        <v>1</v>
+      </c>
+      <c r="K380" s="1">
+        <v>1</v>
+      </c>
+      <c r="L380" s="1">
+        <v>1</v>
+      </c>
+      <c r="M380" s="1">
+        <v>2</v>
+      </c>
+      <c r="N380" s="1">
+        <v>1</v>
+      </c>
+      <c r="O380" s="1">
+        <v>1</v>
+      </c>
+      <c r="P380" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q380" s="1">
+        <v>1</v>
+      </c>
+      <c r="R380" s="1">
+        <v>1</v>
+      </c>
+      <c r="S380" s="1">
+        <v>1</v>
+      </c>
+      <c r="T380" s="1">
+        <v>1</v>
+      </c>
+      <c r="U380" s="1">
+        <v>1</v>
+      </c>
+      <c r="V380" s="1">
+        <v>1</v>
+      </c>
+      <c r="W380" s="1">
+        <v>1</v>
+      </c>
+      <c r="X380" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y380" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z380" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA380" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB380" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC380" s="1"/>
+      <c r="AD380" s="1"/>
+      <c r="AE380" s="1"/>
+      <c r="AH380">
+        <v>3</v>
+      </c>
+      <c r="AI380">
+        <v>24</v>
+      </c>
+      <c r="AJ380">
+        <v>3</v>
+      </c>
+      <c r="AK380">
+        <v>0</v>
+      </c>
+      <c r="AT380">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW380" t="str">
+        <f t="shared" si="88"/>
+        <v>3,24,3,0</v>
+      </c>
+      <c r="BE380">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="BF380">
+        <f t="shared" si="97"/>
+        <v>8</v>
+      </c>
+      <c r="BG380">
+        <f t="shared" si="98"/>
+        <v>19</v>
+      </c>
+      <c r="BH380">
+        <v>0</v>
+      </c>
+      <c r="BQ380">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT380" t="str">
+        <f t="shared" si="90"/>
+        <v>3,8,19,0</v>
+      </c>
+      <c r="CA380">
+        <f t="shared" si="100"/>
+        <v>12</v>
+      </c>
+      <c r="CB380">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="CC380">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
+      <c r="CD380">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="CM380">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP380" t="str">
+        <f t="shared" si="92"/>
+        <v>12,15,3,0</v>
+      </c>
+      <c r="CX380">
+        <v>30</v>
+      </c>
+      <c r="CY380">
+        <v>0</v>
+      </c>
+      <c r="DJ380">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM380" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="381" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1">
+        <v>1</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1</v>
+      </c>
+      <c r="G381" s="1">
+        <v>1</v>
+      </c>
+      <c r="H381" s="1">
+        <v>1</v>
+      </c>
+      <c r="I381" s="1">
+        <v>1</v>
+      </c>
+      <c r="J381" s="1">
+        <v>1</v>
+      </c>
+      <c r="K381" s="1">
+        <v>1</v>
+      </c>
+      <c r="L381" s="1">
+        <v>2</v>
+      </c>
+      <c r="M381" s="1">
+        <v>1</v>
+      </c>
+      <c r="N381" s="1">
+        <v>1</v>
+      </c>
+      <c r="O381" s="1">
+        <v>1</v>
+      </c>
+      <c r="P381" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q381" s="1">
+        <v>1</v>
+      </c>
+      <c r="R381" s="1">
+        <v>1</v>
+      </c>
+      <c r="S381" s="1">
+        <v>1</v>
+      </c>
+      <c r="T381" s="1">
+        <v>1</v>
+      </c>
+      <c r="U381" s="1">
+        <v>1</v>
+      </c>
+      <c r="V381" s="1">
+        <v>1</v>
+      </c>
+      <c r="W381" s="1">
+        <v>1</v>
+      </c>
+      <c r="X381" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y381" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z381" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA381" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB381" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC381" s="1"/>
+      <c r="AD381" s="1"/>
+      <c r="AE381" s="1"/>
+      <c r="AH381">
+        <v>3</v>
+      </c>
+      <c r="AI381">
+        <v>24</v>
+      </c>
+      <c r="AJ381">
+        <v>3</v>
+      </c>
+      <c r="AK381">
+        <v>0</v>
+      </c>
+      <c r="AT381">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW381" t="str">
+        <f t="shared" si="88"/>
+        <v>3,24,3,0</v>
+      </c>
+      <c r="BE381">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="BF381">
+        <f t="shared" si="97"/>
+        <v>7</v>
+      </c>
+      <c r="BG381">
+        <f t="shared" si="98"/>
+        <v>20</v>
+      </c>
+      <c r="BH381">
+        <v>0</v>
+      </c>
+      <c r="BQ381">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT381" t="str">
+        <f t="shared" si="90"/>
+        <v>3,7,20,0</v>
+      </c>
+      <c r="CA381">
+        <f t="shared" si="100"/>
+        <v>11</v>
+      </c>
+      <c r="CB381">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="CC381">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
+      <c r="CD381">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="CM381">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP381" t="str">
+        <f t="shared" si="92"/>
+        <v>11,16,3,0</v>
+      </c>
+      <c r="CX381">
+        <v>30</v>
+      </c>
+      <c r="CY381">
+        <v>0</v>
+      </c>
+      <c r="DJ381">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM381" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="382" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1">
+        <v>1</v>
+      </c>
+      <c r="G382" s="1">
+        <v>1</v>
+      </c>
+      <c r="H382" s="1">
+        <v>1</v>
+      </c>
+      <c r="I382" s="1">
+        <v>1</v>
+      </c>
+      <c r="J382" s="1">
+        <v>1</v>
+      </c>
+      <c r="K382" s="1">
+        <v>1</v>
+      </c>
+      <c r="L382" s="1">
+        <v>2</v>
+      </c>
+      <c r="M382" s="1">
+        <v>1</v>
+      </c>
+      <c r="N382" s="1">
+        <v>1</v>
+      </c>
+      <c r="O382" s="1">
+        <v>1</v>
+      </c>
+      <c r="P382" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q382" s="1">
+        <v>1</v>
+      </c>
+      <c r="R382" s="1">
+        <v>1</v>
+      </c>
+      <c r="S382" s="1">
+        <v>1</v>
+      </c>
+      <c r="T382" s="1">
+        <v>1</v>
+      </c>
+      <c r="U382" s="1">
+        <v>1</v>
+      </c>
+      <c r="V382" s="1">
+        <v>1</v>
+      </c>
+      <c r="W382" s="1">
+        <v>1</v>
+      </c>
+      <c r="X382" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y382" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB382" s="1"/>
+      <c r="AC382" s="1"/>
+      <c r="AD382" s="1"/>
+      <c r="AE382" s="1"/>
+      <c r="AH382">
+        <v>4</v>
+      </c>
+      <c r="AI382">
+        <v>22</v>
+      </c>
+      <c r="AJ382">
+        <v>4</v>
+      </c>
+      <c r="AK382">
+        <v>0</v>
+      </c>
+      <c r="AT382">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW382" t="str">
+        <f t="shared" si="88"/>
+        <v>4,22,4,0</v>
+      </c>
+      <c r="BE382">
+        <f>BE381+1</f>
+        <v>4</v>
+      </c>
+      <c r="BF382">
+        <f t="shared" si="97"/>
+        <v>6</v>
+      </c>
+      <c r="BG382">
+        <f t="shared" si="98"/>
+        <v>20</v>
+      </c>
+      <c r="BH382">
+        <v>0</v>
+      </c>
+      <c r="BQ382">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT382" t="str">
+        <f t="shared" si="90"/>
+        <v>4,6,20,0</v>
+      </c>
+      <c r="CA382">
+        <f t="shared" si="100"/>
+        <v>11</v>
+      </c>
+      <c r="CB382">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="CC382">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="CD382">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="CM382">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP382" t="str">
+        <f t="shared" si="92"/>
+        <v>11,15,4,0</v>
+      </c>
+      <c r="CX382">
+        <v>30</v>
+      </c>
+      <c r="CY382">
+        <v>0</v>
+      </c>
+      <c r="DJ382">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM382" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="383" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1">
+        <v>1</v>
+      </c>
+      <c r="H383" s="1">
+        <v>1</v>
+      </c>
+      <c r="I383" s="1">
+        <v>1</v>
+      </c>
+      <c r="J383" s="1">
+        <v>1</v>
+      </c>
+      <c r="K383" s="1">
+        <v>2</v>
+      </c>
+      <c r="L383" s="1">
+        <v>1</v>
+      </c>
+      <c r="M383" s="1">
+        <v>1</v>
+      </c>
+      <c r="N383" s="1">
+        <v>1</v>
+      </c>
+      <c r="O383" s="1">
+        <v>1</v>
+      </c>
+      <c r="P383" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q383" s="1">
+        <v>1</v>
+      </c>
+      <c r="R383" s="1">
+        <v>1</v>
+      </c>
+      <c r="S383" s="1">
+        <v>1</v>
+      </c>
+      <c r="T383" s="1">
+        <v>1</v>
+      </c>
+      <c r="U383" s="1">
+        <v>1</v>
+      </c>
+      <c r="V383" s="1">
+        <v>1</v>
+      </c>
+      <c r="W383" s="1">
+        <v>1</v>
+      </c>
+      <c r="X383" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y383" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z383" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA383" s="1"/>
+      <c r="AB383" s="1"/>
+      <c r="AC383" s="1"/>
+      <c r="AD383" s="1"/>
+      <c r="AE383" s="1"/>
+      <c r="AH383">
+        <v>5</v>
+      </c>
+      <c r="AI383">
+        <v>20</v>
+      </c>
+      <c r="AJ383">
+        <v>5</v>
+      </c>
+      <c r="AK383">
+        <v>0</v>
+      </c>
+      <c r="AT383">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW383" t="str">
+        <f t="shared" si="88"/>
+        <v>5,20,5,0</v>
+      </c>
+      <c r="BE383">
+        <f t="shared" ref="BE383:BE384" si="108">BE382+1</f>
+        <v>5</v>
+      </c>
+      <c r="BF383">
+        <f t="shared" si="97"/>
+        <v>4</v>
+      </c>
+      <c r="BG383">
+        <f t="shared" si="98"/>
+        <v>21</v>
+      </c>
+      <c r="BH383">
+        <v>0</v>
+      </c>
+      <c r="BQ383">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT383" t="str">
+        <f t="shared" si="90"/>
+        <v>5,4,21,0</v>
+      </c>
+      <c r="CA383">
+        <f t="shared" si="100"/>
+        <v>10</v>
+      </c>
+      <c r="CB383">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="CC383">
+        <v>5</v>
+      </c>
+      <c r="CD383">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="CM383">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP383" t="str">
+        <f t="shared" si="92"/>
+        <v>10,15,5,0</v>
+      </c>
+      <c r="CX383">
+        <v>30</v>
+      </c>
+      <c r="CY383">
+        <v>0</v>
+      </c>
+      <c r="DJ383">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM383" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="384" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1">
+        <v>1</v>
+      </c>
+      <c r="J384" s="1">
+        <v>1</v>
+      </c>
+      <c r="K384" s="1">
+        <v>2</v>
+      </c>
+      <c r="L384" s="1">
+        <v>1</v>
+      </c>
+      <c r="M384" s="1">
+        <v>1</v>
+      </c>
+      <c r="N384" s="1">
+        <v>1</v>
+      </c>
+      <c r="O384" s="1">
+        <v>1</v>
+      </c>
+      <c r="P384" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q384" s="1">
+        <v>1</v>
+      </c>
+      <c r="R384" s="1">
+        <v>1</v>
+      </c>
+      <c r="S384" s="1">
+        <v>1</v>
+      </c>
+      <c r="T384" s="1">
+        <v>1</v>
+      </c>
+      <c r="U384" s="1">
+        <v>1</v>
+      </c>
+      <c r="V384" s="1">
+        <v>1</v>
+      </c>
+      <c r="W384" s="1">
+        <v>1</v>
+      </c>
+      <c r="X384" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y384" s="1"/>
+      <c r="Z384" s="1"/>
+      <c r="AA384" s="1"/>
+      <c r="AB384" s="1"/>
+      <c r="AC384" s="1"/>
+      <c r="AD384" s="1"/>
+      <c r="AE384" s="1"/>
+      <c r="AH384">
+        <v>7</v>
+      </c>
+      <c r="AI384">
+        <v>16</v>
+      </c>
+      <c r="AJ384">
+        <v>7</v>
+      </c>
+      <c r="AK384">
+        <v>0</v>
+      </c>
+      <c r="AT384">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW384" t="str">
+        <f t="shared" si="88"/>
+        <v>7,16,7,0</v>
+      </c>
+      <c r="BE384">
+        <v>8</v>
+      </c>
+      <c r="BF384">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="BG384">
+        <f t="shared" si="98"/>
+        <v>21</v>
+      </c>
+      <c r="BH384">
+        <v>0</v>
+      </c>
+      <c r="BQ384">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT384" t="str">
+        <f t="shared" si="90"/>
+        <v>8,1,21,0</v>
+      </c>
+      <c r="CA384">
+        <f t="shared" si="100"/>
+        <v>10</v>
+      </c>
+      <c r="CB384">
+        <f t="shared" si="104"/>
+        <v>13</v>
+      </c>
+      <c r="CC384">
+        <v>7</v>
+      </c>
+      <c r="CD384">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="CM384">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP384" t="str">
+        <f t="shared" si="92"/>
+        <v>10,13,7,0</v>
+      </c>
+      <c r="CX384">
+        <v>30</v>
+      </c>
+      <c r="CY384">
+        <v>0</v>
+      </c>
+      <c r="DJ384">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM384" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="385" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1">
+        <v>1</v>
+      </c>
+      <c r="L385" s="1">
+        <v>1</v>
+      </c>
+      <c r="M385" s="1">
+        <v>1</v>
+      </c>
+      <c r="N385" s="1">
+        <v>1</v>
+      </c>
+      <c r="O385" s="1">
+        <v>1</v>
+      </c>
+      <c r="P385" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q385" s="1">
+        <v>1</v>
+      </c>
+      <c r="R385" s="1">
+        <v>1</v>
+      </c>
+      <c r="S385" s="1">
+        <v>1</v>
+      </c>
+      <c r="T385" s="1">
+        <v>1</v>
+      </c>
+      <c r="U385" s="1">
+        <v>1</v>
+      </c>
+      <c r="V385" s="1">
+        <v>1</v>
+      </c>
+      <c r="W385" s="1"/>
+      <c r="X385" s="1"/>
+      <c r="Y385" s="1"/>
+      <c r="Z385" s="1"/>
+      <c r="AA385" s="1"/>
+      <c r="AB385" s="1"/>
+      <c r="AC385" s="1"/>
+      <c r="AD385" s="1"/>
+      <c r="AE385" s="1"/>
+      <c r="AH385">
+        <v>9</v>
+      </c>
+      <c r="AI385">
+        <v>12</v>
+      </c>
+      <c r="AJ385">
+        <v>9</v>
+      </c>
+      <c r="AK385">
+        <v>0</v>
+      </c>
+      <c r="AT385">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW385" t="str">
+        <f t="shared" si="88"/>
+        <v>9,12,9,0</v>
+      </c>
+      <c r="BE385">
+        <v>30</v>
+      </c>
+      <c r="BF385">
+        <v>0</v>
+      </c>
+      <c r="BQ385">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT385" t="str">
+        <f t="shared" si="90"/>
+        <v>30,0</v>
+      </c>
+      <c r="CA385">
+        <f t="shared" si="100"/>
+        <v>9</v>
+      </c>
+      <c r="CB385">
+        <f t="shared" si="104"/>
+        <v>12</v>
+      </c>
+      <c r="CC385">
+        <v>9</v>
+      </c>
+      <c r="CD385">
+        <f t="shared" ref="CD385" si="109">CD384</f>
+        <v>0</v>
+      </c>
+      <c r="CM385">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP385" t="str">
+        <f t="shared" si="92"/>
+        <v>9,12,9,0</v>
+      </c>
+      <c r="CX385">
+        <v>30</v>
+      </c>
+      <c r="CY385">
+        <v>0</v>
+      </c>
+      <c r="DJ385">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM385" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+      <c r="K386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="1">
+        <v>1</v>
+      </c>
+      <c r="N386" s="1">
+        <v>1</v>
+      </c>
+      <c r="O386" s="1">
+        <v>1</v>
+      </c>
+      <c r="P386" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q386" s="1">
+        <v>1</v>
+      </c>
+      <c r="R386" s="1">
+        <v>1</v>
+      </c>
+      <c r="S386" s="1">
+        <v>1</v>
+      </c>
+      <c r="T386" s="1">
+        <v>1</v>
+      </c>
+      <c r="U386" s="1"/>
+      <c r="V386" s="1"/>
+      <c r="W386" s="1"/>
+      <c r="X386" s="1"/>
+      <c r="Y386" s="1"/>
+      <c r="Z386" s="1"/>
+      <c r="AA386" s="1"/>
+      <c r="AB386" s="1"/>
+      <c r="AC386" s="1"/>
+      <c r="AD386" s="1"/>
+      <c r="AE386" s="1"/>
+      <c r="AH386">
+        <v>11</v>
+      </c>
+      <c r="AI386">
+        <v>8</v>
+      </c>
+      <c r="AJ386">
+        <v>11</v>
+      </c>
+      <c r="AK386">
+        <v>0</v>
+      </c>
+      <c r="AT386">
+        <f t="shared" si="87"/>
+        <v>30</v>
+      </c>
+      <c r="AW386" t="str">
+        <f t="shared" si="88"/>
+        <v>11,8,11,0</v>
+      </c>
+      <c r="BE386">
+        <v>30</v>
+      </c>
+      <c r="BF386">
+        <v>0</v>
+      </c>
+      <c r="BQ386">
+        <f t="shared" si="89"/>
+        <v>30</v>
+      </c>
+      <c r="BT386" t="str">
+        <f t="shared" si="90"/>
+        <v>30,0</v>
+      </c>
+      <c r="CA386">
+        <v>11</v>
+      </c>
+      <c r="CB386">
+        <f t="shared" si="104"/>
+        <v>8</v>
+      </c>
+      <c r="CC386">
+        <v>11</v>
+      </c>
+      <c r="CD386">
+        <v>0</v>
+      </c>
+      <c r="CM386">
+        <f t="shared" si="91"/>
+        <v>30</v>
+      </c>
+      <c r="CP386" t="str">
+        <f t="shared" si="92"/>
+        <v>11,8,11,0</v>
+      </c>
+      <c r="CX386">
+        <v>30</v>
+      </c>
+      <c r="CY386">
+        <v>0</v>
+      </c>
+      <c r="DJ386">
+        <f t="shared" si="94"/>
+        <v>30</v>
+      </c>
+      <c r="DM386" t="str">
+        <f t="shared" si="95"/>
+        <v>30,0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 AF194:AF214 A194:A214 A215:AF215 A223:J223 L223:AF223 A217 B196:AE215 A216:B216 C216:AF217 A218:AF222 F222:X223 AH243:AM243 AL245:AM245 AH244:AK246 AI246:AM246 AJ247:AK247 AL251:AM251 AI248:AK252 AI253:AJ253 AH247:AH255 AI254:AI255 AH258:AI261 A224:AF1048576">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 A194:A214 AF194:AF214 A215:AF215 A216:B216 C216:AF217 A217 A218:AF222 F222:X223 A223:J223 L223:AF223 AH243:AM243 AH244:AK246 AL245:AM245 AI246:AM246 AJ247:AK247 AH247:AH255 AI248:AK252 AL251:AM251 AI253:AJ253 AI254:AI255 A224:AF288 Q321 B291:AE319 A289:B289 AF289:AF321 A290:A321 AH305:AM305 AH347:AI347 A322:AF1048576">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:AE215">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AI46">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH258:AI266">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH269:AI277">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD46">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B194:AE195">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH262:AI262">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH263:AI263">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH264:AI264">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH265:AI265">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH266:AI266">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH269:AI269">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH270:AI270">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH271:AI271">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH272:AI272">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH273:AI273">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH274:AI274">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH275:AI275">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH276:AI276">
+  <conditionalFormatting sqref="C320:AE320">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH277:AI277">
+  <conditionalFormatting sqref="AH306:AM306">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/icon helper.xlsx
+++ b/icon helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f7f4011b2811a15/Documenten/Arduino/BKOS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3360" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB1EB9D-0DF0-4583-B126-81BEF25C1AC2}"/>
+  <xr:revisionPtr revIDLastSave="3527" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5A1A7C-F728-467B-AC58-C4F5C8C560BE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
   <si>
     <t>W</t>
   </si>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30FD981-21C0-46E6-A80E-F0D6C2605ECA}">
-  <dimension ref="B1:EL386"/>
+  <dimension ref="B1:EL418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT356" sqref="BT356"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW388" sqref="AW388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="AT325">
-        <f t="shared" ref="AT325:AT353" si="81">SUM(AH325:AR325)</f>
+        <f t="shared" ref="AT325:AT326" si="81">SUM(AH325:AR325)</f>
         <v>30</v>
       </c>
       <c r="AW325" t="str">
@@ -30608,7 +30608,7 @@
         <v>5,20,5,0</v>
       </c>
       <c r="BE360">
-        <f t="shared" ref="BE360:BE366" si="96">BE359-2</f>
+        <f t="shared" ref="BE360" si="96">BE359-2</f>
         <v>5</v>
       </c>
       <c r="BF360">
@@ -31478,7 +31478,7 @@
         <v>2,26,2,0</v>
       </c>
       <c r="BE365">
-        <f t="shared" ref="BE365:BE368" si="99">BE363-1</f>
+        <f t="shared" ref="BE365:BE367" si="99">BE363-1</f>
         <v>2</v>
       </c>
       <c r="BF365">
@@ -31683,11 +31683,11 @@
         <v>19</v>
       </c>
       <c r="CB366">
-        <f t="shared" ref="CB366:CB368" si="101">CB365+1</f>
+        <f t="shared" ref="CB366:CB367" si="101">CB365+1</f>
         <v>10</v>
       </c>
       <c r="CC366">
-        <f t="shared" ref="CC366:CC368" si="102">CC364-1</f>
+        <f t="shared" ref="CC366:CC367" si="102">CC364-1</f>
         <v>1</v>
       </c>
       <c r="CD366">
@@ -32196,7 +32196,7 @@
         <v>17</v>
       </c>
       <c r="CB369">
-        <f t="shared" ref="CB369:CB375" si="103">30-CA369</f>
+        <f t="shared" ref="CB369:CB374" si="103">30-CA369</f>
         <v>13</v>
       </c>
       <c r="CM369">
@@ -33810,7 +33810,7 @@
         <v>16</v>
       </c>
       <c r="CC379">
-        <f t="shared" ref="CC379:CC384" si="106">CC377+1</f>
+        <f t="shared" ref="CC379:CC382" si="106">CC377+1</f>
         <v>2</v>
       </c>
       <c r="CD379">
@@ -34411,7 +34411,7 @@
         <v>5,20,5,0</v>
       </c>
       <c r="BE383">
-        <f t="shared" ref="BE383:BE384" si="108">BE382+1</f>
+        <f t="shared" ref="BE383" si="108">BE382+1</f>
         <v>5</v>
       </c>
       <c r="BF383">
@@ -34858,8 +34858,2013 @@
         <v>30,0</v>
       </c>
     </row>
+    <row r="388" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="AH388" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI388" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ388" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK388" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL388" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM388" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW388" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AW389:AW418)</f>
+        <v>15,1,14,0,14,1,1,1,13,0,13,1,3,1,12,0,12,1,5,1,11,0,11,1,7,1,10,0,10,1,9,1,9,0,9,1,11,1,8,0,8,1,13,1,7,0,7,1,15,1,6,0,6,1,17,1,5,0,5,1,19,1,4,0,4,1,21,1,3,0,3,1,23,1,2,0,2,7,13,7,1,0,8,1,13,1,7,0,8,1,13,1,7,0,8,1,13,1,7,0,8,1,13,1,7,0,8,1,13,1,7,0,8,1,13,1,7,0,8,1,13,1,7,0,8,1,13,1,7,0,8,15,7,0,30,0,30,0,8,15,7,0,30,0,30,0,8,15,7,0,30,0</v>
+      </c>
+    </row>
+    <row r="389" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="M389" s="1"/>
+      <c r="N389" s="1"/>
+      <c r="O389" s="1"/>
+      <c r="P389" s="1"/>
+      <c r="Q389" s="1">
+        <v>1</v>
+      </c>
+      <c r="R389" s="1"/>
+      <c r="S389" s="1"/>
+      <c r="T389" s="1"/>
+      <c r="U389" s="1"/>
+      <c r="V389" s="1"/>
+      <c r="W389" s="1"/>
+      <c r="X389" s="1"/>
+      <c r="Y389" s="1"/>
+      <c r="Z389" s="1"/>
+      <c r="AA389" s="1"/>
+      <c r="AB389" s="1"/>
+      <c r="AC389" s="1"/>
+      <c r="AD389" s="1"/>
+      <c r="AE389" s="1"/>
+      <c r="AH389">
+        <v>15</v>
+      </c>
+      <c r="AI389">
+        <v>1</v>
+      </c>
+      <c r="AJ389">
+        <v>14</v>
+      </c>
+      <c r="AK389">
+        <v>0</v>
+      </c>
+      <c r="AT389">
+        <f>SUM(AH389:AR389)</f>
+        <v>30</v>
+      </c>
+      <c r="AW389" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AH389:AS389)</f>
+        <v>15,1,14,0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+      <c r="K390" s="1"/>
+      <c r="L390" s="1"/>
+      <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
+      <c r="O390" s="1"/>
+      <c r="P390" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q390" s="1"/>
+      <c r="R390" s="1">
+        <v>1</v>
+      </c>
+      <c r="S390" s="1"/>
+      <c r="T390" s="1"/>
+      <c r="U390" s="1"/>
+      <c r="V390" s="1"/>
+      <c r="W390" s="1"/>
+      <c r="X390" s="1"/>
+      <c r="Y390" s="1"/>
+      <c r="Z390" s="1"/>
+      <c r="AA390" s="1"/>
+      <c r="AB390" s="1"/>
+      <c r="AC390" s="1"/>
+      <c r="AD390" s="1"/>
+      <c r="AE390" s="1"/>
+      <c r="AH390">
+        <v>14</v>
+      </c>
+      <c r="AI390">
+        <v>1</v>
+      </c>
+      <c r="AJ390">
+        <v>1</v>
+      </c>
+      <c r="AK390">
+        <v>1</v>
+      </c>
+      <c r="AL390">
+        <v>13</v>
+      </c>
+      <c r="AM390">
+        <v>0</v>
+      </c>
+      <c r="AT390">
+        <f t="shared" ref="AT390:AT418" si="110">SUM(AH390:AR390)</f>
+        <v>30</v>
+      </c>
+      <c r="AW390" t="str">
+        <f t="shared" ref="AW390:AW418" si="111">_xlfn.TEXTJOIN(",",TRUE,AH390:AS390)</f>
+        <v>14,1,1,1,13,0</v>
+      </c>
+    </row>
+    <row r="391" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1">
+        <v>1</v>
+      </c>
+      <c r="P391" s="1"/>
+      <c r="Q391" s="1"/>
+      <c r="R391" s="1"/>
+      <c r="S391" s="1">
+        <v>1</v>
+      </c>
+      <c r="T391" s="1"/>
+      <c r="U391" s="1"/>
+      <c r="V391" s="1"/>
+      <c r="W391" s="1"/>
+      <c r="X391" s="1"/>
+      <c r="Y391" s="1"/>
+      <c r="Z391" s="1"/>
+      <c r="AA391" s="1"/>
+      <c r="AB391" s="1"/>
+      <c r="AC391" s="1"/>
+      <c r="AD391" s="1"/>
+      <c r="AE391" s="1"/>
+      <c r="AH391">
+        <f>AH390-1</f>
+        <v>13</v>
+      </c>
+      <c r="AI391">
+        <f>AI390</f>
+        <v>1</v>
+      </c>
+      <c r="AJ391">
+        <f>AJ390+2</f>
+        <v>3</v>
+      </c>
+      <c r="AK391">
+        <f>AK390</f>
+        <v>1</v>
+      </c>
+      <c r="AL391">
+        <f>AL390-1</f>
+        <v>12</v>
+      </c>
+      <c r="AM391">
+        <f>AM390</f>
+        <v>0</v>
+      </c>
+      <c r="AT391">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW391" t="str">
+        <f t="shared" si="111"/>
+        <v>13,1,3,1,12,0</v>
+      </c>
+    </row>
+    <row r="392" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1"/>
+      <c r="N392" s="1">
+        <v>1</v>
+      </c>
+      <c r="O392" s="1"/>
+      <c r="P392" s="1"/>
+      <c r="Q392" s="1"/>
+      <c r="R392" s="1"/>
+      <c r="S392" s="1"/>
+      <c r="T392" s="1">
+        <v>1</v>
+      </c>
+      <c r="U392" s="1"/>
+      <c r="V392" s="1"/>
+      <c r="W392" s="1"/>
+      <c r="X392" s="1"/>
+      <c r="Y392" s="1"/>
+      <c r="Z392" s="1"/>
+      <c r="AA392" s="1"/>
+      <c r="AB392" s="1"/>
+      <c r="AC392" s="1"/>
+      <c r="AD392" s="1"/>
+      <c r="AE392" s="1"/>
+      <c r="AH392">
+        <f t="shared" ref="AH392:AH402" si="112">AH391-1</f>
+        <v>12</v>
+      </c>
+      <c r="AI392">
+        <f t="shared" ref="AI392:AI402" si="113">AI391</f>
+        <v>1</v>
+      </c>
+      <c r="AJ392">
+        <f t="shared" ref="AJ392:AJ402" si="114">AJ391+2</f>
+        <v>5</v>
+      </c>
+      <c r="AK392">
+        <f t="shared" ref="AK392:AK402" si="115">AK391</f>
+        <v>1</v>
+      </c>
+      <c r="AL392">
+        <f t="shared" ref="AL392:AL402" si="116">AL391-1</f>
+        <v>11</v>
+      </c>
+      <c r="AM392">
+        <f t="shared" ref="AM392:AM402" si="117">AM391</f>
+        <v>0</v>
+      </c>
+      <c r="AT392">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW392" t="str">
+        <f t="shared" si="111"/>
+        <v>12,1,5,1,11,0</v>
+      </c>
+    </row>
+    <row r="393" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1">
+        <v>1</v>
+      </c>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
+      <c r="U393" s="1">
+        <v>1</v>
+      </c>
+      <c r="V393" s="1"/>
+      <c r="W393" s="1"/>
+      <c r="X393" s="1"/>
+      <c r="Y393" s="1"/>
+      <c r="Z393" s="1"/>
+      <c r="AA393" s="1"/>
+      <c r="AB393" s="1"/>
+      <c r="AC393" s="1"/>
+      <c r="AD393" s="1"/>
+      <c r="AE393" s="1"/>
+      <c r="AH393">
+        <f t="shared" si="112"/>
+        <v>11</v>
+      </c>
+      <c r="AI393">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ393">
+        <f t="shared" si="114"/>
+        <v>7</v>
+      </c>
+      <c r="AK393">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL393">
+        <f t="shared" si="116"/>
+        <v>10</v>
+      </c>
+      <c r="AM393">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT393">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW393" t="str">
+        <f t="shared" si="111"/>
+        <v>11,1,7,1,10,0</v>
+      </c>
+    </row>
+    <row r="394" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1">
+        <v>1</v>
+      </c>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="P394" s="1"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
+      <c r="U394" s="1"/>
+      <c r="V394" s="1">
+        <v>1</v>
+      </c>
+      <c r="W394" s="1"/>
+      <c r="X394" s="1"/>
+      <c r="Y394" s="1"/>
+      <c r="Z394" s="1"/>
+      <c r="AA394" s="1"/>
+      <c r="AB394" s="1"/>
+      <c r="AC394" s="1"/>
+      <c r="AD394" s="1"/>
+      <c r="AE394" s="1"/>
+      <c r="AH394">
+        <f t="shared" si="112"/>
+        <v>10</v>
+      </c>
+      <c r="AI394">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ394">
+        <f t="shared" si="114"/>
+        <v>9</v>
+      </c>
+      <c r="AK394">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL394">
+        <f t="shared" si="116"/>
+        <v>9</v>
+      </c>
+      <c r="AM394">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT394">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW394" t="str">
+        <f t="shared" si="111"/>
+        <v>10,1,9,1,9,0</v>
+      </c>
+    </row>
+    <row r="395" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1">
+        <v>1</v>
+      </c>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="P395" s="1"/>
+      <c r="Q395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
+      <c r="U395" s="1"/>
+      <c r="V395" s="1"/>
+      <c r="W395" s="1">
+        <v>1</v>
+      </c>
+      <c r="X395" s="1"/>
+      <c r="Y395" s="1"/>
+      <c r="Z395" s="1"/>
+      <c r="AA395" s="1"/>
+      <c r="AB395" s="1"/>
+      <c r="AC395" s="1"/>
+      <c r="AD395" s="1"/>
+      <c r="AE395" s="1"/>
+      <c r="AH395">
+        <f t="shared" si="112"/>
+        <v>9</v>
+      </c>
+      <c r="AI395">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ395">
+        <f t="shared" si="114"/>
+        <v>11</v>
+      </c>
+      <c r="AK395">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL395">
+        <f t="shared" si="116"/>
+        <v>8</v>
+      </c>
+      <c r="AM395">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT395">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW395" t="str">
+        <f t="shared" si="111"/>
+        <v>9,1,11,1,8,0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1">
+        <v>1</v>
+      </c>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
+      <c r="U396" s="1"/>
+      <c r="V396" s="1"/>
+      <c r="W396" s="1"/>
+      <c r="X396" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y396" s="1"/>
+      <c r="Z396" s="1"/>
+      <c r="AA396" s="1"/>
+      <c r="AB396" s="1"/>
+      <c r="AC396" s="1"/>
+      <c r="AD396" s="1"/>
+      <c r="AE396" s="1"/>
+      <c r="AH396">
+        <f t="shared" si="112"/>
+        <v>8</v>
+      </c>
+      <c r="AI396">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ396">
+        <f t="shared" si="114"/>
+        <v>13</v>
+      </c>
+      <c r="AK396">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL396">
+        <f t="shared" si="116"/>
+        <v>7</v>
+      </c>
+      <c r="AM396">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT396">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW396" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="397" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1">
+        <v>1</v>
+      </c>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
+      <c r="U397" s="1"/>
+      <c r="V397" s="1"/>
+      <c r="W397" s="1"/>
+      <c r="X397" s="1"/>
+      <c r="Y397" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z397" s="1"/>
+      <c r="AA397" s="1"/>
+      <c r="AB397" s="1"/>
+      <c r="AC397" s="1"/>
+      <c r="AD397" s="1"/>
+      <c r="AE397" s="1"/>
+      <c r="AH397">
+        <f t="shared" si="112"/>
+        <v>7</v>
+      </c>
+      <c r="AI397">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ397">
+        <f t="shared" si="114"/>
+        <v>15</v>
+      </c>
+      <c r="AK397">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL397">
+        <f t="shared" si="116"/>
+        <v>6</v>
+      </c>
+      <c r="AM397">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT397">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW397" t="str">
+        <f t="shared" si="111"/>
+        <v>7,1,15,1,6,0</v>
+      </c>
+    </row>
+    <row r="398" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1">
+        <v>1</v>
+      </c>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
+      <c r="U398" s="1"/>
+      <c r="V398" s="1"/>
+      <c r="W398" s="1"/>
+      <c r="X398" s="1"/>
+      <c r="Y398" s="1"/>
+      <c r="Z398" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA398" s="1"/>
+      <c r="AB398" s="1"/>
+      <c r="AC398" s="1"/>
+      <c r="AD398" s="1"/>
+      <c r="AE398" s="1"/>
+      <c r="AH398">
+        <f t="shared" si="112"/>
+        <v>6</v>
+      </c>
+      <c r="AI398">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ398">
+        <f t="shared" si="114"/>
+        <v>17</v>
+      </c>
+      <c r="AK398">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL398">
+        <f t="shared" si="116"/>
+        <v>5</v>
+      </c>
+      <c r="AM398">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT398">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW398" t="str">
+        <f t="shared" si="111"/>
+        <v>6,1,17,1,5,0</v>
+      </c>
+    </row>
+    <row r="399" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1">
+        <v>1</v>
+      </c>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
+      <c r="U399" s="1"/>
+      <c r="V399" s="1"/>
+      <c r="W399" s="1"/>
+      <c r="X399" s="1"/>
+      <c r="Y399" s="1"/>
+      <c r="Z399" s="1"/>
+      <c r="AA399" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB399" s="1"/>
+      <c r="AC399" s="1"/>
+      <c r="AD399" s="1"/>
+      <c r="AE399" s="1"/>
+      <c r="AH399">
+        <f t="shared" si="112"/>
+        <v>5</v>
+      </c>
+      <c r="AI399">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ399">
+        <f t="shared" si="114"/>
+        <v>19</v>
+      </c>
+      <c r="AK399">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL399">
+        <f t="shared" si="116"/>
+        <v>4</v>
+      </c>
+      <c r="AM399">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT399">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW399" t="str">
+        <f t="shared" si="111"/>
+        <v>5,1,19,1,4,0</v>
+      </c>
+    </row>
+    <row r="400" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1">
+        <v>1</v>
+      </c>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+      <c r="P400" s="1"/>
+      <c r="Q400" s="1"/>
+      <c r="R400" s="1"/>
+      <c r="S400" s="1"/>
+      <c r="T400" s="1"/>
+      <c r="U400" s="1"/>
+      <c r="V400" s="1"/>
+      <c r="W400" s="1"/>
+      <c r="X400" s="1"/>
+      <c r="Y400" s="1"/>
+      <c r="Z400" s="1"/>
+      <c r="AA400" s="1"/>
+      <c r="AB400" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC400" s="1"/>
+      <c r="AD400" s="1"/>
+      <c r="AE400" s="1"/>
+      <c r="AH400">
+        <f t="shared" si="112"/>
+        <v>4</v>
+      </c>
+      <c r="AI400">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ400">
+        <f t="shared" si="114"/>
+        <v>21</v>
+      </c>
+      <c r="AK400">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL400">
+        <f t="shared" si="116"/>
+        <v>3</v>
+      </c>
+      <c r="AM400">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT400">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW400" t="str">
+        <f t="shared" si="111"/>
+        <v>4,1,21,1,3,0</v>
+      </c>
+    </row>
+    <row r="401" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1">
+        <v>1</v>
+      </c>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+      <c r="P401" s="1"/>
+      <c r="Q401" s="1"/>
+      <c r="R401" s="1"/>
+      <c r="S401" s="1"/>
+      <c r="T401" s="1"/>
+      <c r="U401" s="1"/>
+      <c r="V401" s="1"/>
+      <c r="W401" s="1"/>
+      <c r="X401" s="1"/>
+      <c r="Y401" s="1"/>
+      <c r="Z401" s="1"/>
+      <c r="AA401" s="1"/>
+      <c r="AB401" s="1"/>
+      <c r="AC401" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD401" s="1"/>
+      <c r="AE401" s="1"/>
+      <c r="AH401">
+        <f t="shared" si="112"/>
+        <v>3</v>
+      </c>
+      <c r="AI401">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AJ401">
+        <f t="shared" si="114"/>
+        <v>23</v>
+      </c>
+      <c r="AK401">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AL401">
+        <f t="shared" si="116"/>
+        <v>2</v>
+      </c>
+      <c r="AM401">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT401">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW401" t="str">
+        <f t="shared" si="111"/>
+        <v>3,1,23,1,2,0</v>
+      </c>
+    </row>
+    <row r="402" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1">
+        <v>1</v>
+      </c>
+      <c r="E402" s="1">
+        <v>1</v>
+      </c>
+      <c r="F402" s="1">
+        <v>1</v>
+      </c>
+      <c r="G402" s="1">
+        <v>1</v>
+      </c>
+      <c r="H402" s="1">
+        <v>1</v>
+      </c>
+      <c r="I402" s="1">
+        <v>1</v>
+      </c>
+      <c r="J402" s="1">
+        <v>1</v>
+      </c>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="P402" s="1"/>
+      <c r="Q402" s="1"/>
+      <c r="R402" s="1"/>
+      <c r="S402" s="1"/>
+      <c r="T402" s="1"/>
+      <c r="U402" s="1"/>
+      <c r="V402" s="1"/>
+      <c r="W402" s="1"/>
+      <c r="X402" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y402" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z402" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA402" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB402" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC402" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD402" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE402" s="1"/>
+      <c r="AH402">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="AI402">
+        <v>7</v>
+      </c>
+      <c r="AJ402">
+        <v>13</v>
+      </c>
+      <c r="AK402">
+        <v>7</v>
+      </c>
+      <c r="AL402">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AM402">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AT402">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW402" t="str">
+        <f t="shared" si="111"/>
+        <v>2,7,13,7,1,0</v>
+      </c>
+    </row>
+    <row r="403" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1">
+        <v>1</v>
+      </c>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+      <c r="Q403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
+      <c r="U403" s="1"/>
+      <c r="V403" s="1"/>
+      <c r="W403" s="1"/>
+      <c r="X403" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y403" s="1"/>
+      <c r="Z403" s="1"/>
+      <c r="AA403" s="1"/>
+      <c r="AB403" s="1"/>
+      <c r="AC403" s="1"/>
+      <c r="AD403" s="1"/>
+      <c r="AE403" s="1"/>
+      <c r="AH403">
+        <v>8</v>
+      </c>
+      <c r="AI403">
+        <v>1</v>
+      </c>
+      <c r="AJ403">
+        <v>13</v>
+      </c>
+      <c r="AK403">
+        <v>1</v>
+      </c>
+      <c r="AL403">
+        <v>7</v>
+      </c>
+      <c r="AM403">
+        <v>0</v>
+      </c>
+      <c r="AT403">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW403" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="404" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+      <c r="H404" s="1"/>
+      <c r="I404" s="1"/>
+      <c r="J404" s="1">
+        <v>1</v>
+      </c>
+      <c r="K404" s="1"/>
+      <c r="L404" s="1"/>
+      <c r="M404" s="1"/>
+      <c r="N404" s="1"/>
+      <c r="O404" s="1"/>
+      <c r="P404" s="1"/>
+      <c r="Q404" s="1"/>
+      <c r="R404" s="1"/>
+      <c r="S404" s="1"/>
+      <c r="T404" s="1"/>
+      <c r="U404" s="1"/>
+      <c r="V404" s="1"/>
+      <c r="W404" s="1"/>
+      <c r="X404" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y404" s="1"/>
+      <c r="Z404" s="1"/>
+      <c r="AA404" s="1"/>
+      <c r="AB404" s="1"/>
+      <c r="AC404" s="1"/>
+      <c r="AD404" s="1"/>
+      <c r="AE404" s="1"/>
+      <c r="AH404">
+        <f>AH403</f>
+        <v>8</v>
+      </c>
+      <c r="AI404">
+        <f t="shared" ref="AI404:AM404" si="118">AI403</f>
+        <v>1</v>
+      </c>
+      <c r="AJ404">
+        <f t="shared" si="118"/>
+        <v>13</v>
+      </c>
+      <c r="AK404">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="AL404">
+        <f t="shared" si="118"/>
+        <v>7</v>
+      </c>
+      <c r="AM404">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT404">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW404" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1">
+        <v>1</v>
+      </c>
+      <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
+      <c r="O405" s="1"/>
+      <c r="P405" s="1"/>
+      <c r="Q405" s="1"/>
+      <c r="R405" s="1"/>
+      <c r="S405" s="1"/>
+      <c r="T405" s="1"/>
+      <c r="U405" s="1"/>
+      <c r="V405" s="1"/>
+      <c r="W405" s="1"/>
+      <c r="X405" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y405" s="1"/>
+      <c r="Z405" s="1"/>
+      <c r="AA405" s="1"/>
+      <c r="AB405" s="1"/>
+      <c r="AC405" s="1"/>
+      <c r="AD405" s="1"/>
+      <c r="AE405" s="1"/>
+      <c r="AH405">
+        <f t="shared" ref="AH405:AH410" si="119">AH404</f>
+        <v>8</v>
+      </c>
+      <c r="AI405">
+        <f t="shared" ref="AI405:AI410" si="120">AI404</f>
+        <v>1</v>
+      </c>
+      <c r="AJ405">
+        <f t="shared" ref="AJ405:AJ410" si="121">AJ404</f>
+        <v>13</v>
+      </c>
+      <c r="AK405">
+        <f t="shared" ref="AK405:AK410" si="122">AK404</f>
+        <v>1</v>
+      </c>
+      <c r="AL405">
+        <f t="shared" ref="AL405:AL410" si="123">AL404</f>
+        <v>7</v>
+      </c>
+      <c r="AM405">
+        <f t="shared" ref="AM405:AM410" si="124">AM404</f>
+        <v>0</v>
+      </c>
+      <c r="AT405">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW405" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="406" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1">
+        <v>1</v>
+      </c>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="P406" s="1"/>
+      <c r="Q406" s="1"/>
+      <c r="R406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="T406" s="1"/>
+      <c r="U406" s="1"/>
+      <c r="V406" s="1"/>
+      <c r="W406" s="1"/>
+      <c r="X406" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y406" s="1"/>
+      <c r="Z406" s="1"/>
+      <c r="AA406" s="1"/>
+      <c r="AB406" s="1"/>
+      <c r="AC406" s="1"/>
+      <c r="AD406" s="1"/>
+      <c r="AE406" s="1"/>
+      <c r="AH406">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="AI406">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="AJ406">
+        <f t="shared" si="121"/>
+        <v>13</v>
+      </c>
+      <c r="AK406">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="AL406">
+        <f t="shared" si="123"/>
+        <v>7</v>
+      </c>
+      <c r="AM406">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT406">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW406" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="407" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1">
+        <v>1</v>
+      </c>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="P407" s="1"/>
+      <c r="Q407" s="1"/>
+      <c r="R407" s="1"/>
+      <c r="S407" s="1"/>
+      <c r="T407" s="1"/>
+      <c r="U407" s="1"/>
+      <c r="V407" s="1"/>
+      <c r="W407" s="1"/>
+      <c r="X407" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y407" s="1"/>
+      <c r="Z407" s="1"/>
+      <c r="AA407" s="1"/>
+      <c r="AB407" s="1"/>
+      <c r="AC407" s="1"/>
+      <c r="AD407" s="1"/>
+      <c r="AE407" s="1"/>
+      <c r="AH407">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="AI407">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="AJ407">
+        <f t="shared" si="121"/>
+        <v>13</v>
+      </c>
+      <c r="AK407">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="AL407">
+        <f t="shared" si="123"/>
+        <v>7</v>
+      </c>
+      <c r="AM407">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT407">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW407" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="408" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="H408" s="1"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1">
+        <v>1</v>
+      </c>
+      <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+      <c r="P408" s="1"/>
+      <c r="Q408" s="1"/>
+      <c r="R408" s="1"/>
+      <c r="S408" s="1"/>
+      <c r="T408" s="1"/>
+      <c r="U408" s="1"/>
+      <c r="V408" s="1"/>
+      <c r="W408" s="1"/>
+      <c r="X408" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y408" s="1"/>
+      <c r="Z408" s="1"/>
+      <c r="AA408" s="1"/>
+      <c r="AB408" s="1"/>
+      <c r="AC408" s="1"/>
+      <c r="AD408" s="1"/>
+      <c r="AE408" s="1"/>
+      <c r="AH408">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="AI408">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="AJ408">
+        <f t="shared" si="121"/>
+        <v>13</v>
+      </c>
+      <c r="AK408">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="AL408">
+        <f t="shared" si="123"/>
+        <v>7</v>
+      </c>
+      <c r="AM408">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT408">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW408" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1">
+        <v>1</v>
+      </c>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="P409" s="1"/>
+      <c r="Q409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="T409" s="1"/>
+      <c r="U409" s="1"/>
+      <c r="V409" s="1"/>
+      <c r="W409" s="1"/>
+      <c r="X409" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y409" s="1"/>
+      <c r="Z409" s="1"/>
+      <c r="AA409" s="1"/>
+      <c r="AB409" s="1"/>
+      <c r="AC409" s="1"/>
+      <c r="AD409" s="1"/>
+      <c r="AE409" s="1"/>
+      <c r="AH409">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="AI409">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="AJ409">
+        <f t="shared" si="121"/>
+        <v>13</v>
+      </c>
+      <c r="AK409">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="AL409">
+        <f t="shared" si="123"/>
+        <v>7</v>
+      </c>
+      <c r="AM409">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT409">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW409" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="410" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1"/>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1">
+        <v>1</v>
+      </c>
+      <c r="K410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="M410" s="1"/>
+      <c r="N410" s="1"/>
+      <c r="O410" s="1"/>
+      <c r="P410" s="1"/>
+      <c r="Q410" s="1"/>
+      <c r="R410" s="1"/>
+      <c r="S410" s="1"/>
+      <c r="T410" s="1"/>
+      <c r="U410" s="1"/>
+      <c r="V410" s="1"/>
+      <c r="W410" s="1"/>
+      <c r="X410" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y410" s="1"/>
+      <c r="Z410" s="1"/>
+      <c r="AA410" s="1"/>
+      <c r="AB410" s="1"/>
+      <c r="AC410" s="1"/>
+      <c r="AD410" s="1"/>
+      <c r="AE410" s="1"/>
+      <c r="AH410">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="AI410">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="AJ410">
+        <f t="shared" si="121"/>
+        <v>13</v>
+      </c>
+      <c r="AK410">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="AL410">
+        <f t="shared" si="123"/>
+        <v>7</v>
+      </c>
+      <c r="AM410">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT410">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW410" t="str">
+        <f t="shared" si="111"/>
+        <v>8,1,13,1,7,0</v>
+      </c>
+    </row>
+    <row r="411" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+      <c r="H411" s="1"/>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1">
+        <v>1</v>
+      </c>
+      <c r="K411" s="1">
+        <v>1</v>
+      </c>
+      <c r="L411" s="1">
+        <v>1</v>
+      </c>
+      <c r="M411" s="1">
+        <v>1</v>
+      </c>
+      <c r="N411" s="1">
+        <v>1</v>
+      </c>
+      <c r="O411" s="1">
+        <v>1</v>
+      </c>
+      <c r="P411" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q411" s="1">
+        <v>1</v>
+      </c>
+      <c r="R411" s="1">
+        <v>1</v>
+      </c>
+      <c r="S411" s="1">
+        <v>1</v>
+      </c>
+      <c r="T411" s="1">
+        <v>1</v>
+      </c>
+      <c r="U411" s="1">
+        <v>1</v>
+      </c>
+      <c r="V411" s="1">
+        <v>1</v>
+      </c>
+      <c r="W411" s="1">
+        <v>1</v>
+      </c>
+      <c r="X411" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y411" s="1"/>
+      <c r="Z411" s="1"/>
+      <c r="AA411" s="1"/>
+      <c r="AB411" s="1"/>
+      <c r="AC411" s="1"/>
+      <c r="AD411" s="1"/>
+      <c r="AE411" s="1"/>
+      <c r="AH411">
+        <v>8</v>
+      </c>
+      <c r="AI411">
+        <v>15</v>
+      </c>
+      <c r="AJ411">
+        <v>7</v>
+      </c>
+      <c r="AK411">
+        <v>0</v>
+      </c>
+      <c r="AT411">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW411" t="str">
+        <f t="shared" si="111"/>
+        <v>8,15,7,0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1"/>
+      <c r="N412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="P412" s="1"/>
+      <c r="Q412" s="1"/>
+      <c r="R412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="T412" s="1"/>
+      <c r="U412" s="1"/>
+      <c r="V412" s="1"/>
+      <c r="W412" s="1"/>
+      <c r="X412" s="1"/>
+      <c r="Y412" s="1"/>
+      <c r="Z412" s="1"/>
+      <c r="AA412" s="1"/>
+      <c r="AB412" s="1"/>
+      <c r="AC412" s="1"/>
+      <c r="AD412" s="1"/>
+      <c r="AE412" s="1"/>
+      <c r="AH412">
+        <v>30</v>
+      </c>
+      <c r="AI412">
+        <v>0</v>
+      </c>
+      <c r="AT412">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW412" t="str">
+        <f t="shared" si="111"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="413" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+      <c r="K413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="1"/>
+      <c r="N413" s="1"/>
+      <c r="O413" s="1"/>
+      <c r="P413" s="1"/>
+      <c r="Q413" s="1"/>
+      <c r="R413" s="1"/>
+      <c r="S413" s="1"/>
+      <c r="T413" s="1"/>
+      <c r="U413" s="1"/>
+      <c r="V413" s="1"/>
+      <c r="W413" s="1"/>
+      <c r="X413" s="1"/>
+      <c r="Y413" s="1"/>
+      <c r="Z413" s="1"/>
+      <c r="AA413" s="1"/>
+      <c r="AB413" s="1"/>
+      <c r="AC413" s="1"/>
+      <c r="AD413" s="1"/>
+      <c r="AE413" s="1"/>
+      <c r="AH413">
+        <v>30</v>
+      </c>
+      <c r="AI413">
+        <v>0</v>
+      </c>
+      <c r="AT413">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW413" t="str">
+        <f t="shared" si="111"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="414" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1">
+        <v>1</v>
+      </c>
+      <c r="K414" s="1">
+        <v>1</v>
+      </c>
+      <c r="L414" s="1">
+        <v>1</v>
+      </c>
+      <c r="M414" s="1">
+        <v>1</v>
+      </c>
+      <c r="N414" s="1">
+        <v>1</v>
+      </c>
+      <c r="O414" s="1">
+        <v>1</v>
+      </c>
+      <c r="P414" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q414" s="1">
+        <v>1</v>
+      </c>
+      <c r="R414" s="1">
+        <v>1</v>
+      </c>
+      <c r="S414" s="1">
+        <v>1</v>
+      </c>
+      <c r="T414" s="1">
+        <v>1</v>
+      </c>
+      <c r="U414" s="1">
+        <v>1</v>
+      </c>
+      <c r="V414" s="1">
+        <v>1</v>
+      </c>
+      <c r="W414" s="1">
+        <v>1</v>
+      </c>
+      <c r="X414" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y414" s="1"/>
+      <c r="Z414" s="1"/>
+      <c r="AA414" s="1"/>
+      <c r="AB414" s="1"/>
+      <c r="AC414" s="1"/>
+      <c r="AD414" s="1"/>
+      <c r="AE414" s="1"/>
+      <c r="AH414">
+        <f>AH411</f>
+        <v>8</v>
+      </c>
+      <c r="AI414">
+        <f t="shared" ref="AI414:AK414" si="125">AI411</f>
+        <v>15</v>
+      </c>
+      <c r="AJ414">
+        <f t="shared" si="125"/>
+        <v>7</v>
+      </c>
+      <c r="AK414">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AT414">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW414" t="str">
+        <f t="shared" si="111"/>
+        <v>8,15,7,0</v>
+      </c>
+    </row>
+    <row r="415" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="1"/>
+      <c r="L415" s="1"/>
+      <c r="M415" s="1"/>
+      <c r="N415" s="1"/>
+      <c r="O415" s="1"/>
+      <c r="P415" s="1"/>
+      <c r="Q415" s="1"/>
+      <c r="R415" s="1"/>
+      <c r="S415" s="1"/>
+      <c r="T415" s="1"/>
+      <c r="U415" s="1"/>
+      <c r="V415" s="1"/>
+      <c r="W415" s="1"/>
+      <c r="X415" s="1"/>
+      <c r="Y415" s="1"/>
+      <c r="Z415" s="1"/>
+      <c r="AA415" s="1"/>
+      <c r="AB415" s="1"/>
+      <c r="AC415" s="1"/>
+      <c r="AD415" s="1"/>
+      <c r="AE415" s="1"/>
+      <c r="AH415">
+        <f t="shared" ref="AH415:AI415" si="126">AH412</f>
+        <v>30</v>
+      </c>
+      <c r="AI415">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AT415">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW415" t="str">
+        <f t="shared" si="111"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="416" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="P416" s="1"/>
+      <c r="Q416" s="1"/>
+      <c r="R416" s="1"/>
+      <c r="S416" s="1"/>
+      <c r="T416" s="1"/>
+      <c r="U416" s="1"/>
+      <c r="V416" s="1"/>
+      <c r="W416" s="1"/>
+      <c r="X416" s="1"/>
+      <c r="Y416" s="1"/>
+      <c r="Z416" s="1"/>
+      <c r="AA416" s="1"/>
+      <c r="AB416" s="1"/>
+      <c r="AC416" s="1"/>
+      <c r="AD416" s="1"/>
+      <c r="AE416" s="1"/>
+      <c r="AH416">
+        <f t="shared" ref="AH416:AI416" si="127">AH413</f>
+        <v>30</v>
+      </c>
+      <c r="AI416">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AT416">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW416" t="str">
+        <f t="shared" si="111"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="417" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1">
+        <v>1</v>
+      </c>
+      <c r="K417" s="1">
+        <v>1</v>
+      </c>
+      <c r="L417" s="1">
+        <v>1</v>
+      </c>
+      <c r="M417" s="1">
+        <v>1</v>
+      </c>
+      <c r="N417" s="1">
+        <v>1</v>
+      </c>
+      <c r="O417" s="1">
+        <v>1</v>
+      </c>
+      <c r="P417" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q417" s="1">
+        <v>1</v>
+      </c>
+      <c r="R417" s="1">
+        <v>1</v>
+      </c>
+      <c r="S417" s="1">
+        <v>1</v>
+      </c>
+      <c r="T417" s="1">
+        <v>1</v>
+      </c>
+      <c r="U417" s="1">
+        <v>1</v>
+      </c>
+      <c r="V417" s="1">
+        <v>1</v>
+      </c>
+      <c r="W417" s="1">
+        <v>1</v>
+      </c>
+      <c r="X417" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y417" s="1"/>
+      <c r="Z417" s="1"/>
+      <c r="AA417" s="1"/>
+      <c r="AB417" s="1"/>
+      <c r="AC417" s="1"/>
+      <c r="AD417" s="1"/>
+      <c r="AE417" s="1"/>
+      <c r="AH417">
+        <f t="shared" ref="AH417:AK417" si="128">AH414</f>
+        <v>8</v>
+      </c>
+      <c r="AI417">
+        <f t="shared" si="128"/>
+        <v>15</v>
+      </c>
+      <c r="AJ417">
+        <f t="shared" si="128"/>
+        <v>7</v>
+      </c>
+      <c r="AK417">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AT417">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW417" t="str">
+        <f t="shared" si="111"/>
+        <v>8,15,7,0</v>
+      </c>
+    </row>
+    <row r="418" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="H418" s="1"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1"/>
+      <c r="N418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="P418" s="1"/>
+      <c r="Q418" s="1"/>
+      <c r="R418" s="1"/>
+      <c r="S418" s="1"/>
+      <c r="T418" s="1"/>
+      <c r="U418" s="1"/>
+      <c r="V418" s="1"/>
+      <c r="W418" s="1"/>
+      <c r="X418" s="1"/>
+      <c r="Y418" s="1"/>
+      <c r="Z418" s="1"/>
+      <c r="AA418" s="1"/>
+      <c r="AB418" s="1"/>
+      <c r="AC418" s="1"/>
+      <c r="AD418" s="1"/>
+      <c r="AE418" s="1"/>
+      <c r="AH418">
+        <f t="shared" ref="AH418:AI418" si="129">AH415</f>
+        <v>30</v>
+      </c>
+      <c r="AI418">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AT418">
+        <f t="shared" si="110"/>
+        <v>30</v>
+      </c>
+      <c r="AW418" t="str">
+        <f t="shared" si="111"/>
+        <v>30,0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 A194:A214 AF194:AF214 A215:AF215 A216:B216 C216:AF217 A217 A218:AF222 F222:X223 A223:J223 L223:AF223 AH243:AM243 AH244:AK246 AL245:AM245 AI246:AM246 AJ247:AK247 AH247:AH255 AI248:AK252 AL251:AM251 AI253:AJ253 AI254:AI255 A224:AF288 Q321 B291:AE319 A289:B289 AF289:AF321 A290:A321 AH305:AM305 AH347:AI347 A322:AF1048576">
+  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 A194:A214 AF194:AF214 A215:AF215 A216:B216 C216:AF217 A217 A218:AF222 F222:X223 A223:J223 L223:AF223 A224:AF288 AH243:AM243 AH244:AK246 AL245:AM245 AI246:AM246 AJ247:AK247 AH247:AH255 AI248:AK252 AL251:AM251 AI253:AJ253 AI254:AI255 A289:B289 AF289:AF321 A290:A321 B291:AE319 Q321 AH347:AI347 A418:AF1048576 A322:AF404 A405:I417 Y405:AF417 B389:AE418">
     <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -34869,33 +36874,33 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C320:AE320">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AI46">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH258:AI266">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH269:AI277">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH305:AM306">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD46">
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C320:AE320">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH306:AM306">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/icon helper.xlsx
+++ b/icon helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f7f4011b2811a15/Documenten/Arduino/BKOS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3527" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5A1A7C-F728-467B-AC58-C4F5C8C560BE}"/>
+  <xr:revisionPtr revIDLastSave="3534" documentId="8_{E71812E1-E4B2-4A16-BF5D-1EED3CB7A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1656CCB2-1F91-4840-BF13-9F11B7DDCE41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
+    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{EB644C52-5EB8-4C3F-91B4-A03DCFFD6266}"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30FD981-21C0-46E6-A80E-F0D6C2605ECA}">
   <dimension ref="B1:EL418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW388" sqref="AW388"/>
+    <sheetView tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW193" sqref="AW193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="AW193" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,AW194:AW223)</f>
-        <v>19,1,10,0,30,0,18,1,1,1,9,0,17,2,1,1,9,0,16,3,1,2,8,0,15,4,1,2,8,0,14,5,1,3,7,0,13,6,1,3,7,0,12,7,1,4,6,0,11,8,1,4,6,0,10,9,1,5,5,0,9,10,1,5,5,0,8,11,1,6,4,0,7,12,1,6,4,0,6,13,1,7,3,0,5,14,1,7,3,0,4,15,1,8,2,0,3,16,1,8,2,0,2,17,1,9,1,0,1,18,1,9,1,0,0,19,1,10,0,0,30,0,0,30,1,28,1,0,1,27,2,0,1,26,3,0,2,24,4,0,2,23,5,0,3,21,6,0,30,0</v>
+        <v>19,1,10,0,30,0,20,1,9,0,17,1,2,1,9,0,16,2,2,2,8,0,15,3,2,2,8,0,14,4,2,3,7,0,13,5,2,3,7,0,12,6,2,4,6,0,11,7,2,4,6,0,10,8,2,5,5,0,9,9,2,5,5,0,8,10,2,6,4,0,7,11,2,6,4,0,6,12,2,7,3,0,5,13,2,7,3,0,4,14,2,8,2,0,3,15,2,8,2,0,2,16,2,9,1,0,1,17,2,9,1,0,0,18,2,10,0,0,30,0,0,30,1,28,1,0,1,27,2,0,1,26,3,0,2,24,4,0,2,23,5,0,3,21,6,0,30,0</v>
       </c>
     </row>
     <row r="194" spans="2:49" x14ac:dyDescent="0.25">
@@ -18872,6 +18872,10 @@
       </c>
       <c r="AK194">
         <v>0</v>
+      </c>
+      <c r="AT194">
+        <f t="shared" ref="AT194:AT223" si="68">SUM(AH194:AR194)</f>
+        <v>30</v>
       </c>
       <c r="AW194" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,AH194:AS194)</f>
@@ -18915,8 +18919,12 @@
       <c r="AI195">
         <v>0</v>
       </c>
+      <c r="AT195">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW195" t="str">
-        <f t="shared" ref="AW195:AW223" si="68">_xlfn.TEXTJOIN(",",TRUE,AH195:AS195)</f>
+        <f t="shared" ref="AW195:AW223" si="69">_xlfn.TEXTJOIN(",",TRUE,AH195:AS195)</f>
         <v>30,0</v>
       </c>
     </row>
@@ -18939,9 +18947,7 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="T196" s="1">
-        <v>1</v>
-      </c>
+      <c r="T196" s="1"/>
       <c r="U196" s="1"/>
       <c r="V196" s="1">
         <v>1</v>
@@ -18956,13 +18962,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
       <c r="AH196">
-        <v>18</v>
-      </c>
-      <c r="AI196">
-        <v>1</v>
-      </c>
-      <c r="AJ196">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AK196">
         <v>1</v>
@@ -18973,9 +18973,13 @@
       <c r="AM196">
         <v>0</v>
       </c>
+      <c r="AT196">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW196" t="str">
-        <f t="shared" si="68"/>
-        <v>18,1,1,1,9,0</v>
+        <f t="shared" si="69"/>
+        <v>20,1,9,0</v>
       </c>
     </row>
     <row r="197" spans="2:49" x14ac:dyDescent="0.25">
@@ -18999,9 +19003,7 @@
       <c r="S197" s="1">
         <v>1</v>
       </c>
-      <c r="T197" s="1">
-        <v>1</v>
-      </c>
+      <c r="T197" s="1"/>
       <c r="U197" s="1"/>
       <c r="V197" s="1">
         <v>1</v>
@@ -19016,15 +19018,14 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
       <c r="AH197">
-        <f>AH196-1</f>
         <v>17</v>
       </c>
       <c r="AI197">
         <f>AI196+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ197">
         <v>2</v>
-      </c>
-      <c r="AJ197">
-        <v>1</v>
       </c>
       <c r="AK197">
         <v>1</v>
@@ -19035,9 +19036,13 @@
       <c r="AM197">
         <v>0</v>
       </c>
+      <c r="AT197">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW197" t="str">
-        <f t="shared" si="68"/>
-        <v>17,2,1,1,9,0</v>
+        <f t="shared" si="69"/>
+        <v>17,1,2,1,9,0</v>
       </c>
     </row>
     <row r="198" spans="2:49" x14ac:dyDescent="0.25">
@@ -19063,9 +19068,7 @@
       <c r="S198" s="1">
         <v>1</v>
       </c>
-      <c r="T198" s="1">
-        <v>1</v>
-      </c>
+      <c r="T198" s="1"/>
       <c r="U198" s="1"/>
       <c r="V198" s="1">
         <v>1</v>
@@ -19082,16 +19085,16 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
       <c r="AH198">
-        <f t="shared" ref="AH198:AH214" si="69">AH197-1</f>
+        <f t="shared" ref="AH198:AH214" si="70">AH197-1</f>
         <v>16</v>
       </c>
       <c r="AI198">
-        <f t="shared" ref="AI198:AI214" si="70">AI197+1</f>
-        <v>3</v>
+        <f t="shared" ref="AI198:AI214" si="71">AI197+1</f>
+        <v>2</v>
       </c>
       <c r="AJ198">
         <f>AJ197</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK198">
         <f>AK196+1</f>
@@ -19105,9 +19108,13 @@
         <f>AM196</f>
         <v>0</v>
       </c>
+      <c r="AT198">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW198" t="str">
-        <f t="shared" si="68"/>
-        <v>16,3,1,2,8,0</v>
+        <f t="shared" si="69"/>
+        <v>16,2,2,2,8,0</v>
       </c>
     </row>
     <row r="199" spans="2:49" x14ac:dyDescent="0.25">
@@ -19135,9 +19142,7 @@
       <c r="S199" s="1">
         <v>1</v>
       </c>
-      <c r="T199" s="1">
-        <v>1</v>
-      </c>
+      <c r="T199" s="1"/>
       <c r="U199" s="1"/>
       <c r="V199" s="1">
         <v>1</v>
@@ -19154,32 +19159,36 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
       <c r="AH199">
+        <f t="shared" si="70"/>
+        <v>15</v>
+      </c>
+      <c r="AI199">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" ref="AJ199:AJ214" si="72">AJ198</f>
+        <v>2</v>
+      </c>
+      <c r="AK199">
+        <f t="shared" ref="AK199:AK214" si="73">AK197+1</f>
+        <v>2</v>
+      </c>
+      <c r="AL199">
+        <f t="shared" ref="AL199:AL214" si="74">AL197-1</f>
+        <v>8</v>
+      </c>
+      <c r="AM199">
+        <f t="shared" ref="AM199:AM214" si="75">AM197</f>
+        <v>0</v>
+      </c>
+      <c r="AT199">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW199" t="str">
         <f t="shared" si="69"/>
-        <v>15</v>
-      </c>
-      <c r="AI199">
-        <f t="shared" si="70"/>
-        <v>4</v>
-      </c>
-      <c r="AJ199">
-        <f t="shared" ref="AJ199:AJ214" si="71">AJ198</f>
-        <v>1</v>
-      </c>
-      <c r="AK199">
-        <f t="shared" ref="AK199:AK214" si="72">AK197+1</f>
-        <v>2</v>
-      </c>
-      <c r="AL199">
-        <f t="shared" ref="AL199:AL214" si="73">AL197-1</f>
-        <v>8</v>
-      </c>
-      <c r="AM199">
-        <f t="shared" ref="AM199:AM214" si="74">AM197</f>
-        <v>0</v>
-      </c>
-      <c r="AW199" t="str">
-        <f t="shared" si="68"/>
-        <v>15,4,1,2,8,0</v>
+        <v>15,3,2,2,8,0</v>
       </c>
     </row>
     <row r="200" spans="2:49" x14ac:dyDescent="0.25">
@@ -19209,9 +19218,7 @@
       <c r="S200" s="1">
         <v>1</v>
       </c>
-      <c r="T200" s="1">
-        <v>1</v>
-      </c>
+      <c r="T200" s="1"/>
       <c r="U200" s="1"/>
       <c r="V200" s="1">
         <v>1</v>
@@ -19230,32 +19237,36 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
       <c r="AH200">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="AI200">
+        <f t="shared" si="71"/>
+        <v>4</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK200">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="AL200">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="AM200">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT200">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW200" t="str">
         <f t="shared" si="69"/>
-        <v>14</v>
-      </c>
-      <c r="AI200">
-        <f t="shared" si="70"/>
-        <v>5</v>
-      </c>
-      <c r="AJ200">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK200">
-        <f t="shared" si="72"/>
-        <v>3</v>
-      </c>
-      <c r="AL200">
-        <f t="shared" si="73"/>
-        <v>7</v>
-      </c>
-      <c r="AM200">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW200" t="str">
-        <f t="shared" si="68"/>
-        <v>14,5,1,3,7,0</v>
+        <v>14,4,2,3,7,0</v>
       </c>
     </row>
     <row r="201" spans="2:49" x14ac:dyDescent="0.25">
@@ -19287,9 +19298,7 @@
       <c r="S201" s="1">
         <v>1</v>
       </c>
-      <c r="T201" s="1">
-        <v>1</v>
-      </c>
+      <c r="T201" s="1"/>
       <c r="U201" s="1"/>
       <c r="V201" s="1">
         <v>1</v>
@@ -19308,32 +19317,36 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
       <c r="AH201">
+        <f t="shared" si="70"/>
+        <v>13</v>
+      </c>
+      <c r="AI201">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="AJ201">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK201">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="AL201">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="AM201">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT201">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW201" t="str">
         <f t="shared" si="69"/>
-        <v>13</v>
-      </c>
-      <c r="AI201">
-        <f t="shared" si="70"/>
-        <v>6</v>
-      </c>
-      <c r="AJ201">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK201">
-        <f t="shared" si="72"/>
-        <v>3</v>
-      </c>
-      <c r="AL201">
-        <f t="shared" si="73"/>
-        <v>7</v>
-      </c>
-      <c r="AM201">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW201" t="str">
-        <f t="shared" si="68"/>
-        <v>13,6,1,3,7,0</v>
+        <v>13,5,2,3,7,0</v>
       </c>
     </row>
     <row r="202" spans="2:49" x14ac:dyDescent="0.25">
@@ -19367,9 +19380,7 @@
       <c r="S202" s="1">
         <v>1</v>
       </c>
-      <c r="T202" s="1">
-        <v>1</v>
-      </c>
+      <c r="T202" s="1"/>
       <c r="U202" s="1"/>
       <c r="V202" s="1">
         <v>1</v>
@@ -19390,32 +19401,36 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
       <c r="AH202">
+        <f t="shared" si="70"/>
+        <v>12</v>
+      </c>
+      <c r="AI202">
+        <f t="shared" si="71"/>
+        <v>6</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK202">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="AL202">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="AM202">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT202">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW202" t="str">
         <f t="shared" si="69"/>
-        <v>12</v>
-      </c>
-      <c r="AI202">
-        <f t="shared" si="70"/>
-        <v>7</v>
-      </c>
-      <c r="AJ202">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK202">
-        <f t="shared" si="72"/>
-        <v>4</v>
-      </c>
-      <c r="AL202">
-        <f t="shared" si="73"/>
-        <v>6</v>
-      </c>
-      <c r="AM202">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW202" t="str">
-        <f t="shared" si="68"/>
-        <v>12,7,1,4,6,0</v>
+        <v>12,6,2,4,6,0</v>
       </c>
     </row>
     <row r="203" spans="2:49" x14ac:dyDescent="0.25">
@@ -19451,9 +19466,7 @@
       <c r="S203" s="1">
         <v>1</v>
       </c>
-      <c r="T203" s="1">
-        <v>1</v>
-      </c>
+      <c r="T203" s="1"/>
       <c r="U203" s="1"/>
       <c r="V203" s="1">
         <v>1</v>
@@ -19474,32 +19487,36 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
       <c r="AH203">
+        <f t="shared" si="70"/>
+        <v>11</v>
+      </c>
+      <c r="AI203">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="AJ203">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK203">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="AL203">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="AM203">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT203">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW203" t="str">
         <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="AI203">
-        <f t="shared" si="70"/>
-        <v>8</v>
-      </c>
-      <c r="AJ203">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK203">
-        <f t="shared" si="72"/>
-        <v>4</v>
-      </c>
-      <c r="AL203">
-        <f t="shared" si="73"/>
-        <v>6</v>
-      </c>
-      <c r="AM203">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW203" t="str">
-        <f t="shared" si="68"/>
-        <v>11,8,1,4,6,0</v>
+        <v>11,7,2,4,6,0</v>
       </c>
     </row>
     <row r="204" spans="2:49" x14ac:dyDescent="0.25">
@@ -19537,9 +19554,7 @@
       <c r="S204" s="1">
         <v>1</v>
       </c>
-      <c r="T204" s="1">
-        <v>1</v>
-      </c>
+      <c r="T204" s="1"/>
       <c r="U204" s="1"/>
       <c r="V204" s="1">
         <v>1</v>
@@ -19562,32 +19577,36 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
       <c r="AH204">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>10</v>
       </c>
       <c r="AI204">
-        <f t="shared" si="70"/>
-        <v>9</v>
+        <f t="shared" si="71"/>
+        <v>8</v>
       </c>
       <c r="AJ204">
-        <f t="shared" si="71"/>
-        <v>1</v>
+        <f t="shared" si="72"/>
+        <v>2</v>
       </c>
       <c r="AK204">
-        <f t="shared" si="72"/>
-        <v>5</v>
-      </c>
-      <c r="AL204">
         <f t="shared" si="73"/>
         <v>5</v>
       </c>
+      <c r="AL204">
+        <f t="shared" si="74"/>
+        <v>5</v>
+      </c>
       <c r="AM204">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT204">
+        <f t="shared" si="68"/>
+        <v>30</v>
       </c>
       <c r="AW204" t="str">
-        <f t="shared" si="68"/>
-        <v>10,9,1,5,5,0</v>
+        <f t="shared" si="69"/>
+        <v>10,8,2,5,5,0</v>
       </c>
     </row>
     <row r="205" spans="2:49" x14ac:dyDescent="0.25">
@@ -19627,9 +19646,7 @@
       <c r="S205" s="1">
         <v>1</v>
       </c>
-      <c r="T205" s="1">
-        <v>1</v>
-      </c>
+      <c r="T205" s="1"/>
       <c r="U205" s="1"/>
       <c r="V205" s="1">
         <v>1</v>
@@ -19652,32 +19669,36 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
       <c r="AH205">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>9</v>
       </c>
       <c r="AI205">
-        <f t="shared" si="70"/>
-        <v>10</v>
+        <f t="shared" si="71"/>
+        <v>9</v>
       </c>
       <c r="AJ205">
-        <f t="shared" si="71"/>
-        <v>1</v>
+        <f t="shared" si="72"/>
+        <v>2</v>
       </c>
       <c r="AK205">
-        <f t="shared" si="72"/>
-        <v>5</v>
-      </c>
-      <c r="AL205">
         <f t="shared" si="73"/>
         <v>5</v>
       </c>
+      <c r="AL205">
+        <f t="shared" si="74"/>
+        <v>5</v>
+      </c>
       <c r="AM205">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT205">
+        <f t="shared" si="68"/>
+        <v>30</v>
       </c>
       <c r="AW205" t="str">
-        <f t="shared" si="68"/>
-        <v>9,10,1,5,5,0</v>
+        <f t="shared" si="69"/>
+        <v>9,9,2,5,5,0</v>
       </c>
     </row>
     <row r="206" spans="2:49" x14ac:dyDescent="0.25">
@@ -19719,9 +19740,7 @@
       <c r="S206" s="1">
         <v>1</v>
       </c>
-      <c r="T206" s="1">
-        <v>1</v>
-      </c>
+      <c r="T206" s="1"/>
       <c r="U206" s="1"/>
       <c r="V206" s="1">
         <v>1</v>
@@ -19746,32 +19765,36 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
       <c r="AH206">
+        <f t="shared" si="70"/>
+        <v>8</v>
+      </c>
+      <c r="AI206">
+        <f t="shared" si="71"/>
+        <v>10</v>
+      </c>
+      <c r="AJ206">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK206">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="AL206">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="AM206">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT206">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW206" t="str">
         <f t="shared" si="69"/>
-        <v>8</v>
-      </c>
-      <c r="AI206">
-        <f t="shared" si="70"/>
-        <v>11</v>
-      </c>
-      <c r="AJ206">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK206">
-        <f t="shared" si="72"/>
-        <v>6</v>
-      </c>
-      <c r="AL206">
-        <f t="shared" si="73"/>
-        <v>4</v>
-      </c>
-      <c r="AM206">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW206" t="str">
-        <f t="shared" si="68"/>
-        <v>8,11,1,6,4,0</v>
+        <v>8,10,2,6,4,0</v>
       </c>
     </row>
     <row r="207" spans="2:49" x14ac:dyDescent="0.25">
@@ -19815,9 +19838,7 @@
       <c r="S207" s="1">
         <v>1</v>
       </c>
-      <c r="T207" s="1">
-        <v>1</v>
-      </c>
+      <c r="T207" s="1"/>
       <c r="U207" s="1"/>
       <c r="V207" s="1">
         <v>1</v>
@@ -19842,32 +19863,36 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
       <c r="AH207">
+        <f t="shared" si="70"/>
+        <v>7</v>
+      </c>
+      <c r="AI207">
+        <f t="shared" si="71"/>
+        <v>11</v>
+      </c>
+      <c r="AJ207">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK207">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="AL207">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="AM207">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT207">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW207" t="str">
         <f t="shared" si="69"/>
-        <v>7</v>
-      </c>
-      <c r="AI207">
-        <f t="shared" si="70"/>
-        <v>12</v>
-      </c>
-      <c r="AJ207">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK207">
-        <f t="shared" si="72"/>
-        <v>6</v>
-      </c>
-      <c r="AL207">
-        <f t="shared" si="73"/>
-        <v>4</v>
-      </c>
-      <c r="AM207">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW207" t="str">
-        <f t="shared" si="68"/>
-        <v>7,12,1,6,4,0</v>
+        <v>7,11,2,6,4,0</v>
       </c>
     </row>
     <row r="208" spans="2:49" x14ac:dyDescent="0.25">
@@ -19913,9 +19938,7 @@
       <c r="S208" s="1">
         <v>1</v>
       </c>
-      <c r="T208" s="1">
-        <v>1</v>
-      </c>
+      <c r="T208" s="1"/>
       <c r="U208" s="1"/>
       <c r="V208" s="1">
         <v>1</v>
@@ -19942,32 +19965,36 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
       <c r="AH208">
+        <f t="shared" si="70"/>
+        <v>6</v>
+      </c>
+      <c r="AI208">
+        <f t="shared" si="71"/>
+        <v>12</v>
+      </c>
+      <c r="AJ208">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK208">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="AL208">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="AM208">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT208">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW208" t="str">
         <f t="shared" si="69"/>
-        <v>6</v>
-      </c>
-      <c r="AI208">
-        <f t="shared" si="70"/>
-        <v>13</v>
-      </c>
-      <c r="AJ208">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK208">
-        <f t="shared" si="72"/>
-        <v>7</v>
-      </c>
-      <c r="AL208">
-        <f t="shared" si="73"/>
-        <v>3</v>
-      </c>
-      <c r="AM208">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW208" t="str">
-        <f t="shared" si="68"/>
-        <v>6,13,1,7,3,0</v>
+        <v>6,12,2,7,3,0</v>
       </c>
     </row>
     <row r="209" spans="2:49" x14ac:dyDescent="0.25">
@@ -20015,9 +20042,7 @@
       <c r="S209" s="1">
         <v>1</v>
       </c>
-      <c r="T209" s="1">
-        <v>1</v>
-      </c>
+      <c r="T209" s="1"/>
       <c r="U209" s="1"/>
       <c r="V209" s="1">
         <v>1</v>
@@ -20044,32 +20069,36 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
       <c r="AH209">
+        <f t="shared" si="70"/>
+        <v>5</v>
+      </c>
+      <c r="AI209">
+        <f t="shared" si="71"/>
+        <v>13</v>
+      </c>
+      <c r="AJ209">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK209">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="AL209">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="AM209">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT209">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW209" t="str">
         <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="AI209">
-        <f t="shared" si="70"/>
-        <v>14</v>
-      </c>
-      <c r="AJ209">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK209">
-        <f t="shared" si="72"/>
-        <v>7</v>
-      </c>
-      <c r="AL209">
-        <f t="shared" si="73"/>
-        <v>3</v>
-      </c>
-      <c r="AM209">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW209" t="str">
-        <f t="shared" si="68"/>
-        <v>5,14,1,7,3,0</v>
+        <v>5,13,2,7,3,0</v>
       </c>
     </row>
     <row r="210" spans="2:49" x14ac:dyDescent="0.25">
@@ -20119,9 +20148,7 @@
       <c r="S210" s="1">
         <v>1</v>
       </c>
-      <c r="T210" s="1">
-        <v>1</v>
-      </c>
+      <c r="T210" s="1"/>
       <c r="U210" s="1"/>
       <c r="V210" s="1">
         <v>1</v>
@@ -20150,32 +20177,36 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
       <c r="AH210">
+        <f t="shared" si="70"/>
+        <v>4</v>
+      </c>
+      <c r="AI210">
+        <f t="shared" si="71"/>
+        <v>14</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK210">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="AL210">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="AM210">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT210">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW210" t="str">
         <f t="shared" si="69"/>
-        <v>4</v>
-      </c>
-      <c r="AI210">
-        <f t="shared" si="70"/>
-        <v>15</v>
-      </c>
-      <c r="AJ210">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK210">
-        <f t="shared" si="72"/>
-        <v>8</v>
-      </c>
-      <c r="AL210">
-        <f t="shared" si="73"/>
-        <v>2</v>
-      </c>
-      <c r="AM210">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW210" t="str">
-        <f t="shared" si="68"/>
-        <v>4,15,1,8,2,0</v>
+        <v>4,14,2,8,2,0</v>
       </c>
     </row>
     <row r="211" spans="2:49" x14ac:dyDescent="0.25">
@@ -20227,9 +20258,7 @@
       <c r="S211" s="1">
         <v>1</v>
       </c>
-      <c r="T211" s="1">
-        <v>1</v>
-      </c>
+      <c r="T211" s="1"/>
       <c r="U211" s="1"/>
       <c r="V211" s="1">
         <v>1</v>
@@ -20258,32 +20287,36 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
       <c r="AH211">
+        <f t="shared" si="70"/>
+        <v>3</v>
+      </c>
+      <c r="AI211">
+        <f t="shared" si="71"/>
+        <v>15</v>
+      </c>
+      <c r="AJ211">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK211">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="AL211">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="AM211">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT211">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW211" t="str">
         <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="AI211">
-        <f t="shared" si="70"/>
-        <v>16</v>
-      </c>
-      <c r="AJ211">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK211">
-        <f t="shared" si="72"/>
-        <v>8</v>
-      </c>
-      <c r="AL211">
-        <f t="shared" si="73"/>
-        <v>2</v>
-      </c>
-      <c r="AM211">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW211" t="str">
-        <f t="shared" si="68"/>
-        <v>3,16,1,8,2,0</v>
+        <v>3,15,2,8,2,0</v>
       </c>
     </row>
     <row r="212" spans="2:49" x14ac:dyDescent="0.25">
@@ -20337,9 +20370,7 @@
       <c r="S212" s="1">
         <v>1</v>
       </c>
-      <c r="T212" s="1">
-        <v>1</v>
-      </c>
+      <c r="T212" s="1"/>
       <c r="U212" s="1"/>
       <c r="V212" s="1">
         <v>1</v>
@@ -20370,32 +20401,36 @@
       </c>
       <c r="AE212" s="1"/>
       <c r="AH212">
+        <f t="shared" si="70"/>
+        <v>2</v>
+      </c>
+      <c r="AI212">
+        <f t="shared" si="71"/>
+        <v>16</v>
+      </c>
+      <c r="AJ212">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK212">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="AL212">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AM212">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT212">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW212" t="str">
         <f t="shared" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="AI212">
-        <f t="shared" si="70"/>
-        <v>17</v>
-      </c>
-      <c r="AJ212">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK212">
-        <f t="shared" si="72"/>
-        <v>9</v>
-      </c>
-      <c r="AL212">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="AM212">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW212" t="str">
-        <f t="shared" si="68"/>
-        <v>2,17,1,9,1,0</v>
+        <v>2,16,2,9,1,0</v>
       </c>
     </row>
     <row r="213" spans="2:49" x14ac:dyDescent="0.25">
@@ -20451,9 +20486,7 @@
       <c r="S213" s="1">
         <v>1</v>
       </c>
-      <c r="T213" s="1">
-        <v>1</v>
-      </c>
+      <c r="T213" s="1"/>
       <c r="U213" s="1"/>
       <c r="V213" s="1">
         <v>1</v>
@@ -20484,32 +20517,36 @@
       </c>
       <c r="AE213" s="1"/>
       <c r="AH213">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="AI213">
+        <f t="shared" si="71"/>
+        <v>17</v>
+      </c>
+      <c r="AJ213">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+      <c r="AL213">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AM213">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT213">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW213" t="str">
         <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="AI213">
-        <f t="shared" si="70"/>
-        <v>18</v>
-      </c>
-      <c r="AJ213">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK213">
-        <f t="shared" si="72"/>
-        <v>9</v>
-      </c>
-      <c r="AL213">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="AM213">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW213" t="str">
-        <f t="shared" si="68"/>
-        <v>1,18,1,9,1,0</v>
+        <v>1,17,2,9,1,0</v>
       </c>
     </row>
     <row r="214" spans="2:49" x14ac:dyDescent="0.25">
@@ -20567,9 +20604,7 @@
       <c r="S214" s="1">
         <v>1</v>
       </c>
-      <c r="T214" s="1">
-        <v>1</v>
-      </c>
+      <c r="T214" s="1"/>
       <c r="U214" s="1"/>
       <c r="V214" s="1">
         <v>1</v>
@@ -20602,32 +20637,36 @@
         <v>1</v>
       </c>
       <c r="AH214">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <f t="shared" si="71"/>
+        <v>18</v>
+      </c>
+      <c r="AJ214">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="AK214">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="AL214">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AT214">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="AW214" t="str">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AI214">
-        <f t="shared" si="70"/>
-        <v>19</v>
-      </c>
-      <c r="AJ214">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK214">
-        <f t="shared" si="72"/>
-        <v>10</v>
-      </c>
-      <c r="AL214">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="AM214">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AW214" t="str">
-        <f t="shared" si="68"/>
-        <v>0,19,1,10,0,0</v>
+        <v>0,18,2,10,0,0</v>
       </c>
     </row>
     <row r="215" spans="2:49" x14ac:dyDescent="0.25">
@@ -20667,8 +20706,12 @@
       <c r="AI215">
         <v>0</v>
       </c>
+      <c r="AT215">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW215" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30,0</v>
       </c>
     </row>
@@ -20769,8 +20812,12 @@
       <c r="AI216">
         <v>30</v>
       </c>
+      <c r="AT216">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW216" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0,30</v>
       </c>
     </row>
@@ -20872,8 +20919,12 @@
       <c r="AK217">
         <v>0</v>
       </c>
+      <c r="AT217">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW217" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1,28,1,0</v>
       </c>
     </row>
@@ -20974,8 +21025,12 @@
       <c r="AK218">
         <v>0</v>
       </c>
+      <c r="AT218">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW218" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1,27,2,0</v>
       </c>
     </row>
@@ -21074,8 +21129,12 @@
       <c r="AK219">
         <v>0</v>
       </c>
+      <c r="AT219">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW219" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1,26,3,0</v>
       </c>
     </row>
@@ -21170,8 +21229,12 @@
       <c r="AK220">
         <v>0</v>
       </c>
+      <c r="AT220">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW220" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2,24,4,0</v>
       </c>
     </row>
@@ -21264,8 +21327,12 @@
       <c r="AK221">
         <v>0</v>
       </c>
+      <c r="AT221">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW221" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2,23,5,0</v>
       </c>
     </row>
@@ -21354,8 +21421,12 @@
       <c r="AK222">
         <v>0</v>
       </c>
+      <c r="AT222">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW222" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3,21,6,0</v>
       </c>
     </row>
@@ -21396,8 +21467,12 @@
       <c r="AI223">
         <v>0</v>
       </c>
+      <c r="AT223">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
       <c r="AW223" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30,0</v>
       </c>
     </row>
@@ -21521,11 +21596,11 @@
         <v>0</v>
       </c>
       <c r="AT227">
-        <f t="shared" ref="AT227:AT255" si="75">SUM(AH227:AR227)</f>
+        <f t="shared" ref="AT227:AT255" si="76">SUM(AH227:AR227)</f>
         <v>30</v>
       </c>
       <c r="AW227" t="str">
-        <f t="shared" ref="AW227:AW255" si="76">_xlfn.TEXTJOIN(",",TRUE,AH227:AS227)</f>
+        <f t="shared" ref="AW227:AW255" si="77">_xlfn.TEXTJOIN(",",TRUE,AH227:AS227)</f>
         <v>30,0</v>
       </c>
     </row>
@@ -21577,11 +21652,11 @@
         <v>0</v>
       </c>
       <c r="AT228">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW228" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>18,2,10,0</v>
       </c>
     </row>
@@ -21644,11 +21719,11 @@
         <v>0</v>
       </c>
       <c r="AT229">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW229" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>16,6,8,0</v>
       </c>
     </row>
@@ -21717,11 +21792,11 @@
         <v>0</v>
       </c>
       <c r="AT230">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW230" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14,9,7,0</v>
       </c>
     </row>
@@ -21793,11 +21868,11 @@
         <v>0</v>
       </c>
       <c r="AT231">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW231" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12,11,7,0</v>
       </c>
     </row>
@@ -21870,11 +21945,11 @@
         <v>0</v>
       </c>
       <c r="AT232">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW232" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11,11,8,0</v>
       </c>
     </row>
@@ -21942,11 +22017,11 @@
         <v>0</v>
       </c>
       <c r="AT233">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW233" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11,10,9,0</v>
       </c>
     </row>
@@ -22010,11 +22085,11 @@
         <v>0</v>
       </c>
       <c r="AT234">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW234" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12,8,10,0</v>
       </c>
     </row>
@@ -22076,11 +22151,11 @@
         <v>0</v>
       </c>
       <c r="AT235">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW235" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12,7,11,0</v>
       </c>
     </row>
@@ -22140,11 +22215,11 @@
         <v>0</v>
       </c>
       <c r="AT236">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW236" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13,6,11,0</v>
       </c>
     </row>
@@ -22202,11 +22277,11 @@
         <v>0</v>
       </c>
       <c r="AT237">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW237" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13,5,12,0</v>
       </c>
     </row>
@@ -22262,11 +22337,11 @@
         <v>0</v>
       </c>
       <c r="AT238">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW238" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14,4,12,0</v>
       </c>
     </row>
@@ -22320,11 +22395,11 @@
         <v>0</v>
       </c>
       <c r="AT239">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW239" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14,3,13,0</v>
       </c>
     </row>
@@ -22382,11 +22457,11 @@
         <v>0</v>
       </c>
       <c r="AT240">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW240" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13,1,2,1,13,0</v>
       </c>
     </row>
@@ -22460,11 +22535,11 @@
         <v>0</v>
       </c>
       <c r="AT241">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW241" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12,1,4,1,5,5,2,0</v>
       </c>
     </row>
@@ -22556,11 +22631,11 @@
         <v>0</v>
       </c>
       <c r="AT242">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW242" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11,1,2,2,2,1,1,9,1,0</v>
       </c>
     </row>
@@ -22644,11 +22719,11 @@
         <v>12</v>
       </c>
       <c r="AT243">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW243" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11,1,2,2,2,12</v>
       </c>
     </row>
@@ -22744,11 +22819,11 @@
         <v>13</v>
       </c>
       <c r="AT244">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW244" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2,11,4,13</v>
       </c>
     </row>
@@ -22854,11 +22929,11 @@
         <v>12</v>
       </c>
       <c r="AT245">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW245" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1,13,2,1,1,12</v>
       </c>
     </row>
@@ -22964,11 +23039,11 @@
         <v>11</v>
       </c>
       <c r="AT246">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW246" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0,13,1,2,3,11</v>
       </c>
     </row>
@@ -23061,11 +23136,11 @@
         <v>10</v>
       </c>
       <c r="AT247">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW247" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0,12,8,10</v>
       </c>
     </row>
@@ -23153,11 +23228,11 @@
         <v>9</v>
       </c>
       <c r="AT248">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW248" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0,11,10,9</v>
       </c>
     </row>
@@ -23237,11 +23312,11 @@
         <v>7</v>
       </c>
       <c r="AT249">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW249" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1,9,13,7</v>
       </c>
     </row>
@@ -23317,11 +23392,11 @@
         <v>6</v>
       </c>
       <c r="AT250">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW250" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1,8,15,6</v>
       </c>
     </row>
@@ -23393,11 +23468,11 @@
         <v>0</v>
       </c>
       <c r="AT251">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW251" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2,6,18,3,1,0</v>
       </c>
     </row>
@@ -23455,11 +23530,11 @@
         <v>0</v>
       </c>
       <c r="AT252">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW252" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2,6,22,0</v>
       </c>
     </row>
@@ -23510,11 +23585,11 @@
         <v>23</v>
       </c>
       <c r="AT253">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW253" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3,4,23</v>
       </c>
     </row>
@@ -23556,11 +23631,11 @@
         <v>0</v>
       </c>
       <c r="AT254">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW254" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>30,0</v>
       </c>
     </row>
@@ -23602,11 +23677,11 @@
         <v>0</v>
       </c>
       <c r="AT255">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="AW255" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>30,0</v>
       </c>
     </row>
@@ -23710,11 +23785,11 @@
         <v>0</v>
       </c>
       <c r="AT259">
-        <f t="shared" ref="AT259:AT287" si="77">SUM(AH259:AR259)</f>
+        <f t="shared" ref="AT259:AT287" si="78">SUM(AH259:AR259)</f>
         <v>30</v>
       </c>
       <c r="AW259" t="str">
-        <f t="shared" ref="AW259:AW287" si="78">_xlfn.TEXTJOIN(",",TRUE,AH259:AS259)</f>
+        <f t="shared" ref="AW259:AW287" si="79">_xlfn.TEXTJOIN(",",TRUE,AH259:AS259)</f>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -23770,11 +23845,11 @@
         <v>0</v>
       </c>
       <c r="AT260">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW260" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>13,4,13,0</v>
       </c>
     </row>
@@ -23836,11 +23911,11 @@
         <v>0</v>
       </c>
       <c r="AT261">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW261" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>12,2,2,2,12,0</v>
       </c>
     </row>
@@ -23902,11 +23977,11 @@
         <v>0</v>
       </c>
       <c r="AT262">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW262" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>12,2,2,2,12,0</v>
       </c>
     </row>
@@ -23962,11 +24037,11 @@
         <v>0</v>
       </c>
       <c r="AT263">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW263" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>13,4,13,0</v>
       </c>
     </row>
@@ -24018,11 +24093,11 @@
         <v>0</v>
       </c>
       <c r="AT264">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW264" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24074,11 +24149,11 @@
         <v>0</v>
       </c>
       <c r="AT265">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW265" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24130,11 +24205,11 @@
         <v>0</v>
       </c>
       <c r="AT266">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW266" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24206,11 +24281,11 @@
         <v>0</v>
       </c>
       <c r="AT267">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW267" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9,12,9,0</v>
       </c>
     </row>
@@ -24282,11 +24357,11 @@
         <v>0</v>
       </c>
       <c r="AT268">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW268" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9,12,9,0</v>
       </c>
     </row>
@@ -24338,11 +24413,11 @@
         <v>0</v>
       </c>
       <c r="AT269">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW269" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24394,11 +24469,11 @@
         <v>0</v>
       </c>
       <c r="AT270">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW270" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24450,11 +24525,11 @@
         <v>0</v>
       </c>
       <c r="AT271">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW271" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24506,11 +24581,11 @@
         <v>0</v>
       </c>
       <c r="AT272">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW272" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24562,11 +24637,11 @@
         <v>0</v>
       </c>
       <c r="AT273">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW273" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24618,11 +24693,11 @@
         <v>0</v>
       </c>
       <c r="AT274">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW274" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24674,11 +24749,11 @@
         <v>0</v>
       </c>
       <c r="AT275">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW275" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24738,11 +24813,11 @@
         <v>0</v>
       </c>
       <c r="AT276">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW276" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24802,11 +24877,11 @@
         <v>0</v>
       </c>
       <c r="AT277">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW277" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14,2,14,0</v>
       </c>
     </row>
@@ -24878,11 +24953,11 @@
         <v>0</v>
       </c>
       <c r="AT278">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW278" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3,2,9,2,9,2,3,0</v>
       </c>
     </row>
@@ -24954,11 +25029,11 @@
         <v>0</v>
       </c>
       <c r="AT279">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW279" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3,2,9,2,9,2,3,0</v>
       </c>
     </row>
@@ -25034,11 +25109,11 @@
         <v>0</v>
       </c>
       <c r="AT280">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW280" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3,3,8,2,8,3,3,0</v>
       </c>
     </row>
@@ -25110,11 +25185,11 @@
         <v>0</v>
       </c>
       <c r="AT281">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW281" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4,2,8,2,8,2,4,0</v>
       </c>
     </row>
@@ -25190,11 +25265,11 @@
         <v>0</v>
       </c>
       <c r="AT282">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW282" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4,3,7,2,7,3,4,0</v>
       </c>
     </row>
@@ -25270,11 +25345,11 @@
         <v>0</v>
       </c>
       <c r="AT283">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW283" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5,3,6,2,6,3,5,0</v>
       </c>
     </row>
@@ -25354,11 +25429,11 @@
         <v>0</v>
       </c>
       <c r="AT284">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW284" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6,4,4,2,4,4,6,0</v>
       </c>
     </row>
@@ -25442,11 +25517,11 @@
         <v>0</v>
       </c>
       <c r="AT285">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW285" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7,5,2,2,2,5,7,0</v>
       </c>
     </row>
@@ -25518,11 +25593,11 @@
         <v>0</v>
       </c>
       <c r="AT286">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW286" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9,12,9,0</v>
       </c>
     </row>
@@ -25586,11 +25661,11 @@
         <v>0</v>
       </c>
       <c r="AT287">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="AW287" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7,16,7,0</v>
       </c>
     </row>
@@ -25806,11 +25881,11 @@
         <v>0</v>
       </c>
       <c r="AT292">
-        <f t="shared" ref="AT292:AT320" si="79">SUM(AH292:AR292)</f>
+        <f t="shared" ref="AT292:AT320" si="80">SUM(AH292:AR292)</f>
         <v>30</v>
       </c>
       <c r="AW292" t="str">
-        <f t="shared" ref="AW292:AW320" si="80">_xlfn.TEXTJOIN(",",TRUE,AH292:AS292)</f>
+        <f t="shared" ref="AW292:AW320" si="81">_xlfn.TEXTJOIN(",",TRUE,AH292:AS292)</f>
         <v>9,1,4,1,5,1,9,0</v>
       </c>
     </row>
@@ -25876,11 +25951,11 @@
         <v>0</v>
       </c>
       <c r="AT293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW293" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10,1,3,1,4,1,10,0</v>
       </c>
     </row>
@@ -25966,7 +26041,7 @@
         <v>30</v>
       </c>
       <c r="AW294" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3,1,6,1,3,1,4,1,6,1,3,0</v>
       </c>
     </row>
@@ -26052,7 +26127,7 @@
         <v>30</v>
       </c>
       <c r="AW295" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4,1,6,1,2,1,3,1,6,1,4,0</v>
       </c>
     </row>
@@ -26126,11 +26201,11 @@
         <v>0</v>
       </c>
       <c r="AT296">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW296" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5,1,5,1,6,1,5,1,5,0</v>
       </c>
     </row>
@@ -26188,11 +26263,11 @@
         <v>0</v>
       </c>
       <c r="AT297">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW297" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6,1,16,1,6,0</v>
       </c>
     </row>
@@ -26264,11 +26339,11 @@
         <v>0</v>
       </c>
       <c r="AT298">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW298" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7,1,5,4,5,1,7,0</v>
       </c>
     </row>
@@ -26332,11 +26407,11 @@
         <v>0</v>
       </c>
       <c r="AT299">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW299" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>11,8,11,0</v>
       </c>
     </row>
@@ -26418,11 +26493,11 @@
         <v>2</v>
       </c>
       <c r="AT300">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW300" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0,2,8,10,8,2</v>
       </c>
     </row>
@@ -26514,11 +26589,11 @@
         <v>0</v>
       </c>
       <c r="AT301">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW301" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2,2,5,12,5,2,2,0</v>
       </c>
     </row>
@@ -26614,11 +26689,11 @@
         <v>0</v>
       </c>
       <c r="AT302">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW302" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4,2,2,14,2,2,4,0</v>
       </c>
     </row>
@@ -26694,11 +26769,11 @@
         <v>0</v>
       </c>
       <c r="AT303">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW303" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>8,14,8,0</v>
       </c>
     </row>
@@ -26778,11 +26853,11 @@
         <v>0</v>
       </c>
       <c r="AT304">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW304" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7,16,7,0</v>
       </c>
     </row>
@@ -26874,11 +26949,11 @@
       <c r="AL305" s="1"/>
       <c r="AM305" s="1"/>
       <c r="AT305">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW305" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7,16,2,5</v>
       </c>
     </row>
@@ -26974,11 +27049,11 @@
         <v>0</v>
       </c>
       <c r="AT306">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW306" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0,5,2,16,7,0</v>
       </c>
     </row>
@@ -27058,11 +27133,11 @@
         <v>0</v>
       </c>
       <c r="AT307">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW307" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7,16,7,0</v>
       </c>
     </row>
@@ -27138,11 +27213,11 @@
         <v>0</v>
       </c>
       <c r="AT308">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW308" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>8,14,8,0</v>
       </c>
     </row>
@@ -27238,11 +27313,11 @@
         <v>0</v>
       </c>
       <c r="AT309">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW309" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4,2,2,14,2,2,4,0</v>
       </c>
     </row>
@@ -27334,11 +27409,11 @@
         <v>0</v>
       </c>
       <c r="AT310">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW310" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2,2,5,12,5,2,2,0</v>
       </c>
     </row>
@@ -27420,11 +27495,11 @@
         <v>2</v>
       </c>
       <c r="AT311">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW311" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0,2,8,10,8,2</v>
       </c>
     </row>
@@ -27488,11 +27563,11 @@
         <v>0</v>
       </c>
       <c r="AT312">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW312" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>11,8,11,0</v>
       </c>
     </row>
@@ -27564,11 +27639,11 @@
         <v>0</v>
       </c>
       <c r="AT313">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW313" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7,1,5,4,5,1,7,0</v>
       </c>
     </row>
@@ -27626,11 +27701,11 @@
         <v>0</v>
       </c>
       <c r="AT314">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW314" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6,1,16,1,6,0</v>
       </c>
     </row>
@@ -27704,11 +27779,11 @@
         <v>0</v>
       </c>
       <c r="AT315">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW315" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5,1,5,1,6,1,5,1,5,0</v>
       </c>
     </row>
@@ -27790,11 +27865,11 @@
         <v>0</v>
       </c>
       <c r="AT316">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW316" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4,1,6,1,3,1,2,1,6,1,4,0</v>
       </c>
     </row>
@@ -27874,11 +27949,11 @@
         <v>0</v>
       </c>
       <c r="AT317">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW317" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3,1,6,1,4,1,3,1,6,1,3,0</v>
       </c>
     </row>
@@ -27944,11 +28019,11 @@
         <v>0</v>
       </c>
       <c r="AT318">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW318" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10,1,4,1,3,1,10,0</v>
       </c>
     </row>
@@ -28014,11 +28089,11 @@
         <v>0</v>
       </c>
       <c r="AT319">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW319" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9,1,5,1,4,1,9,0</v>
       </c>
     </row>
@@ -28083,11 +28158,11 @@
         <v>0</v>
       </c>
       <c r="AT320">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="AW320" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9,1,5,1,4,1,9,0</v>
       </c>
     </row>
@@ -28220,11 +28295,11 @@
         <v>0</v>
       </c>
       <c r="AT325">
-        <f t="shared" ref="AT325:AT326" si="81">SUM(AH325:AR325)</f>
+        <f t="shared" ref="AT325:AT326" si="82">SUM(AH325:AR325)</f>
         <v>30</v>
       </c>
       <c r="AW325" t="str">
-        <f t="shared" ref="AW325:AW353" si="82">_xlfn.TEXTJOIN(",",TRUE,AH325:AS325)</f>
+        <f t="shared" ref="AW325:AW353" si="83">_xlfn.TEXTJOIN(",",TRUE,AH325:AS325)</f>
         <v>30,0</v>
       </c>
     </row>
@@ -28266,11 +28341,11 @@
         <v>0</v>
       </c>
       <c r="AT326">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>30</v>
       </c>
       <c r="AW326" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>30,0</v>
       </c>
     </row>
@@ -28359,7 +28434,7 @@
         <v>30</v>
       </c>
       <c r="AW327" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>6,18,6,0</v>
       </c>
     </row>
@@ -28421,7 +28496,7 @@
         <v>30</v>
       </c>
       <c r="AW328" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>5,1,18,1,5,0</v>
       </c>
     </row>
@@ -28479,11 +28554,11 @@
         <v>0</v>
       </c>
       <c r="AT329">
-        <f t="shared" ref="AT329:AT353" si="83">SUM(AH329:AR329)</f>
+        <f t="shared" ref="AT329:AT353" si="84">SUM(AH329:AR329)</f>
         <v>30</v>
       </c>
       <c r="AW329" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4,1,20,1,4,0</v>
       </c>
     </row>
@@ -28541,11 +28616,11 @@
         <v>0</v>
       </c>
       <c r="AT330">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW330" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW330" t="str">
-        <f t="shared" si="82"/>
         <v>4,1,20,1,4,0</v>
       </c>
     </row>
@@ -28603,11 +28678,11 @@
         <v>0</v>
       </c>
       <c r="AT331">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW331" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW331" t="str">
-        <f t="shared" si="82"/>
         <v>5,1,18,1,5,0</v>
       </c>
     </row>
@@ -28692,11 +28767,11 @@
         <v>0</v>
       </c>
       <c r="AT332">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW332" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW332" t="str">
-        <f t="shared" si="82"/>
         <v>6,18,6,0</v>
       </c>
     </row>
@@ -28754,11 +28829,11 @@
         <v>0</v>
       </c>
       <c r="AT333">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW333" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW333" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -28816,11 +28891,11 @@
         <v>0</v>
       </c>
       <c r="AT334">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW334" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW334" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -28878,11 +28953,11 @@
         <v>0</v>
       </c>
       <c r="AT335">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW335" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW335" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -28940,11 +29015,11 @@
         <v>0</v>
       </c>
       <c r="AT336">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW336" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW336" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29002,11 +29077,11 @@
         <v>0</v>
       </c>
       <c r="AT337">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW337" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW337" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29064,11 +29139,11 @@
         <v>0</v>
       </c>
       <c r="AT338">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW338" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW338" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29126,11 +29201,11 @@
         <v>0</v>
       </c>
       <c r="AT339">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW339" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW339" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29188,11 +29263,11 @@
         <v>0</v>
       </c>
       <c r="AT340">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW340" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW340" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29250,11 +29325,11 @@
         <v>0</v>
       </c>
       <c r="AT341">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW341" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW341" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29312,11 +29387,11 @@
         <v>0</v>
       </c>
       <c r="AT342">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW342" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW342" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29374,11 +29449,11 @@
         <v>0</v>
       </c>
       <c r="AT343">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW343" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW343" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29436,11 +29511,11 @@
         <v>0</v>
       </c>
       <c r="AT344">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW344" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW344" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29498,11 +29573,11 @@
         <v>0</v>
       </c>
       <c r="AT345">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW345" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW345" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29560,11 +29635,11 @@
         <v>0</v>
       </c>
       <c r="AT346">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW346" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW346" t="str">
-        <f t="shared" si="82"/>
         <v>9,1,10,1,9,0</v>
       </c>
     </row>
@@ -29666,11 +29741,11 @@
         <v>30</v>
       </c>
       <c r="AT347">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW347" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW347" t="str">
-        <f t="shared" si="82"/>
         <v>0,30</v>
       </c>
     </row>
@@ -29712,11 +29787,11 @@
         <v>0</v>
       </c>
       <c r="AT348">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW348" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW348" t="str">
-        <f t="shared" si="82"/>
         <v>30,0</v>
       </c>
     </row>
@@ -29758,11 +29833,11 @@
         <v>0</v>
       </c>
       <c r="AT349">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW349" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW349" t="str">
-        <f t="shared" si="82"/>
         <v>30,0</v>
       </c>
     </row>
@@ -29804,11 +29879,11 @@
         <v>0</v>
       </c>
       <c r="AT350">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW350" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW350" t="str">
-        <f t="shared" si="82"/>
         <v>30,0</v>
       </c>
     </row>
@@ -29850,11 +29925,11 @@
         <v>0</v>
       </c>
       <c r="AT351">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW351" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW351" t="str">
-        <f t="shared" si="82"/>
         <v>30,0</v>
       </c>
     </row>
@@ -29896,11 +29971,11 @@
         <v>0</v>
       </c>
       <c r="AT352">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW352" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW352" t="str">
-        <f t="shared" si="82"/>
         <v>30,0</v>
       </c>
     </row>
@@ -29942,11 +30017,11 @@
         <v>0</v>
       </c>
       <c r="AT353">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="AW353" t="str">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="AW353" t="str">
-        <f t="shared" si="82"/>
         <v>30,0</v>
       </c>
     </row>
@@ -30204,15 +30279,15 @@
         <v>30</v>
       </c>
       <c r="CY357">
-        <f t="shared" ref="CY357:CY371" si="84">CB357</f>
+        <f t="shared" ref="CY357:CY371" si="85">CB357</f>
         <v>0</v>
       </c>
       <c r="CZ357">
-        <f t="shared" ref="CZ357:CZ367" si="85">CC357</f>
+        <f t="shared" ref="CZ357:CZ367" si="86">CC357</f>
         <v>0</v>
       </c>
       <c r="DA357">
-        <f t="shared" ref="DA357:DA367" si="86">CD357</f>
+        <f t="shared" ref="DA357:DA367" si="87">CD357</f>
         <v>0</v>
       </c>
       <c r="DJ357">
@@ -30292,11 +30367,11 @@
         <v>0</v>
       </c>
       <c r="AT358">
-        <f t="shared" ref="AT358:AT386" si="87">SUM(AH358:AR358)</f>
+        <f t="shared" ref="AT358:AT386" si="88">SUM(AH358:AR358)</f>
         <v>30</v>
       </c>
       <c r="AW358" t="str">
-        <f t="shared" ref="AW358:AW386" si="88">_xlfn.TEXTJOIN(",",TRUE,AH358:AS358)</f>
+        <f t="shared" ref="AW358:AW386" si="89">_xlfn.TEXTJOIN(",",TRUE,AH358:AS358)</f>
         <v>9,12,9,0</v>
       </c>
       <c r="BE358">
@@ -30312,11 +30387,11 @@
         <v>0</v>
       </c>
       <c r="BQ358">
-        <f t="shared" ref="BQ358:BQ386" si="89">SUM(BE358:BO358)</f>
+        <f t="shared" ref="BQ358:BQ386" si="90">SUM(BE358:BO358)</f>
         <v>30</v>
       </c>
       <c r="BT358" t="str">
-        <f t="shared" ref="BT358:BT386" si="90">_xlfn.TEXTJOIN(",",TRUE,BE358:BP358)</f>
+        <f t="shared" ref="BT358:BT386" si="91">_xlfn.TEXTJOIN(",",TRUE,BE358:BP358)</f>
         <v>9,12,9,0</v>
       </c>
       <c r="CA358">
@@ -30326,35 +30401,35 @@
         <v>0</v>
       </c>
       <c r="CM358">
-        <f t="shared" ref="CM358:CM386" si="91">SUM(CA358:CK358)</f>
+        <f t="shared" ref="CM358:CM386" si="92">SUM(CA358:CK358)</f>
         <v>30</v>
       </c>
       <c r="CP358" t="str">
-        <f t="shared" ref="CP358:CP386" si="92">_xlfn.TEXTJOIN(",",TRUE,CA358:CL358)</f>
+        <f t="shared" ref="CP358:CP386" si="93">_xlfn.TEXTJOIN(",",TRUE,CA358:CL358)</f>
         <v>30,0</v>
       </c>
       <c r="CX358">
-        <f t="shared" ref="CX358:CX371" si="93">CA358</f>
+        <f t="shared" ref="CX358:CX371" si="94">CA358</f>
         <v>30</v>
       </c>
       <c r="CY358">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="CZ358">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="DA358">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ358">
-        <f t="shared" ref="DJ358:DJ386" si="94">SUM(CX358:DH358)</f>
+        <f t="shared" ref="DJ358:DJ386" si="95">SUM(CX358:DH358)</f>
         <v>30</v>
       </c>
       <c r="DM358" t="str">
-        <f t="shared" ref="DM358:DM386" si="95">_xlfn.TEXTJOIN(",",TRUE,CX358:DI358)</f>
+        <f t="shared" ref="DM358:DM386" si="96">_xlfn.TEXTJOIN(",",TRUE,CX358:DI358)</f>
         <v>30,0,0,0</v>
       </c>
     </row>
@@ -30434,11 +30509,11 @@
         <v>0</v>
       </c>
       <c r="AT359">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW359" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7,16,7,0</v>
       </c>
       <c r="BE359">
@@ -30455,11 +30530,11 @@
         <v>0</v>
       </c>
       <c r="BQ359">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT359" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>7,14,9,0</v>
       </c>
       <c r="BU359">
@@ -30484,35 +30559,35 @@
         <v>0</v>
       </c>
       <c r="CM359">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP359" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>22,1,7,0</v>
       </c>
       <c r="CX359">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>22</v>
       </c>
       <c r="CY359">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="CZ359">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>7</v>
       </c>
       <c r="DA359">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ359">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM359" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>22,1,7,0</v>
       </c>
     </row>
@@ -30600,19 +30675,19 @@
         <v>0</v>
       </c>
       <c r="AT360">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW360" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5,20,5,0</v>
       </c>
       <c r="BE360">
-        <f t="shared" ref="BE360" si="96">BE359-2</f>
+        <f t="shared" ref="BE360" si="97">BE359-2</f>
         <v>5</v>
       </c>
       <c r="BF360">
-        <f t="shared" ref="BF360:BF384" si="97">30-(BE360+BG360)</f>
+        <f t="shared" ref="BF360:BF384" si="98">30-(BE360+BG360)</f>
         <v>16</v>
       </c>
       <c r="BG360">
@@ -30622,11 +30697,11 @@
         <v>0</v>
       </c>
       <c r="BQ360">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT360" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>5,16,9,0</v>
       </c>
       <c r="BU360">
@@ -30651,35 +30726,35 @@
         <v>0</v>
       </c>
       <c r="CM360">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP360" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>22,3,5,0</v>
       </c>
       <c r="CX360">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>22</v>
       </c>
       <c r="CY360">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="CZ360">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>5</v>
       </c>
       <c r="DA360">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ360">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM360" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>22,3,5,0</v>
       </c>
     </row>
@@ -30771,11 +30846,11 @@
         <v>0</v>
       </c>
       <c r="AT361">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW361" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4,22,4,0</v>
       </c>
       <c r="BE361">
@@ -30783,7 +30858,7 @@
         <v>4</v>
       </c>
       <c r="BF361">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>16</v>
       </c>
       <c r="BG361">
@@ -30794,11 +30869,11 @@
         <v>0</v>
       </c>
       <c r="BQ361">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT361" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4,16,10,0</v>
       </c>
       <c r="BU361">
@@ -30823,35 +30898,35 @@
         <v>0</v>
       </c>
       <c r="CM361">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP361" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>21,5,4,0</v>
       </c>
       <c r="CX361">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>21</v>
       </c>
       <c r="CY361">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>5</v>
       </c>
       <c r="CZ361">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4</v>
       </c>
       <c r="DA361">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ361">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM361" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>21,5,4,0</v>
       </c>
     </row>
@@ -30947,11 +31022,11 @@
         <v>0</v>
       </c>
       <c r="AT362">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW362" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3,24,3,0</v>
       </c>
       <c r="BE362">
@@ -30959,22 +31034,22 @@
         <v>3</v>
       </c>
       <c r="BF362">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>17</v>
       </c>
       <c r="BG362">
-        <f t="shared" ref="BG362:BG384" si="98">BG360+1</f>
+        <f t="shared" ref="BG362:BG384" si="99">BG360+1</f>
         <v>10</v>
       </c>
       <c r="BH362">
         <v>0</v>
       </c>
       <c r="BQ362">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT362" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3,17,10,0</v>
       </c>
       <c r="BU362">
@@ -30999,35 +31074,35 @@
         <v>0</v>
       </c>
       <c r="CM362">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP362" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>21,6,3,0</v>
       </c>
       <c r="CX362">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>21</v>
       </c>
       <c r="CY362">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>6</v>
       </c>
       <c r="CZ362">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3</v>
       </c>
       <c r="DA362">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ362">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM362" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>21,6,3,0</v>
       </c>
     </row>
@@ -31123,33 +31198,33 @@
         <v>0</v>
       </c>
       <c r="AT363">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW363" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3,24,3,0</v>
       </c>
       <c r="BE363">
         <v>3</v>
       </c>
       <c r="BF363">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>16</v>
       </c>
       <c r="BG363">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>11</v>
       </c>
       <c r="BH363">
         <v>0</v>
       </c>
       <c r="BQ363">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT363" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3,16,11,0</v>
       </c>
       <c r="BU363">
@@ -31171,35 +31246,35 @@
         <v>0</v>
       </c>
       <c r="CM363">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP363" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20,7,3,0</v>
       </c>
       <c r="CX363">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>20</v>
       </c>
       <c r="CY363">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7</v>
       </c>
       <c r="CZ363">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3</v>
       </c>
       <c r="DA363">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ363">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM363" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>20,7,3,0</v>
       </c>
     </row>
@@ -31299,11 +31374,11 @@
         <v>0</v>
       </c>
       <c r="AT364">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW364" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2,26,2,0</v>
       </c>
       <c r="BE364">
@@ -31311,22 +31386,22 @@
         <v>2</v>
       </c>
       <c r="BF364">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>17</v>
       </c>
       <c r="BG364">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>11</v>
       </c>
       <c r="BH364">
         <v>0</v>
       </c>
       <c r="BQ364">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT364" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2,17,11,0</v>
       </c>
       <c r="CA364">
@@ -31342,35 +31417,35 @@
         <v>0</v>
       </c>
       <c r="CM364">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP364" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20,8,2,0</v>
       </c>
       <c r="CX364">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>20</v>
       </c>
       <c r="CY364">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>8</v>
       </c>
       <c r="CZ364">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="DA364">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ364">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM364" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>20,8,2,0</v>
       </c>
     </row>
@@ -31470,34 +31545,34 @@
         <v>0</v>
       </c>
       <c r="AT365">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW365" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2,26,2,0</v>
       </c>
       <c r="BE365">
-        <f t="shared" ref="BE365:BE367" si="99">BE363-1</f>
+        <f t="shared" ref="BE365:BE367" si="100">BE363-1</f>
         <v>2</v>
       </c>
       <c r="BF365">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>16</v>
       </c>
       <c r="BG365">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>12</v>
       </c>
       <c r="BH365">
         <v>0</v>
       </c>
       <c r="BQ365">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT365" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2,16,12,0</v>
       </c>
       <c r="CA365">
@@ -31516,35 +31591,35 @@
         <v>0</v>
       </c>
       <c r="CM365">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP365" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>19,9,2,0</v>
       </c>
       <c r="CX365">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>19</v>
       </c>
       <c r="CY365">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9</v>
       </c>
       <c r="CZ365">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="DA365">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="DJ365">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM365" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>19,9,2,0</v>
       </c>
     </row>
@@ -31648,81 +31723,81 @@
         <v>0</v>
       </c>
       <c r="AT366">
+        <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW366" t="str">
+        <f t="shared" si="89"/>
+        <v>1,28,1,0</v>
+      </c>
+      <c r="BE366">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="BF366">
+        <f t="shared" si="98"/>
+        <v>17</v>
+      </c>
+      <c r="BG366">
+        <f t="shared" si="99"/>
+        <v>12</v>
+      </c>
+      <c r="BH366">
+        <v>0</v>
+      </c>
+      <c r="BQ366">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT366" t="str">
+        <f t="shared" si="91"/>
+        <v>1,17,12,0</v>
+      </c>
+      <c r="CA366">
+        <f t="shared" ref="CA366:CA385" si="101">CA364-1</f>
+        <v>19</v>
+      </c>
+      <c r="CB366">
+        <f t="shared" ref="CB366:CB367" si="102">CB365+1</f>
+        <v>10</v>
+      </c>
+      <c r="CC366">
+        <f t="shared" ref="CC366:CC367" si="103">CC364-1</f>
+        <v>1</v>
+      </c>
+      <c r="CD366">
+        <v>0</v>
+      </c>
+      <c r="CM366">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP366" t="str">
+        <f t="shared" si="93"/>
+        <v>19,10,1,0</v>
+      </c>
+      <c r="CX366">
+        <f t="shared" si="94"/>
+        <v>19</v>
+      </c>
+      <c r="CY366">
+        <f t="shared" si="85"/>
+        <v>10</v>
+      </c>
+      <c r="CZ366">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="DA366">
         <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW366" t="str">
-        <f t="shared" si="88"/>
-        <v>1,28,1,0</v>
-      </c>
-      <c r="BE366">
-        <f t="shared" si="99"/>
-        <v>1</v>
-      </c>
-      <c r="BF366">
-        <f t="shared" si="97"/>
-        <v>17</v>
-      </c>
-      <c r="BG366">
-        <f t="shared" si="98"/>
-        <v>12</v>
-      </c>
-      <c r="BH366">
-        <v>0</v>
-      </c>
-      <c r="BQ366">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT366" t="str">
-        <f t="shared" si="90"/>
-        <v>1,17,12,0</v>
-      </c>
-      <c r="CA366">
-        <f t="shared" ref="CA366:CA385" si="100">CA364-1</f>
-        <v>19</v>
-      </c>
-      <c r="CB366">
-        <f t="shared" ref="CB366:CB367" si="101">CB365+1</f>
-        <v>10</v>
-      </c>
-      <c r="CC366">
-        <f t="shared" ref="CC366:CC367" si="102">CC364-1</f>
-        <v>1</v>
-      </c>
-      <c r="CD366">
-        <v>0</v>
-      </c>
-      <c r="CM366">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP366" t="str">
-        <f t="shared" si="92"/>
-        <v>19,10,1,0</v>
-      </c>
-      <c r="CX366">
-        <f t="shared" si="93"/>
-        <v>19</v>
-      </c>
-      <c r="CY366">
-        <f t="shared" si="84"/>
-        <v>10</v>
-      </c>
-      <c r="CZ366">
-        <f t="shared" si="85"/>
-        <v>1</v>
-      </c>
-      <c r="DA366">
-        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="DJ366">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM366" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>19,10,1,0</v>
       </c>
     </row>
@@ -31826,81 +31901,81 @@
         <v>0</v>
       </c>
       <c r="AT367">
+        <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW367" t="str">
+        <f t="shared" si="89"/>
+        <v>1,28,1,0</v>
+      </c>
+      <c r="BE367">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="BF367">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="BG367">
+        <f t="shared" si="99"/>
+        <v>13</v>
+      </c>
+      <c r="BH367">
+        <v>0</v>
+      </c>
+      <c r="BQ367">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT367" t="str">
+        <f t="shared" si="91"/>
+        <v>1,16,13,0</v>
+      </c>
+      <c r="CA367">
+        <f t="shared" si="101"/>
+        <v>18</v>
+      </c>
+      <c r="CB367">
+        <f t="shared" si="102"/>
+        <v>11</v>
+      </c>
+      <c r="CC367">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="CD367">
+        <v>0</v>
+      </c>
+      <c r="CM367">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP367" t="str">
+        <f t="shared" si="93"/>
+        <v>18,11,1,0</v>
+      </c>
+      <c r="CX367">
+        <f t="shared" si="94"/>
+        <v>18</v>
+      </c>
+      <c r="CY367">
+        <f t="shared" si="85"/>
+        <v>11</v>
+      </c>
+      <c r="CZ367">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="DA367">
         <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW367" t="str">
-        <f t="shared" si="88"/>
-        <v>1,28,1,0</v>
-      </c>
-      <c r="BE367">
-        <f t="shared" si="99"/>
-        <v>1</v>
-      </c>
-      <c r="BF367">
-        <f t="shared" si="97"/>
-        <v>16</v>
-      </c>
-      <c r="BG367">
-        <f t="shared" si="98"/>
-        <v>13</v>
-      </c>
-      <c r="BH367">
-        <v>0</v>
-      </c>
-      <c r="BQ367">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT367" t="str">
-        <f t="shared" si="90"/>
-        <v>1,16,13,0</v>
-      </c>
-      <c r="CA367">
-        <f t="shared" si="100"/>
-        <v>18</v>
-      </c>
-      <c r="CB367">
-        <f t="shared" si="101"/>
-        <v>11</v>
-      </c>
-      <c r="CC367">
-        <f t="shared" si="102"/>
-        <v>1</v>
-      </c>
-      <c r="CD367">
-        <v>0</v>
-      </c>
-      <c r="CM367">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP367" t="str">
-        <f t="shared" si="92"/>
-        <v>18,11,1,0</v>
-      </c>
-      <c r="CX367">
-        <f t="shared" si="93"/>
-        <v>18</v>
-      </c>
-      <c r="CY367">
-        <f t="shared" si="84"/>
-        <v>11</v>
-      </c>
-      <c r="CZ367">
-        <f t="shared" si="85"/>
-        <v>1</v>
-      </c>
-      <c r="DA367">
-        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="DJ367">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM367" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>18,11,1,0</v>
       </c>
     </row>
@@ -32002,37 +32077,37 @@
         <v>30</v>
       </c>
       <c r="AT368">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW368" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0,30</v>
       </c>
       <c r="BE368">
         <v>0</v>
       </c>
       <c r="BF368">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>17</v>
       </c>
       <c r="BG368">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>13</v>
       </c>
       <c r="BH368">
         <v>0</v>
       </c>
       <c r="BQ368">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT368" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0,17,13,0</v>
       </c>
       <c r="CA368">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>18</v>
       </c>
       <c r="CB368">
@@ -32040,27 +32115,27 @@
         <v>12</v>
       </c>
       <c r="CM368">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP368" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>18,12</v>
       </c>
       <c r="CX368">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>18</v>
       </c>
       <c r="CY368">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>12</v>
       </c>
       <c r="DJ368">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM368" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>18,12</v>
       </c>
     </row>
@@ -32162,859 +32237,859 @@
         <v>30</v>
       </c>
       <c r="AT369">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW369" t="str">
+        <f t="shared" si="89"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE369">
+        <v>0</v>
+      </c>
+      <c r="BF369">
+        <f t="shared" si="98"/>
+        <v>16</v>
+      </c>
+      <c r="BG369">
+        <f t="shared" si="99"/>
+        <v>14</v>
+      </c>
+      <c r="BH369">
+        <v>0</v>
+      </c>
+      <c r="BQ369">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT369" t="str">
+        <f t="shared" si="91"/>
+        <v>0,16,14,0</v>
+      </c>
+      <c r="CA369">
+        <f t="shared" si="101"/>
+        <v>17</v>
+      </c>
+      <c r="CB369">
+        <f t="shared" ref="CB369:CB374" si="104">30-CA369</f>
+        <v>13</v>
+      </c>
+      <c r="CM369">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP369" t="str">
+        <f t="shared" si="93"/>
+        <v>17,13</v>
+      </c>
+      <c r="CX369">
+        <f t="shared" si="94"/>
+        <v>17</v>
+      </c>
+      <c r="CY369">
+        <f t="shared" si="85"/>
+        <v>13</v>
+      </c>
+      <c r="DJ369">
+        <f t="shared" si="95"/>
+        <v>30</v>
+      </c>
+      <c r="DM369" t="str">
+        <f t="shared" si="96"/>
+        <v>17,13</v>
+      </c>
+    </row>
+    <row r="370" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B370" s="1">
+        <v>1</v>
+      </c>
+      <c r="C370" s="1">
+        <v>1</v>
+      </c>
+      <c r="D370" s="1">
+        <v>1</v>
+      </c>
+      <c r="E370" s="1">
+        <v>1</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1</v>
+      </c>
+      <c r="G370" s="1">
+        <v>1</v>
+      </c>
+      <c r="H370" s="1">
+        <v>1</v>
+      </c>
+      <c r="I370" s="1">
+        <v>1</v>
+      </c>
+      <c r="J370" s="1">
+        <v>1</v>
+      </c>
+      <c r="K370" s="1">
+        <v>1</v>
+      </c>
+      <c r="L370" s="1">
+        <v>1</v>
+      </c>
+      <c r="M370" s="1">
+        <v>1</v>
+      </c>
+      <c r="N370" s="1">
+        <v>1</v>
+      </c>
+      <c r="O370" s="1">
+        <v>1</v>
+      </c>
+      <c r="P370" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="1">
+        <v>1</v>
+      </c>
+      <c r="R370" s="1">
+        <v>2</v>
+      </c>
+      <c r="S370" s="1">
+        <v>1</v>
+      </c>
+      <c r="T370" s="1">
+        <v>1</v>
+      </c>
+      <c r="U370" s="1">
+        <v>1</v>
+      </c>
+      <c r="V370" s="1">
+        <v>1</v>
+      </c>
+      <c r="W370" s="1">
+        <v>1</v>
+      </c>
+      <c r="X370" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y370" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH370">
+        <v>0</v>
+      </c>
+      <c r="AI370">
+        <v>30</v>
+      </c>
+      <c r="AT370">
         <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW370" t="str">
+        <f t="shared" si="89"/>
         <v>0,30</v>
       </c>
-      <c r="BE369">
-        <v>0</v>
-      </c>
-      <c r="BF369">
-        <f t="shared" si="97"/>
+      <c r="BE370">
+        <v>0</v>
+      </c>
+      <c r="BF370">
+        <f t="shared" si="98"/>
         <v>16</v>
       </c>
-      <c r="BG369">
+      <c r="BG370">
+        <f t="shared" si="99"/>
+        <v>14</v>
+      </c>
+      <c r="BH370">
+        <v>0</v>
+      </c>
+      <c r="BQ370">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT370" t="str">
+        <f t="shared" si="91"/>
+        <v>0,16,14,0</v>
+      </c>
+      <c r="CA370">
+        <f t="shared" si="101"/>
+        <v>17</v>
+      </c>
+      <c r="CB370">
+        <f t="shared" si="104"/>
+        <v>13</v>
+      </c>
+      <c r="CM370">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP370" t="str">
+        <f t="shared" si="93"/>
+        <v>17,13</v>
+      </c>
+      <c r="CX370">
+        <f t="shared" si="94"/>
+        <v>17</v>
+      </c>
+      <c r="CY370">
+        <f t="shared" si="85"/>
+        <v>13</v>
+      </c>
+      <c r="DJ370">
+        <f t="shared" si="95"/>
+        <v>30</v>
+      </c>
+      <c r="DM370" t="str">
+        <f t="shared" si="96"/>
+        <v>17,13</v>
+      </c>
+    </row>
+    <row r="371" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B371" s="1">
+        <v>1</v>
+      </c>
+      <c r="C371" s="1">
+        <v>1</v>
+      </c>
+      <c r="D371" s="1">
+        <v>1</v>
+      </c>
+      <c r="E371" s="1">
+        <v>1</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1</v>
+      </c>
+      <c r="G371" s="1">
+        <v>1</v>
+      </c>
+      <c r="H371" s="1">
+        <v>1</v>
+      </c>
+      <c r="I371" s="1">
+        <v>1</v>
+      </c>
+      <c r="J371" s="1">
+        <v>1</v>
+      </c>
+      <c r="K371" s="1">
+        <v>1</v>
+      </c>
+      <c r="L371" s="1">
+        <v>1</v>
+      </c>
+      <c r="M371" s="1">
+        <v>1</v>
+      </c>
+      <c r="N371" s="1">
+        <v>1</v>
+      </c>
+      <c r="O371" s="1">
+        <v>1</v>
+      </c>
+      <c r="P371" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="1">
+        <v>2</v>
+      </c>
+      <c r="R371" s="1">
+        <v>1</v>
+      </c>
+      <c r="S371" s="1">
+        <v>1</v>
+      </c>
+      <c r="T371" s="1">
+        <v>1</v>
+      </c>
+      <c r="U371" s="1">
+        <v>1</v>
+      </c>
+      <c r="V371" s="1">
+        <v>1</v>
+      </c>
+      <c r="W371" s="1">
+        <v>1</v>
+      </c>
+      <c r="X371" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y371" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE371" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH371">
+        <v>0</v>
+      </c>
+      <c r="AI371">
+        <v>30</v>
+      </c>
+      <c r="AT371">
+        <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW371" t="str">
+        <f t="shared" si="89"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE371">
+        <v>0</v>
+      </c>
+      <c r="BF371">
+        <f t="shared" si="98"/>
+        <v>15</v>
+      </c>
+      <c r="BG371">
+        <f t="shared" si="99"/>
+        <v>15</v>
+      </c>
+      <c r="BH371">
+        <v>0</v>
+      </c>
+      <c r="BQ371">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT371" t="str">
+        <f t="shared" si="91"/>
+        <v>0,15,15,0</v>
+      </c>
+      <c r="CA371">
+        <f t="shared" si="101"/>
+        <v>16</v>
+      </c>
+      <c r="CB371">
+        <f t="shared" si="104"/>
+        <v>14</v>
+      </c>
+      <c r="CM371">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP371" t="str">
+        <f t="shared" si="93"/>
+        <v>16,14</v>
+      </c>
+      <c r="CX371">
+        <f t="shared" si="94"/>
+        <v>16</v>
+      </c>
+      <c r="CY371">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
+      <c r="DJ371">
+        <f t="shared" si="95"/>
+        <v>30</v>
+      </c>
+      <c r="DM371" t="str">
+        <f t="shared" si="96"/>
+        <v>16,14</v>
+      </c>
+    </row>
+    <row r="372" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B372" s="1">
+        <v>1</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1</v>
+      </c>
+      <c r="E372" s="1">
+        <v>1</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1</v>
+      </c>
+      <c r="G372" s="1">
+        <v>1</v>
+      </c>
+      <c r="H372" s="1">
+        <v>1</v>
+      </c>
+      <c r="I372" s="1">
+        <v>1</v>
+      </c>
+      <c r="J372" s="1">
+        <v>1</v>
+      </c>
+      <c r="K372" s="1">
+        <v>1</v>
+      </c>
+      <c r="L372" s="1">
+        <v>1</v>
+      </c>
+      <c r="M372" s="1">
+        <v>1</v>
+      </c>
+      <c r="N372" s="1">
+        <v>1</v>
+      </c>
+      <c r="O372" s="1">
+        <v>1</v>
+      </c>
+      <c r="P372" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="1">
+        <v>2</v>
+      </c>
+      <c r="R372" s="1">
+        <v>1</v>
+      </c>
+      <c r="S372" s="1">
+        <v>1</v>
+      </c>
+      <c r="T372" s="1">
+        <v>1</v>
+      </c>
+      <c r="U372" s="1">
+        <v>1</v>
+      </c>
+      <c r="V372" s="1">
+        <v>1</v>
+      </c>
+      <c r="W372" s="1">
+        <v>1</v>
+      </c>
+      <c r="X372" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y372" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE372" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH372">
+        <v>0</v>
+      </c>
+      <c r="AI372">
+        <v>30</v>
+      </c>
+      <c r="AT372">
+        <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW372" t="str">
+        <f t="shared" si="89"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE372">
+        <v>0</v>
+      </c>
+      <c r="BF372">
+        <f t="shared" si="98"/>
+        <v>15</v>
+      </c>
+      <c r="BG372">
+        <f t="shared" si="99"/>
+        <v>15</v>
+      </c>
+      <c r="BH372">
+        <v>0</v>
+      </c>
+      <c r="BQ372">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT372" t="str">
+        <f t="shared" si="91"/>
+        <v>0,15,15,0</v>
+      </c>
+      <c r="CA372">
+        <f t="shared" si="101"/>
+        <v>16</v>
+      </c>
+      <c r="CB372">
+        <f t="shared" si="104"/>
+        <v>14</v>
+      </c>
+      <c r="CM372">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP372" t="str">
+        <f t="shared" si="93"/>
+        <v>16,14</v>
+      </c>
+      <c r="CX372">
+        <v>30</v>
+      </c>
+      <c r="CY372">
+        <v>0</v>
+      </c>
+      <c r="DJ372">
+        <f t="shared" si="95"/>
+        <v>30</v>
+      </c>
+      <c r="DM372" t="str">
+        <f t="shared" si="96"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B373" s="1">
+        <v>1</v>
+      </c>
+      <c r="C373" s="1">
+        <v>1</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1</v>
+      </c>
+      <c r="E373" s="1">
+        <v>1</v>
+      </c>
+      <c r="F373" s="1">
+        <v>1</v>
+      </c>
+      <c r="G373" s="1">
+        <v>1</v>
+      </c>
+      <c r="H373" s="1">
+        <v>1</v>
+      </c>
+      <c r="I373" s="1">
+        <v>1</v>
+      </c>
+      <c r="J373" s="1">
+        <v>1</v>
+      </c>
+      <c r="K373" s="1">
+        <v>1</v>
+      </c>
+      <c r="L373" s="1">
+        <v>1</v>
+      </c>
+      <c r="M373" s="1">
+        <v>1</v>
+      </c>
+      <c r="N373" s="1">
+        <v>1</v>
+      </c>
+      <c r="O373" s="1">
+        <v>1</v>
+      </c>
+      <c r="P373" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q373" s="1">
+        <v>1</v>
+      </c>
+      <c r="R373" s="1">
+        <v>1</v>
+      </c>
+      <c r="S373" s="1">
+        <v>1</v>
+      </c>
+      <c r="T373" s="1">
+        <v>1</v>
+      </c>
+      <c r="U373" s="1">
+        <v>1</v>
+      </c>
+      <c r="V373" s="1">
+        <v>1</v>
+      </c>
+      <c r="W373" s="1">
+        <v>1</v>
+      </c>
+      <c r="X373" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y373" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH373">
+        <v>0</v>
+      </c>
+      <c r="AI373">
+        <v>30</v>
+      </c>
+      <c r="AT373">
+        <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW373" t="str">
+        <f t="shared" si="89"/>
+        <v>0,30</v>
+      </c>
+      <c r="BE373">
+        <v>0</v>
+      </c>
+      <c r="BF373">
         <f t="shared" si="98"/>
         <v>14</v>
       </c>
-      <c r="BH369">
-        <v>0</v>
-      </c>
-      <c r="BQ369">
+      <c r="BG373">
+        <f t="shared" si="99"/>
+        <v>16</v>
+      </c>
+      <c r="BH373">
+        <v>0</v>
+      </c>
+      <c r="BQ373">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT373" t="str">
+        <f t="shared" si="91"/>
+        <v>0,14,16,0</v>
+      </c>
+      <c r="CA373">
+        <f t="shared" si="101"/>
+        <v>15</v>
+      </c>
+      <c r="CB373">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="CM373">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="CP373" t="str">
+        <f t="shared" si="93"/>
+        <v>15,15</v>
+      </c>
+      <c r="CX373">
+        <v>30</v>
+      </c>
+      <c r="CY373">
+        <v>0</v>
+      </c>
+      <c r="DJ373">
+        <f t="shared" si="95"/>
+        <v>30</v>
+      </c>
+      <c r="DM373" t="str">
+        <f t="shared" si="96"/>
+        <v>30,0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B374" s="1">
+        <v>1</v>
+      </c>
+      <c r="C374" s="1">
+        <v>1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>1</v>
+      </c>
+      <c r="E374" s="1">
+        <v>1</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1</v>
+      </c>
+      <c r="G374" s="1">
+        <v>1</v>
+      </c>
+      <c r="H374" s="1">
+        <v>1</v>
+      </c>
+      <c r="I374" s="1">
+        <v>1</v>
+      </c>
+      <c r="J374" s="1">
+        <v>1</v>
+      </c>
+      <c r="K374" s="1">
+        <v>1</v>
+      </c>
+      <c r="L374" s="1">
+        <v>1</v>
+      </c>
+      <c r="M374" s="1">
+        <v>1</v>
+      </c>
+      <c r="N374" s="1">
+        <v>1</v>
+      </c>
+      <c r="O374" s="1">
+        <v>1</v>
+      </c>
+      <c r="P374" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q374" s="1">
+        <v>1</v>
+      </c>
+      <c r="R374" s="1">
+        <v>1</v>
+      </c>
+      <c r="S374" s="1">
+        <v>1</v>
+      </c>
+      <c r="T374" s="1">
+        <v>1</v>
+      </c>
+      <c r="U374" s="1">
+        <v>1</v>
+      </c>
+      <c r="V374" s="1">
+        <v>1</v>
+      </c>
+      <c r="W374" s="1">
+        <v>1</v>
+      </c>
+      <c r="X374" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y374" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH374">
+        <v>0</v>
+      </c>
+      <c r="AI374">
+        <v>30</v>
+      </c>
+      <c r="AT374">
+        <f t="shared" si="88"/>
+        <v>30</v>
+      </c>
+      <c r="AW374" t="str">
         <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT369" t="str">
-        <f t="shared" si="90"/>
-        <v>0,16,14,0</v>
-      </c>
-      <c r="CA369">
-        <f t="shared" si="100"/>
-        <v>17</v>
-      </c>
-      <c r="CB369">
-        <f t="shared" ref="CB369:CB374" si="103">30-CA369</f>
-        <v>13</v>
-      </c>
-      <c r="CM369">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP369" t="str">
-        <f t="shared" si="92"/>
-        <v>17,13</v>
-      </c>
-      <c r="CX369">
-        <f t="shared" si="93"/>
-        <v>17</v>
-      </c>
-      <c r="CY369">
-        <f t="shared" si="84"/>
-        <v>13</v>
-      </c>
-      <c r="DJ369">
-        <f t="shared" si="94"/>
-        <v>30</v>
-      </c>
-      <c r="DM369" t="str">
-        <f t="shared" si="95"/>
-        <v>17,13</v>
-      </c>
-    </row>
-    <row r="370" spans="2:117" x14ac:dyDescent="0.25">
-      <c r="B370" s="1">
-        <v>1</v>
-      </c>
-      <c r="C370" s="1">
-        <v>1</v>
-      </c>
-      <c r="D370" s="1">
-        <v>1</v>
-      </c>
-      <c r="E370" s="1">
-        <v>1</v>
-      </c>
-      <c r="F370" s="1">
-        <v>1</v>
-      </c>
-      <c r="G370" s="1">
-        <v>1</v>
-      </c>
-      <c r="H370" s="1">
-        <v>1</v>
-      </c>
-      <c r="I370" s="1">
-        <v>1</v>
-      </c>
-      <c r="J370" s="1">
-        <v>1</v>
-      </c>
-      <c r="K370" s="1">
-        <v>1</v>
-      </c>
-      <c r="L370" s="1">
-        <v>1</v>
-      </c>
-      <c r="M370" s="1">
-        <v>1</v>
-      </c>
-      <c r="N370" s="1">
-        <v>1</v>
-      </c>
-      <c r="O370" s="1">
-        <v>1</v>
-      </c>
-      <c r="P370" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q370" s="1">
-        <v>1</v>
-      </c>
-      <c r="R370" s="1">
-        <v>2</v>
-      </c>
-      <c r="S370" s="1">
-        <v>1</v>
-      </c>
-      <c r="T370" s="1">
-        <v>1</v>
-      </c>
-      <c r="U370" s="1">
-        <v>1</v>
-      </c>
-      <c r="V370" s="1">
-        <v>1</v>
-      </c>
-      <c r="W370" s="1">
-        <v>1</v>
-      </c>
-      <c r="X370" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y370" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z370" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA370" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB370" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC370" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD370" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE370" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH370">
-        <v>0</v>
-      </c>
-      <c r="AI370">
-        <v>30</v>
-      </c>
-      <c r="AT370">
-        <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW370" t="str">
-        <f t="shared" si="88"/>
         <v>0,30</v>
       </c>
-      <c r="BE370">
-        <v>0</v>
-      </c>
-      <c r="BF370">
-        <f t="shared" si="97"/>
-        <v>16</v>
-      </c>
-      <c r="BG370">
+      <c r="BE374">
+        <v>0</v>
+      </c>
+      <c r="BF374">
         <f t="shared" si="98"/>
         <v>14</v>
       </c>
-      <c r="BH370">
-        <v>0</v>
-      </c>
-      <c r="BQ370">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT370" t="str">
+      <c r="BG374">
+        <f t="shared" si="99"/>
+        <v>16</v>
+      </c>
+      <c r="BH374">
+        <v>0</v>
+      </c>
+      <c r="BQ374">
         <f t="shared" si="90"/>
-        <v>0,16,14,0</v>
-      </c>
-      <c r="CA370">
-        <f t="shared" si="100"/>
-        <v>17</v>
-      </c>
-      <c r="CB370">
-        <f t="shared" si="103"/>
-        <v>13</v>
-      </c>
-      <c r="CM370">
+        <v>30</v>
+      </c>
+      <c r="BT374" t="str">
         <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP370" t="str">
+        <v>0,14,16,0</v>
+      </c>
+      <c r="CA374">
+        <f t="shared" si="101"/>
+        <v>15</v>
+      </c>
+      <c r="CB374">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="CM374">
         <f t="shared" si="92"/>
-        <v>17,13</v>
-      </c>
-      <c r="CX370">
+        <v>30</v>
+      </c>
+      <c r="CP374" t="str">
         <f t="shared" si="93"/>
-        <v>17</v>
-      </c>
-      <c r="CY370">
-        <f t="shared" si="84"/>
-        <v>13</v>
-      </c>
-      <c r="DJ370">
-        <f t="shared" si="94"/>
-        <v>30</v>
-      </c>
-      <c r="DM370" t="str">
+        <v>15,15</v>
+      </c>
+      <c r="CX374">
+        <v>30</v>
+      </c>
+      <c r="CY374">
+        <v>0</v>
+      </c>
+      <c r="DJ374">
         <f t="shared" si="95"/>
-        <v>17,13</v>
-      </c>
-    </row>
-    <row r="371" spans="2:117" x14ac:dyDescent="0.25">
-      <c r="B371" s="1">
-        <v>1</v>
-      </c>
-      <c r="C371" s="1">
-        <v>1</v>
-      </c>
-      <c r="D371" s="1">
-        <v>1</v>
-      </c>
-      <c r="E371" s="1">
-        <v>1</v>
-      </c>
-      <c r="F371" s="1">
-        <v>1</v>
-      </c>
-      <c r="G371" s="1">
-        <v>1</v>
-      </c>
-      <c r="H371" s="1">
-        <v>1</v>
-      </c>
-      <c r="I371" s="1">
-        <v>1</v>
-      </c>
-      <c r="J371" s="1">
-        <v>1</v>
-      </c>
-      <c r="K371" s="1">
-        <v>1</v>
-      </c>
-      <c r="L371" s="1">
-        <v>1</v>
-      </c>
-      <c r="M371" s="1">
-        <v>1</v>
-      </c>
-      <c r="N371" s="1">
-        <v>1</v>
-      </c>
-      <c r="O371" s="1">
-        <v>1</v>
-      </c>
-      <c r="P371" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q371" s="1">
-        <v>2</v>
-      </c>
-      <c r="R371" s="1">
-        <v>1</v>
-      </c>
-      <c r="S371" s="1">
-        <v>1</v>
-      </c>
-      <c r="T371" s="1">
-        <v>1</v>
-      </c>
-      <c r="U371" s="1">
-        <v>1</v>
-      </c>
-      <c r="V371" s="1">
-        <v>1</v>
-      </c>
-      <c r="W371" s="1">
-        <v>1</v>
-      </c>
-      <c r="X371" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y371" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z371" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA371" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB371" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC371" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD371" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE371" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH371">
-        <v>0</v>
-      </c>
-      <c r="AI371">
-        <v>30</v>
-      </c>
-      <c r="AT371">
-        <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW371" t="str">
-        <f t="shared" si="88"/>
-        <v>0,30</v>
-      </c>
-      <c r="BE371">
-        <v>0</v>
-      </c>
-      <c r="BF371">
-        <f t="shared" si="97"/>
-        <v>15</v>
-      </c>
-      <c r="BG371">
-        <f t="shared" si="98"/>
-        <v>15</v>
-      </c>
-      <c r="BH371">
-        <v>0</v>
-      </c>
-      <c r="BQ371">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT371" t="str">
-        <f t="shared" si="90"/>
-        <v>0,15,15,0</v>
-      </c>
-      <c r="CA371">
-        <f t="shared" si="100"/>
-        <v>16</v>
-      </c>
-      <c r="CB371">
-        <f t="shared" si="103"/>
-        <v>14</v>
-      </c>
-      <c r="CM371">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP371" t="str">
-        <f t="shared" si="92"/>
-        <v>16,14</v>
-      </c>
-      <c r="CX371">
-        <f t="shared" si="93"/>
-        <v>16</v>
-      </c>
-      <c r="CY371">
-        <f t="shared" si="84"/>
-        <v>14</v>
-      </c>
-      <c r="DJ371">
-        <f t="shared" si="94"/>
-        <v>30</v>
-      </c>
-      <c r="DM371" t="str">
-        <f t="shared" si="95"/>
-        <v>16,14</v>
-      </c>
-    </row>
-    <row r="372" spans="2:117" x14ac:dyDescent="0.25">
-      <c r="B372" s="1">
-        <v>1</v>
-      </c>
-      <c r="C372" s="1">
-        <v>1</v>
-      </c>
-      <c r="D372" s="1">
-        <v>1</v>
-      </c>
-      <c r="E372" s="1">
-        <v>1</v>
-      </c>
-      <c r="F372" s="1">
-        <v>1</v>
-      </c>
-      <c r="G372" s="1">
-        <v>1</v>
-      </c>
-      <c r="H372" s="1">
-        <v>1</v>
-      </c>
-      <c r="I372" s="1">
-        <v>1</v>
-      </c>
-      <c r="J372" s="1">
-        <v>1</v>
-      </c>
-      <c r="K372" s="1">
-        <v>1</v>
-      </c>
-      <c r="L372" s="1">
-        <v>1</v>
-      </c>
-      <c r="M372" s="1">
-        <v>1</v>
-      </c>
-      <c r="N372" s="1">
-        <v>1</v>
-      </c>
-      <c r="O372" s="1">
-        <v>1</v>
-      </c>
-      <c r="P372" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q372" s="1">
-        <v>2</v>
-      </c>
-      <c r="R372" s="1">
-        <v>1</v>
-      </c>
-      <c r="S372" s="1">
-        <v>1</v>
-      </c>
-      <c r="T372" s="1">
-        <v>1</v>
-      </c>
-      <c r="U372" s="1">
-        <v>1</v>
-      </c>
-      <c r="V372" s="1">
-        <v>1</v>
-      </c>
-      <c r="W372" s="1">
-        <v>1</v>
-      </c>
-      <c r="X372" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y372" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z372" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA372" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB372" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC372" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD372" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE372" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH372">
-        <v>0</v>
-      </c>
-      <c r="AI372">
-        <v>30</v>
-      </c>
-      <c r="AT372">
-        <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW372" t="str">
-        <f t="shared" si="88"/>
-        <v>0,30</v>
-      </c>
-      <c r="BE372">
-        <v>0</v>
-      </c>
-      <c r="BF372">
-        <f t="shared" si="97"/>
-        <v>15</v>
-      </c>
-      <c r="BG372">
-        <f t="shared" si="98"/>
-        <v>15</v>
-      </c>
-      <c r="BH372">
-        <v>0</v>
-      </c>
-      <c r="BQ372">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT372" t="str">
-        <f t="shared" si="90"/>
-        <v>0,15,15,0</v>
-      </c>
-      <c r="CA372">
-        <f t="shared" si="100"/>
-        <v>16</v>
-      </c>
-      <c r="CB372">
-        <f t="shared" si="103"/>
-        <v>14</v>
-      </c>
-      <c r="CM372">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP372" t="str">
-        <f t="shared" si="92"/>
-        <v>16,14</v>
-      </c>
-      <c r="CX372">
-        <v>30</v>
-      </c>
-      <c r="CY372">
-        <v>0</v>
-      </c>
-      <c r="DJ372">
-        <f t="shared" si="94"/>
-        <v>30</v>
-      </c>
-      <c r="DM372" t="str">
-        <f t="shared" si="95"/>
-        <v>30,0</v>
-      </c>
-    </row>
-    <row r="373" spans="2:117" x14ac:dyDescent="0.25">
-      <c r="B373" s="1">
-        <v>1</v>
-      </c>
-      <c r="C373" s="1">
-        <v>1</v>
-      </c>
-      <c r="D373" s="1">
-        <v>1</v>
-      </c>
-      <c r="E373" s="1">
-        <v>1</v>
-      </c>
-      <c r="F373" s="1">
-        <v>1</v>
-      </c>
-      <c r="G373" s="1">
-        <v>1</v>
-      </c>
-      <c r="H373" s="1">
-        <v>1</v>
-      </c>
-      <c r="I373" s="1">
-        <v>1</v>
-      </c>
-      <c r="J373" s="1">
-        <v>1</v>
-      </c>
-      <c r="K373" s="1">
-        <v>1</v>
-      </c>
-      <c r="L373" s="1">
-        <v>1</v>
-      </c>
-      <c r="M373" s="1">
-        <v>1</v>
-      </c>
-      <c r="N373" s="1">
-        <v>1</v>
-      </c>
-      <c r="O373" s="1">
-        <v>1</v>
-      </c>
-      <c r="P373" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q373" s="1">
-        <v>1</v>
-      </c>
-      <c r="R373" s="1">
-        <v>1</v>
-      </c>
-      <c r="S373" s="1">
-        <v>1</v>
-      </c>
-      <c r="T373" s="1">
-        <v>1</v>
-      </c>
-      <c r="U373" s="1">
-        <v>1</v>
-      </c>
-      <c r="V373" s="1">
-        <v>1</v>
-      </c>
-      <c r="W373" s="1">
-        <v>1</v>
-      </c>
-      <c r="X373" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y373" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z373" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA373" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB373" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC373" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD373" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE373" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH373">
-        <v>0</v>
-      </c>
-      <c r="AI373">
-        <v>30</v>
-      </c>
-      <c r="AT373">
-        <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW373" t="str">
-        <f t="shared" si="88"/>
-        <v>0,30</v>
-      </c>
-      <c r="BE373">
-        <v>0</v>
-      </c>
-      <c r="BF373">
-        <f t="shared" si="97"/>
-        <v>14</v>
-      </c>
-      <c r="BG373">
-        <f t="shared" si="98"/>
-        <v>16</v>
-      </c>
-      <c r="BH373">
-        <v>0</v>
-      </c>
-      <c r="BQ373">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT373" t="str">
-        <f t="shared" si="90"/>
-        <v>0,14,16,0</v>
-      </c>
-      <c r="CA373">
-        <f t="shared" si="100"/>
-        <v>15</v>
-      </c>
-      <c r="CB373">
-        <f t="shared" si="103"/>
-        <v>15</v>
-      </c>
-      <c r="CM373">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP373" t="str">
-        <f t="shared" si="92"/>
-        <v>15,15</v>
-      </c>
-      <c r="CX373">
-        <v>30</v>
-      </c>
-      <c r="CY373">
-        <v>0</v>
-      </c>
-      <c r="DJ373">
-        <f t="shared" si="94"/>
-        <v>30</v>
-      </c>
-      <c r="DM373" t="str">
-        <f t="shared" si="95"/>
-        <v>30,0</v>
-      </c>
-    </row>
-    <row r="374" spans="2:117" x14ac:dyDescent="0.25">
-      <c r="B374" s="1">
-        <v>1</v>
-      </c>
-      <c r="C374" s="1">
-        <v>1</v>
-      </c>
-      <c r="D374" s="1">
-        <v>1</v>
-      </c>
-      <c r="E374" s="1">
-        <v>1</v>
-      </c>
-      <c r="F374" s="1">
-        <v>1</v>
-      </c>
-      <c r="G374" s="1">
-        <v>1</v>
-      </c>
-      <c r="H374" s="1">
-        <v>1</v>
-      </c>
-      <c r="I374" s="1">
-        <v>1</v>
-      </c>
-      <c r="J374" s="1">
-        <v>1</v>
-      </c>
-      <c r="K374" s="1">
-        <v>1</v>
-      </c>
-      <c r="L374" s="1">
-        <v>1</v>
-      </c>
-      <c r="M374" s="1">
-        <v>1</v>
-      </c>
-      <c r="N374" s="1">
-        <v>1</v>
-      </c>
-      <c r="O374" s="1">
-        <v>1</v>
-      </c>
-      <c r="P374" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q374" s="1">
-        <v>1</v>
-      </c>
-      <c r="R374" s="1">
-        <v>1</v>
-      </c>
-      <c r="S374" s="1">
-        <v>1</v>
-      </c>
-      <c r="T374" s="1">
-        <v>1</v>
-      </c>
-      <c r="U374" s="1">
-        <v>1</v>
-      </c>
-      <c r="V374" s="1">
-        <v>1</v>
-      </c>
-      <c r="W374" s="1">
-        <v>1</v>
-      </c>
-      <c r="X374" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y374" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z374" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA374" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB374" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC374" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD374" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE374" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH374">
-        <v>0</v>
-      </c>
-      <c r="AI374">
-        <v>30</v>
-      </c>
-      <c r="AT374">
-        <f t="shared" si="87"/>
-        <v>30</v>
-      </c>
-      <c r="AW374" t="str">
-        <f t="shared" si="88"/>
-        <v>0,30</v>
-      </c>
-      <c r="BE374">
-        <v>0</v>
-      </c>
-      <c r="BF374">
-        <f t="shared" si="97"/>
-        <v>14</v>
-      </c>
-      <c r="BG374">
-        <f t="shared" si="98"/>
-        <v>16</v>
-      </c>
-      <c r="BH374">
-        <v>0</v>
-      </c>
-      <c r="BQ374">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT374" t="str">
-        <f t="shared" si="90"/>
-        <v>0,14,16,0</v>
-      </c>
-      <c r="CA374">
-        <f t="shared" si="100"/>
-        <v>15</v>
-      </c>
-      <c r="CB374">
-        <f t="shared" si="103"/>
-        <v>15</v>
-      </c>
-      <c r="CM374">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="CP374" t="str">
-        <f t="shared" si="92"/>
-        <v>15,15</v>
-      </c>
-      <c r="CX374">
-        <v>30</v>
-      </c>
-      <c r="CY374">
-        <v>0</v>
-      </c>
-      <c r="DJ374">
-        <f t="shared" si="94"/>
         <v>30</v>
       </c>
       <c r="DM374" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -33116,37 +33191,37 @@
         <v>30</v>
       </c>
       <c r="AT375">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW375" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0,30</v>
       </c>
       <c r="BE375">
         <v>0</v>
       </c>
       <c r="BF375">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>13</v>
       </c>
       <c r="BG375">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>17</v>
       </c>
       <c r="BH375">
         <v>0</v>
       </c>
       <c r="BQ375">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT375" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0,13,17,0</v>
       </c>
       <c r="CA375">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>14</v>
       </c>
       <c r="CB375">
@@ -33154,11 +33229,11 @@
         <v>16</v>
       </c>
       <c r="CM375">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP375" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>14,16</v>
       </c>
       <c r="CX375">
@@ -33168,11 +33243,11 @@
         <v>0</v>
       </c>
       <c r="DJ375">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM375" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -33276,11 +33351,11 @@
         <v>0</v>
       </c>
       <c r="AT376">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW376" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1,28,1,0</v>
       </c>
       <c r="BE376">
@@ -33288,30 +33363,30 @@
         <v>1</v>
       </c>
       <c r="BF376">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>12</v>
       </c>
       <c r="BG376">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>17</v>
       </c>
       <c r="BH376">
         <v>0</v>
       </c>
       <c r="BQ376">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT376" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1,12,17,0</v>
       </c>
       <c r="CA376">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>14</v>
       </c>
       <c r="CB376">
-        <f t="shared" ref="CB376:CB386" si="104">30-(CA376+CC376)</f>
+        <f t="shared" ref="CB376:CB386" si="105">30-(CA376+CC376)</f>
         <v>15</v>
       </c>
       <c r="CC376">
@@ -33321,11 +33396,11 @@
         <v>0</v>
       </c>
       <c r="CM376">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP376" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>14,15,1,0</v>
       </c>
       <c r="CX376">
@@ -33335,11 +33410,11 @@
         <v>0</v>
       </c>
       <c r="DJ376">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -33443,42 +33518,42 @@
         <v>0</v>
       </c>
       <c r="AT377">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW377" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1,28,1,0</v>
       </c>
       <c r="BE377">
-        <f t="shared" ref="BE377:BE381" si="105">BE375+1</f>
+        <f t="shared" ref="BE377:BE381" si="106">BE375+1</f>
         <v>1</v>
       </c>
       <c r="BF377">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>11</v>
       </c>
       <c r="BG377">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>18</v>
       </c>
       <c r="BH377">
         <v>0</v>
       </c>
       <c r="BQ377">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT377" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1,11,18,0</v>
       </c>
       <c r="CA377">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>13</v>
       </c>
       <c r="CB377">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>16</v>
       </c>
       <c r="CC377">
@@ -33488,11 +33563,11 @@
         <v>0</v>
       </c>
       <c r="CM377">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP377" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>13,16,1,0</v>
       </c>
       <c r="CX377">
@@ -33502,11 +33577,11 @@
         <v>0</v>
       </c>
       <c r="DJ377">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM377" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -33606,42 +33681,42 @@
         <v>0</v>
       </c>
       <c r="AT378">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW378" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2,26,2,0</v>
       </c>
       <c r="BE378">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="BF378">
+        <f t="shared" si="98"/>
+        <v>10</v>
+      </c>
+      <c r="BG378">
+        <f t="shared" si="99"/>
+        <v>18</v>
+      </c>
+      <c r="BH378">
+        <v>0</v>
+      </c>
+      <c r="BQ378">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT378" t="str">
+        <f t="shared" si="91"/>
+        <v>2,10,18,0</v>
+      </c>
+      <c r="CA378">
+        <f t="shared" si="101"/>
+        <v>13</v>
+      </c>
+      <c r="CB378">
         <f t="shared" si="105"/>
-        <v>2</v>
-      </c>
-      <c r="BF378">
-        <f t="shared" si="97"/>
-        <v>10</v>
-      </c>
-      <c r="BG378">
-        <f t="shared" si="98"/>
-        <v>18</v>
-      </c>
-      <c r="BH378">
-        <v>0</v>
-      </c>
-      <c r="BQ378">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT378" t="str">
-        <f t="shared" si="90"/>
-        <v>2,10,18,0</v>
-      </c>
-      <c r="CA378">
-        <f t="shared" si="100"/>
-        <v>13</v>
-      </c>
-      <c r="CB378">
-        <f t="shared" si="104"/>
         <v>15</v>
       </c>
       <c r="CC378">
@@ -33653,11 +33728,11 @@
         <v>0</v>
       </c>
       <c r="CM378">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP378" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>13,15,2,0</v>
       </c>
       <c r="CX378">
@@ -33667,11 +33742,11 @@
         <v>0</v>
       </c>
       <c r="DJ378">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM378" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -33771,58 +33846,58 @@
         <v>0</v>
       </c>
       <c r="AT379">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW379" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2,26,2,0</v>
       </c>
       <c r="BE379">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="BF379">
+        <f t="shared" si="98"/>
+        <v>9</v>
+      </c>
+      <c r="BG379">
+        <f t="shared" si="99"/>
+        <v>19</v>
+      </c>
+      <c r="BH379">
+        <v>0</v>
+      </c>
+      <c r="BQ379">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT379" t="str">
+        <f t="shared" si="91"/>
+        <v>2,9,19,0</v>
+      </c>
+      <c r="CA379">
+        <f t="shared" si="101"/>
+        <v>12</v>
+      </c>
+      <c r="CB379">
         <f t="shared" si="105"/>
+        <v>16</v>
+      </c>
+      <c r="CC379">
+        <f t="shared" ref="CC379:CC382" si="107">CC377+1</f>
         <v>2</v>
       </c>
-      <c r="BF379">
-        <f t="shared" si="97"/>
-        <v>9</v>
-      </c>
-      <c r="BG379">
-        <f t="shared" si="98"/>
-        <v>19</v>
-      </c>
-      <c r="BH379">
-        <v>0</v>
-      </c>
-      <c r="BQ379">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT379" t="str">
-        <f t="shared" si="90"/>
-        <v>2,9,19,0</v>
-      </c>
-      <c r="CA379">
-        <f t="shared" si="100"/>
-        <v>12</v>
-      </c>
-      <c r="CB379">
-        <f t="shared" si="104"/>
-        <v>16</v>
-      </c>
-      <c r="CC379">
-        <f t="shared" ref="CC379:CC382" si="106">CC377+1</f>
-        <v>2</v>
-      </c>
       <c r="CD379">
-        <f t="shared" ref="CD379:CD384" si="107">CD378</f>
+        <f t="shared" ref="CD379:CD384" si="108">CD378</f>
         <v>0</v>
       </c>
       <c r="CM379">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP379" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>12,16,2,0</v>
       </c>
       <c r="CX379">
@@ -33832,11 +33907,11 @@
         <v>0</v>
       </c>
       <c r="DJ379">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM379" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -33932,58 +34007,58 @@
         <v>0</v>
       </c>
       <c r="AT380">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW380" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3,24,3,0</v>
       </c>
       <c r="BE380">
-        <f t="shared" si="105"/>
-        <v>3</v>
-      </c>
-      <c r="BF380">
-        <f t="shared" si="97"/>
-        <v>8</v>
-      </c>
-      <c r="BG380">
-        <f t="shared" si="98"/>
-        <v>19</v>
-      </c>
-      <c r="BH380">
-        <v>0</v>
-      </c>
-      <c r="BQ380">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT380" t="str">
-        <f t="shared" si="90"/>
-        <v>3,8,19,0</v>
-      </c>
-      <c r="CA380">
-        <f t="shared" si="100"/>
-        <v>12</v>
-      </c>
-      <c r="CB380">
-        <f t="shared" si="104"/>
-        <v>15</v>
-      </c>
-      <c r="CC380">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
+      <c r="BF380">
+        <f t="shared" si="98"/>
+        <v>8</v>
+      </c>
+      <c r="BG380">
+        <f t="shared" si="99"/>
+        <v>19</v>
+      </c>
+      <c r="BH380">
+        <v>0</v>
+      </c>
+      <c r="BQ380">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT380" t="str">
+        <f t="shared" si="91"/>
+        <v>3,8,19,0</v>
+      </c>
+      <c r="CA380">
+        <f t="shared" si="101"/>
+        <v>12</v>
+      </c>
+      <c r="CB380">
+        <f t="shared" si="105"/>
+        <v>15</v>
+      </c>
+      <c r="CC380">
+        <f t="shared" si="107"/>
+        <v>3</v>
+      </c>
       <c r="CD380">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="CM380">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP380" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>12,15,3,0</v>
       </c>
       <c r="CX380">
@@ -33993,11 +34068,11 @@
         <v>0</v>
       </c>
       <c r="DJ380">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM380" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34093,58 +34168,58 @@
         <v>0</v>
       </c>
       <c r="AT381">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW381" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3,24,3,0</v>
       </c>
       <c r="BE381">
-        <f t="shared" si="105"/>
-        <v>3</v>
-      </c>
-      <c r="BF381">
-        <f t="shared" si="97"/>
-        <v>7</v>
-      </c>
-      <c r="BG381">
-        <f t="shared" si="98"/>
-        <v>20</v>
-      </c>
-      <c r="BH381">
-        <v>0</v>
-      </c>
-      <c r="BQ381">
-        <f t="shared" si="89"/>
-        <v>30</v>
-      </c>
-      <c r="BT381" t="str">
-        <f t="shared" si="90"/>
-        <v>3,7,20,0</v>
-      </c>
-      <c r="CA381">
-        <f t="shared" si="100"/>
-        <v>11</v>
-      </c>
-      <c r="CB381">
-        <f t="shared" si="104"/>
-        <v>16</v>
-      </c>
-      <c r="CC381">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
+      <c r="BF381">
+        <f t="shared" si="98"/>
+        <v>7</v>
+      </c>
+      <c r="BG381">
+        <f t="shared" si="99"/>
+        <v>20</v>
+      </c>
+      <c r="BH381">
+        <v>0</v>
+      </c>
+      <c r="BQ381">
+        <f t="shared" si="90"/>
+        <v>30</v>
+      </c>
+      <c r="BT381" t="str">
+        <f t="shared" si="91"/>
+        <v>3,7,20,0</v>
+      </c>
+      <c r="CA381">
+        <f t="shared" si="101"/>
+        <v>11</v>
+      </c>
+      <c r="CB381">
+        <f t="shared" si="105"/>
+        <v>16</v>
+      </c>
+      <c r="CC381">
+        <f t="shared" si="107"/>
+        <v>3</v>
+      </c>
       <c r="CD381">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="CM381">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP381" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>11,16,3,0</v>
       </c>
       <c r="CX381">
@@ -34154,11 +34229,11 @@
         <v>0</v>
       </c>
       <c r="DJ381">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM381" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34250,11 +34325,11 @@
         <v>0</v>
       </c>
       <c r="AT382">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW382" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4,22,4,0</v>
       </c>
       <c r="BE382">
@@ -34262,46 +34337,46 @@
         <v>4</v>
       </c>
       <c r="BF382">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6</v>
       </c>
       <c r="BG382">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>20</v>
       </c>
       <c r="BH382">
         <v>0</v>
       </c>
       <c r="BQ382">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT382" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4,6,20,0</v>
       </c>
       <c r="CA382">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>11</v>
       </c>
       <c r="CB382">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>15</v>
       </c>
       <c r="CC382">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>4</v>
       </c>
       <c r="CD382">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="CM382">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP382" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>11,15,4,0</v>
       </c>
       <c r="CX382">
@@ -34311,11 +34386,11 @@
         <v>0</v>
       </c>
       <c r="DJ382">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM382" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34403,57 +34478,57 @@
         <v>0</v>
       </c>
       <c r="AT383">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW383" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5,20,5,0</v>
       </c>
       <c r="BE383">
-        <f t="shared" ref="BE383" si="108">BE382+1</f>
+        <f t="shared" ref="BE383" si="109">BE382+1</f>
         <v>5</v>
       </c>
       <c r="BF383">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>4</v>
       </c>
       <c r="BG383">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>21</v>
       </c>
       <c r="BH383">
         <v>0</v>
       </c>
       <c r="BQ383">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT383" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>5,4,21,0</v>
       </c>
       <c r="CA383">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>10</v>
       </c>
       <c r="CB383">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>15</v>
       </c>
       <c r="CC383">
         <v>5</v>
       </c>
       <c r="CD383">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="CM383">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP383" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10,15,5,0</v>
       </c>
       <c r="CX383">
@@ -34463,11 +34538,11 @@
         <v>0</v>
       </c>
       <c r="DJ383">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM383" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34547,56 +34622,56 @@
         <v>0</v>
       </c>
       <c r="AT384">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW384" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7,16,7,0</v>
       </c>
       <c r="BE384">
         <v>8</v>
       </c>
       <c r="BF384">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="BG384">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>21</v>
       </c>
       <c r="BH384">
         <v>0</v>
       </c>
       <c r="BQ384">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT384" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8,1,21,0</v>
       </c>
       <c r="CA384">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>10</v>
       </c>
       <c r="CB384">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>13</v>
       </c>
       <c r="CC384">
         <v>7</v>
       </c>
       <c r="CD384">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="CM384">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP384" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10,13,7,0</v>
       </c>
       <c r="CX384">
@@ -34606,11 +34681,11 @@
         <v>0</v>
       </c>
       <c r="DJ384">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM384" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34682,11 +34757,11 @@
         <v>0</v>
       </c>
       <c r="AT385">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW385" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9,12,9,0</v>
       </c>
       <c r="BE385">
@@ -34696,34 +34771,34 @@
         <v>0</v>
       </c>
       <c r="BQ385">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT385" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>30,0</v>
       </c>
       <c r="CA385">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>9</v>
       </c>
       <c r="CB385">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>12</v>
       </c>
       <c r="CC385">
         <v>9</v>
       </c>
       <c r="CD385">
-        <f t="shared" ref="CD385" si="109">CD384</f>
+        <f t="shared" ref="CD385" si="110">CD384</f>
         <v>0</v>
       </c>
       <c r="CM385">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP385" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>9,12,9,0</v>
       </c>
       <c r="CX385">
@@ -34733,11 +34808,11 @@
         <v>0</v>
       </c>
       <c r="DJ385">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM385" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34801,11 +34876,11 @@
         <v>0</v>
       </c>
       <c r="AT386">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="AW386" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>11,8,11,0</v>
       </c>
       <c r="BE386">
@@ -34815,18 +34890,18 @@
         <v>0</v>
       </c>
       <c r="BQ386">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="BT386" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>30,0</v>
       </c>
       <c r="CA386">
         <v>11</v>
       </c>
       <c r="CB386">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>8</v>
       </c>
       <c r="CC386">
@@ -34836,11 +34911,11 @@
         <v>0</v>
       </c>
       <c r="CM386">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="CP386" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>11,8,11,0</v>
       </c>
       <c r="CX386">
@@ -34850,11 +34925,11 @@
         <v>0</v>
       </c>
       <c r="DJ386">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30</v>
       </c>
       <c r="DM386" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>30,0</v>
       </c>
     </row>
@@ -34990,11 +35065,11 @@
         <v>0</v>
       </c>
       <c r="AT390">
-        <f t="shared" ref="AT390:AT418" si="110">SUM(AH390:AR390)</f>
+        <f t="shared" ref="AT390:AT418" si="111">SUM(AH390:AR390)</f>
         <v>30</v>
       </c>
       <c r="AW390" t="str">
-        <f t="shared" ref="AW390:AW418" si="111">_xlfn.TEXTJOIN(",",TRUE,AH390:AS390)</f>
+        <f t="shared" ref="AW390:AW418" si="112">_xlfn.TEXTJOIN(",",TRUE,AH390:AS390)</f>
         <v>14,1,1,1,13,0</v>
       </c>
     </row>
@@ -35058,11 +35133,11 @@
         <v>0</v>
       </c>
       <c r="AT391">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW391" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>13,1,3,1,12,0</v>
       </c>
     </row>
@@ -35102,35 +35177,35 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
       <c r="AH392">
-        <f t="shared" ref="AH392:AH402" si="112">AH391-1</f>
+        <f t="shared" ref="AH392:AH402" si="113">AH391-1</f>
         <v>12</v>
       </c>
       <c r="AI392">
-        <f t="shared" ref="AI392:AI402" si="113">AI391</f>
+        <f t="shared" ref="AI392:AI401" si="114">AI391</f>
         <v>1</v>
       </c>
       <c r="AJ392">
-        <f t="shared" ref="AJ392:AJ402" si="114">AJ391+2</f>
+        <f t="shared" ref="AJ392:AJ401" si="115">AJ391+2</f>
         <v>5</v>
       </c>
       <c r="AK392">
-        <f t="shared" ref="AK392:AK402" si="115">AK391</f>
+        <f t="shared" ref="AK392:AK401" si="116">AK391</f>
         <v>1</v>
       </c>
       <c r="AL392">
-        <f t="shared" ref="AL392:AL402" si="116">AL391-1</f>
+        <f t="shared" ref="AL392:AL402" si="117">AL391-1</f>
         <v>11</v>
       </c>
       <c r="AM392">
-        <f t="shared" ref="AM392:AM402" si="117">AM391</f>
+        <f t="shared" ref="AM392:AM402" si="118">AM391</f>
         <v>0</v>
       </c>
       <c r="AT392">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW392" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>12,1,5,1,11,0</v>
       </c>
     </row>
@@ -35170,35 +35245,35 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
       <c r="AH393">
+        <f t="shared" si="113"/>
+        <v>11</v>
+      </c>
+      <c r="AI393">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ393">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
+      <c r="AK393">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL393">
+        <f t="shared" si="117"/>
+        <v>10</v>
+      </c>
+      <c r="AM393">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT393">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW393" t="str">
         <f t="shared" si="112"/>
-        <v>11</v>
-      </c>
-      <c r="AI393">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ393">
-        <f t="shared" si="114"/>
-        <v>7</v>
-      </c>
-      <c r="AK393">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL393">
-        <f t="shared" si="116"/>
-        <v>10</v>
-      </c>
-      <c r="AM393">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT393">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW393" t="str">
-        <f t="shared" si="111"/>
         <v>11,1,7,1,10,0</v>
       </c>
     </row>
@@ -35238,35 +35313,35 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
       <c r="AH394">
+        <f t="shared" si="113"/>
+        <v>10</v>
+      </c>
+      <c r="AI394">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ394">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="AK394">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL394">
+        <f t="shared" si="117"/>
+        <v>9</v>
+      </c>
+      <c r="AM394">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT394">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW394" t="str">
         <f t="shared" si="112"/>
-        <v>10</v>
-      </c>
-      <c r="AI394">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ394">
-        <f t="shared" si="114"/>
-        <v>9</v>
-      </c>
-      <c r="AK394">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL394">
-        <f t="shared" si="116"/>
-        <v>9</v>
-      </c>
-      <c r="AM394">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT394">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW394" t="str">
-        <f t="shared" si="111"/>
         <v>10,1,9,1,9,0</v>
       </c>
     </row>
@@ -35306,35 +35381,35 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
       <c r="AH395">
+        <f t="shared" si="113"/>
+        <v>9</v>
+      </c>
+      <c r="AI395">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ395">
+        <f t="shared" si="115"/>
+        <v>11</v>
+      </c>
+      <c r="AK395">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL395">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
+      <c r="AM395">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT395">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW395" t="str">
         <f t="shared" si="112"/>
-        <v>9</v>
-      </c>
-      <c r="AI395">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ395">
-        <f t="shared" si="114"/>
-        <v>11</v>
-      </c>
-      <c r="AK395">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL395">
-        <f t="shared" si="116"/>
-        <v>8</v>
-      </c>
-      <c r="AM395">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT395">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW395" t="str">
-        <f t="shared" si="111"/>
         <v>9,1,11,1,8,0</v>
       </c>
     </row>
@@ -35374,35 +35449,35 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
       <c r="AH396">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="AI396">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ396">
+        <f t="shared" si="115"/>
+        <v>13</v>
+      </c>
+      <c r="AK396">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL396">
+        <f t="shared" si="117"/>
+        <v>7</v>
+      </c>
+      <c r="AM396">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT396">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW396" t="str">
         <f t="shared" si="112"/>
-        <v>8</v>
-      </c>
-      <c r="AI396">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ396">
-        <f t="shared" si="114"/>
-        <v>13</v>
-      </c>
-      <c r="AK396">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL396">
-        <f t="shared" si="116"/>
-        <v>7</v>
-      </c>
-      <c r="AM396">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT396">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW396" t="str">
-        <f t="shared" si="111"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -35442,35 +35517,35 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
       <c r="AH397">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
+      <c r="AI397">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ397">
+        <f t="shared" si="115"/>
+        <v>15</v>
+      </c>
+      <c r="AK397">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL397">
+        <f t="shared" si="117"/>
+        <v>6</v>
+      </c>
+      <c r="AM397">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT397">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW397" t="str">
         <f t="shared" si="112"/>
-        <v>7</v>
-      </c>
-      <c r="AI397">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ397">
-        <f t="shared" si="114"/>
-        <v>15</v>
-      </c>
-      <c r="AK397">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL397">
-        <f t="shared" si="116"/>
-        <v>6</v>
-      </c>
-      <c r="AM397">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT397">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW397" t="str">
-        <f t="shared" si="111"/>
         <v>7,1,15,1,6,0</v>
       </c>
     </row>
@@ -35510,35 +35585,35 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
       <c r="AH398">
+        <f t="shared" si="113"/>
+        <v>6</v>
+      </c>
+      <c r="AI398">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ398">
+        <f t="shared" si="115"/>
+        <v>17</v>
+      </c>
+      <c r="AK398">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL398">
+        <f t="shared" si="117"/>
+        <v>5</v>
+      </c>
+      <c r="AM398">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT398">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW398" t="str">
         <f t="shared" si="112"/>
-        <v>6</v>
-      </c>
-      <c r="AI398">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ398">
-        <f t="shared" si="114"/>
-        <v>17</v>
-      </c>
-      <c r="AK398">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL398">
-        <f t="shared" si="116"/>
-        <v>5</v>
-      </c>
-      <c r="AM398">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT398">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW398" t="str">
-        <f t="shared" si="111"/>
         <v>6,1,17,1,5,0</v>
       </c>
     </row>
@@ -35578,35 +35653,35 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
       <c r="AH399">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="AI399">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ399">
+        <f t="shared" si="115"/>
+        <v>19</v>
+      </c>
+      <c r="AK399">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL399">
+        <f t="shared" si="117"/>
+        <v>4</v>
+      </c>
+      <c r="AM399">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT399">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW399" t="str">
         <f t="shared" si="112"/>
-        <v>5</v>
-      </c>
-      <c r="AI399">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ399">
-        <f t="shared" si="114"/>
-        <v>19</v>
-      </c>
-      <c r="AK399">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL399">
-        <f t="shared" si="116"/>
-        <v>4</v>
-      </c>
-      <c r="AM399">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT399">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW399" t="str">
-        <f t="shared" si="111"/>
         <v>5,1,19,1,4,0</v>
       </c>
     </row>
@@ -35646,35 +35721,35 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
       <c r="AH400">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="AI400">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ400">
+        <f t="shared" si="115"/>
+        <v>21</v>
+      </c>
+      <c r="AK400">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL400">
+        <f t="shared" si="117"/>
+        <v>3</v>
+      </c>
+      <c r="AM400">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT400">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW400" t="str">
         <f t="shared" si="112"/>
-        <v>4</v>
-      </c>
-      <c r="AI400">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ400">
-        <f t="shared" si="114"/>
-        <v>21</v>
-      </c>
-      <c r="AK400">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL400">
-        <f t="shared" si="116"/>
-        <v>3</v>
-      </c>
-      <c r="AM400">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT400">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW400" t="str">
-        <f t="shared" si="111"/>
         <v>4,1,21,1,3,0</v>
       </c>
     </row>
@@ -35714,35 +35789,35 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
       <c r="AH401">
+        <f t="shared" si="113"/>
+        <v>3</v>
+      </c>
+      <c r="AI401">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AJ401">
+        <f t="shared" si="115"/>
+        <v>23</v>
+      </c>
+      <c r="AK401">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AL401">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="AM401">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AT401">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="AW401" t="str">
         <f t="shared" si="112"/>
-        <v>3</v>
-      </c>
-      <c r="AI401">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="AJ401">
-        <f t="shared" si="114"/>
-        <v>23</v>
-      </c>
-      <c r="AK401">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="AL401">
-        <f t="shared" si="116"/>
-        <v>2</v>
-      </c>
-      <c r="AM401">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AT401">
-        <f t="shared" si="110"/>
-        <v>30</v>
-      </c>
-      <c r="AW401" t="str">
-        <f t="shared" si="111"/>
         <v>3,1,23,1,2,0</v>
       </c>
     </row>
@@ -35806,7 +35881,7 @@
       </c>
       <c r="AE402" s="1"/>
       <c r="AH402">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2</v>
       </c>
       <c r="AI402">
@@ -35819,19 +35894,19 @@
         <v>7</v>
       </c>
       <c r="AL402">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
       <c r="AM402">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AT402">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW402" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2,7,13,7,1,0</v>
       </c>
     </row>
@@ -35889,11 +35964,11 @@
         <v>0</v>
       </c>
       <c r="AT403">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW403" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -35937,31 +36012,31 @@
         <v>8</v>
       </c>
       <c r="AI404">
-        <f t="shared" ref="AI404:AM404" si="118">AI403</f>
+        <f t="shared" ref="AI404:AM404" si="119">AI403</f>
         <v>1</v>
       </c>
       <c r="AJ404">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>13</v>
       </c>
       <c r="AK404">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="AL404">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7</v>
       </c>
       <c r="AM404">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AT404">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW404" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36001,35 +36076,35 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
       <c r="AH405">
-        <f t="shared" ref="AH405:AH410" si="119">AH404</f>
+        <f t="shared" ref="AH405:AH410" si="120">AH404</f>
         <v>8</v>
       </c>
       <c r="AI405">
-        <f t="shared" ref="AI405:AI410" si="120">AI404</f>
+        <f t="shared" ref="AI405:AI410" si="121">AI404</f>
         <v>1</v>
       </c>
       <c r="AJ405">
-        <f t="shared" ref="AJ405:AJ410" si="121">AJ404</f>
+        <f t="shared" ref="AJ405:AJ410" si="122">AJ404</f>
         <v>13</v>
       </c>
       <c r="AK405">
-        <f t="shared" ref="AK405:AK410" si="122">AK404</f>
+        <f t="shared" ref="AK405:AK410" si="123">AK404</f>
         <v>1</v>
       </c>
       <c r="AL405">
-        <f t="shared" ref="AL405:AL410" si="123">AL404</f>
+        <f t="shared" ref="AL405:AL410" si="124">AL404</f>
         <v>7</v>
       </c>
       <c r="AM405">
-        <f t="shared" ref="AM405:AM410" si="124">AM404</f>
+        <f t="shared" ref="AM405:AM410" si="125">AM404</f>
         <v>0</v>
       </c>
       <c r="AT405">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW405" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36069,35 +36144,35 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
       <c r="AH406">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8</v>
       </c>
       <c r="AI406">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="AJ406">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>13</v>
       </c>
       <c r="AK406">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AL406">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>7</v>
       </c>
       <c r="AM406">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AT406">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW406" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36137,35 +36212,35 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
       <c r="AH407">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8</v>
       </c>
       <c r="AI407">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="AJ407">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>13</v>
       </c>
       <c r="AK407">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AL407">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>7</v>
       </c>
       <c r="AM407">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AT407">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW407" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36205,35 +36280,35 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
       <c r="AH408">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8</v>
       </c>
       <c r="AI408">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="AJ408">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>13</v>
       </c>
       <c r="AK408">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AL408">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>7</v>
       </c>
       <c r="AM408">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AT408">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW408" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36273,35 +36348,35 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
       <c r="AH409">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8</v>
       </c>
       <c r="AI409">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="AJ409">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>13</v>
       </c>
       <c r="AK409">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AL409">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>7</v>
       </c>
       <c r="AM409">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AT409">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW409" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36341,35 +36416,35 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
       <c r="AH410">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8</v>
       </c>
       <c r="AI410">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="AJ410">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>13</v>
       </c>
       <c r="AK410">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AL410">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>7</v>
       </c>
       <c r="AM410">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AT410">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW410" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,1,13,1,7,0</v>
       </c>
     </row>
@@ -36447,11 +36522,11 @@
         <v>0</v>
       </c>
       <c r="AT411">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW411" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,15,7,0</v>
       </c>
     </row>
@@ -36493,11 +36568,11 @@
         <v>0</v>
       </c>
       <c r="AT412">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW412" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>30,0</v>
       </c>
     </row>
@@ -36539,11 +36614,11 @@
         <v>0</v>
       </c>
       <c r="AT413">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW413" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>30,0</v>
       </c>
     </row>
@@ -36613,23 +36688,23 @@
         <v>8</v>
       </c>
       <c r="AI414">
-        <f t="shared" ref="AI414:AK414" si="125">AI411</f>
+        <f t="shared" ref="AI414:AK414" si="126">AI411</f>
         <v>15</v>
       </c>
       <c r="AJ414">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>7</v>
       </c>
       <c r="AK414">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AT414">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW414" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,15,7,0</v>
       </c>
     </row>
@@ -36665,19 +36740,19 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
       <c r="AH415">
-        <f t="shared" ref="AH415:AI415" si="126">AH412</f>
+        <f t="shared" ref="AH415:AI415" si="127">AH412</f>
         <v>30</v>
       </c>
       <c r="AI415">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AT415">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW415" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>30,0</v>
       </c>
     </row>
@@ -36713,19 +36788,19 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
       <c r="AH416">
-        <f t="shared" ref="AH416:AI416" si="127">AH413</f>
+        <f t="shared" ref="AH416:AI416" si="128">AH413</f>
         <v>30</v>
       </c>
       <c r="AI416">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AT416">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW416" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>30,0</v>
       </c>
     </row>
@@ -36791,27 +36866,27 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
       <c r="AH417">
-        <f t="shared" ref="AH417:AK417" si="128">AH414</f>
+        <f t="shared" ref="AH417:AK417" si="129">AH414</f>
         <v>8</v>
       </c>
       <c r="AI417">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>15</v>
       </c>
       <c r="AJ417">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>7</v>
       </c>
       <c r="AK417">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AT417">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW417" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>8,15,7,0</v>
       </c>
     </row>
@@ -36847,24 +36922,24 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
       <c r="AH418">
-        <f t="shared" ref="AH418:AI418" si="129">AH415</f>
+        <f t="shared" ref="AH418:AI418" si="130">AH415</f>
         <v>30</v>
       </c>
       <c r="AI418">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AT418">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
       <c r="AW418" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>30,0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 A194:A214 AF194:AF214 A215:AF215 A216:B216 C216:AF217 A217 A218:AF222 F222:X223 A223:J223 L223:AF223 A224:AF288 AH243:AM243 AH244:AK246 AL245:AM245 AI246:AM246 AJ247:AK247 AH247:AH255 AI248:AK252 AL251:AM251 AI253:AJ253 AI254:AI255 A289:B289 AF289:AF321 A290:A321 B291:AE319 Q321 AH347:AI347 A418:AF1048576 A322:AF404 A405:I417 Y405:AF417 B389:AE418">
+  <conditionalFormatting sqref="A1:AF97 AH14:AI14 AH31:AI31 G98:AF102 A98:E127 G103:T103 Z103:AF110 G104:X111 X111:AF111 G112:AF127 A128:AF143 A144:V159 AB144:AF159 A160:AF193 A194:A214 AF194:AF214 A215:AF215 A216:B216 C216:AF217 A217 A218:AF222 F222:X223 A223:J223 L223:AF223 A224:AF288 AH243:AM243 AH244:AK246 AL245:AM245 AI246:AM246 AJ247:AK247 AH247:AH255 AI248:AK252 AL251:AM251 AI253:AJ253 AI254:AI255 A289:B289 AF289:AF321 A290:A321 B291:AE319 Q321 A322:AF404 AH347:AI347 B389:AE418 A405:I417 Y405:AF417 A418:AF1048576">
     <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
